--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" activeTab="1"/>
+    <workbookView windowWidth="9390" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
   <si>
     <t>itemClass</t>
   </si>
@@ -38,16 +38,40 @@
     <t>editItemClass</t>
   </si>
   <si>
-    <t>FOOD</t>
-  </si>
-  <si>
-    <t>DESSERT</t>
+    <t>MAIN COURSE</t>
+  </si>
+  <si>
+    <t>DESSERTS</t>
+  </si>
+  <si>
+    <t>BEVERAGES</t>
+  </si>
+  <si>
+    <t>KIDS' MEAL</t>
   </si>
   <si>
     <t>BREAKFAST</t>
   </si>
   <si>
-    <t>BEVERAGES</t>
+    <t>APPETIZER</t>
+  </si>
+  <si>
+    <t>SIDES</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
   <si>
     <t>itemSubclass</t>
@@ -1063,15 +1087,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="6" width="20.2857142857143" customWidth="1"/>
+    <col min="1" max="2" width="20.2857142857143" customWidth="1"/>
+    <col min="3" max="3" width="41.1428571428571" customWidth="1"/>
+    <col min="4" max="6" width="20.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1100,6 +1126,44 @@
     <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1113,8 +1177,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1124,46 +1188,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1185,30 +1249,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1233,67 +1297,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9390" windowHeight="7500"/>
+    <workbookView windowWidth="9390" windowHeight="7500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
     <sheet name="master-itemsublass-data" sheetId="2" r:id="rId2"/>
     <sheet name="master-ordertype-data" sheetId="3" r:id="rId3"/>
     <sheet name="master-item-data" sheetId="4" r:id="rId4"/>
+    <sheet name="itemclass-selector" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>itemClass</t>
   </si>
@@ -153,6 +154,48 @@
   </si>
   <si>
     <t>Hot Chocolate</t>
+  </si>
+  <si>
+    <t>itemClassSelector</t>
+  </si>
+  <si>
+    <t>assertion</t>
+  </si>
+  <si>
+    <t>:nth-child(2) &gt; .sc-guDLey</t>
+  </si>
+  <si>
+    <t>not.be.disabled</t>
+  </si>
+  <si>
+    <t>.sc-eDLKkx &gt; .anticon &gt; svg</t>
+  </si>
+  <si>
+    <t>[data-testid="ViewColumnIcon"]</t>
+  </si>
+  <si>
+    <t>[data-testid="SearchIcon"]</t>
+  </si>
+  <si>
+    <t>[data-testid="FilterListIcon"]</t>
+  </si>
+  <si>
+    <t>[data-testid="DensityMediumIcon"]</t>
+  </si>
+  <si>
+    <t>[data-testid="FullscreenIcon"]</t>
+  </si>
+  <si>
+    <t>[data-testid="KeyboardArrowLeftIcon"]</t>
+  </si>
+  <si>
+    <t>not.be.enabled</t>
+  </si>
+  <si>
+    <t>[data-testid="KeyboardArrowRightIcon"]</t>
+  </si>
+  <si>
+    <t>[id=":r9:"]</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1132,7 @@
   <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1364,4 +1407,113 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="33.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9390" windowHeight="7500" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="19635" windowHeight="7500" firstSheet="4" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
     <sheet name="master-itemsublass-data" sheetId="2" r:id="rId2"/>
     <sheet name="master-ordertype-data" sheetId="3" r:id="rId3"/>
     <sheet name="master-item-data" sheetId="4" r:id="rId4"/>
-    <sheet name="itemclass-selector" sheetId="5" r:id="rId5"/>
+    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId5"/>
+    <sheet name="itemclass-add-el" sheetId="6" r:id="rId6"/>
+    <sheet name="itemclass-edit-el" sheetId="8" r:id="rId7"/>
+    <sheet name="data-to-delete" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
   <si>
     <t>itemClass</t>
   </si>
@@ -48,31 +51,28 @@
     <t>BEVERAGES</t>
   </si>
   <si>
-    <t>KIDS' MEAL</t>
-  </si>
-  <si>
     <t>BREAKFAST</t>
   </si>
   <si>
     <t>APPETIZER</t>
   </si>
   <si>
-    <t>SIDES</t>
-  </si>
-  <si>
-    <t>&amp;</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>SIDE DISH</t>
+  </si>
+  <si>
+    <t>% &amp; ( ) / - .</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>BURGERS</t>
+  </si>
+  <si>
+    <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sarap</t>
+  </si>
+  <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
   </si>
   <si>
     <t>itemSubclass</t>
@@ -156,46 +156,163 @@
     <t>Hot Chocolate</t>
   </si>
   <si>
-    <t>itemClassSelector</t>
+    <t>selectorName</t>
+  </si>
+  <si>
+    <t>sel</t>
   </si>
   <si>
     <t>assertion</t>
   </si>
   <si>
+    <t>customErrorMsg</t>
+  </si>
+  <si>
+    <t>Print button</t>
+  </si>
+  <si>
     <t>:nth-child(2) &gt; .sc-guDLey</t>
   </si>
   <si>
     <t>not.be.disabled</t>
   </si>
   <si>
+    <t>"Print" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Add button</t>
+  </si>
+  <si>
     <t>.sc-eDLKkx &gt; .anticon &gt; svg</t>
   </si>
   <si>
+    <t>"Add" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide columns button</t>
+  </si>
+  <si>
     <t>[data-testid="ViewColumnIcon"]</t>
   </si>
   <si>
+    <t>"Show/Hide Columns" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide search button</t>
+  </si>
+  <si>
     <t>[data-testid="SearchIcon"]</t>
   </si>
   <si>
+    <t>"Show/Hide Search" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide Filters button</t>
+  </si>
+  <si>
     <t>[data-testid="FilterListIcon"]</t>
   </si>
   <si>
+    <t>"Show/Hide Filters" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Toggle Density button</t>
+  </si>
+  <si>
     <t>[data-testid="DensityMediumIcon"]</t>
   </si>
   <si>
+    <t>"Toggle Density" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Fullscreen button</t>
+  </si>
+  <si>
     <t>[data-testid="FullscreenIcon"]</t>
   </si>
   <si>
+    <t>"Fullscreen" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Arrow Left button</t>
+  </si>
+  <si>
     <t>[data-testid="KeyboardArrowLeftIcon"]</t>
   </si>
   <si>
     <t>not.be.enabled</t>
   </si>
   <si>
+    <t>"Arrow Left" button  should be not be clickable when no data on the table</t>
+  </si>
+  <si>
+    <t>Arrow Right button</t>
+  </si>
+  <si>
     <t>[data-testid="KeyboardArrowRightIcon"]</t>
   </si>
   <si>
+    <t>Rows per page button</t>
+  </si>
+  <si>
     <t>[id=":r9:"]</t>
+  </si>
+  <si>
+    <t>"Rows per page" button  should be clickable</t>
+  </si>
+  <si>
+    <t>expectedText</t>
+  </si>
+  <si>
+    <t>button.border-blue-500</t>
+  </si>
+  <si>
+    <t>contain.text</t>
+  </si>
+  <si>
+    <t>Add Data</t>
+  </si>
+  <si>
+    <t>Should contain text "Add Data"</t>
+  </si>
+  <si>
+    <t>button.border-red-500</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>#itmcladsc</t>
+  </si>
+  <si>
+    <t>be.enabled</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>"Add Data" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>"Cancel" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Update Data</t>
+  </si>
+  <si>
+    <t>Should contain text "Update Data"</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>"Update Data" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>dataToDelete</t>
   </si>
 </sst>
 </file>
@@ -1130,16 +1247,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="20.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="41.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="25.1428571428571" customWidth="1"/>
     <col min="4" max="6" width="20.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1171,16 +1288,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1202,11 +1319,6 @@
     <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1220,8 +1332,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1231,46 +1343,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1292,30 +1404,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1442,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1340,67 +1452,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1412,104 +1524,401 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="33.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>44</v>
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" firstSheet="4" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
-    <sheet name="master-itemsublass-data" sheetId="2" r:id="rId2"/>
-    <sheet name="master-ordertype-data" sheetId="3" r:id="rId3"/>
-    <sheet name="master-item-data" sheetId="4" r:id="rId4"/>
-    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId5"/>
-    <sheet name="itemclass-add-el" sheetId="6" r:id="rId6"/>
-    <sheet name="itemclass-edit-el" sheetId="8" r:id="rId7"/>
-    <sheet name="data-to-delete" sheetId="9" r:id="rId8"/>
+    <sheet name="itemclass-edit-el" sheetId="8" r:id="rId2"/>
+    <sheet name="itemsubclass-edit-el" sheetId="13" r:id="rId3"/>
+    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId4"/>
+    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId5"/>
+    <sheet name="master-item-data" sheetId="4" r:id="rId6"/>
+    <sheet name="master-ordertype-data" sheetId="3" r:id="rId7"/>
+    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId8"/>
+    <sheet name="itemclass-add-el" sheetId="6" r:id="rId9"/>
+    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId10"/>
+    <sheet name="data-to-delete" sheetId="9" r:id="rId11"/>
+    <sheet name="delete-confirm-el" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="115">
   <si>
     <t>itemClass</t>
   </si>
@@ -75,27 +79,261 @@
     <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
   </si>
   <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>assertion</t>
+  </si>
+  <si>
+    <t>expectedText</t>
+  </si>
+  <si>
+    <t>customErrorMsg</t>
+  </si>
+  <si>
+    <t>button.border-blue-500</t>
+  </si>
+  <si>
+    <t>contain.text</t>
+  </si>
+  <si>
+    <t>Update Data</t>
+  </si>
+  <si>
+    <t>Should contain text "Update Data"</t>
+  </si>
+  <si>
+    <t>button.border-red-500</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>#itmcladsc</t>
+  </si>
+  <si>
+    <t>be.enabled</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>"Update Data" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>"Cancel" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Update Data"</t>
+  </si>
+  <si>
+    <t>#itemsubclassdsc</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itmclacde</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to select data.</t>
+  </si>
+  <si>
+    <t>"Add Data" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>selectorName</t>
+  </si>
+  <si>
+    <t>Print button</t>
+  </si>
+  <si>
+    <t>:nth-child(2) &gt; .sc-guDLey</t>
+  </si>
+  <si>
+    <t>not.be.disabled</t>
+  </si>
+  <si>
+    <t>"Print" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Add button</t>
+  </si>
+  <si>
+    <t>.sc-eDLKkx &gt; .anticon &gt; svg</t>
+  </si>
+  <si>
+    <t>"Add" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide columns button</t>
+  </si>
+  <si>
+    <t>[data-testid="ViewColumnIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Columns" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide search button</t>
+  </si>
+  <si>
+    <t>[data-testid="SearchIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Search" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide Filters button</t>
+  </si>
+  <si>
+    <t>[data-testid="FilterListIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Filters" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Toggle Density button</t>
+  </si>
+  <si>
+    <t>[data-testid="DensityMediumIcon"]</t>
+  </si>
+  <si>
+    <t>"Toggle Density" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Fullscreen button</t>
+  </si>
+  <si>
+    <t>[data-testid="FullscreenIcon"]</t>
+  </si>
+  <si>
+    <t>"Fullscreen" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Arrow Left button</t>
+  </si>
+  <si>
+    <t>[data-testid="KeyboardArrowLeftIcon"]</t>
+  </si>
+  <si>
+    <t>not.be.enabled</t>
+  </si>
+  <si>
+    <t>"Arrow Left" button  should be not be clickable when no data on the table</t>
+  </si>
+  <si>
+    <t>Arrow Right button</t>
+  </si>
+  <si>
+    <t>[data-testid="KeyboardArrowRightIcon"]</t>
+  </si>
+  <si>
+    <t>Rows per page button</t>
+  </si>
+  <si>
+    <t>[id=":r9:"]</t>
+  </si>
+  <si>
+    <t>"Rows per page" button  should be clickable</t>
+  </si>
+  <si>
     <t>itemSubclass</t>
   </si>
   <si>
     <t>editItemSubclass</t>
   </si>
   <si>
+    <t>Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Breakfast Meal</t>
+  </si>
+  <si>
+    <t>Milkshakes</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Burgers</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>Rice Meals</t>
+  </si>
+  <si>
+    <t>Pies</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
     <t>Soft Drinks</t>
   </si>
   <si>
-    <t>Beverages</t>
-  </si>
-  <si>
-    <t>Juices &amp; Teas</t>
-  </si>
-  <si>
-    <t>Milkshakes</t>
-  </si>
-  <si>
     <t>Coffee</t>
   </si>
   <si>
+    <t>Juices</t>
+  </si>
+  <si>
+    <t>Fries</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>Coke Zero</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Soda Float</t>
+  </si>
+  <si>
+    <t>Pineapple Juice</t>
+  </si>
+  <si>
+    <t>Iced Tea</t>
+  </si>
+  <si>
+    <t>Iced Mocha</t>
+  </si>
+  <si>
+    <t>Iced Mocha Float</t>
+  </si>
+  <si>
+    <t>Iced Latte</t>
+  </si>
+  <si>
+    <t>Hot Fresh Brew</t>
+  </si>
+  <si>
+    <t>Hot Chocolate</t>
+  </si>
+  <si>
     <t>dineType</t>
   </si>
   <si>
@@ -117,202 +355,34 @@
     <t>GRAB</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>Coke</t>
-  </si>
-  <si>
-    <t>Coke Zero</t>
-  </si>
-  <si>
-    <t>Royal</t>
-  </si>
-  <si>
-    <t>Sprite</t>
-  </si>
-  <si>
-    <t>Soda Float</t>
-  </si>
-  <si>
-    <t>Pineapple Juice</t>
-  </si>
-  <si>
-    <t>Iced Tea</t>
-  </si>
-  <si>
-    <t>Iced Mocha</t>
-  </si>
-  <si>
-    <t>Iced Mocha Float</t>
-  </si>
-  <si>
-    <t>Iced Latte</t>
-  </si>
-  <si>
-    <t>Hot Fresh Brew</t>
-  </si>
-  <si>
-    <t>Hot Chocolate</t>
-  </si>
-  <si>
-    <t>selectorName</t>
-  </si>
-  <si>
-    <t>sel</t>
-  </si>
-  <si>
-    <t>assertion</t>
-  </si>
-  <si>
-    <t>customErrorMsg</t>
-  </si>
-  <si>
-    <t>Print button</t>
-  </si>
-  <si>
-    <t>:nth-child(2) &gt; .sc-guDLey</t>
-  </si>
-  <si>
-    <t>not.be.disabled</t>
-  </si>
-  <si>
-    <t>"Print" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Add button</t>
-  </si>
-  <si>
-    <t>.sc-eDLKkx &gt; .anticon &gt; svg</t>
-  </si>
-  <si>
-    <t>"Add" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide columns button</t>
-  </si>
-  <si>
-    <t>[data-testid="ViewColumnIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Columns" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide search button</t>
-  </si>
-  <si>
-    <t>[data-testid="SearchIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Search" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide Filters button</t>
-  </si>
-  <si>
-    <t>[data-testid="FilterListIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Filters" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Toggle Density button</t>
-  </si>
-  <si>
-    <t>[data-testid="DensityMediumIcon"]</t>
-  </si>
-  <si>
-    <t>"Toggle Density" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Fullscreen button</t>
-  </si>
-  <si>
-    <t>[data-testid="FullscreenIcon"]</t>
-  </si>
-  <si>
-    <t>"Fullscreen" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Arrow Left button</t>
-  </si>
-  <si>
-    <t>[data-testid="KeyboardArrowLeftIcon"]</t>
-  </si>
-  <si>
-    <t>not.be.enabled</t>
-  </si>
-  <si>
-    <t>"Arrow Left" button  should be not be clickable when no data on the table</t>
-  </si>
-  <si>
-    <t>Arrow Right button</t>
-  </si>
-  <si>
-    <t>[data-testid="KeyboardArrowRightIcon"]</t>
-  </si>
-  <si>
-    <t>Rows per page button</t>
-  </si>
-  <si>
-    <t>[id=":r9:"]</t>
-  </si>
-  <si>
-    <t>"Rows per page" button  should be clickable</t>
-  </si>
-  <si>
-    <t>expectedText</t>
-  </si>
-  <si>
-    <t>button.border-blue-500</t>
-  </si>
-  <si>
-    <t>contain.text</t>
-  </si>
-  <si>
-    <t>Add Data</t>
-  </si>
-  <si>
-    <t>Should contain text "Add Data"</t>
-  </si>
-  <si>
-    <t>button.border-red-500</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>#itmcladsc</t>
-  </si>
-  <si>
-    <t>be.enabled</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>"Add Data" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>"Cancel" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>Update Data</t>
-  </si>
-  <si>
-    <t>Should contain text "Update Data"</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>"Update Data" button Should be enabled and clickable</t>
+    <t>[id=":rc:"]</t>
+  </si>
+  <si>
+    <t>Should contain text "Save"</t>
+  </si>
+  <si>
+    <t>"Save" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Cancel"</t>
   </si>
   <si>
     <t>dataToDelete</t>
+  </si>
+  <si>
+    <t>.border-blue-500</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>cy.get('.border-red-500')</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -926,8 +996,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1250,7 +1324,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1327,387 +1401,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="6" width="22.4285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="6" width="19.2857142857143" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
     <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
@@ -1715,77 +1418,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +1508,106 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -1811,77 +1624,676 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="59.8571428571429" customWidth="1"/>
+    <col min="2" max="6" width="22.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="19.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1893,32 +2305,268 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,21 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" activeTab="4"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
     <sheet name="itemclass-edit-el" sheetId="8" r:id="rId2"/>
-    <sheet name="itemsubclass-edit-el" sheetId="13" r:id="rId3"/>
-    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId4"/>
-    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId5"/>
-    <sheet name="master-item-data" sheetId="4" r:id="rId6"/>
-    <sheet name="master-ordertype-data" sheetId="3" r:id="rId7"/>
-    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId8"/>
-    <sheet name="itemclass-add-el" sheetId="6" r:id="rId9"/>
-    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId10"/>
-    <sheet name="data-to-delete" sheetId="9" r:id="rId11"/>
-    <sheet name="delete-confirm-el" sheetId="12" r:id="rId12"/>
+    <sheet name="cardtype-edit-el" sheetId="15" r:id="rId3"/>
+    <sheet name="itemsubclass-edit-el" sheetId="13" r:id="rId4"/>
+    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId5"/>
+    <sheet name="module-selector-assert" sheetId="16" r:id="rId6"/>
+    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId7"/>
+    <sheet name="master-item-data" sheetId="4" r:id="rId8"/>
+    <sheet name="master-ordertype-data" sheetId="3" r:id="rId9"/>
+    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId10"/>
+    <sheet name="itemclass-add-el" sheetId="6" r:id="rId11"/>
+    <sheet name="cardtype-add-el" sheetId="17" r:id="rId12"/>
+    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId13"/>
+    <sheet name="data-to-delete" sheetId="9" r:id="rId14"/>
+    <sheet name="delete-confirm-el" sheetId="12" r:id="rId15"/>
+    <sheet name="master-cardtype-data" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="129">
   <si>
     <t>itemClass</t>
   </si>
@@ -133,6 +137,12 @@
     <t>Save button should contain text "Save" instead of "Update Data"</t>
   </si>
   <si>
+    <t>Cancel button should contain text "Cancel" instead of "update Data"</t>
+  </si>
+  <si>
+    <t>#cardtype</t>
+  </si>
+  <si>
     <t>#itemsubclassdsc</t>
   </si>
   <si>
@@ -364,6 +374,12 @@
     <t>"Save" button Should be enabled and clickable</t>
   </si>
   <si>
+    <t>Save button should contain text "Save" instead of "Add Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel"</t>
+  </si>
+  <si>
     <t>Save button should contain text "Save"</t>
   </si>
   <si>
@@ -383,6 +399,36 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>cardType</t>
+  </si>
+  <si>
+    <t>editCardType</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Debit Card</t>
+  </si>
+  <si>
+    <t>Prepaid Card</t>
+  </si>
+  <si>
+    <t>Gift Card</t>
+  </si>
+  <si>
+    <t>Store Gift</t>
+  </si>
+  <si>
+    <t>Store Card</t>
+  </si>
+  <si>
+    <t>Loyalty Card</t>
+  </si>
+  <si>
+    <t>Electronic Card</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1370,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1402,6 +1448,375 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -1441,7 +1856,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1455,29 +1870,29 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1488,7 +1903,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1508,7 +1923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A4"/>
@@ -1521,7 +1936,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1545,13 +1960,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1575,30 +1990,116 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +2114,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1704,6 +2205,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -1762,24 +2359,24 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1790,7 +2387,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1810,7 +2407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -1829,7 +2426,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1843,142 +2440,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1987,13 +2584,190 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2004,13 +2778,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2018,13 +2792,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2032,7 +2806,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2040,7 +2814,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -2048,7 +2822,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2056,7 +2830,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2064,7 +2838,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2072,7 +2846,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2080,7 +2854,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2088,7 +2862,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2096,7 +2870,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -2104,7 +2878,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2112,7 +2886,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2120,7 +2894,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -2128,7 +2902,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -2172,7 +2946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A13"/>
@@ -2188,289 +2962,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" t="s">
         <v>99</v>
-      </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2482,91 +3034,40 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
-    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,25 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="5" activeTab="11"/>
+    <workbookView windowWidth="9390" windowHeight="7500" tabRatio="942" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
     <sheet name="itemclass-edit-el" sheetId="8" r:id="rId2"/>
     <sheet name="cardtype-edit-el" sheetId="15" r:id="rId3"/>
-    <sheet name="itemsubclass-edit-el" sheetId="13" r:id="rId4"/>
-    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId5"/>
-    <sheet name="module-selector-assert" sheetId="16" r:id="rId6"/>
-    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId7"/>
-    <sheet name="master-item-data" sheetId="4" r:id="rId8"/>
-    <sheet name="master-ordertype-data" sheetId="3" r:id="rId9"/>
-    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId10"/>
-    <sheet name="itemclass-add-el" sheetId="6" r:id="rId11"/>
-    <sheet name="cardtype-add-el" sheetId="17" r:id="rId12"/>
-    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId13"/>
-    <sheet name="data-to-delete" sheetId="9" r:id="rId14"/>
-    <sheet name="delete-confirm-el" sheetId="12" r:id="rId15"/>
-    <sheet name="master-cardtype-data" sheetId="14" r:id="rId16"/>
+    <sheet name="paymenttype-edit-el" sheetId="20" r:id="rId4"/>
+    <sheet name="itemsubclass-edit-el" sheetId="13" r:id="rId5"/>
+    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId6"/>
+    <sheet name="module-selector-assert" sheetId="16" r:id="rId7"/>
+    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId8"/>
+    <sheet name="master-item-data" sheetId="4" r:id="rId9"/>
+    <sheet name="master-ordertype-data" sheetId="3" r:id="rId10"/>
+    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId11"/>
+    <sheet name="itemclass-add-el" sheetId="6" r:id="rId12"/>
+    <sheet name="cardtype-add-el" sheetId="17" r:id="rId13"/>
+    <sheet name="paymenttype-add-el" sheetId="19" r:id="rId14"/>
+    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId15"/>
+    <sheet name="data-to-delete" sheetId="9" r:id="rId16"/>
+    <sheet name="delete-confirm-el" sheetId="12" r:id="rId17"/>
+    <sheet name="master-cardtype-data" sheetId="14" r:id="rId18"/>
+    <sheet name="master-paymenttype-data" sheetId="18" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="135">
   <si>
     <t>itemClass</t>
   </si>
@@ -143,6 +146,9 @@
     <t>#cardtype</t>
   </si>
   <si>
+    <t>#paytyp</t>
+  </si>
+  <si>
     <t>#itemsubclassdsc</t>
   </si>
   <si>
@@ -429,6 +435,21 @@
   </si>
   <si>
     <t>Electronic Card</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t>editPaymentType</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>E-wallet</t>
   </si>
 </sst>
 </file>
@@ -1450,6 +1471,51 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -1466,7 +1532,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1480,142 +1546,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -1664,7 +1730,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1689,7 +1755,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1700,7 +1766,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1720,13 +1786,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1760,7 +1826,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1774,7 +1840,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1785,7 +1851,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1796,7 +1862,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1816,7 +1882,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -1856,7 +2018,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1870,29 +2032,29 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1903,7 +2065,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1923,7 +2085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A4"/>
@@ -1936,7 +2098,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1960,7 +2122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -1990,27 +2152,27 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -2022,7 +2184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B12"/>
@@ -2038,48 +2200,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -2099,6 +2261,107 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2303,6 +2566,102 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2359,24 +2718,24 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2387,7 +2746,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2407,7 +2766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -2426,7 +2785,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -2440,142 +2799,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2584,7 +2943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -2603,7 +2962,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -2617,142 +2976,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
         <v>65</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2761,7 +3120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D19"/>
@@ -2778,13 +3137,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -2792,13 +3151,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -2806,7 +3165,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2814,7 +3173,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -2822,7 +3181,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -2830,7 +3189,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -2838,7 +3197,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -2846,7 +3205,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -2854,7 +3213,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -2862,7 +3221,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -2870,7 +3229,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -2878,7 +3237,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2886,7 +3245,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2894,7 +3253,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -2902,7 +3261,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -2946,7 +3305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A13"/>
@@ -2962,112 +3321,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
         <v>100</v>
-      </c>
-      <c r="B1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,28 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9390" windowHeight="7500" tabRatio="942" firstSheet="12" activeTab="18"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
     <sheet name="itemclass-edit-el" sheetId="8" r:id="rId2"/>
     <sheet name="cardtype-edit-el" sheetId="15" r:id="rId3"/>
     <sheet name="paymenttype-edit-el" sheetId="20" r:id="rId4"/>
-    <sheet name="itemsubclass-edit-el" sheetId="13" r:id="rId5"/>
-    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId6"/>
-    <sheet name="module-selector-assert" sheetId="16" r:id="rId7"/>
-    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId8"/>
-    <sheet name="master-item-data" sheetId="4" r:id="rId9"/>
-    <sheet name="master-ordertype-data" sheetId="3" r:id="rId10"/>
-    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId11"/>
-    <sheet name="itemclass-add-el" sheetId="6" r:id="rId12"/>
-    <sheet name="cardtype-add-el" sheetId="17" r:id="rId13"/>
-    <sheet name="paymenttype-add-el" sheetId="19" r:id="rId14"/>
-    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId15"/>
-    <sheet name="data-to-delete" sheetId="9" r:id="rId16"/>
-    <sheet name="delete-confirm-el" sheetId="12" r:id="rId17"/>
-    <sheet name="master-cardtype-data" sheetId="14" r:id="rId18"/>
-    <sheet name="master-paymenttype-data" sheetId="18" r:id="rId19"/>
+    <sheet name="freereasons-edit-el" sheetId="22" r:id="rId5"/>
+    <sheet name="itemsubclass-edit-el" sheetId="13" r:id="rId6"/>
+    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId7"/>
+    <sheet name="module-selector-assert" sheetId="16" r:id="rId8"/>
+    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId9"/>
+    <sheet name="master-item-data" sheetId="4" r:id="rId10"/>
+    <sheet name="master-ordertype-data" sheetId="3" r:id="rId11"/>
+    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId12"/>
+    <sheet name="itemclass-add-el" sheetId="6" r:id="rId13"/>
+    <sheet name="cardtype-add-el" sheetId="17" r:id="rId14"/>
+    <sheet name="paymenttype-add-el" sheetId="19" r:id="rId15"/>
+    <sheet name="freereasons-add-el" sheetId="23" r:id="rId16"/>
+    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId17"/>
+    <sheet name="data-to-delete" sheetId="9" r:id="rId18"/>
+    <sheet name="delete-confirm-el" sheetId="12" r:id="rId19"/>
+    <sheet name="master-cardtype-data" sheetId="14" r:id="rId20"/>
+    <sheet name="master-paymenttype-data" sheetId="18" r:id="rId21"/>
+    <sheet name="master-freereasons-data" sheetId="21" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="151">
   <si>
     <t>itemClass</t>
   </si>
@@ -149,6 +152,9 @@
     <t>#paytyp</t>
   </si>
   <si>
+    <t>#freereason</t>
+  </si>
+  <si>
     <t>#itemsubclassdsc</t>
   </si>
   <si>
@@ -450,6 +456,51 @@
   </si>
   <si>
     <t>E-wallet</t>
+  </si>
+  <si>
+    <t>freeReasons</t>
+  </si>
+  <si>
+    <t>editFreeReasons</t>
+  </si>
+  <si>
+    <t>onlySearch</t>
+  </si>
+  <si>
+    <t>onlyDelete</t>
+  </si>
+  <si>
+    <t>Sample Giveaway</t>
+  </si>
+  <si>
+    <t>Customer Complaint Resolution</t>
+  </si>
+  <si>
+    <t>Complimentary Item</t>
+  </si>
+  <si>
+    <t>Birthday Freebie</t>
+  </si>
+  <si>
+    <t>Employee Perk</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Coupon Redemption</t>
+  </si>
+  <si>
+    <t>Membership Perk</t>
+  </si>
+  <si>
+    <t>Customer Loyalty Reward</t>
+  </si>
+  <si>
+    <t>Inventory Clearance</t>
+  </si>
+  <si>
+    <t>Customer Appreciation</t>
   </si>
 </sst>
 </file>
@@ -1471,6 +1522,91 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="19.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1481,30 +1617,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" t="s">
         <v>107</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -1532,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1546,142 +1682,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1690,7 +1826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -1730,7 +1866,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1755,7 +1891,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1766,7 +1902,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1786,7 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -1826,7 +1962,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1840,7 +1976,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1851,7 +1987,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1862,7 +1998,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1882,7 +2018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -1922,7 +2058,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1936,7 +2072,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1947,7 +2083,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1958,7 +2094,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1978,7 +2114,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -2018,7 +2250,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2032,29 +2264,29 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2065,7 +2297,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2085,20 +2317,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2109,11 +2341,6 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2122,7 +2349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -2152,217 +2379,30 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2467,6 +2507,387 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -2662,6 +3083,102 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2718,24 +3235,24 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2746,7 +3263,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2766,7 +3283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -2785,7 +3302,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -2799,142 +3316,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2943,7 +3460,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -2962,7 +3479,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -2976,142 +3493,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D19"/>
@@ -3137,13 +3654,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3151,13 +3668,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -3165,7 +3682,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -3173,7 +3690,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -3181,7 +3698,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -3189,7 +3706,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -3197,7 +3714,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -3205,7 +3722,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -3213,7 +3730,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -3221,7 +3738,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -3229,7 +3746,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -3237,7 +3754,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -3245,7 +3762,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -3253,7 +3770,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -3261,7 +3778,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -3297,91 +3814,6 @@
       </c>
       <c r="B19" t="s">
         <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="6" width="19.2857142857143" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="15" activeTab="17"/>
+    <workbookView windowWidth="9390" windowHeight="7500" tabRatio="942" firstSheet="23" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -12,23 +12,26 @@
     <sheet name="cardtype-edit-el" sheetId="15" r:id="rId3"/>
     <sheet name="paymenttype-edit-el" sheetId="20" r:id="rId4"/>
     <sheet name="freereasons-edit-el" sheetId="22" r:id="rId5"/>
-    <sheet name="itemsubclass-edit-el" sheetId="13" r:id="rId6"/>
-    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId7"/>
-    <sheet name="module-selector-assert" sheetId="16" r:id="rId8"/>
-    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId9"/>
-    <sheet name="master-item-data" sheetId="4" r:id="rId10"/>
-    <sheet name="master-ordertype-data" sheetId="3" r:id="rId11"/>
-    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId12"/>
-    <sheet name="itemclass-add-el" sheetId="6" r:id="rId13"/>
-    <sheet name="cardtype-add-el" sheetId="17" r:id="rId14"/>
-    <sheet name="paymenttype-add-el" sheetId="19" r:id="rId15"/>
-    <sheet name="freereasons-add-el" sheetId="23" r:id="rId16"/>
-    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId17"/>
-    <sheet name="data-to-delete" sheetId="9" r:id="rId18"/>
-    <sheet name="delete-confirm-el" sheetId="12" r:id="rId19"/>
-    <sheet name="master-cardtype-data" sheetId="14" r:id="rId20"/>
-    <sheet name="master-paymenttype-data" sheetId="18" r:id="rId21"/>
-    <sheet name="master-freereasons-data" sheetId="21" r:id="rId22"/>
+    <sheet name="voidreasons-edit-el" sheetId="26" r:id="rId6"/>
+    <sheet name="itemsubclass-edit-el" sheetId="13" r:id="rId7"/>
+    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId8"/>
+    <sheet name="module-selector-assert" sheetId="16" r:id="rId9"/>
+    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId10"/>
+    <sheet name="master-item-data" sheetId="4" r:id="rId11"/>
+    <sheet name="master-ordertype-data" sheetId="3" r:id="rId12"/>
+    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId13"/>
+    <sheet name="itemclass-add-el" sheetId="6" r:id="rId14"/>
+    <sheet name="cardtype-add-el" sheetId="17" r:id="rId15"/>
+    <sheet name="paymenttype-add-el" sheetId="19" r:id="rId16"/>
+    <sheet name="freereasons-add-el" sheetId="23" r:id="rId17"/>
+    <sheet name="voidreasons-add-el" sheetId="25" r:id="rId18"/>
+    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId19"/>
+    <sheet name="data-to-delete" sheetId="9" r:id="rId20"/>
+    <sheet name="delete-confirm-el" sheetId="12" r:id="rId21"/>
+    <sheet name="master-cardtype-data" sheetId="14" r:id="rId22"/>
+    <sheet name="master-paymenttype-data" sheetId="18" r:id="rId23"/>
+    <sheet name="master-freereasons-data" sheetId="21" r:id="rId24"/>
+    <sheet name="master-voidreasons-data" sheetId="24" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="153">
   <si>
     <t>itemClass</t>
   </si>
@@ -155,6 +158,9 @@
     <t>#freereason</t>
   </si>
   <si>
+    <t>#voidcde</t>
+  </si>
+  <si>
     <t>#itemsubclassdsc</t>
   </si>
   <si>
@@ -458,10 +464,13 @@
     <t>E-wallet</t>
   </si>
   <si>
-    <t>freeReasons</t>
-  </si>
-  <si>
-    <t>editFreeReasons</t>
+    <t>This is a very long string that exceeds the maximum allowed length.</t>
+  </si>
+  <si>
+    <t>voidReasons</t>
+  </si>
+  <si>
+    <t>editVoidReasons</t>
   </si>
   <si>
     <t>onlySearch</t>
@@ -470,37 +479,37 @@
     <t>onlyDelete</t>
   </si>
   <si>
-    <t>Sample Giveaway</t>
-  </si>
-  <si>
-    <t>Customer Complaint Resolution</t>
-  </si>
-  <si>
-    <t>Complimentary Item</t>
-  </si>
-  <si>
-    <t>Birthday Freebie</t>
-  </si>
-  <si>
-    <t>Employee Perk</t>
-  </si>
-  <si>
-    <t>Sampling</t>
-  </si>
-  <si>
-    <t>Coupon Redemption</t>
-  </si>
-  <si>
-    <t>Membership Perk</t>
-  </si>
-  <si>
-    <t>Customer Loyalty Reward</t>
-  </si>
-  <si>
-    <t>Inventory Clearance</t>
-  </si>
-  <si>
-    <t>Customer Appreciation</t>
+    <t>Incorrect Charge</t>
+  </si>
+  <si>
+    <t>Incorrect Order Entry</t>
+  </si>
+  <si>
+    <t>Customer Changed Mind</t>
+  </si>
+  <si>
+    <t>Customer Cancelled Order</t>
+  </si>
+  <si>
+    <t>Employee Mistake</t>
+  </si>
+  <si>
+    <t>Order Duplication</t>
+  </si>
+  <si>
+    <t>Customer Complaint</t>
+  </si>
+  <si>
+    <t>Food Quality Issue</t>
+  </si>
+  <si>
+    <t>Price Adjustment</t>
+  </si>
+  <si>
+    <t>Payment Error</t>
+  </si>
+  <si>
+    <t>Item Out of Stock</t>
   </si>
 </sst>
 </file>
@@ -1522,6 +1531,191 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="59.8571428571429" customWidth="1"/>
+    <col min="2" max="6" width="22.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1535,67 +1729,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1604,7 +1798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D2"/>
@@ -1617,30 +1811,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" t="s">
         <v>108</v>
-      </c>
-      <c r="D2" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -1668,7 +1862,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1682,142 +1876,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1826,7 +2020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -1866,7 +2060,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1891,7 +2085,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1902,7 +2096,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1922,7 +2116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -1962,7 +2156,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1976,7 +2170,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1987,7 +2181,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1998,7 +2192,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2018,7 +2212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -2058,7 +2252,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2072,7 +2266,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2083,7 +2277,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2094,7 +2288,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2114,7 +2308,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -2154,7 +2348,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2168,7 +2362,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2179,7 +2373,7 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2190,7 +2384,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2210,7 +2404,103 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -2250,7 +2540,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2264,29 +2554,29 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2297,7 +2587,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2309,100 +2599,6 @@
       </c>
       <c r="E7" t="s">
         <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="18.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2510,6 +2706,100 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2523,48 +2813,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -2593,13 +2883,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2609,63 +2899,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -2685,7 +2975,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2694,13 +2984,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2713,22 +3003,19 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
       <c r="C2" t="b">
         <v>1</v>
       </c>
@@ -2736,10 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>141</v>
-      </c>
+    <row r="3" spans="3:4">
       <c r="C3" t="b">
         <v>0</v>
       </c>
@@ -2747,68 +3031,50 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+    <row r="4" spans="3:4">
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
         <v>142</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
@@ -2816,10 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>149</v>
-      </c>
+    <row r="10" spans="3:4">
       <c r="C10" t="b">
         <v>0</v>
       </c>
@@ -2827,10 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
+    <row r="11" spans="3:4">
       <c r="C11" t="b">
         <v>0</v>
       </c>
@@ -2873,7 +3133,201 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>137</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>137</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3179,6 +3633,102 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3235,24 +3785,24 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3263,7 +3813,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3283,7 +3833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -3302,7 +3852,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -3316,142 +3866,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -3460,7 +4010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -3479,7 +4029,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -3493,327 +4043,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
         <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="59.8571428571429" customWidth="1"/>
-    <col min="2" max="6" width="22.4285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="163">
   <si>
     <t>itemClass</t>
   </si>
@@ -479,7 +479,37 @@
     <t>onlyDelete</t>
   </si>
   <si>
+    <t>Sample Giveaway</t>
+  </si>
+  <si>
+    <t>Customer Complaint Resolution</t>
+  </si>
+  <si>
+    <t>Complimentary Item</t>
+  </si>
+  <si>
+    <t>Birthday Freebie</t>
+  </si>
+  <si>
+    <t>Employee Perk</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Coupon Redemption</t>
+  </si>
+  <si>
+    <t>Membership Perk</t>
+  </si>
+  <si>
     <t>Incorrect Charge</t>
+  </si>
+  <si>
+    <t>Inventory Clearance</t>
+  </si>
+  <si>
+    <t>Customer Appreciation</t>
   </si>
   <si>
     <t>Incorrect Order Entry</t>
@@ -2990,7 +3020,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3015,7 +3045,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="3:4">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
@@ -3023,7 +3056,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
@@ -3031,7 +3067,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
@@ -3039,7 +3078,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
@@ -3047,7 +3089,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
@@ -3055,7 +3100,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
@@ -3063,7 +3111,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>148</v>
+      </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
@@ -3071,9 +3122,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3082,7 +3136,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>151</v>
+      </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
@@ -3090,7 +3147,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>152</v>
+      </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
@@ -3181,7 +3241,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -3192,7 +3252,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3203,7 +3263,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -3214,7 +3274,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3225,7 +3285,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3236,7 +3296,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3247,7 +3307,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3258,10 +3318,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s">
         <v>150</v>
-      </c>
-      <c r="B9" t="s">
-        <v>142</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3272,7 +3332,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -3283,7 +3343,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9390" windowHeight="7500" tabRatio="942" firstSheet="23" activeTab="23"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="22" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -14,24 +14,29 @@
     <sheet name="freereasons-edit-el" sheetId="22" r:id="rId5"/>
     <sheet name="voidreasons-edit-el" sheetId="26" r:id="rId6"/>
     <sheet name="itemsubclass-edit-el" sheetId="13" r:id="rId7"/>
-    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId8"/>
-    <sheet name="module-selector-assert" sheetId="16" r:id="rId9"/>
-    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId10"/>
-    <sheet name="master-item-data" sheetId="4" r:id="rId11"/>
-    <sheet name="master-ordertype-data" sheetId="3" r:id="rId12"/>
-    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId13"/>
-    <sheet name="itemclass-add-el" sheetId="6" r:id="rId14"/>
-    <sheet name="cardtype-add-el" sheetId="17" r:id="rId15"/>
-    <sheet name="paymenttype-add-el" sheetId="19" r:id="rId16"/>
-    <sheet name="freereasons-add-el" sheetId="23" r:id="rId17"/>
-    <sheet name="voidreasons-add-el" sheetId="25" r:id="rId18"/>
-    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId19"/>
-    <sheet name="data-to-delete" sheetId="9" r:id="rId20"/>
-    <sheet name="delete-confirm-el" sheetId="12" r:id="rId21"/>
-    <sheet name="master-cardtype-data" sheetId="14" r:id="rId22"/>
-    <sheet name="master-paymenttype-data" sheetId="18" r:id="rId23"/>
-    <sheet name="master-freereasons-data" sheetId="21" r:id="rId24"/>
-    <sheet name="master-voidreasons-data" sheetId="24" r:id="rId25"/>
+    <sheet name="ordertype-edit-el" sheetId="32" r:id="rId8"/>
+    <sheet name="specialreq-edit-el" sheetId="28" r:id="rId9"/>
+    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId10"/>
+    <sheet name="module-selector-assert" sheetId="16" r:id="rId11"/>
+    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId12"/>
+    <sheet name="master-item-data" sheetId="4" r:id="rId13"/>
+    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId14"/>
+    <sheet name="itemclass-add-el" sheetId="6" r:id="rId15"/>
+    <sheet name="cardtype-add-el" sheetId="17" r:id="rId16"/>
+    <sheet name="paymenttype-add-el" sheetId="19" r:id="rId17"/>
+    <sheet name="freereasons-add-el" sheetId="23" r:id="rId18"/>
+    <sheet name="voidreasons-add-el" sheetId="25" r:id="rId19"/>
+    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId20"/>
+    <sheet name="ordertype-add-el" sheetId="31" r:id="rId21"/>
+    <sheet name="specialreq-add-el" sheetId="29" r:id="rId22"/>
+    <sheet name="data-to-delete" sheetId="9" r:id="rId23"/>
+    <sheet name="delete-confirm-el" sheetId="12" r:id="rId24"/>
+    <sheet name="master-cardtype-data" sheetId="14" r:id="rId25"/>
+    <sheet name="master-paymenttype-data" sheetId="18" r:id="rId26"/>
+    <sheet name="master-freereasons-data" sheetId="21" r:id="rId27"/>
+    <sheet name="master-voidreasons-data" sheetId="24" r:id="rId28"/>
+    <sheet name="master-specialreq-data" sheetId="27" r:id="rId29"/>
+    <sheet name="master-ordertype-data" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="188">
   <si>
     <t>itemClass</t>
   </si>
@@ -62,249 +67,267 @@
     <t>MAIN COURSE</t>
   </si>
   <si>
+    <t>DESSERT</t>
+  </si>
+  <si>
+    <t>BEVERAGES</t>
+  </si>
+  <si>
+    <t>BREAKFAST</t>
+  </si>
+  <si>
+    <t>APPETIZER</t>
+  </si>
+  <si>
+    <t>SIDE DISH</t>
+  </si>
+  <si>
+    <t>% &amp; ( ) / - .</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>BURGERS</t>
+  </si>
+  <si>
+    <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sarap</t>
+  </si>
+  <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>assertion</t>
+  </si>
+  <si>
+    <t>expectedText</t>
+  </si>
+  <si>
+    <t>customErrorMsg</t>
+  </si>
+  <si>
+    <t>button.border-blue-500</t>
+  </si>
+  <si>
+    <t>contain.text</t>
+  </si>
+  <si>
+    <t>Update Data</t>
+  </si>
+  <si>
+    <t>Should contain text "Update Data"</t>
+  </si>
+  <si>
+    <t>button.border-red-500</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>#itmcladsc</t>
+  </si>
+  <si>
+    <t>be.enabled</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>"Update Data" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>"Cancel" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Update Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel" instead of "update Data"</t>
+  </si>
+  <si>
+    <t>#cardtype</t>
+  </si>
+  <si>
+    <t>#paytyp</t>
+  </si>
+  <si>
+    <t>#freereason</t>
+  </si>
+  <si>
+    <t>#voidcde</t>
+  </si>
+  <si>
+    <t>#itemsubclassdsc</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itmclacde</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to select data.</t>
+  </si>
+  <si>
+    <t>"Add Data" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>#postypdsc</t>
+  </si>
+  <si>
+    <t>#ordertyp</t>
+  </si>
+  <si>
+    <t>"Save" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>#modcde</t>
+  </si>
+  <si>
+    <t>#modgrpcde</t>
+  </si>
+  <si>
+    <t>selectorName</t>
+  </si>
+  <si>
+    <t>Print button</t>
+  </si>
+  <si>
+    <t>:nth-child(2) &gt; .sc-guDLey</t>
+  </si>
+  <si>
+    <t>not.be.disabled</t>
+  </si>
+  <si>
+    <t>"Print" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Add button</t>
+  </si>
+  <si>
+    <t>.sc-eDLKkx &gt; .anticon &gt; svg</t>
+  </si>
+  <si>
+    <t>"Add" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide columns button</t>
+  </si>
+  <si>
+    <t>[data-testid="ViewColumnIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Columns" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide search button</t>
+  </si>
+  <si>
+    <t>[data-testid="SearchIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Search" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide Filters button</t>
+  </si>
+  <si>
+    <t>[data-testid="FilterListIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Filters" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Toggle Density button</t>
+  </si>
+  <si>
+    <t>[data-testid="DensityMediumIcon"]</t>
+  </si>
+  <si>
+    <t>"Toggle Density" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Fullscreen button</t>
+  </si>
+  <si>
+    <t>[data-testid="FullscreenIcon"]</t>
+  </si>
+  <si>
+    <t>"Fullscreen" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Arrow Left button</t>
+  </si>
+  <si>
+    <t>[data-testid="KeyboardArrowLeftIcon"]</t>
+  </si>
+  <si>
+    <t>not.be.enabled</t>
+  </si>
+  <si>
+    <t>"Arrow Left" button  should be not be clickable when no data on the table</t>
+  </si>
+  <si>
+    <t>Arrow Right button</t>
+  </si>
+  <si>
+    <t>[data-testid="KeyboardArrowRightIcon"]</t>
+  </si>
+  <si>
+    <t>Rows per page button</t>
+  </si>
+  <si>
+    <t>[id=":r9:"]</t>
+  </si>
+  <si>
+    <t>"Rows per page" button  should be clickable</t>
+  </si>
+  <si>
+    <t>itemSubclass</t>
+  </si>
+  <si>
+    <t>editItemSubclass</t>
+  </si>
+  <si>
+    <t>Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Breakfast Meal</t>
+  </si>
+  <si>
+    <t>Milkshakes</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Burgers</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>Rice Meals</t>
+  </si>
+  <si>
+    <t>Pies</t>
+  </si>
+  <si>
     <t>DESSERTS</t>
   </si>
   <si>
-    <t>BEVERAGES</t>
-  </si>
-  <si>
-    <t>BREAKFAST</t>
-  </si>
-  <si>
-    <t>APPETIZER</t>
-  </si>
-  <si>
-    <t>SIDE DISH</t>
-  </si>
-  <si>
-    <t>% &amp; ( ) / - .</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>BURGERS</t>
-  </si>
-  <si>
-    <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sarap</t>
-  </si>
-  <si>
-    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
-  </si>
-  <si>
-    <t>sel</t>
-  </si>
-  <si>
-    <t>assertion</t>
-  </si>
-  <si>
-    <t>expectedText</t>
-  </si>
-  <si>
-    <t>customErrorMsg</t>
-  </si>
-  <si>
-    <t>button.border-blue-500</t>
-  </si>
-  <si>
-    <t>contain.text</t>
-  </si>
-  <si>
-    <t>Update Data</t>
-  </si>
-  <si>
-    <t>Should contain text "Update Data"</t>
-  </si>
-  <si>
-    <t>button.border-red-500</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>#itmcladsc</t>
-  </si>
-  <si>
-    <t>be.enabled</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>"Update Data" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>"Cancel" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save" instead of "Update Data"</t>
-  </si>
-  <si>
-    <t>Cancel button should contain text "Cancel" instead of "update Data"</t>
-  </si>
-  <si>
-    <t>#cardtype</t>
-  </si>
-  <si>
-    <t>#paytyp</t>
-  </si>
-  <si>
-    <t>#freereason</t>
-  </si>
-  <si>
-    <t>#voidcde</t>
-  </si>
-  <si>
-    <t>#itemsubclassdsc</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#itmclacde</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to select data.</t>
-  </si>
-  <si>
-    <t>"Add Data" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>selectorName</t>
-  </si>
-  <si>
-    <t>Print button</t>
-  </si>
-  <si>
-    <t>:nth-child(2) &gt; .sc-guDLey</t>
-  </si>
-  <si>
-    <t>not.be.disabled</t>
-  </si>
-  <si>
-    <t>"Print" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Add button</t>
-  </si>
-  <si>
-    <t>.sc-eDLKkx &gt; .anticon &gt; svg</t>
-  </si>
-  <si>
-    <t>"Add" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide columns button</t>
-  </si>
-  <si>
-    <t>[data-testid="ViewColumnIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Columns" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide search button</t>
-  </si>
-  <si>
-    <t>[data-testid="SearchIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Search" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide Filters button</t>
-  </si>
-  <si>
-    <t>[data-testid="FilterListIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Filters" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Toggle Density button</t>
-  </si>
-  <si>
-    <t>[data-testid="DensityMediumIcon"]</t>
-  </si>
-  <si>
-    <t>"Toggle Density" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Fullscreen button</t>
-  </si>
-  <si>
-    <t>[data-testid="FullscreenIcon"]</t>
-  </si>
-  <si>
-    <t>"Fullscreen" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Arrow Left button</t>
-  </si>
-  <si>
-    <t>[data-testid="KeyboardArrowLeftIcon"]</t>
-  </si>
-  <si>
-    <t>not.be.enabled</t>
-  </si>
-  <si>
-    <t>"Arrow Left" button  should be not be clickable when no data on the table</t>
-  </si>
-  <si>
-    <t>Arrow Right button</t>
-  </si>
-  <si>
-    <t>[data-testid="KeyboardArrowRightIcon"]</t>
-  </si>
-  <si>
-    <t>Rows per page button</t>
-  </si>
-  <si>
-    <t>[id=":r9:"]</t>
-  </si>
-  <si>
-    <t>"Rows per page" button  should be clickable</t>
-  </si>
-  <si>
-    <t>itemSubclass</t>
-  </si>
-  <si>
-    <t>editItemSubclass</t>
-  </si>
-  <si>
-    <t>Mashed Potatoes</t>
-  </si>
-  <si>
-    <t>Snacks</t>
-  </si>
-  <si>
-    <t>Breakfast Meal</t>
-  </si>
-  <si>
-    <t>Milkshakes</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>Burgers</t>
-  </si>
-  <si>
-    <t>Spaghetti</t>
-  </si>
-  <si>
-    <t>Rice Meals</t>
-  </si>
-  <si>
-    <t>Pies</t>
-  </si>
-  <si>
     <t>Ice Cream</t>
   </si>
   <si>
@@ -362,10 +385,211 @@
     <t>Hot Chocolate</t>
   </si>
   <si>
+    <t>[id=":rc:"]</t>
+  </si>
+  <si>
+    <t>Should contain text "Save"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Add Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>dataToDelete</t>
+  </si>
+  <si>
+    <t>.border-blue-500</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>cy.get('.border-red-500')</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>cardType</t>
+  </si>
+  <si>
+    <t>editCardType</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Debit Card</t>
+  </si>
+  <si>
+    <t>Prepaid Card</t>
+  </si>
+  <si>
+    <t>Gift Card</t>
+  </si>
+  <si>
+    <t>Store Gift</t>
+  </si>
+  <si>
+    <t>Store Card</t>
+  </si>
+  <si>
+    <t>Loyalty Card</t>
+  </si>
+  <si>
+    <t>Electronic Card</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t>editPaymentType</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>E-wallet</t>
+  </si>
+  <si>
+    <t>This is a very long string that exceeds the maximum allowed length.</t>
+  </si>
+  <si>
+    <t>voidReasons</t>
+  </si>
+  <si>
+    <t>editVoidReasons</t>
+  </si>
+  <si>
+    <t>onlySearch</t>
+  </si>
+  <si>
+    <t>onlyDelete</t>
+  </si>
+  <si>
+    <t>Sample Giveaway</t>
+  </si>
+  <si>
+    <t>Customer Complaint Resolution</t>
+  </si>
+  <si>
+    <t>Complimentary Item</t>
+  </si>
+  <si>
+    <t>Birthday Freebie</t>
+  </si>
+  <si>
+    <t>Employee Perk</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Coupon Redemption</t>
+  </si>
+  <si>
+    <t>Membership Perk</t>
+  </si>
+  <si>
+    <t>Incorrect Charge</t>
+  </si>
+  <si>
+    <t>Inventory Clearance</t>
+  </si>
+  <si>
+    <t>Customer Appreciation</t>
+  </si>
+  <si>
+    <t>Incorrect Order Entry</t>
+  </si>
+  <si>
+    <t>Customer Changed Mind</t>
+  </si>
+  <si>
+    <t>Customer Cancelled Order</t>
+  </si>
+  <si>
+    <t>Employee Mistake</t>
+  </si>
+  <si>
+    <t>Order Duplication</t>
+  </si>
+  <si>
+    <t>Customer Complaint</t>
+  </si>
+  <si>
+    <t>Food Quality Issue</t>
+  </si>
+  <si>
+    <t>Price Adjustment</t>
+  </si>
+  <si>
+    <t>Payment Error</t>
+  </si>
+  <si>
+    <t>Item Out of Stock</t>
+  </si>
+  <si>
+    <t>specialReq</t>
+  </si>
+  <si>
+    <t>editSpecialReq</t>
+  </si>
+  <si>
+    <t>onlySearchVal</t>
+  </si>
+  <si>
+    <t>onlySearchInval</t>
+  </si>
+  <si>
+    <t>Extra gravy</t>
+  </si>
+  <si>
+    <t>No salt on fries</t>
+  </si>
+  <si>
+    <t>Extra crispy fries</t>
+  </si>
+  <si>
+    <t>Extra ketchup</t>
+  </si>
+  <si>
+    <t>Extra rice</t>
+  </si>
+  <si>
+    <t>Extra ice</t>
+  </si>
+  <si>
+    <t>No ice</t>
+  </si>
+  <si>
+    <t>Separate packaging</t>
+  </si>
+  <si>
+    <t>No straw</t>
+  </si>
+  <si>
+    <t>Double patty</t>
+  </si>
+  <si>
+    <t>No plastic utensils</t>
+  </si>
+  <si>
     <t>dineType</t>
   </si>
   <si>
-    <t>orderTpe</t>
+    <t>orderType</t>
   </si>
   <si>
     <t>editDineType</t>
@@ -374,172 +598,28 @@
     <t>editOrderType</t>
   </si>
   <si>
-    <t>FOODPANDA</t>
+    <t>Dine-In</t>
+  </si>
+  <si>
+    <t>DINEIN</t>
+  </si>
+  <si>
+    <t>Takeout</t>
   </si>
   <si>
     <t>TAKEOUT</t>
   </si>
   <si>
-    <t>GRAB</t>
-  </si>
-  <si>
-    <t>[id=":rc:"]</t>
-  </si>
-  <si>
-    <t>Should contain text "Save"</t>
-  </si>
-  <si>
-    <t>"Save" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save" instead of "Add Data"</t>
-  </si>
-  <si>
-    <t>Cancel button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save"</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>dataToDelete</t>
-  </si>
-  <si>
-    <t>.border-blue-500</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>cy.get('.border-red-500')</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>cardType</t>
-  </si>
-  <si>
-    <t>editCardType</t>
-  </si>
-  <si>
-    <t>Credit Card</t>
-  </si>
-  <si>
-    <t>Debit Card</t>
-  </si>
-  <si>
-    <t>Prepaid Card</t>
-  </si>
-  <si>
-    <t>Gift Card</t>
-  </si>
-  <si>
-    <t>Store Gift</t>
-  </si>
-  <si>
-    <t>Store Card</t>
-  </si>
-  <si>
-    <t>Loyalty Card</t>
-  </si>
-  <si>
-    <t>Electronic Card</t>
-  </si>
-  <si>
-    <t>paymentType</t>
-  </si>
-  <si>
-    <t>editPaymentType</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>E-wallet</t>
-  </si>
-  <si>
-    <t>This is a very long string that exceeds the maximum allowed length.</t>
-  </si>
-  <si>
-    <t>voidReasons</t>
-  </si>
-  <si>
-    <t>editVoidReasons</t>
-  </si>
-  <si>
-    <t>onlySearch</t>
-  </si>
-  <si>
-    <t>onlyDelete</t>
-  </si>
-  <si>
-    <t>Sample Giveaway</t>
-  </si>
-  <si>
-    <t>Customer Complaint Resolution</t>
-  </si>
-  <si>
-    <t>Complimentary Item</t>
-  </si>
-  <si>
-    <t>Birthday Freebie</t>
-  </si>
-  <si>
-    <t>Employee Perk</t>
-  </si>
-  <si>
-    <t>Sampling</t>
-  </si>
-  <si>
-    <t>Coupon Redemption</t>
-  </si>
-  <si>
-    <t>Membership Perk</t>
-  </si>
-  <si>
-    <t>Incorrect Charge</t>
-  </si>
-  <si>
-    <t>Inventory Clearance</t>
-  </si>
-  <si>
-    <t>Customer Appreciation</t>
-  </si>
-  <si>
-    <t>Incorrect Order Entry</t>
-  </si>
-  <si>
-    <t>Customer Changed Mind</t>
-  </si>
-  <si>
-    <t>Customer Cancelled Order</t>
-  </si>
-  <si>
-    <t>Employee Mistake</t>
-  </si>
-  <si>
-    <t>Order Duplication</t>
-  </si>
-  <si>
-    <t>Customer Complaint</t>
-  </si>
-  <si>
-    <t>Food Quality Issue</t>
-  </si>
-  <si>
-    <t>Price Adjustment</t>
-  </si>
-  <si>
-    <t>Payment Error</t>
-  </si>
-  <si>
-    <t>Item Out of Stock</t>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>GRAB Delivery</t>
+  </si>
+  <si>
+    <t>Drive-Thru</t>
+  </si>
+  <si>
+    <t>Reservation</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1561,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1561,10 +1641,364 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1575,13 +2009,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -1589,13 +2023,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1603,7 +2037,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1611,7 +2045,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -1619,7 +2053,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1627,7 +2061,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1635,7 +2069,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1643,7 +2077,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1651,23 +2085,23 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1675,7 +2109,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1683,7 +2117,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1691,7 +2125,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1699,7 +2133,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1743,7 +2177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A13"/>
@@ -1759,67 +2193,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1828,52 +2262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -1892,7 +2281,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
@@ -1906,142 +2295,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2050,7 +2439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -2090,7 +2479,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2126,7 +2515,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2146,7 +2535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -2186,7 +2575,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2200,7 +2589,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2222,7 +2611,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2242,7 +2631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -2282,7 +2671,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2296,7 +2685,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2318,7 +2707,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2338,7 +2727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -2378,7 +2767,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2392,7 +2781,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2414,7 +2803,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2434,7 +2823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -2474,7 +2863,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2488,7 +2877,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2510,7 +2899,7 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2521,113 +2910,6 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
-    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2736,6 +3018,327 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2746,7 +3349,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2765,7 +3368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -2795,27 +3398,27 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -2827,7 +3430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B12"/>
@@ -2843,48 +3446,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -2913,7 +3516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B15"/>
@@ -2929,63 +3532,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -3005,7 +3608,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3014,12 +3617,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -3033,21 +3636,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
         <v>138</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>139</v>
-      </c>
-      <c r="C1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -3058,7 +3661,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3069,7 +3672,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -3080,7 +3683,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3091,7 +3694,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3102,7 +3705,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3113,7 +3716,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3124,10 +3727,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3138,7 +3741,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -3149,7 +3752,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3193,7 +3796,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3208,7 +3811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D15"/>
@@ -3227,21 +3830,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
         <v>138</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>139</v>
-      </c>
-      <c r="C1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -3252,7 +3855,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -3263,7 +3866,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -3274,7 +3877,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -3285,7 +3888,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -3296,7 +3899,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -3307,7 +3910,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -3318,10 +3921,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -3332,7 +3935,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -3343,7 +3946,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -3387,7 +3990,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -3395,6 +3998,334 @@
       <c r="D15" t="b">
         <v>0</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="22.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="17.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="15.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3498,6 +4429,218 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="22.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="17.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -3792,7 +4935,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -3896,172 +5039,102 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4073,172 +5146,102 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
         <v>14</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
       <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>72</v>
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="22" activeTab="28"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="30" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,31 @@
     <sheet name="specialreq-edit-el" sheetId="28" r:id="rId9"/>
     <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId10"/>
     <sheet name="module-selector-assert" sheetId="16" r:id="rId11"/>
-    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId12"/>
-    <sheet name="master-item-data" sheetId="4" r:id="rId13"/>
-    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId14"/>
-    <sheet name="itemclass-add-el" sheetId="6" r:id="rId15"/>
-    <sheet name="cardtype-add-el" sheetId="17" r:id="rId16"/>
-    <sheet name="paymenttype-add-el" sheetId="19" r:id="rId17"/>
-    <sheet name="freereasons-add-el" sheetId="23" r:id="rId18"/>
-    <sheet name="voidreasons-add-el" sheetId="25" r:id="rId19"/>
-    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId20"/>
-    <sheet name="ordertype-add-el" sheetId="31" r:id="rId21"/>
-    <sheet name="specialreq-add-el" sheetId="29" r:id="rId22"/>
-    <sheet name="data-to-delete" sheetId="9" r:id="rId23"/>
-    <sheet name="delete-confirm-el" sheetId="12" r:id="rId24"/>
-    <sheet name="master-cardtype-data" sheetId="14" r:id="rId25"/>
-    <sheet name="master-paymenttype-data" sheetId="18" r:id="rId26"/>
-    <sheet name="master-freereasons-data" sheetId="21" r:id="rId27"/>
-    <sheet name="master-voidreasons-data" sheetId="24" r:id="rId28"/>
-    <sheet name="master-specialreq-data" sheetId="27" r:id="rId29"/>
-    <sheet name="master-ordertype-data" sheetId="30" r:id="rId30"/>
+    <sheet name="header-selector-assert" sheetId="36" r:id="rId12"/>
+    <sheet name="systemparam-selector-assert" sheetId="35" r:id="rId13"/>
+    <sheet name="ordertype-selector-assert" sheetId="33" r:id="rId14"/>
+    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId15"/>
+    <sheet name="master-item-data" sheetId="4" r:id="rId16"/>
+    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId17"/>
+    <sheet name="itemclass-add-el" sheetId="6" r:id="rId18"/>
+    <sheet name="cardtype-add-el" sheetId="17" r:id="rId19"/>
+    <sheet name="paymenttype-add-el" sheetId="19" r:id="rId20"/>
+    <sheet name="freereasons-add-el" sheetId="23" r:id="rId21"/>
+    <sheet name="voidreasons-add-el" sheetId="25" r:id="rId22"/>
+    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId23"/>
+    <sheet name="ordertype-add-el" sheetId="31" r:id="rId24"/>
+    <sheet name="specialreq-add-el" sheetId="29" r:id="rId25"/>
+    <sheet name="data-to-delete" sheetId="9" r:id="rId26"/>
+    <sheet name="delete-confirm-el" sheetId="12" r:id="rId27"/>
+    <sheet name="master-cardtype-data" sheetId="14" r:id="rId28"/>
+    <sheet name="master-paymenttype-data" sheetId="18" r:id="rId29"/>
+    <sheet name="master-freereasons-data" sheetId="21" r:id="rId30"/>
+    <sheet name="master-voidreasons-data" sheetId="24" r:id="rId31"/>
+    <sheet name="master-specialreq-data" sheetId="27" r:id="rId32"/>
+    <sheet name="master-ordertype-data" sheetId="30" r:id="rId33"/>
+    <sheet name="master-footer-data" sheetId="37" r:id="rId34"/>
+    <sheet name="master-systemparam-data" sheetId="34" r:id="rId35"/>
+    <sheet name="master-header-data" sheetId="38" r:id="rId36"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="331">
   <si>
     <t>itemClass</t>
   </si>
@@ -64,22 +70,22 @@
     <t>editItemClass</t>
   </si>
   <si>
-    <t>MAIN COURSE</t>
-  </si>
-  <si>
-    <t>DESSERT</t>
-  </si>
-  <si>
-    <t>BEVERAGES</t>
-  </si>
-  <si>
-    <t>BREAKFAST</t>
-  </si>
-  <si>
-    <t>APPETIZER</t>
-  </si>
-  <si>
-    <t>SIDE DISH</t>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Appetizer</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Sides</t>
   </si>
   <si>
     <t>% &amp; ( ) / - .</t>
@@ -88,9 +94,6 @@
     <t>null</t>
   </si>
   <si>
-    <t>BURGERS</t>
-  </si>
-  <si>
     <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sarap</t>
   </si>
   <si>
@@ -292,6 +295,234 @@
     <t>"Rows per page" button  should be clickable</t>
   </si>
   <si>
+    <t>#business1</t>
+  </si>
+  <si>
+    <t>"Business Name 1" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#business2</t>
+  </si>
+  <si>
+    <t>"Business Name 2" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#business3</t>
+  </si>
+  <si>
+    <t>"Business Name 3" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#taxpayer</t>
+  </si>
+  <si>
+    <t>"Tax Payer registered in BIR" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#tin</t>
+  </si>
+  <si>
+    <t>"VAT" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#chknonvat</t>
+  </si>
+  <si>
+    <t>"Non-VAT" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#address1</t>
+  </si>
+  <si>
+    <t>"Address 1 *" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#address2</t>
+  </si>
+  <si>
+    <t>"Address 2 *" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#address3</t>
+  </si>
+  <si>
+    <t>"Address 3 *" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#serialno</t>
+  </si>
+  <si>
+    <t>"Serial Number" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#machineno</t>
+  </si>
+  <si>
+    <t>"Machine Number" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#brhcde</t>
+  </si>
+  <si>
+    <t>"Branch Code" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#postrmno</t>
+  </si>
+  <si>
+    <t>"Terminal No." textbox should be editable</t>
+  </si>
+  <si>
+    <t>.border-red-500</t>
+  </si>
+  <si>
+    <t>"Cancel" button  should be clickable</t>
+  </si>
+  <si>
+    <t>.border-blue-500</t>
+  </si>
+  <si>
+    <t>"Save" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel" instead of "Close"</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Update button should contain text "Update" instead of "Save"</t>
+  </si>
+  <si>
+    <t>label[for="business1"]</t>
+  </si>
+  <si>
+    <t>Business Name 1</t>
+  </si>
+  <si>
+    <t>Should contain text "Business Name 1"</t>
+  </si>
+  <si>
+    <t>label[for="business2"]</t>
+  </si>
+  <si>
+    <t>Business Name 2</t>
+  </si>
+  <si>
+    <t>Should contain text "Business Name 2"</t>
+  </si>
+  <si>
+    <t>label[for="business3"]</t>
+  </si>
+  <si>
+    <t>Business Name 3</t>
+  </si>
+  <si>
+    <t>Should contain text "Business Name 3"</t>
+  </si>
+  <si>
+    <t>label[for="taxpayer"]</t>
+  </si>
+  <si>
+    <t>Tax Payer registered in BIR</t>
+  </si>
+  <si>
+    <t>Should contain text "Tax Payer registered in BIR"</t>
+  </si>
+  <si>
+    <t>label[for="tin"]</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Should contain text "VAT"</t>
+  </si>
+  <si>
+    <t>label[for="chknonvat"]</t>
+  </si>
+  <si>
+    <t>Non-VAT</t>
+  </si>
+  <si>
+    <t>Should contain text "Non-VAT"</t>
+  </si>
+  <si>
+    <t>label[for="address1"]</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Should contain text "Address 1"</t>
+  </si>
+  <si>
+    <t>label[for="address2"]</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>Should contain text "Address 2"</t>
+  </si>
+  <si>
+    <t>label[for="address3"]</t>
+  </si>
+  <si>
+    <t>Address 3</t>
+  </si>
+  <si>
+    <t>Should contain text "Address 3"</t>
+  </si>
+  <si>
+    <t>label[for="serialno"]</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Should contain text "Serial Number"</t>
+  </si>
+  <si>
+    <t>label[for="machineno"]</t>
+  </si>
+  <si>
+    <t>Machine Number</t>
+  </si>
+  <si>
+    <t>Should contain text "Machine Number"</t>
+  </si>
+  <si>
+    <t>label[for="brhcde"]</t>
+  </si>
+  <si>
+    <t>Branch Code</t>
+  </si>
+  <si>
+    <t>Should contain text "Branch Code"</t>
+  </si>
+  <si>
+    <t>label[for="postrmno"]</t>
+  </si>
+  <si>
+    <t>Terminal No.</t>
+  </si>
+  <si>
+    <t>Should contain text "Terminal No."</t>
+  </si>
+  <si>
+    <t>Time Textbox</t>
+  </si>
+  <si>
+    <t>#timestart</t>
+  </si>
+  <si>
+    <t>button.px-4.py-2.rounded.border.border-solid.border-red-500.hover\\:bg-red-500.hover\\:text-white.my-5.mxl-3</t>
+  </si>
+  <si>
+    <t>button.px-4.py-2.rounded.border.border-solid.border-blue-500.hover\\:bg-blue-500.hover\\:text-white.my-5.mx-3</t>
+  </si>
+  <si>
     <t>itemSubclass</t>
   </si>
   <si>
@@ -325,9 +556,6 @@
     <t>Pies</t>
   </si>
   <si>
-    <t>DESSERTS</t>
-  </si>
-  <si>
     <t>Ice Cream</t>
   </si>
   <si>
@@ -340,225 +568,219 @@
     <t>Juices</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>Coke Zero</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Soda Float</t>
+  </si>
+  <si>
+    <t>Pineapple Juice</t>
+  </si>
+  <si>
+    <t>Iced Tea</t>
+  </si>
+  <si>
+    <t>Iced Mocha</t>
+  </si>
+  <si>
+    <t>Iced Mocha Float</t>
+  </si>
+  <si>
+    <t>Iced Latte</t>
+  </si>
+  <si>
+    <t>Hot Fresh Brew</t>
+  </si>
+  <si>
+    <t>Hot Chocolate</t>
+  </si>
+  <si>
+    <t>[id=":rc:"]</t>
+  </si>
+  <si>
+    <t>Should contain text "Save"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Add Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>dataToDelete</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>cy.get('.border-red-500')</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>cardType</t>
+  </si>
+  <si>
+    <t>editCardType</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Debit Card</t>
+  </si>
+  <si>
+    <t>Prepaid Card</t>
+  </si>
+  <si>
+    <t>Gift Card</t>
+  </si>
+  <si>
+    <t>Store Gift</t>
+  </si>
+  <si>
+    <t>Store Card</t>
+  </si>
+  <si>
+    <t>Loyalty Card</t>
+  </si>
+  <si>
+    <t>Electronic Card</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t>editPaymentType</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>E-wallet</t>
+  </si>
+  <si>
+    <t>This is a very long string that exceeds the maximum allowed length.</t>
+  </si>
+  <si>
+    <t>voidReasons</t>
+  </si>
+  <si>
+    <t>editVoidReasons</t>
+  </si>
+  <si>
+    <t>onlySearch</t>
+  </si>
+  <si>
+    <t>onlyDelete</t>
+  </si>
+  <si>
+    <t>Sample Giveaway</t>
+  </si>
+  <si>
+    <t>Customer Complaint Resolution</t>
+  </si>
+  <si>
+    <t>Complimentary Item</t>
+  </si>
+  <si>
+    <t>Birthday Freebie</t>
+  </si>
+  <si>
+    <t>Employee Perk</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Coupon Redemption</t>
+  </si>
+  <si>
+    <t>Membership Perk</t>
+  </si>
+  <si>
+    <t>Incorrect Charge</t>
+  </si>
+  <si>
+    <t>Inventory Clearance</t>
+  </si>
+  <si>
+    <t>Customer Appreciation</t>
+  </si>
+  <si>
+    <t>Incorrect Order Entry</t>
+  </si>
+  <si>
+    <t>Customer Changed Mind</t>
+  </si>
+  <si>
+    <t>Customer Cancelled Order</t>
+  </si>
+  <si>
+    <t>Employee Mistake</t>
+  </si>
+  <si>
+    <t>Order Duplication</t>
+  </si>
+  <si>
+    <t>Customer Complaint</t>
+  </si>
+  <si>
+    <t>Food Quality Issue</t>
+  </si>
+  <si>
+    <t>Price Adjustment</t>
+  </si>
+  <si>
+    <t>Payment Error</t>
+  </si>
+  <si>
+    <t>Item Out of Stock</t>
+  </si>
+  <si>
+    <t>specialReq</t>
+  </si>
+  <si>
+    <t>editSpecialReq</t>
+  </si>
+  <si>
+    <t>onlySearchVal</t>
+  </si>
+  <si>
+    <t>onlySearchInval</t>
+  </si>
+  <si>
+    <t>Extra gravy</t>
+  </si>
+  <si>
+    <t>No salt on fries</t>
+  </si>
+  <si>
     <t>Fries</t>
   </si>
   <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>Coke</t>
-  </si>
-  <si>
-    <t>Coke Zero</t>
-  </si>
-  <si>
-    <t>Royal</t>
-  </si>
-  <si>
-    <t>Sprite</t>
-  </si>
-  <si>
-    <t>Soda Float</t>
-  </si>
-  <si>
-    <t>Pineapple Juice</t>
-  </si>
-  <si>
-    <t>Iced Tea</t>
-  </si>
-  <si>
-    <t>Iced Mocha</t>
-  </si>
-  <si>
-    <t>Iced Mocha Float</t>
-  </si>
-  <si>
-    <t>Iced Latte</t>
-  </si>
-  <si>
-    <t>Hot Fresh Brew</t>
-  </si>
-  <si>
-    <t>Hot Chocolate</t>
-  </si>
-  <si>
-    <t>[id=":rc:"]</t>
-  </si>
-  <si>
-    <t>Should contain text "Save"</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save" instead of "Add Data"</t>
-  </si>
-  <si>
-    <t>Cancel button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save"</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>dataToDelete</t>
-  </si>
-  <si>
-    <t>.border-blue-500</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>cy.get('.border-red-500')</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>cardType</t>
-  </si>
-  <si>
-    <t>editCardType</t>
-  </si>
-  <si>
-    <t>Credit Card</t>
-  </si>
-  <si>
-    <t>Debit Card</t>
-  </si>
-  <si>
-    <t>Prepaid Card</t>
-  </si>
-  <si>
-    <t>Gift Card</t>
-  </si>
-  <si>
-    <t>Store Gift</t>
-  </si>
-  <si>
-    <t>Store Card</t>
-  </si>
-  <si>
-    <t>Loyalty Card</t>
-  </si>
-  <si>
-    <t>Electronic Card</t>
-  </si>
-  <si>
-    <t>paymentType</t>
-  </si>
-  <si>
-    <t>editPaymentType</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>E-wallet</t>
-  </si>
-  <si>
-    <t>This is a very long string that exceeds the maximum allowed length.</t>
-  </si>
-  <si>
-    <t>voidReasons</t>
-  </si>
-  <si>
-    <t>editVoidReasons</t>
-  </si>
-  <si>
-    <t>onlySearch</t>
-  </si>
-  <si>
-    <t>onlyDelete</t>
-  </si>
-  <si>
-    <t>Sample Giveaway</t>
-  </si>
-  <si>
-    <t>Customer Complaint Resolution</t>
-  </si>
-  <si>
-    <t>Complimentary Item</t>
-  </si>
-  <si>
-    <t>Birthday Freebie</t>
-  </si>
-  <si>
-    <t>Employee Perk</t>
-  </si>
-  <si>
-    <t>Sampling</t>
-  </si>
-  <si>
-    <t>Coupon Redemption</t>
-  </si>
-  <si>
-    <t>Membership Perk</t>
-  </si>
-  <si>
-    <t>Incorrect Charge</t>
-  </si>
-  <si>
-    <t>Inventory Clearance</t>
-  </si>
-  <si>
-    <t>Customer Appreciation</t>
-  </si>
-  <si>
-    <t>Incorrect Order Entry</t>
-  </si>
-  <si>
-    <t>Customer Changed Mind</t>
-  </si>
-  <si>
-    <t>Customer Cancelled Order</t>
-  </si>
-  <si>
-    <t>Employee Mistake</t>
-  </si>
-  <si>
-    <t>Order Duplication</t>
-  </si>
-  <si>
-    <t>Customer Complaint</t>
-  </si>
-  <si>
-    <t>Food Quality Issue</t>
-  </si>
-  <si>
-    <t>Price Adjustment</t>
-  </si>
-  <si>
-    <t>Payment Error</t>
-  </si>
-  <si>
-    <t>Item Out of Stock</t>
-  </si>
-  <si>
-    <t>specialReq</t>
-  </si>
-  <si>
-    <t>editSpecialReq</t>
-  </si>
-  <si>
-    <t>onlySearchVal</t>
-  </si>
-  <si>
-    <t>onlySearchInval</t>
-  </si>
-  <si>
-    <t>Extra gravy</t>
-  </si>
-  <si>
-    <t>No salt on fries</t>
-  </si>
-  <si>
     <t>Extra crispy fries</t>
   </si>
   <si>
@@ -620,6 +842,219 @@
   </si>
   <si>
     <t>Reservation</t>
+  </si>
+  <si>
+    <t>officialReceipt</t>
+  </si>
+  <si>
+    <t>suppName</t>
+  </si>
+  <si>
+    <t>suppAdd</t>
+  </si>
+  <si>
+    <t>suppVAT</t>
+  </si>
+  <si>
+    <t>suppNonVAT</t>
+  </si>
+  <si>
+    <t>accredNo</t>
+  </si>
+  <si>
+    <t>accredDate</t>
+  </si>
+  <si>
+    <t>permitNo</t>
+  </si>
+  <si>
+    <t>yearsValidity</t>
+  </si>
+  <si>
+    <t>dateIssued</t>
+  </si>
+  <si>
+    <t>lineMsg1</t>
+  </si>
+  <si>
+    <t>lineMsg2</t>
+  </si>
+  <si>
+    <t>lineMsg3</t>
+  </si>
+  <si>
+    <t>lineMsg4</t>
+  </si>
+  <si>
+    <t>lineMsg5</t>
+  </si>
+  <si>
+    <t>forValid</t>
+  </si>
+  <si>
+    <t>forInvalid</t>
+  </si>
+  <si>
+    <t>Sweda Systems Philippines, Inc Sweda Systems Philippines, IncSweda Systems Philippines, Inc</t>
+  </si>
+  <si>
+    <t>21f Rufino Tower, Makati City</t>
+  </si>
+  <si>
+    <t>003-510-344-000</t>
+  </si>
+  <si>
+    <t>003-510-344-001</t>
+  </si>
+  <si>
+    <t>0470035103442017100823</t>
+  </si>
+  <si>
+    <t>2023-05-28</t>
+  </si>
+  <si>
+    <t>FP112022-125-0358572-00126</t>
+  </si>
+  <si>
+    <t>This serves as your Official Receipt.</t>
+  </si>
+  <si>
+    <t>Tell us about your experience.</t>
+  </si>
+  <si>
+    <t>Send us feedback at bit.ly/jfccaresph</t>
+  </si>
+  <si>
+    <t>Visit us also at www.jollibee.com.ph</t>
+  </si>
+  <si>
+    <t>Thank you, and please come again.</t>
+  </si>
+  <si>
+    <t>Sweda Systems Philippines, Inc. with an extended name to exceed limit</t>
+  </si>
+  <si>
+    <t>Dahlia Ave. Cor. Regalado Ave West Fairview, Brgy. Fairview Park, Quezon City, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>123-456-789-00001234</t>
+  </si>
+  <si>
+    <t>123-456-789-00001235</t>
+  </si>
+  <si>
+    <t>001MP20220000000008EXTRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>This serves as your Official Receipt with an extended message</t>
+  </si>
+  <si>
+    <t>Tell us about your experience. Your feedback is important to us.</t>
+  </si>
+  <si>
+    <t>Send us feedback at bit.ly/jfccaresph and let us know your thoughts</t>
+  </si>
+  <si>
+    <t>Visit us also at www.jollibee.com.ph for more information.</t>
+  </si>
+  <si>
+    <t>Thank you, and please come again. We hope to see you soon</t>
+  </si>
+  <si>
+    <t>opTimeSet</t>
+  </si>
+  <si>
+    <t>editOpTimeSet</t>
+  </si>
+  <si>
+    <t>9:00 am</t>
+  </si>
+  <si>
+    <t>bus1</t>
+  </si>
+  <si>
+    <t>bus2</t>
+  </si>
+  <si>
+    <t>bus3</t>
+  </si>
+  <si>
+    <t>taxPayer</t>
+  </si>
+  <si>
+    <t>vat</t>
+  </si>
+  <si>
+    <t>nonVAT</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>add3</t>
+  </si>
+  <si>
+    <t>serialNo</t>
+  </si>
+  <si>
+    <t>machineNo</t>
+  </si>
+  <si>
+    <t>branchCode</t>
+  </si>
+  <si>
+    <t>terminalNo</t>
+  </si>
+  <si>
+    <t>Freemont Foods Corp</t>
+  </si>
+  <si>
+    <t>Jollibee Bacolod Mandalagan DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Sample Company</t>
+  </si>
+  <si>
+    <t>010-243-138-000</t>
+  </si>
+  <si>
+    <t>lacson St. Mandalagan</t>
+  </si>
+  <si>
+    <t>Bcolod City</t>
+  </si>
+  <si>
+    <t>RTM70550</t>
+  </si>
+  <si>
+    <t>22032219002997823</t>
+  </si>
+  <si>
+    <t>BRH-00000000013</t>
+  </si>
+  <si>
+    <t>FP112022-125-0358572-00126EXTRAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>5000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>BRH-00000000012432423423454958749587298357935739573519849584759837598347594759358</t>
   </si>
 </sst>
 </file>
@@ -1233,12 +1668,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1558,10 +1998,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1625,11 +2065,6 @@
     <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1657,156 +2092,156 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
       <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +2256,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1834,156 +2269,156 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
       <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1995,10 +2430,684 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="18.2571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2009,35 +3118,35 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>80</v>
+      <c r="A2" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -2045,130 +3154,114 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>84</v>
+      <c r="A5" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>85</v>
+      <c r="A6" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>86</v>
+      <c r="A7" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>87</v>
+      <c r="A8" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>88</v>
+      <c r="A9" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>90</v>
+      <c r="A10" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>91</v>
+      <c r="A11" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>92</v>
+      <c r="A12" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>93</v>
+      <c r="A13" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>94</v>
+      <c r="A14" t="s">
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>95</v>
+      <c r="A15" t="s">
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2177,7 +3270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A13"/>
@@ -2193,67 +3286,67 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2262,7 +3355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -2281,156 +3374,156 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
         <v>66</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
       <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
         <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2439,7 +3532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -2456,77 +3549,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2535,7 +3628,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -2552,365 +3645,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
-    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
-    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
-    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2936,77 +3741,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3016,6 +3821,295 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="19.4285714285714" customWidth="1"/>
+    <col min="3" max="4" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -3032,88 +4126,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3122,7 +4216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -3139,88 +4233,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3229,7 +4323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -3246,88 +4340,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -3336,7 +4430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A3"/>
@@ -3349,7 +4443,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -3359,7 +4453,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3368,7 +4462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -3384,44 +4478,44 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3430,7 +4524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B12"/>
@@ -3446,48 +4540,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="B1" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -3502,12 +4596,12 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3516,7 +4610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B15"/>
@@ -3532,63 +4626,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -3603,729 +4697,13 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G30"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
-    <col min="4" max="5" width="22.1428571428571" customWidth="1"/>
-    <col min="6" max="6" width="17.4285714285714" customWidth="1"/>
-    <col min="7" max="7" width="15.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>172</v>
-      </c>
-      <c r="B9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1"/>
+        <v>206</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4350,77 +4728,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4432,47 +4810,439 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
     <col min="4" max="5" width="22.1428571428571" customWidth="1"/>
     <col min="6" max="6" width="17.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>210</v>
+      </c>
+      <c r="G1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4480,13 +5250,16 @@
       <c r="F2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -4494,19 +5267,349 @@
       <c r="F3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>238</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="22.1428571428571" customWidth="1"/>
+    <col min="6" max="7" width="17.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -4514,13 +5617,16 @@
       <c r="F4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -4528,13 +5634,16 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -4542,13 +5651,16 @@
       <c r="F6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -4556,84 +5668,555 @@
       <c r="F7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="18" width="21.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1" t="s">
+        <v>268</v>
+      </c>
+      <c r="J1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K1" t="s">
+        <v>270</v>
+      </c>
+      <c r="L1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M1" t="s">
+        <v>272</v>
+      </c>
+      <c r="N1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O1" t="s">
+        <v>274</v>
+      </c>
+      <c r="P1" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:17">
+      <c r="A2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K2" t="s">
+        <v>284</v>
+      </c>
+      <c r="L2" t="s">
+        <v>285</v>
+      </c>
+      <c r="M2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N2" t="s">
+        <v>287</v>
+      </c>
+      <c r="O2" t="s">
+        <v>288</v>
+      </c>
+      <c r="P2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H3" t="s">
+        <v>283</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L3" t="s">
+        <v>285</v>
+      </c>
+      <c r="M3" t="s">
+        <v>286</v>
+      </c>
+      <c r="N3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O3" t="s">
+        <v>288</v>
+      </c>
+      <c r="P3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" t="b">
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K4" t="s">
+        <v>297</v>
+      </c>
+      <c r="L4" t="s">
+        <v>298</v>
+      </c>
+      <c r="M4" t="s">
+        <v>299</v>
+      </c>
+      <c r="N4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O4" t="s">
+        <v>301</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="2"/>
+    <row r="13" spans="2:2">
+      <c r="B13" s="2"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="2"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="2"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="2"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="2"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="2"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="1"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="1"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="I4" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
+    <col min="4" max="5" width="17.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1" t="s">
+        <v>313</v>
+      </c>
+      <c r="J1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N1" t="s">
+        <v>275</v>
+      </c>
+      <c r="O1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H2" t="s">
+        <v>324</v>
+      </c>
+      <c r="I2" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" t="s">
+        <v>325</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="L2" t="s">
+        <v>327</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" t="s">
+        <v>290</v>
+      </c>
+      <c r="J3" t="s">
+        <v>328</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="L3" t="s">
+        <v>330</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4658,77 +6241,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4754,77 +6337,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4850,77 +6433,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4946,88 +6529,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5053,88 +6636,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5160,88 +6743,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="30" activeTab="35"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="29" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="333">
   <si>
     <t>itemClass</t>
   </si>
@@ -685,49 +685,55 @@
     <t>This is a very long string that exceeds the maximum allowed length.</t>
   </si>
   <si>
+    <t>freeReasons</t>
+  </si>
+  <si>
+    <t>editFreeReasons</t>
+  </si>
+  <si>
+    <t>onlySearch</t>
+  </si>
+  <si>
+    <t>onlyDelete</t>
+  </si>
+  <si>
+    <t>Sample Giveaway</t>
+  </si>
+  <si>
+    <t>Customer Complaint Resolution</t>
+  </si>
+  <si>
+    <t>Complimentary Item</t>
+  </si>
+  <si>
+    <t>Birthday Freebie</t>
+  </si>
+  <si>
+    <t>Employee Perk</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Coupon Redemption</t>
+  </si>
+  <si>
+    <t>Membership Perk</t>
+  </si>
+  <si>
+    <t>Incorrect Charge</t>
+  </si>
+  <si>
+    <t>Inventory Clearance</t>
+  </si>
+  <si>
+    <t>Customer Appreciation</t>
+  </si>
+  <si>
     <t>voidReasons</t>
   </si>
   <si>
     <t>editVoidReasons</t>
-  </si>
-  <si>
-    <t>onlySearch</t>
-  </si>
-  <si>
-    <t>onlyDelete</t>
-  </si>
-  <si>
-    <t>Sample Giveaway</t>
-  </si>
-  <si>
-    <t>Customer Complaint Resolution</t>
-  </si>
-  <si>
-    <t>Complimentary Item</t>
-  </si>
-  <si>
-    <t>Birthday Freebie</t>
-  </si>
-  <si>
-    <t>Employee Perk</t>
-  </si>
-  <si>
-    <t>Sampling</t>
-  </si>
-  <si>
-    <t>Coupon Redemption</t>
-  </si>
-  <si>
-    <t>Membership Perk</t>
-  </si>
-  <si>
-    <t>Incorrect Charge</t>
-  </si>
-  <si>
-    <t>Inventory Clearance</t>
-  </si>
-  <si>
-    <t>Customer Appreciation</t>
   </si>
   <si>
     <t>Incorrect Order Entry</t>
@@ -1067,13 +1073,19 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1538,16 +1550,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1556,125 +1565,132 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2586,7 +2602,7 @@
       <c r="B13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2658,7 +2674,7 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D19" t="s">
@@ -2672,7 +2688,7 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D20" t="s">
@@ -2686,7 +2702,7 @@
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>117</v>
       </c>
       <c r="D21" t="s">
@@ -2820,7 +2836,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B31" t="s">
@@ -4810,13 +4826,13 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
@@ -4838,7 +4854,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>211</v>
       </c>
@@ -4848,8 +4864,9 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>212</v>
       </c>
@@ -4859,8 +4876,9 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>213</v>
       </c>
@@ -4870,8 +4888,9 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>214</v>
       </c>
@@ -4881,8 +4900,9 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>215</v>
       </c>
@@ -4892,8 +4912,9 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -4903,8 +4924,9 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>217</v>
       </c>
@@ -4914,8 +4936,9 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>218</v>
       </c>
@@ -4928,6 +4951,7 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -5020,10 +5044,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="C1" t="s">
         <v>209</v>
@@ -5034,7 +5058,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -5045,7 +5069,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -5056,7 +5080,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -5067,7 +5091,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5078,7 +5102,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -5089,7 +5113,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -5100,7 +5124,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5111,7 +5135,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B9" t="s">
         <v>219</v>
@@ -5125,7 +5149,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -5136,7 +5160,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -5216,30 +5240,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
         <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D1" t="s">
         <v>154</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
         <v>210</v>
       </c>
       <c r="G1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
         <v>159</v>
@@ -5256,10 +5280,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -5273,10 +5297,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -5290,10 +5314,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
         <v>240</v>
-      </c>
-      <c r="B5" t="s">
-        <v>238</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -5307,7 +5331,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
         <v>162</v>
@@ -5324,7 +5348,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
         <v>165</v>
@@ -5341,7 +5365,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
         <v>165</v>
@@ -5358,13 +5382,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B9" t="s">
         <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
         <v>165</v>
@@ -5381,7 +5405,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B10" t="s">
         <v>160</v>
@@ -5398,7 +5422,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>162</v>
@@ -5543,22 +5567,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G1" t="s">
         <v>210</v>
@@ -5566,10 +5590,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -5583,10 +5607,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -5600,16 +5624,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" t="s">
         <v>257</v>
-      </c>
-      <c r="D4" t="s">
-        <v>255</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -5623,10 +5647,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -5640,10 +5664,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -5660,7 +5684,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -5677,7 +5701,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -5694,7 +5718,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -5711,7 +5735,7 @@
         <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -5781,55 +5805,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:17">
@@ -5837,46 +5861,46 @@
         <v>188</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -5890,46 +5914,46 @@
         <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I3" s="1">
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="N3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -5943,46 +5967,46 @@
         <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H4" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="K4" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M4" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N4" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="O4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -6055,15 +6079,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -6077,7 +6101,7 @@
   <sheetPr/>
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -6085,87 +6109,87 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F2" t="s">
         <v>190</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J2" t="s">
-        <v>325</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="L2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -6176,40 +6200,40 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
         <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J3" t="s">
-        <v>328</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="L3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="29" activeTab="29"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="29" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="332">
   <si>
     <t>itemClass</t>
   </si>
@@ -778,25 +778,22 @@
     <t>onlySearchInval</t>
   </si>
   <si>
-    <t>Extra gravy</t>
-  </si>
-  <si>
-    <t>No salt on fries</t>
-  </si>
-  <si>
-    <t>Fries</t>
-  </si>
-  <si>
-    <t>Extra crispy fries</t>
-  </si>
-  <si>
-    <t>Extra ketchup</t>
-  </si>
-  <si>
-    <t>Extra rice</t>
-  </si>
-  <si>
-    <t>Extra ice</t>
+    <t>Extra Gravy</t>
+  </si>
+  <si>
+    <t>Extra Cheese</t>
+  </si>
+  <si>
+    <t>Extra Crispy</t>
+  </si>
+  <si>
+    <t>Extra Lettuce</t>
+  </si>
+  <si>
+    <t>Extra Rice</t>
+  </si>
+  <si>
+    <t>Extra Ice</t>
   </si>
   <si>
     <t>No ice</t>
@@ -4828,7 +4825,7 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -5031,7 +5028,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5224,8 +5221,8 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5283,7 +5280,7 @@
         <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -5297,10 +5294,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -5314,10 +5311,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -5331,7 +5328,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B6" t="s">
         <v>162</v>
@@ -5348,7 +5345,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B7" t="s">
         <v>165</v>
@@ -5365,7 +5362,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" t="s">
         <v>165</v>
@@ -5382,13 +5379,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
         <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" t="s">
         <v>165</v>
@@ -5405,7 +5402,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B10" t="s">
         <v>160</v>
@@ -5422,7 +5419,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>162</v>
@@ -5567,16 +5564,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
         <v>250</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>252</v>
-      </c>
-      <c r="D1" t="s">
-        <v>253</v>
       </c>
       <c r="E1" t="s">
         <v>236</v>
@@ -5590,10 +5587,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
         <v>254</v>
-      </c>
-      <c r="B2" t="s">
-        <v>255</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -5607,10 +5604,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
         <v>256</v>
-      </c>
-      <c r="B3" t="s">
-        <v>257</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -5624,16 +5621,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
         <v>258</v>
       </c>
-      <c r="B4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C4" t="s">
-        <v>259</v>
-      </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -5647,10 +5644,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -5664,10 +5661,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -5684,7 +5681,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -5701,7 +5698,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -5718,7 +5715,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -5735,7 +5732,7 @@
         <v>206</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -5805,55 +5802,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
         <v>262</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>263</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>264</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>265</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>266</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>267</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>268</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>269</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>270</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>271</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>272</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>273</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>274</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>275</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>276</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>277</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:17">
@@ -5861,46 +5858,46 @@
         <v>188</v>
       </c>
       <c r="B2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" t="s">
         <v>279</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>280</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>281</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>284</v>
-      </c>
-      <c r="H2" t="s">
-        <v>285</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L2" t="s">
         <v>286</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>287</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>288</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>289</v>
-      </c>
-      <c r="O2" t="s">
-        <v>290</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -5914,46 +5911,46 @@
         <v>190</v>
       </c>
       <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" t="s">
         <v>279</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>280</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>281</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" t="s">
         <v>284</v>
-      </c>
-      <c r="H3" t="s">
-        <v>285</v>
       </c>
       <c r="I3" s="1">
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L3" t="s">
         <v>286</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>287</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>288</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>289</v>
-      </c>
-      <c r="O3" t="s">
-        <v>290</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -5967,46 +5964,46 @@
         <v>190</v>
       </c>
       <c r="B4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" t="s">
         <v>291</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>292</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>293</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>294</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" t="s">
         <v>296</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="K4" t="s">
         <v>298</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>299</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>300</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>301</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>302</v>
-      </c>
-      <c r="O4" t="s">
-        <v>303</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -6079,15 +6076,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B1" t="s">
         <v>304</v>
-      </c>
-      <c r="B1" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -6109,87 +6106,87 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" t="s">
         <v>307</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>308</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>309</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>310</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>311</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>312</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>313</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>314</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>315</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>316</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>317</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>318</v>
       </c>
-      <c r="M1" t="s">
-        <v>319</v>
-      </c>
       <c r="N1" t="s">
+        <v>276</v>
+      </c>
+      <c r="O1" t="s">
         <v>277</v>
-      </c>
-      <c r="O1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
         <v>320</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>321</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>322</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>323</v>
-      </c>
-      <c r="E2" t="s">
-        <v>324</v>
       </c>
       <c r="F2" t="s">
         <v>190</v>
       </c>
       <c r="G2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H2" t="s">
         <v>325</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>321</v>
+      </c>
+      <c r="J2" t="s">
         <v>326</v>
       </c>
-      <c r="I2" t="s">
-        <v>322</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" t="s">
         <v>328</v>
-      </c>
-      <c r="L2" t="s">
-        <v>329</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -6200,40 +6197,40 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F3" t="s">
         <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J3" t="s">
+        <v>329</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" t="s">
         <v>331</v>
-      </c>
-      <c r="L3" t="s">
-        <v>332</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="29" activeTab="31"/>
+    <workbookView windowWidth="9390" windowHeight="7500" tabRatio="942" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,8 @@
     <sheet name="master-footer-data" sheetId="37" r:id="rId34"/>
     <sheet name="master-systemparam-data" sheetId="34" r:id="rId35"/>
     <sheet name="master-header-data" sheetId="38" r:id="rId36"/>
+    <sheet name="item-add-el" sheetId="39" r:id="rId37"/>
+    <sheet name="item-edit-el" sheetId="40" r:id="rId38"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="401">
   <si>
     <t>itemClass</t>
   </si>
@@ -70,6 +72,15 @@
     <t>editItemClass</t>
   </si>
   <si>
+    <t>onlySearchVal</t>
+  </si>
+  <si>
+    <t>onlyDelete</t>
+  </si>
+  <si>
+    <t>onlySearchInval</t>
+  </si>
+  <si>
     <t>Food</t>
   </si>
   <si>
@@ -97,540 +108,627 @@
     <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sarap</t>
   </si>
   <si>
+    <t>©™®àáâñä¢£¥€!@#$^*_+=&lt;&gt;?`~"|\ [];:</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>assertion</t>
+  </si>
+  <si>
+    <t>expectedText</t>
+  </si>
+  <si>
+    <t>customErrorMsg</t>
+  </si>
+  <si>
+    <t>button.border-blue-500</t>
+  </si>
+  <si>
+    <t>contain.text</t>
+  </si>
+  <si>
+    <t>Update Data</t>
+  </si>
+  <si>
+    <t>Should contain text "Update Data"</t>
+  </si>
+  <si>
+    <t>button.border-red-500</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>#itmcladsc</t>
+  </si>
+  <si>
+    <t>be.enabled</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>"Update Data" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>"Cancel" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Update Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel" instead of "update Data"</t>
+  </si>
+  <si>
+    <t>#cardtype</t>
+  </si>
+  <si>
+    <t>#paytyp</t>
+  </si>
+  <si>
+    <t>#freereason</t>
+  </si>
+  <si>
+    <t>#voidcde</t>
+  </si>
+  <si>
+    <t>#itemsubclassdsc</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itmclacde</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to select data.</t>
+  </si>
+  <si>
+    <t>"Add Data" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>#postypdsc</t>
+  </si>
+  <si>
+    <t>#ordertyp</t>
+  </si>
+  <si>
+    <t>"Save" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>#modcde</t>
+  </si>
+  <si>
+    <t>#modgrpcde</t>
+  </si>
+  <si>
+    <t>selectorName</t>
+  </si>
+  <si>
+    <t>Print button</t>
+  </si>
+  <si>
+    <t>:nth-child(2) &gt; .sc-guDLey</t>
+  </si>
+  <si>
+    <t>not.be.disabled</t>
+  </si>
+  <si>
+    <t>"Print" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Add button</t>
+  </si>
+  <si>
+    <t>.sc-eDLKkx &gt; .anticon &gt; svg</t>
+  </si>
+  <si>
+    <t>"Add" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide columns button</t>
+  </si>
+  <si>
+    <t>[data-testid="ViewColumnIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Columns" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide search button</t>
+  </si>
+  <si>
+    <t>[data-testid="SearchIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Search" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide Filters button</t>
+  </si>
+  <si>
+    <t>[data-testid="FilterListIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Filters" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Toggle Density button</t>
+  </si>
+  <si>
+    <t>[data-testid="DensityMediumIcon"]</t>
+  </si>
+  <si>
+    <t>"Toggle Density" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Fullscreen button</t>
+  </si>
+  <si>
+    <t>[data-testid="FullscreenIcon"]</t>
+  </si>
+  <si>
+    <t>"Fullscreen" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Arrow Left button</t>
+  </si>
+  <si>
+    <t>[data-testid="KeyboardArrowLeftIcon"]</t>
+  </si>
+  <si>
+    <t>not.be.enabled</t>
+  </si>
+  <si>
+    <t>"Arrow Left" button  should be not be clickable when no data on the table</t>
+  </si>
+  <si>
+    <t>Arrow Right button</t>
+  </si>
+  <si>
+    <t>[data-testid="KeyboardArrowRightIcon"]</t>
+  </si>
+  <si>
+    <t>Rows per page button</t>
+  </si>
+  <si>
+    <t>[id=":r9:"]</t>
+  </si>
+  <si>
+    <t>"Rows per page" button  should be clickable</t>
+  </si>
+  <si>
+    <t>#business1</t>
+  </si>
+  <si>
+    <t>"Business Name 1" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#business2</t>
+  </si>
+  <si>
+    <t>"Business Name 2" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#business3</t>
+  </si>
+  <si>
+    <t>"Business Name 3" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#taxpayer</t>
+  </si>
+  <si>
+    <t>"Tax Payer registered in BIR" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#tin</t>
+  </si>
+  <si>
+    <t>"VAT" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#chknonvat</t>
+  </si>
+  <si>
+    <t>"Non-VAT" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#address1</t>
+  </si>
+  <si>
+    <t>"Address 1 *" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#address2</t>
+  </si>
+  <si>
+    <t>"Address 2 *" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#address3</t>
+  </si>
+  <si>
+    <t>"Address 3 *" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#serialno</t>
+  </si>
+  <si>
+    <t>"Serial Number" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#machineno</t>
+  </si>
+  <si>
+    <t>"Machine Number" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#brhcde</t>
+  </si>
+  <si>
+    <t>"Branch Code" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#postrmno</t>
+  </si>
+  <si>
+    <t>"Terminal No." textbox should be editable</t>
+  </si>
+  <si>
+    <t>.border-red-500</t>
+  </si>
+  <si>
+    <t>"Cancel" button  should be clickable</t>
+  </si>
+  <si>
+    <t>.border-blue-500</t>
+  </si>
+  <si>
+    <t>"Save" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel" instead of "Close"</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Update button should contain text "Update" instead of "Save"</t>
+  </si>
+  <si>
+    <t>label[for="business1"]</t>
+  </si>
+  <si>
+    <t>Business Name 1</t>
+  </si>
+  <si>
+    <t>Should contain text "Business Name 1"</t>
+  </si>
+  <si>
+    <t>label[for="business2"]</t>
+  </si>
+  <si>
+    <t>Business Name 2</t>
+  </si>
+  <si>
+    <t>Should contain text "Business Name 2"</t>
+  </si>
+  <si>
+    <t>label[for="business3"]</t>
+  </si>
+  <si>
+    <t>Business Name 3</t>
+  </si>
+  <si>
+    <t>Should contain text "Business Name 3"</t>
+  </si>
+  <si>
+    <t>label[for="taxpayer"]</t>
+  </si>
+  <si>
+    <t>Tax Payer registered in BIR</t>
+  </si>
+  <si>
+    <t>Should contain text "Tax Payer registered in BIR"</t>
+  </si>
+  <si>
+    <t>label[for="tin"]</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Should contain text "VAT"</t>
+  </si>
+  <si>
+    <t>label[for="chknonvat"]</t>
+  </si>
+  <si>
+    <t>Non-VAT</t>
+  </si>
+  <si>
+    <t>Should contain text "Non-VAT"</t>
+  </si>
+  <si>
+    <t>label[for="address1"]</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Should contain text "Address 1"</t>
+  </si>
+  <si>
+    <t>label[for="address2"]</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>Should contain text "Address 2"</t>
+  </si>
+  <si>
+    <t>label[for="address3"]</t>
+  </si>
+  <si>
+    <t>Address 3</t>
+  </si>
+  <si>
+    <t>Should contain text "Address 3"</t>
+  </si>
+  <si>
+    <t>label[for="serialno"]</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Should contain text "Serial Number"</t>
+  </si>
+  <si>
+    <t>label[for="machineno"]</t>
+  </si>
+  <si>
+    <t>Machine Number</t>
+  </si>
+  <si>
+    <t>Should contain text "Machine Number"</t>
+  </si>
+  <si>
+    <t>label[for="brhcde"]</t>
+  </si>
+  <si>
+    <t>Branch Code</t>
+  </si>
+  <si>
+    <t>Should contain text "Branch Code"</t>
+  </si>
+  <si>
+    <t>label[for="postrmno"]</t>
+  </si>
+  <si>
+    <t>Terminal No.</t>
+  </si>
+  <si>
+    <t>Should contain text "Terminal No."</t>
+  </si>
+  <si>
+    <t>Time Textbox</t>
+  </si>
+  <si>
+    <t>#timestart</t>
+  </si>
+  <si>
+    <t>button.px-4.py-2.rounded.border.border-solid.border-red-500.hover\\:bg-red-500.hover\\:text-white.my-5.mxl-3</t>
+  </si>
+  <si>
+    <t>button.px-4.py-2.rounded.border.border-solid.border-blue-500.hover\\:bg-blue-500.hover\\:text-white.my-5.mx-3</t>
+  </si>
+  <si>
+    <t>itemSubclass</t>
+  </si>
+  <si>
+    <t>editItemSubclass</t>
+  </si>
+  <si>
+    <t>Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Breakfast Meal</t>
+  </si>
+  <si>
+    <t>Milkshakes</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Burgers</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>Rice Meals</t>
+  </si>
+  <si>
+    <t>Pies</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Soft Drinks</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
     <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
   </si>
   <si>
-    <t>sel</t>
-  </si>
-  <si>
-    <t>assertion</t>
-  </si>
-  <si>
-    <t>expectedText</t>
-  </si>
-  <si>
-    <t>customErrorMsg</t>
-  </si>
-  <si>
-    <t>button.border-blue-500</t>
-  </si>
-  <si>
-    <t>contain.text</t>
-  </si>
-  <si>
-    <t>Update Data</t>
-  </si>
-  <si>
-    <t>Should contain text "Update Data"</t>
-  </si>
-  <si>
-    <t>button.border-red-500</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>#itmcladsc</t>
-  </si>
-  <si>
-    <t>be.enabled</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>"Update Data" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>"Cancel" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save" instead of "Update Data"</t>
-  </si>
-  <si>
-    <t>Cancel button should contain text "Cancel" instead of "update Data"</t>
-  </si>
-  <si>
-    <t>#cardtype</t>
-  </si>
-  <si>
-    <t>#paytyp</t>
-  </si>
-  <si>
-    <t>#freereason</t>
-  </si>
-  <si>
-    <t>#voidcde</t>
-  </si>
-  <si>
-    <t>#itemsubclassdsc</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#itmclacde</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to select data.</t>
-  </si>
-  <si>
-    <t>"Add Data" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>#postypdsc</t>
-  </si>
-  <si>
-    <t>#ordertyp</t>
-  </si>
-  <si>
-    <t>"Save" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>#modcde</t>
-  </si>
-  <si>
-    <t>#modgrpcde</t>
-  </si>
-  <si>
-    <t>selectorName</t>
-  </si>
-  <si>
-    <t>Print button</t>
-  </si>
-  <si>
-    <t>:nth-child(2) &gt; .sc-guDLey</t>
-  </si>
-  <si>
-    <t>not.be.disabled</t>
-  </si>
-  <si>
-    <t>"Print" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Add button</t>
-  </si>
-  <si>
-    <t>.sc-eDLKkx &gt; .anticon &gt; svg</t>
-  </si>
-  <si>
-    <t>"Add" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide columns button</t>
-  </si>
-  <si>
-    <t>[data-testid="ViewColumnIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Columns" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide search button</t>
-  </si>
-  <si>
-    <t>[data-testid="SearchIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Search" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide Filters button</t>
-  </si>
-  <si>
-    <t>[data-testid="FilterListIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Filters" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Toggle Density button</t>
-  </si>
-  <si>
-    <t>[data-testid="DensityMediumIcon"]</t>
-  </si>
-  <si>
-    <t>"Toggle Density" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Fullscreen button</t>
-  </si>
-  <si>
-    <t>[data-testid="FullscreenIcon"]</t>
-  </si>
-  <si>
-    <t>"Fullscreen" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Arrow Left button</t>
-  </si>
-  <si>
-    <t>[data-testid="KeyboardArrowLeftIcon"]</t>
-  </si>
-  <si>
-    <t>not.be.enabled</t>
-  </si>
-  <si>
-    <t>"Arrow Left" button  should be not be clickable when no data on the table</t>
-  </si>
-  <si>
-    <t>Arrow Right button</t>
-  </si>
-  <si>
-    <t>[data-testid="KeyboardArrowRightIcon"]</t>
-  </si>
-  <si>
-    <t>Rows per page button</t>
-  </si>
-  <si>
-    <t>[id=":r9:"]</t>
-  </si>
-  <si>
-    <t>"Rows per page" button  should be clickable</t>
-  </si>
-  <si>
-    <t>#business1</t>
-  </si>
-  <si>
-    <t>"Business Name 1" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#business2</t>
-  </si>
-  <si>
-    <t>"Business Name 2" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#business3</t>
-  </si>
-  <si>
-    <t>"Business Name 3" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#taxpayer</t>
-  </si>
-  <si>
-    <t>"Tax Payer registered in BIR" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#tin</t>
-  </si>
-  <si>
-    <t>"VAT" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#chknonvat</t>
-  </si>
-  <si>
-    <t>"Non-VAT" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#address1</t>
-  </si>
-  <si>
-    <t>"Address 1 *" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#address2</t>
-  </si>
-  <si>
-    <t>"Address 2 *" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#address3</t>
-  </si>
-  <si>
-    <t>"Address 3 *" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#serialno</t>
-  </si>
-  <si>
-    <t>"Serial Number" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#machineno</t>
-  </si>
-  <si>
-    <t>"Machine Number" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#brhcde</t>
-  </si>
-  <si>
-    <t>"Branch Code" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#postrmno</t>
-  </si>
-  <si>
-    <t>"Terminal No." textbox should be editable</t>
-  </si>
-  <si>
-    <t>.border-red-500</t>
-  </si>
-  <si>
-    <t>"Cancel" button  should be clickable</t>
-  </si>
-  <si>
-    <t>.border-blue-500</t>
-  </si>
-  <si>
-    <t>"Save" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Cancel button should contain text "Cancel" instead of "Close"</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>Update button should contain text "Update" instead of "Save"</t>
-  </si>
-  <si>
-    <t>label[for="business1"]</t>
-  </si>
-  <si>
-    <t>Business Name 1</t>
-  </si>
-  <si>
-    <t>Should contain text "Business Name 1"</t>
-  </si>
-  <si>
-    <t>label[for="business2"]</t>
-  </si>
-  <si>
-    <t>Business Name 2</t>
-  </si>
-  <si>
-    <t>Should contain text "Business Name 2"</t>
-  </si>
-  <si>
-    <t>label[for="business3"]</t>
-  </si>
-  <si>
-    <t>Business Name 3</t>
-  </si>
-  <si>
-    <t>Should contain text "Business Name 3"</t>
-  </si>
-  <si>
-    <t>label[for="taxpayer"]</t>
-  </si>
-  <si>
-    <t>Tax Payer registered in BIR</t>
-  </si>
-  <si>
-    <t>Should contain text "Tax Payer registered in BIR"</t>
-  </si>
-  <si>
-    <t>label[for="tin"]</t>
-  </si>
-  <si>
-    <t>VAT</t>
-  </si>
-  <si>
-    <t>Should contain text "VAT"</t>
-  </si>
-  <si>
-    <t>label[for="chknonvat"]</t>
-  </si>
-  <si>
-    <t>Non-VAT</t>
-  </si>
-  <si>
-    <t>Should contain text "Non-VAT"</t>
-  </si>
-  <si>
-    <t>label[for="address1"]</t>
-  </si>
-  <si>
-    <t>Address 1</t>
-  </si>
-  <si>
-    <t>Should contain text "Address 1"</t>
-  </si>
-  <si>
-    <t>label[for="address2"]</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>Should contain text "Address 2"</t>
-  </si>
-  <si>
-    <t>label[for="address3"]</t>
-  </si>
-  <si>
-    <t>Address 3</t>
-  </si>
-  <si>
-    <t>Should contain text "Address 3"</t>
-  </si>
-  <si>
-    <t>label[for="serialno"]</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>Should contain text "Serial Number"</t>
-  </si>
-  <si>
-    <t>label[for="machineno"]</t>
-  </si>
-  <si>
-    <t>Machine Number</t>
-  </si>
-  <si>
-    <t>Should contain text "Machine Number"</t>
-  </si>
-  <si>
-    <t>label[for="brhcde"]</t>
-  </si>
-  <si>
-    <t>Branch Code</t>
-  </si>
-  <si>
-    <t>Should contain text "Branch Code"</t>
-  </si>
-  <si>
-    <t>label[for="postrmno"]</t>
-  </si>
-  <si>
-    <t>Terminal No.</t>
-  </si>
-  <si>
-    <t>Should contain text "Terminal No."</t>
-  </si>
-  <si>
-    <t>Time Textbox</t>
-  </si>
-  <si>
-    <t>#timestart</t>
-  </si>
-  <si>
-    <t>button.px-4.py-2.rounded.border.border-solid.border-red-500.hover\\:bg-red-500.hover\\:text-white.my-5.mxl-3</t>
-  </si>
-  <si>
-    <t>button.px-4.py-2.rounded.border.border-solid.border-blue-500.hover\\:bg-blue-500.hover\\:text-white.my-5.mx-3</t>
-  </si>
-  <si>
-    <t>itemSubclass</t>
-  </si>
-  <si>
-    <t>editItemSubclass</t>
-  </si>
-  <si>
-    <t>Mashed Potatoes</t>
-  </si>
-  <si>
-    <t>Snacks</t>
-  </si>
-  <si>
-    <t>Breakfast Meal</t>
-  </si>
-  <si>
-    <t>Milkshakes</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>Burgers</t>
-  </si>
-  <si>
-    <t>Spaghetti</t>
-  </si>
-  <si>
-    <t>Rice Meals</t>
-  </si>
-  <si>
-    <t>Pies</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Soft Drinks</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
-    <t>Coke</t>
-  </si>
-  <si>
-    <t>Coke Zero</t>
-  </si>
-  <si>
-    <t>Royal</t>
-  </si>
-  <si>
-    <t>Sprite</t>
-  </si>
-  <si>
-    <t>Soda Float</t>
-  </si>
-  <si>
-    <t>Pineapple Juice</t>
-  </si>
-  <si>
-    <t>Iced Tea</t>
-  </si>
-  <si>
-    <t>Iced Mocha</t>
-  </si>
-  <si>
-    <t>Iced Mocha Float</t>
-  </si>
-  <si>
-    <t>Iced Latte</t>
+    <t>itemType</t>
+  </si>
+  <si>
+    <t>Item Class</t>
+  </si>
+  <si>
+    <t>unitMeasure</t>
+  </si>
+  <si>
+    <t>unitCost</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>sellingPrice</t>
+  </si>
+  <si>
+    <t>goodXPerson</t>
+  </si>
+  <si>
+    <t>taxCode</t>
+  </si>
+  <si>
+    <t>memc</t>
+  </si>
+  <si>
+    <t>addOn</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>comboMeal</t>
+  </si>
+  <si>
+    <t>Yumburger Solo</t>
+  </si>
+  <si>
+    <t>NON-INVENTORY</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>00000000001</t>
+  </si>
+  <si>
+    <t>VATABLE</t>
+  </si>
+  <si>
+    <t>1-pc Chickenjoy</t>
+  </si>
+  <si>
+    <t>00000000002</t>
+  </si>
+  <si>
+    <t>Buko Pandan Sundae</t>
+  </si>
+  <si>
+    <t>00000000003</t>
   </si>
   <si>
     <t>Hot Fresh Brew</t>
   </si>
   <si>
-    <t>Hot Chocolate</t>
+    <t>00000000004</t>
+  </si>
+  <si>
+    <t>6-pc. Chickenjoy Solo</t>
+  </si>
+  <si>
+    <t>00000000005</t>
+  </si>
+  <si>
+    <t>Ube Cheese Pie</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>00000000006</t>
+  </si>
+  <si>
+    <t>Delicious and crispy Chickenjoy with a side of Jolly Spaghetti and garlic rice, perfect for a fulfilling meal</t>
+  </si>
+  <si>
+    <t>00000000007</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>00000000009</t>
+  </si>
+  <si>
+    <t>00000000010</t>
+  </si>
+  <si>
+    <t>This is a very long string that exceeds the maximum allowed length.</t>
+  </si>
+  <si>
+    <t>00000000011</t>
   </si>
   <si>
     <t>[id=":rc:"]</t>
   </si>
   <si>
+    <t>Save button should contain text "Save"</t>
+  </si>
+  <si>
+    <t>Cancel should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Item Class Description should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>"Save" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>"Cancel" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Add Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>dataToDelete</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Should contain text "Save"</t>
   </si>
   <si>
-    <t>Save button should contain text "Save" instead of "Add Data"</t>
-  </si>
-  <si>
-    <t>Cancel button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save"</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>dataToDelete</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>cy.get('.border-red-500')</t>
   </si>
   <si>
@@ -682,9 +780,6 @@
     <t>E-wallet</t>
   </si>
   <si>
-    <t>This is a very long string that exceeds the maximum allowed length.</t>
-  </si>
-  <si>
     <t>freeReasons</t>
   </si>
   <si>
@@ -694,9 +789,6 @@
     <t>onlySearch</t>
   </si>
   <si>
-    <t>onlyDelete</t>
-  </si>
-  <si>
     <t>Sample Giveaway</t>
   </si>
   <si>
@@ -772,12 +864,6 @@
     <t>editSpecialReq</t>
   </si>
   <si>
-    <t>onlySearchVal</t>
-  </si>
-  <si>
-    <t>onlySearchInval</t>
-  </si>
-  <si>
     <t>Extra Gravy</t>
   </si>
   <si>
@@ -1058,6 +1144,129 @@
   </si>
   <si>
     <t>BRH-00000000012432423423454958749587298357935739573519849584759837598347594759358</t>
+  </si>
+  <si>
+    <t>#itmdsc</t>
+  </si>
+  <si>
+    <t>Item Description should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itmtyp</t>
+  </si>
+  <si>
+    <t>Item Type hould be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itemsubclasscde</t>
+  </si>
+  <si>
+    <t>Item SubClass should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>Item Class should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#untmea</t>
+  </si>
+  <si>
+    <t>Unit of Measure should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#untcst</t>
+  </si>
+  <si>
+    <t>Unit of Costshould be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#barcde</t>
+  </si>
+  <si>
+    <t>Barcode should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#untprc</t>
+  </si>
+  <si>
+    <t>Selling Price should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itmpaxcount</t>
+  </si>
+  <si>
+    <t>Good for X Person should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#taxcde</t>
+  </si>
+  <si>
+    <t>Tax Code should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#memc</t>
+  </si>
+  <si>
+    <t>MEMC should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#isaddon</t>
+  </si>
+  <si>
+    <t>Add-ons should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#inactive</t>
+  </si>
+  <si>
+    <t>Inactive should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#chkcombo</t>
+  </si>
+  <si>
+    <t>Combo Mealshould be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>Item Description should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Item Type hould be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Item Class should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Item Subclass should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Unit of Measure should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Unit of Costshould be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Barcode should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Selling Price should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Good for X Person should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Tax Code should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>MEMC should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Add-ons should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Inactive should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Combo Mealshould be enabled to allow user to edit data.</t>
   </si>
 </sst>
 </file>
@@ -2011,73 +2220,164 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="69.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="25.1428571428571" customWidth="1"/>
     <col min="4" max="6" width="20.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2105,156 +2405,156 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2282,156 +2582,156 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2459,391 +2759,391 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2871,78 +3171,78 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2970,142 +3270,142 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3131,13 +3431,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -3145,136 +3445,136 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3286,10 +3586,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3297,69 +3597,508 @@
     <col min="1" max="6" width="19.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>199</v>
+      </c>
+      <c r="B7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>190</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>190</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9">
+        <v>51</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>190</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10">
+        <v>52</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>190</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11">
+        <v>53</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>190</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>180</v>
+        <v>207</v>
+      </c>
+      <c r="B12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12">
+        <v>54</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>190</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3387,156 +4126,156 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
-        <v>70</v>
-      </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3551,7 +4290,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -3562,77 +4301,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3647,7 +4386,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C14" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -3658,77 +4397,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3754,77 +4493,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3850,77 +4589,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3946,77 +4685,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4043,77 +4782,77 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4139,88 +4878,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4246,88 +4985,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4353,88 +5092,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4456,17 +5195,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4491,44 +5230,44 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4553,68 +5292,68 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="B6" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4639,83 +5378,83 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4741,77 +5480,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4839,21 +5578,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -4865,7 +5604,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -4877,7 +5616,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -4889,7 +5628,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -4901,7 +5640,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -4913,7 +5652,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -4925,7 +5664,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -4937,10 +5676,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -4952,7 +5691,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -4963,7 +5702,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -4974,7 +5713,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -4985,7 +5724,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -4996,7 +5735,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -5007,7 +5746,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -5041,21 +5780,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="C1" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -5066,7 +5805,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -5077,7 +5816,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -5088,7 +5827,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5099,7 +5838,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -5110,7 +5849,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -5121,7 +5860,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5132,10 +5871,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -5146,7 +5885,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -5157,7 +5896,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -5168,7 +5907,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -5179,7 +5918,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -5190,7 +5929,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -5201,7 +5940,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -5221,8 +5960,8 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5237,33 +5976,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="D1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>237</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -5277,10 +6016,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -5294,10 +6033,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -5311,10 +6050,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -5328,10 +6067,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -5345,10 +6084,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -5362,10 +6101,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -5379,16 +6118,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -5402,10 +6141,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -5419,10 +6158,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -5436,10 +6175,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -5453,10 +6192,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -5470,10 +6209,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -5487,10 +6226,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -5564,33 +6303,33 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="C1" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="E1" t="s">
-        <v>236</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>237</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -5604,10 +6343,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -5621,16 +6360,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -5644,10 +6383,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -5661,10 +6400,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -5678,10 +6417,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -5695,10 +6434,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -5712,10 +6451,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -5729,10 +6468,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -5802,102 +6541,102 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="C1" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="E1" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F1" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="G1" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="H1" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="I1" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J1" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="K1" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="L1" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M1" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="N1" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="O1" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="P1" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="Q1" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:17">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="H2" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="K2" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="L2" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="M2" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="N2" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="O2" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -5908,49 +6647,49 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="H3" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="I3" s="1">
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="K3" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="L3" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="M3" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="N3" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="O3" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -5961,49 +6700,49 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="F4" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="H4" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="K4" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="L4" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="M4" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="N4" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="O4" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -6076,15 +6815,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -6106,87 +6845,87 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="D1" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="E1" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="F1" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="H1" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="I1" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="J1" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="K1" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="L1" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="M1" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="N1" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="O1" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="C2" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
-        <v>322</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="F2" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="G2" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="I2" t="s">
-        <v>321</v>
+        <v>349</v>
       </c>
       <c r="J2" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="L2" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -6197,46 +6936,513 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="F3" t="s">
-        <v>190</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="H3" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="I3" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="J3" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="L3" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="3" max="4" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>371</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>373</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6262,77 +7468,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6358,77 +7564,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6454,77 +7660,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6550,88 +7756,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6657,88 +7863,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
         <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -6764,88 +7970,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -588,7 +588,7 @@
     <t>itemType</t>
   </si>
   <si>
-    <t>Item Class</t>
+    <t>ItemClass</t>
   </si>
   <si>
     <t>unitMeasure</t>
@@ -3589,7 +3589,7 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9390" windowHeight="7500" tabRatio="942" firstSheet="15" activeTab="15"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="401">
   <si>
     <t>itemClass</t>
   </si>
@@ -588,9 +588,6 @@
     <t>itemType</t>
   </si>
   <si>
-    <t>ItemClass</t>
-  </si>
-  <si>
     <t>unitMeasure</t>
   </si>
   <si>
@@ -621,13 +618,16 @@
     <t>comboMeal</t>
   </si>
   <si>
+    <t>editItem</t>
+  </si>
+  <si>
+    <t>editItemType</t>
+  </si>
+  <si>
     <t>Yumburger Solo</t>
   </si>
   <si>
     <t>NON-INVENTORY</t>
-  </si>
-  <si>
-    <t>Burger</t>
   </si>
   <si>
     <t>PCS</t>
@@ -3586,10 +3586,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3597,7 +3597,7 @@
     <col min="1" max="6" width="19.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:31">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -3605,40 +3605,40 @@
         <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
         <v>156</v>
       </c>
       <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>177</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>178</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>179</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>180</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>181</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>182</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>183</v>
-      </c>
-      <c r="N1" t="s">
-        <v>184</v>
       </c>
       <c r="O1" t="s">
         <v>2</v>
@@ -3649,19 +3649,61 @@
       <c r="Q1" t="s">
         <v>4</v>
       </c>
+      <c r="R1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
         <v>188</v>
@@ -3696,7 +3738,7 @@
         <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3708,7 +3750,7 @@
         <v>188</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>192</v>
@@ -3737,7 +3779,7 @@
         <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -3749,7 +3791,7 @@
         <v>188</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>194</v>
@@ -3778,7 +3820,7 @@
         <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -3790,7 +3832,7 @@
         <v>188</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>196</v>
@@ -3819,7 +3861,7 @@
         <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3831,7 +3873,7 @@
         <v>188</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>198</v>
@@ -3860,7 +3902,7 @@
         <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -3872,7 +3914,7 @@
         <v>188</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>201</v>
@@ -3901,7 +3943,7 @@
         <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3913,7 +3955,7 @@
         <v>188</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>203</v>
@@ -3942,7 +3984,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3954,7 +3996,7 @@
         <v>204</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>204</v>
@@ -3983,7 +4025,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3995,7 +4037,7 @@
         <v>188</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>205</v>
@@ -4024,7 +4066,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -4036,7 +4078,7 @@
         <v>188</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>206</v>
@@ -4065,7 +4107,7 @@
         <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -4077,7 +4119,7 @@
         <v>188</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>208</v>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="15" activeTab="15"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -18,33 +18,34 @@
     <sheet name="specialreq-edit-el" sheetId="28" r:id="rId9"/>
     <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId10"/>
     <sheet name="module-selector-assert" sheetId="16" r:id="rId11"/>
-    <sheet name="header-selector-assert" sheetId="36" r:id="rId12"/>
-    <sheet name="systemparam-selector-assert" sheetId="35" r:id="rId13"/>
-    <sheet name="ordertype-selector-assert" sheetId="33" r:id="rId14"/>
-    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId15"/>
-    <sheet name="master-item-data" sheetId="4" r:id="rId16"/>
-    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId17"/>
-    <sheet name="itemclass-add-el" sheetId="6" r:id="rId18"/>
-    <sheet name="cardtype-add-el" sheetId="17" r:id="rId19"/>
-    <sheet name="paymenttype-add-el" sheetId="19" r:id="rId20"/>
-    <sheet name="freereasons-add-el" sheetId="23" r:id="rId21"/>
-    <sheet name="voidreasons-add-el" sheetId="25" r:id="rId22"/>
-    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId23"/>
-    <sheet name="ordertype-add-el" sheetId="31" r:id="rId24"/>
-    <sheet name="specialreq-add-el" sheetId="29" r:id="rId25"/>
-    <sheet name="data-to-delete" sheetId="9" r:id="rId26"/>
-    <sheet name="delete-confirm-el" sheetId="12" r:id="rId27"/>
-    <sheet name="master-cardtype-data" sheetId="14" r:id="rId28"/>
-    <sheet name="master-paymenttype-data" sheetId="18" r:id="rId29"/>
-    <sheet name="master-freereasons-data" sheetId="21" r:id="rId30"/>
-    <sheet name="master-voidreasons-data" sheetId="24" r:id="rId31"/>
-    <sheet name="master-specialreq-data" sheetId="27" r:id="rId32"/>
-    <sheet name="master-ordertype-data" sheetId="30" r:id="rId33"/>
-    <sheet name="master-footer-data" sheetId="37" r:id="rId34"/>
-    <sheet name="master-systemparam-data" sheetId="34" r:id="rId35"/>
-    <sheet name="master-header-data" sheetId="38" r:id="rId36"/>
-    <sheet name="item-add-el" sheetId="39" r:id="rId37"/>
-    <sheet name="item-edit-el" sheetId="40" r:id="rId38"/>
+    <sheet name="item-selector-assert" sheetId="41" r:id="rId12"/>
+    <sheet name="header-selector-assert" sheetId="36" r:id="rId13"/>
+    <sheet name="systemparam-selector-assert" sheetId="35" r:id="rId14"/>
+    <sheet name="ordertype-selector-assert" sheetId="33" r:id="rId15"/>
+    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId16"/>
+    <sheet name="master-item-data" sheetId="4" r:id="rId17"/>
+    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId18"/>
+    <sheet name="itemclass-add-el" sheetId="6" r:id="rId19"/>
+    <sheet name="cardtype-add-el" sheetId="17" r:id="rId20"/>
+    <sheet name="paymenttype-add-el" sheetId="19" r:id="rId21"/>
+    <sheet name="freereasons-add-el" sheetId="23" r:id="rId22"/>
+    <sheet name="voidreasons-add-el" sheetId="25" r:id="rId23"/>
+    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId24"/>
+    <sheet name="ordertype-add-el" sheetId="31" r:id="rId25"/>
+    <sheet name="specialreq-add-el" sheetId="29" r:id="rId26"/>
+    <sheet name="data-to-delete" sheetId="9" r:id="rId27"/>
+    <sheet name="delete-confirm-el" sheetId="12" r:id="rId28"/>
+    <sheet name="master-cardtype-data" sheetId="14" r:id="rId29"/>
+    <sheet name="master-paymenttype-data" sheetId="18" r:id="rId30"/>
+    <sheet name="master-freereasons-data" sheetId="21" r:id="rId31"/>
+    <sheet name="master-voidreasons-data" sheetId="24" r:id="rId32"/>
+    <sheet name="master-specialreq-data" sheetId="27" r:id="rId33"/>
+    <sheet name="master-ordertype-data" sheetId="30" r:id="rId34"/>
+    <sheet name="master-footer-data" sheetId="37" r:id="rId35"/>
+    <sheet name="master-systemparam-data" sheetId="34" r:id="rId36"/>
+    <sheet name="master-header-data" sheetId="38" r:id="rId37"/>
+    <sheet name="item-add-el" sheetId="39" r:id="rId38"/>
+    <sheet name="item-edit-el" sheetId="40" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="401">
   <si>
     <t>itemClass</t>
   </si>
@@ -2743,6 +2744,183 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3152,7 +3330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -3251,7 +3429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D10"/>
@@ -3414,7 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D17"/>
@@ -3583,13 +3761,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4149,7 +4327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
@@ -4326,7 +4504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -4414,102 +4592,6 @@
       </c>
       <c r="E6" t="s">
         <v>214</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
-    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4620,6 +4702,102 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -4710,7 +4888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E6"/>
@@ -4806,7 +4984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D6"/>
@@ -4903,7 +5081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -5010,7 +5188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -5117,7 +5295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E7"/>
@@ -5224,7 +5402,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A3"/>
@@ -5256,7 +5434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E3"/>
@@ -5318,7 +5496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B12"/>
@@ -5396,107 +5574,6 @@
     <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>229</v>
-      </c>
-      <c r="B9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -5604,6 +5681,107 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5803,7 +5981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D15"/>
@@ -5997,7 +6175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G30"/>
@@ -6325,7 +6503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G25"/>
@@ -6567,7 +6745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q26"/>
@@ -6838,7 +7016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
@@ -6874,7 +7052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O3"/>
@@ -7026,7 +7204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D19"/>
@@ -7265,7 +7443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E18"/>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="10" activeTab="11"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="32" activeTab="38"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="403">
   <si>
     <t>itemClass</t>
   </si>
@@ -652,6 +652,9 @@
     <t>00000000003</t>
   </si>
   <si>
+    <t>Iced Mocha Floa</t>
+  </si>
+  <si>
     <t>Hot Fresh Brew</t>
   </si>
   <si>
@@ -1226,6 +1229,9 @@
   </si>
   <si>
     <t>Combo Mealshould be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Update"</t>
   </si>
   <si>
     <t>Item Description should be enabled to allow user to edit data.</t>
@@ -2224,7 +2230,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2744,10 +2750,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2896,20 +2902,6 @@
       </c>
       <c r="D10" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3590,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3766,8 +3758,8 @@
   <sheetPr/>
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3952,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>193</v>
       </c>
@@ -3992,10 +3984,40 @@
       <c r="Q4" t="b">
         <v>0</v>
       </c>
+      <c r="R4" t="s">
+        <v>195</v>
+      </c>
+      <c r="S4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" t="s">
+        <v>169</v>
+      </c>
+      <c r="V4" t="s">
+        <v>188</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y4">
+        <v>80</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
         <v>187</v>
@@ -4013,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -4036,7 +4058,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
         <v>187</v>
@@ -4054,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -4077,7 +4099,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
         <v>187</v>
@@ -4086,7 +4108,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
         <v>188</v>
@@ -4095,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -4118,7 +4140,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
         <v>187</v>
@@ -4136,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -4171,13 +4193,13 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H9">
         <v>51</v>
@@ -4218,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H10">
         <v>52</v>
@@ -4259,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H11">
         <v>53</v>
@@ -4282,7 +4304,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
         <v>187</v>
@@ -4300,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H12">
         <v>54</v>
@@ -4489,7 +4511,7 @@
         <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -4544,7 +4566,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4558,7 +4580,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4569,7 +4591,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4580,7 +4602,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4591,7 +4613,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4736,7 +4758,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4750,7 +4772,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4832,7 +4854,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4846,7 +4868,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4928,7 +4950,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4942,7 +4964,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5025,7 +5047,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5039,7 +5061,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5121,7 +5143,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5135,7 +5157,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5228,7 +5250,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5242,7 +5264,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5335,7 +5357,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5349,7 +5371,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5415,7 +5437,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -5470,21 +5492,21 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -5512,48 +5534,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -5694,63 +5716,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -5770,7 +5792,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5798,13 +5820,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -5812,7 +5834,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -5824,7 +5846,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -5836,7 +5858,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -5848,7 +5870,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5860,7 +5882,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -5872,7 +5894,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -5884,7 +5906,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5896,10 +5918,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -5911,7 +5933,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -5922,7 +5944,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -5966,7 +5988,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -6000,13 +6022,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -6014,7 +6036,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -6025,7 +6047,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -6036,7 +6058,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6047,7 +6069,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6058,7 +6080,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -6069,7 +6091,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -6080,7 +6102,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -6091,10 +6113,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -6105,7 +6127,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -6116,7 +6138,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -6160,7 +6182,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -6196,13 +6218,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
         <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" t="s">
         <v>157</v>
@@ -6219,7 +6241,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
         <v>162</v>
@@ -6236,7 +6258,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>164</v>
@@ -6253,7 +6275,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>162</v>
@@ -6270,7 +6292,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
         <v>163</v>
@@ -6287,7 +6309,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
         <v>165</v>
@@ -6304,7 +6326,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
@@ -6321,7 +6343,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
@@ -6338,13 +6360,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
         <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D9" t="s">
         <v>168</v>
@@ -6361,7 +6383,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
         <v>163</v>
@@ -6378,7 +6400,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>165</v>
@@ -6446,7 +6468,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>165</v>
@@ -6523,16 +6545,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6546,10 +6568,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -6563,10 +6585,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -6580,16 +6602,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s">
         <v>285</v>
       </c>
-      <c r="B4" t="s">
-        <v>284</v>
-      </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -6603,10 +6625,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -6620,10 +6642,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -6640,7 +6662,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -6657,7 +6679,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -6674,7 +6696,7 @@
         <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -6688,10 +6710,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -6761,102 +6783,102 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:17">
       <c r="A2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I2" s="1">
         <v>5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -6867,49 +6889,49 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I3" s="1">
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -6920,49 +6942,49 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="K4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -7035,15 +7057,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -7065,87 +7087,87 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="E2" t="s">
-        <v>351</v>
-      </c>
-      <c r="F2" t="s">
-        <v>222</v>
-      </c>
-      <c r="G2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H2" t="s">
-        <v>353</v>
-      </c>
-      <c r="I2" t="s">
-        <v>349</v>
-      </c>
       <c r="J2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -7156,40 +7178,40 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" t="s">
         <v>320</v>
       </c>
-      <c r="F3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" t="s">
-        <v>319</v>
-      </c>
       <c r="H3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -7210,7 +7232,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7244,7 +7266,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7258,40 +7280,40 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7302,117 +7324,117 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7448,8 +7470,8 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -7483,7 +7505,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7497,40 +7519,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7541,106 +7563,106 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7651,7 +7673,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:5">

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="32" activeTab="38"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="403">
   <si>
     <t>itemClass</t>
   </si>
@@ -106,12 +106,12 @@
     <t>null</t>
   </si>
   <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
+  </si>
+  <si>
     <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sarap</t>
   </si>
   <si>
-    <t>©™®àáâñä¢£¥€!@#$^*_+=&lt;&gt;?`~"|\ [];:</t>
-  </si>
-  <si>
     <t>sel</t>
   </si>
   <si>
@@ -580,9 +580,6 @@
     <t>Juices</t>
   </si>
   <si>
-    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
@@ -682,13 +679,16 @@
     <t>00000000007</t>
   </si>
   <si>
+    <t>00000000008</t>
+  </si>
+  <si>
+    <t>00000000010</t>
+  </si>
+  <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \\ ~ \\\" | \\ ] [ ] ; :</t>
+  </si>
+  <si>
     <t>!@#$%^&amp;*()</t>
-  </si>
-  <si>
-    <t>00000000009</t>
-  </si>
-  <si>
-    <t>00000000010</t>
   </si>
   <si>
     <t>This is a very long string that exceeds the maximum allowed length.</t>
@@ -2229,8 +2229,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -3758,8 +3758,8 @@
   <sheetPr/>
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3769,10 +3769,10 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>172</v>
-      </c>
-      <c r="B1" t="s">
-        <v>173</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -3781,34 +3781,34 @@
         <v>156</v>
       </c>
       <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
         <v>174</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>175</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>177</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>178</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>179</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>180</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>181</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>182</v>
-      </c>
-      <c r="N1" t="s">
-        <v>183</v>
       </c>
       <c r="O1" t="s">
         <v>2</v>
@@ -3820,10 +3820,10 @@
         <v>4</v>
       </c>
       <c r="R1" t="s">
+        <v>183</v>
+      </c>
+      <c r="S1" t="s">
         <v>184</v>
-      </c>
-      <c r="S1" t="s">
-        <v>185</v>
       </c>
       <c r="T1" t="s">
         <v>1</v>
@@ -3832,42 +3832,42 @@
         <v>156</v>
       </c>
       <c r="V1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W1" t="s">
         <v>174</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>175</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>176</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>177</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>178</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>179</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>180</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>181</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>182</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
         <v>186</v>
-      </c>
-      <c r="B2" t="s">
-        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3876,13 +3876,13 @@
         <v>163</v>
       </c>
       <c r="E2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -3891,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -3905,10 +3905,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3917,13 +3917,13 @@
         <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -3932,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -3946,10 +3946,10 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -3958,13 +3958,13 @@
         <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -3973,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -3985,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T4" t="s">
         <v>7</v>
@@ -3997,13 +3997,13 @@
         <v>169</v>
       </c>
       <c r="V4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y4">
         <v>80</v>
@@ -4012,15 +4012,15 @@
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -4029,13 +4029,13 @@
         <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -4044,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -4058,10 +4058,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4070,13 +4070,13 @@
         <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -4085,7 +4085,7 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -4099,25 +4099,25 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="E7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -4126,7 +4126,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -4140,10 +4140,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4152,13 +4152,13 @@
         <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -4167,13 +4167,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -4184,7 +4184,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4193,13 +4193,13 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>205</v>
+      <c r="G9" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="H9">
         <v>51</v>
@@ -4208,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -4222,10 +4222,10 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -4234,28 +4234,28 @@
         <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
@@ -4263,10 +4263,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -4275,22 +4275,22 @@
         <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" t="s">
         <v>207</v>
       </c>
       <c r="H11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -4307,7 +4307,7 @@
         <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -4316,7 +4316,7 @@
         <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -4331,7 +4331,7 @@
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -5427,13 +5427,13 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -5447,7 +5447,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5590,12 +5595,12 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5787,7 +5792,7 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -5977,7 +5982,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -6009,7 +6014,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6171,7 +6176,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -6188,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +6208,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -6451,7 +6456,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>165</v>
@@ -6460,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -6693,7 +6698,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>283</v>
@@ -7470,8 +7475,8 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="16" activeTab="16"/>
+    <workbookView windowWidth="9390" windowHeight="7500" tabRatio="942" firstSheet="36" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <sheet name="master-header-data" sheetId="38" r:id="rId37"/>
     <sheet name="item-add-el" sheetId="39" r:id="rId38"/>
     <sheet name="item-edit-el" sheetId="40" r:id="rId39"/>
+    <sheet name="master-memc-data" sheetId="42" r:id="rId40"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="414">
   <si>
     <t>itemClass</t>
   </si>
@@ -1274,6 +1275,39 @@
   </si>
   <si>
     <t>Combo Mealshould be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>editmemc</t>
+  </si>
+  <si>
+    <t>editvalue</t>
+  </si>
+  <si>
+    <t>MEMC 100</t>
+  </si>
+  <si>
+    <t>MEMC 300</t>
+  </si>
+  <si>
+    <t>MEMC 200</t>
+  </si>
+  <si>
+    <t>MEMC 100 (FSM A)</t>
+  </si>
+  <si>
+    <t>MEMC 200 (FSM A)</t>
+  </si>
+  <si>
+    <t>MEMC 100 (FSM B)</t>
+  </si>
+  <si>
+    <t>MEMC 200 (FSM B)</t>
+  </si>
+  <si>
+    <t>MEMC 500</t>
   </si>
 </sst>
 </file>
@@ -3758,8 +3792,8 @@
   <sheetPr/>
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7794,6 +7828,123 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B11">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9390" windowHeight="7500" tabRatio="942" firstSheet="36" activeTab="39"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="415">
   <si>
     <t>itemClass</t>
   </si>
@@ -107,480 +107,483 @@
     <t>null</t>
   </si>
   <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` ~ " | \ [ ] ; :</t>
+  </si>
+  <si>
+    <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sarap</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>assertion</t>
+  </si>
+  <si>
+    <t>expectedText</t>
+  </si>
+  <si>
+    <t>customErrorMsg</t>
+  </si>
+  <si>
+    <t>button.border-blue-500</t>
+  </si>
+  <si>
+    <t>contain.text</t>
+  </si>
+  <si>
+    <t>Update Data</t>
+  </si>
+  <si>
+    <t>Should contain text "Update Data"</t>
+  </si>
+  <si>
+    <t>button.border-red-500</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>#itmcladsc</t>
+  </si>
+  <si>
+    <t>be.enabled</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>"Update Data" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>"Cancel" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Update Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel" instead of "update Data"</t>
+  </si>
+  <si>
+    <t>#cardtype</t>
+  </si>
+  <si>
+    <t>#paytyp</t>
+  </si>
+  <si>
+    <t>#freereason</t>
+  </si>
+  <si>
+    <t>#voidcde</t>
+  </si>
+  <si>
+    <t>#itemsubclassdsc</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itmclacde</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to select data.</t>
+  </si>
+  <si>
+    <t>"Add Data" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>#postypdsc</t>
+  </si>
+  <si>
+    <t>#ordertyp</t>
+  </si>
+  <si>
+    <t>"Save" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>#modcde</t>
+  </si>
+  <si>
+    <t>#modgrpcde</t>
+  </si>
+  <si>
+    <t>selectorName</t>
+  </si>
+  <si>
+    <t>Print button</t>
+  </si>
+  <si>
+    <t>:nth-child(2) &gt; .sc-guDLey</t>
+  </si>
+  <si>
+    <t>not.be.disabled</t>
+  </si>
+  <si>
+    <t>"Print" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Add button</t>
+  </si>
+  <si>
+    <t>.sc-eDLKkx &gt; .anticon &gt; svg</t>
+  </si>
+  <si>
+    <t>"Add" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide columns button</t>
+  </si>
+  <si>
+    <t>[data-testid="ViewColumnIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Columns" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide search button</t>
+  </si>
+  <si>
+    <t>[data-testid="SearchIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Search" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide Filters button</t>
+  </si>
+  <si>
+    <t>[data-testid="FilterListIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Filters" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Toggle Density button</t>
+  </si>
+  <si>
+    <t>[data-testid="DensityMediumIcon"]</t>
+  </si>
+  <si>
+    <t>"Toggle Density" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Fullscreen button</t>
+  </si>
+  <si>
+    <t>[data-testid="FullscreenIcon"]</t>
+  </si>
+  <si>
+    <t>"Fullscreen" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Arrow Left button</t>
+  </si>
+  <si>
+    <t>[data-testid="KeyboardArrowLeftIcon"]</t>
+  </si>
+  <si>
+    <t>not.be.enabled</t>
+  </si>
+  <si>
+    <t>"Arrow Left" button  should be not be clickable when no data on the table</t>
+  </si>
+  <si>
+    <t>Arrow Right button</t>
+  </si>
+  <si>
+    <t>[data-testid="KeyboardArrowRightIcon"]</t>
+  </si>
+  <si>
+    <t>Rows per page button</t>
+  </si>
+  <si>
+    <t>[id=":r9:"]</t>
+  </si>
+  <si>
+    <t>"Rows per page" button  should be clickable</t>
+  </si>
+  <si>
+    <t>#business1</t>
+  </si>
+  <si>
+    <t>"Business Name 1" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#business2</t>
+  </si>
+  <si>
+    <t>"Business Name 2" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#business3</t>
+  </si>
+  <si>
+    <t>"Business Name 3" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#taxpayer</t>
+  </si>
+  <si>
+    <t>"Tax Payer registered in BIR" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#tin</t>
+  </si>
+  <si>
+    <t>"VAT" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#chknonvat</t>
+  </si>
+  <si>
+    <t>"Non-VAT" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#address1</t>
+  </si>
+  <si>
+    <t>"Address 1 *" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#address2</t>
+  </si>
+  <si>
+    <t>"Address 2 *" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#address3</t>
+  </si>
+  <si>
+    <t>"Address 3 *" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#serialno</t>
+  </si>
+  <si>
+    <t>"Serial Number" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#machineno</t>
+  </si>
+  <si>
+    <t>"Machine Number" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#brhcde</t>
+  </si>
+  <si>
+    <t>"Branch Code" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#postrmno</t>
+  </si>
+  <si>
+    <t>"Terminal No." textbox should be editable</t>
+  </si>
+  <si>
+    <t>.border-red-500</t>
+  </si>
+  <si>
+    <t>"Cancel" button  should be clickable</t>
+  </si>
+  <si>
+    <t>.border-blue-500</t>
+  </si>
+  <si>
+    <t>"Save" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel" instead of "Close"</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Update button should contain text "Update" instead of "Save"</t>
+  </si>
+  <si>
+    <t>label[for="business1"]</t>
+  </si>
+  <si>
+    <t>Business Name 1</t>
+  </si>
+  <si>
+    <t>Should contain text "Business Name 1"</t>
+  </si>
+  <si>
+    <t>label[for="business2"]</t>
+  </si>
+  <si>
+    <t>Business Name 2</t>
+  </si>
+  <si>
+    <t>Should contain text "Business Name 2"</t>
+  </si>
+  <si>
+    <t>label[for="business3"]</t>
+  </si>
+  <si>
+    <t>Business Name 3</t>
+  </si>
+  <si>
+    <t>Should contain text "Business Name 3"</t>
+  </si>
+  <si>
+    <t>label[for="taxpayer"]</t>
+  </si>
+  <si>
+    <t>Tax Payer registered in BIR</t>
+  </si>
+  <si>
+    <t>Should contain text "Tax Payer registered in BIR"</t>
+  </si>
+  <si>
+    <t>label[for="tin"]</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Should contain text "VAT"</t>
+  </si>
+  <si>
+    <t>label[for="chknonvat"]</t>
+  </si>
+  <si>
+    <t>Non-VAT</t>
+  </si>
+  <si>
+    <t>Should contain text "Non-VAT"</t>
+  </si>
+  <si>
+    <t>label[for="address1"]</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Should contain text "Address 1"</t>
+  </si>
+  <si>
+    <t>label[for="address2"]</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>Should contain text "Address 2"</t>
+  </si>
+  <si>
+    <t>label[for="address3"]</t>
+  </si>
+  <si>
+    <t>Address 3</t>
+  </si>
+  <si>
+    <t>Should contain text "Address 3"</t>
+  </si>
+  <si>
+    <t>label[for="serialno"]</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Should contain text "Serial Number"</t>
+  </si>
+  <si>
+    <t>label[for="machineno"]</t>
+  </si>
+  <si>
+    <t>Machine Number</t>
+  </si>
+  <si>
+    <t>Should contain text "Machine Number"</t>
+  </si>
+  <si>
+    <t>label[for="brhcde"]</t>
+  </si>
+  <si>
+    <t>Branch Code</t>
+  </si>
+  <si>
+    <t>Should contain text "Branch Code"</t>
+  </si>
+  <si>
+    <t>label[for="postrmno"]</t>
+  </si>
+  <si>
+    <t>Terminal No.</t>
+  </si>
+  <si>
+    <t>Should contain text "Terminal No."</t>
+  </si>
+  <si>
+    <t>Time Textbox</t>
+  </si>
+  <si>
+    <t>#timestart</t>
+  </si>
+  <si>
+    <t>button.px-4.py-2.rounded.border.border-solid.border-red-500.hover\\:bg-red-500.hover\\:text-white.my-5.mxl-3</t>
+  </si>
+  <si>
+    <t>button.px-4.py-2.rounded.border.border-solid.border-blue-500.hover\\:bg-blue-500.hover\\:text-white.my-5.mx-3</t>
+  </si>
+  <si>
+    <t>itemSubclass</t>
+  </si>
+  <si>
+    <t>editItemSubclass</t>
+  </si>
+  <si>
+    <t>Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Breakfast Meal</t>
+  </si>
+  <si>
+    <t>Milkshakes</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Burgers</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>Rice Meals</t>
+  </si>
+  <si>
+    <t>Pies</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Soft Drinks</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
     <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
   </si>
   <si>
-    <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sarap</t>
-  </si>
-  <si>
-    <t>sel</t>
-  </si>
-  <si>
-    <t>assertion</t>
-  </si>
-  <si>
-    <t>expectedText</t>
-  </si>
-  <si>
-    <t>customErrorMsg</t>
-  </si>
-  <si>
-    <t>button.border-blue-500</t>
-  </si>
-  <si>
-    <t>contain.text</t>
-  </si>
-  <si>
-    <t>Update Data</t>
-  </si>
-  <si>
-    <t>Should contain text "Update Data"</t>
-  </si>
-  <si>
-    <t>button.border-red-500</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>#itmcladsc</t>
-  </si>
-  <si>
-    <t>be.enabled</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>"Update Data" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>"Cancel" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save" instead of "Update Data"</t>
-  </si>
-  <si>
-    <t>Cancel button should contain text "Cancel" instead of "update Data"</t>
-  </si>
-  <si>
-    <t>#cardtype</t>
-  </si>
-  <si>
-    <t>#paytyp</t>
-  </si>
-  <si>
-    <t>#freereason</t>
-  </si>
-  <si>
-    <t>#voidcde</t>
-  </si>
-  <si>
-    <t>#itemsubclassdsc</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#itmclacde</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to select data.</t>
-  </si>
-  <si>
-    <t>"Add Data" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>#postypdsc</t>
-  </si>
-  <si>
-    <t>#ordertyp</t>
-  </si>
-  <si>
-    <t>"Save" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>#modcde</t>
-  </si>
-  <si>
-    <t>#modgrpcde</t>
-  </si>
-  <si>
-    <t>selectorName</t>
-  </si>
-  <si>
-    <t>Print button</t>
-  </si>
-  <si>
-    <t>:nth-child(2) &gt; .sc-guDLey</t>
-  </si>
-  <si>
-    <t>not.be.disabled</t>
-  </si>
-  <si>
-    <t>"Print" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Add button</t>
-  </si>
-  <si>
-    <t>.sc-eDLKkx &gt; .anticon &gt; svg</t>
-  </si>
-  <si>
-    <t>"Add" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide columns button</t>
-  </si>
-  <si>
-    <t>[data-testid="ViewColumnIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Columns" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide search button</t>
-  </si>
-  <si>
-    <t>[data-testid="SearchIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Search" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide Filters button</t>
-  </si>
-  <si>
-    <t>[data-testid="FilterListIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Filters" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Toggle Density button</t>
-  </si>
-  <si>
-    <t>[data-testid="DensityMediumIcon"]</t>
-  </si>
-  <si>
-    <t>"Toggle Density" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Fullscreen button</t>
-  </si>
-  <si>
-    <t>[data-testid="FullscreenIcon"]</t>
-  </si>
-  <si>
-    <t>"Fullscreen" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Arrow Left button</t>
-  </si>
-  <si>
-    <t>[data-testid="KeyboardArrowLeftIcon"]</t>
-  </si>
-  <si>
-    <t>not.be.enabled</t>
-  </si>
-  <si>
-    <t>"Arrow Left" button  should be not be clickable when no data on the table</t>
-  </si>
-  <si>
-    <t>Arrow Right button</t>
-  </si>
-  <si>
-    <t>[data-testid="KeyboardArrowRightIcon"]</t>
-  </si>
-  <si>
-    <t>Rows per page button</t>
-  </si>
-  <si>
-    <t>[id=":r9:"]</t>
-  </si>
-  <si>
-    <t>"Rows per page" button  should be clickable</t>
-  </si>
-  <si>
-    <t>#business1</t>
-  </si>
-  <si>
-    <t>"Business Name 1" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#business2</t>
-  </si>
-  <si>
-    <t>"Business Name 2" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#business3</t>
-  </si>
-  <si>
-    <t>"Business Name 3" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#taxpayer</t>
-  </si>
-  <si>
-    <t>"Tax Payer registered in BIR" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#tin</t>
-  </si>
-  <si>
-    <t>"VAT" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#chknonvat</t>
-  </si>
-  <si>
-    <t>"Non-VAT" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#address1</t>
-  </si>
-  <si>
-    <t>"Address 1 *" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#address2</t>
-  </si>
-  <si>
-    <t>"Address 2 *" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#address3</t>
-  </si>
-  <si>
-    <t>"Address 3 *" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#serialno</t>
-  </si>
-  <si>
-    <t>"Serial Number" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#machineno</t>
-  </si>
-  <si>
-    <t>"Machine Number" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#brhcde</t>
-  </si>
-  <si>
-    <t>"Branch Code" textbox should be editable</t>
-  </si>
-  <si>
-    <t>#postrmno</t>
-  </si>
-  <si>
-    <t>"Terminal No." textbox should be editable</t>
-  </si>
-  <si>
-    <t>.border-red-500</t>
-  </si>
-  <si>
-    <t>"Cancel" button  should be clickable</t>
-  </si>
-  <si>
-    <t>.border-blue-500</t>
-  </si>
-  <si>
-    <t>"Save" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Cancel button should contain text "Cancel" instead of "Close"</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>Update button should contain text "Update" instead of "Save"</t>
-  </si>
-  <si>
-    <t>label[for="business1"]</t>
-  </si>
-  <si>
-    <t>Business Name 1</t>
-  </si>
-  <si>
-    <t>Should contain text "Business Name 1"</t>
-  </si>
-  <si>
-    <t>label[for="business2"]</t>
-  </si>
-  <si>
-    <t>Business Name 2</t>
-  </si>
-  <si>
-    <t>Should contain text "Business Name 2"</t>
-  </si>
-  <si>
-    <t>label[for="business3"]</t>
-  </si>
-  <si>
-    <t>Business Name 3</t>
-  </si>
-  <si>
-    <t>Should contain text "Business Name 3"</t>
-  </si>
-  <si>
-    <t>label[for="taxpayer"]</t>
-  </si>
-  <si>
-    <t>Tax Payer registered in BIR</t>
-  </si>
-  <si>
-    <t>Should contain text "Tax Payer registered in BIR"</t>
-  </si>
-  <si>
-    <t>label[for="tin"]</t>
-  </si>
-  <si>
-    <t>VAT</t>
-  </si>
-  <si>
-    <t>Should contain text "VAT"</t>
-  </si>
-  <si>
-    <t>label[for="chknonvat"]</t>
-  </si>
-  <si>
-    <t>Non-VAT</t>
-  </si>
-  <si>
-    <t>Should contain text "Non-VAT"</t>
-  </si>
-  <si>
-    <t>label[for="address1"]</t>
-  </si>
-  <si>
-    <t>Address 1</t>
-  </si>
-  <si>
-    <t>Should contain text "Address 1"</t>
-  </si>
-  <si>
-    <t>label[for="address2"]</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>Should contain text "Address 2"</t>
-  </si>
-  <si>
-    <t>label[for="address3"]</t>
-  </si>
-  <si>
-    <t>Address 3</t>
-  </si>
-  <si>
-    <t>Should contain text "Address 3"</t>
-  </si>
-  <si>
-    <t>label[for="serialno"]</t>
-  </si>
-  <si>
-    <t>Serial Number</t>
-  </si>
-  <si>
-    <t>Should contain text "Serial Number"</t>
-  </si>
-  <si>
-    <t>label[for="machineno"]</t>
-  </si>
-  <si>
-    <t>Machine Number</t>
-  </si>
-  <si>
-    <t>Should contain text "Machine Number"</t>
-  </si>
-  <si>
-    <t>label[for="brhcde"]</t>
-  </si>
-  <si>
-    <t>Branch Code</t>
-  </si>
-  <si>
-    <t>Should contain text "Branch Code"</t>
-  </si>
-  <si>
-    <t>label[for="postrmno"]</t>
-  </si>
-  <si>
-    <t>Terminal No.</t>
-  </si>
-  <si>
-    <t>Should contain text "Terminal No."</t>
-  </si>
-  <si>
-    <t>Time Textbox</t>
-  </si>
-  <si>
-    <t>#timestart</t>
-  </si>
-  <si>
-    <t>button.px-4.py-2.rounded.border.border-solid.border-red-500.hover\\:bg-red-500.hover\\:text-white.my-5.mxl-3</t>
-  </si>
-  <si>
-    <t>button.px-4.py-2.rounded.border.border-solid.border-blue-500.hover\\:bg-blue-500.hover\\:text-white.my-5.mx-3</t>
-  </si>
-  <si>
-    <t>itemSubclass</t>
-  </si>
-  <si>
-    <t>editItemSubclass</t>
-  </si>
-  <si>
-    <t>Mashed Potatoes</t>
-  </si>
-  <si>
-    <t>Snacks</t>
-  </si>
-  <si>
-    <t>Breakfast Meal</t>
-  </si>
-  <si>
-    <t>Milkshakes</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>Burgers</t>
-  </si>
-  <si>
-    <t>Spaghetti</t>
-  </si>
-  <si>
-    <t>Rice Meals</t>
-  </si>
-  <si>
-    <t>Pies</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Soft Drinks</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
@@ -686,628 +689,628 @@
     <t>00000000010</t>
   </si>
   <si>
+    <t>!@#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>This is a very long string that exceeds the maximum allowed length.</t>
+  </si>
+  <si>
+    <t>00000000011</t>
+  </si>
+  <si>
+    <t>[id=":rc:"]</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save"</t>
+  </si>
+  <si>
+    <t>Cancel should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Item Class Description should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>"Save" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>"Cancel" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Add Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>dataToDelete</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Should contain text "Save"</t>
+  </si>
+  <si>
+    <t>cy.get('.border-red-500')</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>cardType</t>
+  </si>
+  <si>
+    <t>editCardType</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Debit Card</t>
+  </si>
+  <si>
+    <t>Prepaid Card</t>
+  </si>
+  <si>
+    <t>Gift Card</t>
+  </si>
+  <si>
+    <t>Store Gift</t>
+  </si>
+  <si>
+    <t>Store Card</t>
+  </si>
+  <si>
+    <t>Loyalty Card</t>
+  </si>
+  <si>
+    <t>Electronic Card</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t>editPaymentType</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>E-wallet</t>
+  </si>
+  <si>
+    <t>freeReasons</t>
+  </si>
+  <si>
+    <t>editFreeReasons</t>
+  </si>
+  <si>
+    <t>onlySearch</t>
+  </si>
+  <si>
+    <t>Sample Giveaway</t>
+  </si>
+  <si>
+    <t>Customer Complaint Resolution</t>
+  </si>
+  <si>
+    <t>Complimentary Item</t>
+  </si>
+  <si>
+    <t>Birthday Freebie</t>
+  </si>
+  <si>
+    <t>Employee Perk</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Coupon Redemption</t>
+  </si>
+  <si>
+    <t>Membership Perk</t>
+  </si>
+  <si>
+    <t>Incorrect Charge</t>
+  </si>
+  <si>
+    <t>Inventory Clearance</t>
+  </si>
+  <si>
+    <t>Customer Appreciation</t>
+  </si>
+  <si>
+    <t>voidReasons</t>
+  </si>
+  <si>
+    <t>editVoidReasons</t>
+  </si>
+  <si>
+    <t>Incorrect Order Entry</t>
+  </si>
+  <si>
+    <t>Customer Changed Mind</t>
+  </si>
+  <si>
+    <t>Customer Cancelled Order</t>
+  </si>
+  <si>
+    <t>Employee Mistake</t>
+  </si>
+  <si>
+    <t>Order Duplication</t>
+  </si>
+  <si>
+    <t>Customer Complaint</t>
+  </si>
+  <si>
+    <t>Food Quality Issue</t>
+  </si>
+  <si>
+    <t>Price Adjustment</t>
+  </si>
+  <si>
+    <t>Payment Error</t>
+  </si>
+  <si>
+    <t>Item Out of Stock</t>
+  </si>
+  <si>
+    <t>specialReq</t>
+  </si>
+  <si>
+    <t>editSpecialReq</t>
+  </si>
+  <si>
+    <t>Extra Gravy</t>
+  </si>
+  <si>
+    <t>Extra Cheese</t>
+  </si>
+  <si>
+    <t>Extra Crispy</t>
+  </si>
+  <si>
+    <t>Extra Lettuce</t>
+  </si>
+  <si>
+    <t>Extra Rice</t>
+  </si>
+  <si>
+    <t>Extra Ice</t>
+  </si>
+  <si>
+    <t>No ice</t>
+  </si>
+  <si>
+    <t>Separate packaging</t>
+  </si>
+  <si>
+    <t>No straw</t>
+  </si>
+  <si>
+    <t>Double patty</t>
+  </si>
+  <si>
+    <t>No plastic utensils</t>
+  </si>
+  <si>
+    <t>dineType</t>
+  </si>
+  <si>
+    <t>orderType</t>
+  </si>
+  <si>
+    <t>editDineType</t>
+  </si>
+  <si>
+    <t>editOrderType</t>
+  </si>
+  <si>
+    <t>Dine-In</t>
+  </si>
+  <si>
+    <t>DINEIN</t>
+  </si>
+  <si>
+    <t>Takeout</t>
+  </si>
+  <si>
+    <t>TAKEOUT</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>GRAB Delivery</t>
+  </si>
+  <si>
+    <t>Drive-Thru</t>
+  </si>
+  <si>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t>officialReceipt</t>
+  </si>
+  <si>
+    <t>suppName</t>
+  </si>
+  <si>
+    <t>suppAdd</t>
+  </si>
+  <si>
+    <t>suppVAT</t>
+  </si>
+  <si>
+    <t>suppNonVAT</t>
+  </si>
+  <si>
+    <t>accredNo</t>
+  </si>
+  <si>
+    <t>accredDate</t>
+  </si>
+  <si>
+    <t>permitNo</t>
+  </si>
+  <si>
+    <t>yearsValidity</t>
+  </si>
+  <si>
+    <t>dateIssued</t>
+  </si>
+  <si>
+    <t>lineMsg1</t>
+  </si>
+  <si>
+    <t>lineMsg2</t>
+  </si>
+  <si>
+    <t>lineMsg3</t>
+  </si>
+  <si>
+    <t>lineMsg4</t>
+  </si>
+  <si>
+    <t>lineMsg5</t>
+  </si>
+  <si>
+    <t>forValid</t>
+  </si>
+  <si>
+    <t>forInvalid</t>
+  </si>
+  <si>
+    <t>Sweda Systems Philippines, Inc Sweda Systems Philippines, IncSweda Systems Philippines, Inc</t>
+  </si>
+  <si>
+    <t>21f Rufino Tower, Makati City</t>
+  </si>
+  <si>
+    <t>003-510-344-000</t>
+  </si>
+  <si>
+    <t>003-510-344-001</t>
+  </si>
+  <si>
+    <t>0470035103442017100823</t>
+  </si>
+  <si>
+    <t>2023-05-28</t>
+  </si>
+  <si>
+    <t>FP112022-125-0358572-00126</t>
+  </si>
+  <si>
+    <t>This serves as your Official Receipt.</t>
+  </si>
+  <si>
+    <t>Tell us about your experience.</t>
+  </si>
+  <si>
+    <t>Send us feedback at bit.ly/jfccaresph</t>
+  </si>
+  <si>
+    <t>Visit us also at www.jollibee.com.ph</t>
+  </si>
+  <si>
+    <t>Thank you, and please come again.</t>
+  </si>
+  <si>
+    <t>Sweda Systems Philippines, Inc. with an extended name to exceed limit</t>
+  </si>
+  <si>
+    <t>Dahlia Ave. Cor. Regalado Ave West Fairview, Brgy. Fairview Park, Quezon City, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>123-456-789-00001234</t>
+  </si>
+  <si>
+    <t>123-456-789-00001235</t>
+  </si>
+  <si>
+    <t>001MP20220000000008EXTRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>This serves as your Official Receipt with an extended message</t>
+  </si>
+  <si>
+    <t>Tell us about your experience. Your feedback is important to us.</t>
+  </si>
+  <si>
+    <t>Send us feedback at bit.ly/jfccaresph and let us know your thoughts</t>
+  </si>
+  <si>
+    <t>Visit us also at www.jollibee.com.ph for more information.</t>
+  </si>
+  <si>
+    <t>Thank you, and please come again. We hope to see you soon</t>
+  </si>
+  <si>
+    <t>opTimeSet</t>
+  </si>
+  <si>
+    <t>editOpTimeSet</t>
+  </si>
+  <si>
+    <t>9:00 am</t>
+  </si>
+  <si>
+    <t>bus1</t>
+  </si>
+  <si>
+    <t>bus2</t>
+  </si>
+  <si>
+    <t>bus3</t>
+  </si>
+  <si>
+    <t>taxPayer</t>
+  </si>
+  <si>
+    <t>vat</t>
+  </si>
+  <si>
+    <t>nonVAT</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>add3</t>
+  </si>
+  <si>
+    <t>serialNo</t>
+  </si>
+  <si>
+    <t>machineNo</t>
+  </si>
+  <si>
+    <t>branchCode</t>
+  </si>
+  <si>
+    <t>terminalNo</t>
+  </si>
+  <si>
+    <t>Freemont Foods Corp</t>
+  </si>
+  <si>
+    <t>Jollibee Bacolod Mandalagan DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Sample Company</t>
+  </si>
+  <si>
+    <t>010-243-138-000</t>
+  </si>
+  <si>
+    <t>lacson St. Mandalagan</t>
+  </si>
+  <si>
+    <t>Bcolod City</t>
+  </si>
+  <si>
+    <t>RTM70550</t>
+  </si>
+  <si>
+    <t>22032219002997823</t>
+  </si>
+  <si>
+    <t>BRH-00000000013</t>
+  </si>
+  <si>
+    <t>FP112022-125-0358572-00126EXTRAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>5000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>BRH-00000000012432423423454958749587298357935739573519849584759837598347594759358</t>
+  </si>
+  <si>
+    <t>#itmdsc</t>
+  </si>
+  <si>
+    <t>Item Description should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itmtyp</t>
+  </si>
+  <si>
+    <t>Item Type hould be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itemsubclasscde</t>
+  </si>
+  <si>
+    <t>Item SubClass should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>Item Class should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#untmea</t>
+  </si>
+  <si>
+    <t>Unit of Measure should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#untcst</t>
+  </si>
+  <si>
+    <t>Unit of Costshould be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#barcde</t>
+  </si>
+  <si>
+    <t>Barcode should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#untprc</t>
+  </si>
+  <si>
+    <t>Selling Price should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itmpaxcount</t>
+  </si>
+  <si>
+    <t>Good for X Person should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#taxcde</t>
+  </si>
+  <si>
+    <t>Tax Code should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#memc</t>
+  </si>
+  <si>
+    <t>MEMC should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#isaddon</t>
+  </si>
+  <si>
+    <t>Add-ons should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#inactive</t>
+  </si>
+  <si>
+    <t>Inactive should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#chkcombo</t>
+  </si>
+  <si>
+    <t>Combo Mealshould be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Update"</t>
+  </si>
+  <si>
+    <t>Item Description should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Item Type hould be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Item Class should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Item Subclass should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Unit of Measure should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Unit of Costshould be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Barcode should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Selling Price should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Good for X Person should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Tax Code should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>MEMC should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Add-ons should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Inactive should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Combo Mealshould be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>editmemc</t>
+  </si>
+  <si>
+    <t>editvalue</t>
+  </si>
+  <si>
+    <t>MEMC 100</t>
+  </si>
+  <si>
+    <t>MEMC 300</t>
+  </si>
+  <si>
+    <t>MEMC 200</t>
+  </si>
+  <si>
+    <t>MEMC 100 (FSM A)</t>
+  </si>
+  <si>
+    <t>MEMC 200 (FSM A)</t>
+  </si>
+  <si>
+    <t>MEMC 100 (FSM B)</t>
+  </si>
+  <si>
+    <t>MEMC 200 (FSM B)</t>
+  </si>
+  <si>
+    <t>MEMC 500</t>
+  </si>
+  <si>
     <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \\ ~ \\\" | \\ ] [ ] ; :</t>
-  </si>
-  <si>
-    <t>!@#$%^&amp;*()</t>
-  </si>
-  <si>
-    <t>This is a very long string that exceeds the maximum allowed length.</t>
-  </si>
-  <si>
-    <t>00000000011</t>
-  </si>
-  <si>
-    <t>[id=":rc:"]</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save"</t>
-  </si>
-  <si>
-    <t>Cancel should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>Item Class Description should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>"Save" button should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>"Cancel" button should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save" instead of "Add Data"</t>
-  </si>
-  <si>
-    <t>Cancel button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>dataToDelete</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Should contain text "Save"</t>
-  </si>
-  <si>
-    <t>cy.get('.border-red-500')</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>cardType</t>
-  </si>
-  <si>
-    <t>editCardType</t>
-  </si>
-  <si>
-    <t>Credit Card</t>
-  </si>
-  <si>
-    <t>Debit Card</t>
-  </si>
-  <si>
-    <t>Prepaid Card</t>
-  </si>
-  <si>
-    <t>Gift Card</t>
-  </si>
-  <si>
-    <t>Store Gift</t>
-  </si>
-  <si>
-    <t>Store Card</t>
-  </si>
-  <si>
-    <t>Loyalty Card</t>
-  </si>
-  <si>
-    <t>Electronic Card</t>
-  </si>
-  <si>
-    <t>paymentType</t>
-  </si>
-  <si>
-    <t>editPaymentType</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Check</t>
-  </si>
-  <si>
-    <t>E-wallet</t>
-  </si>
-  <si>
-    <t>freeReasons</t>
-  </si>
-  <si>
-    <t>editFreeReasons</t>
-  </si>
-  <si>
-    <t>onlySearch</t>
-  </si>
-  <si>
-    <t>Sample Giveaway</t>
-  </si>
-  <si>
-    <t>Customer Complaint Resolution</t>
-  </si>
-  <si>
-    <t>Complimentary Item</t>
-  </si>
-  <si>
-    <t>Birthday Freebie</t>
-  </si>
-  <si>
-    <t>Employee Perk</t>
-  </si>
-  <si>
-    <t>Sampling</t>
-  </si>
-  <si>
-    <t>Coupon Redemption</t>
-  </si>
-  <si>
-    <t>Membership Perk</t>
-  </si>
-  <si>
-    <t>Incorrect Charge</t>
-  </si>
-  <si>
-    <t>Inventory Clearance</t>
-  </si>
-  <si>
-    <t>Customer Appreciation</t>
-  </si>
-  <si>
-    <t>voidReasons</t>
-  </si>
-  <si>
-    <t>editVoidReasons</t>
-  </si>
-  <si>
-    <t>Incorrect Order Entry</t>
-  </si>
-  <si>
-    <t>Customer Changed Mind</t>
-  </si>
-  <si>
-    <t>Customer Cancelled Order</t>
-  </si>
-  <si>
-    <t>Employee Mistake</t>
-  </si>
-  <si>
-    <t>Order Duplication</t>
-  </si>
-  <si>
-    <t>Customer Complaint</t>
-  </si>
-  <si>
-    <t>Food Quality Issue</t>
-  </si>
-  <si>
-    <t>Price Adjustment</t>
-  </si>
-  <si>
-    <t>Payment Error</t>
-  </si>
-  <si>
-    <t>Item Out of Stock</t>
-  </si>
-  <si>
-    <t>specialReq</t>
-  </si>
-  <si>
-    <t>editSpecialReq</t>
-  </si>
-  <si>
-    <t>Extra Gravy</t>
-  </si>
-  <si>
-    <t>Extra Cheese</t>
-  </si>
-  <si>
-    <t>Extra Crispy</t>
-  </si>
-  <si>
-    <t>Extra Lettuce</t>
-  </si>
-  <si>
-    <t>Extra Rice</t>
-  </si>
-  <si>
-    <t>Extra Ice</t>
-  </si>
-  <si>
-    <t>No ice</t>
-  </si>
-  <si>
-    <t>Separate packaging</t>
-  </si>
-  <si>
-    <t>No straw</t>
-  </si>
-  <si>
-    <t>Double patty</t>
-  </si>
-  <si>
-    <t>No plastic utensils</t>
-  </si>
-  <si>
-    <t>dineType</t>
-  </si>
-  <si>
-    <t>orderType</t>
-  </si>
-  <si>
-    <t>editDineType</t>
-  </si>
-  <si>
-    <t>editOrderType</t>
-  </si>
-  <si>
-    <t>Dine-In</t>
-  </si>
-  <si>
-    <t>DINEIN</t>
-  </si>
-  <si>
-    <t>Takeout</t>
-  </si>
-  <si>
-    <t>TAKEOUT</t>
-  </si>
-  <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>GRAB Delivery</t>
-  </si>
-  <si>
-    <t>Drive-Thru</t>
-  </si>
-  <si>
-    <t>Reservation</t>
-  </si>
-  <si>
-    <t>officialReceipt</t>
-  </si>
-  <si>
-    <t>suppName</t>
-  </si>
-  <si>
-    <t>suppAdd</t>
-  </si>
-  <si>
-    <t>suppVAT</t>
-  </si>
-  <si>
-    <t>suppNonVAT</t>
-  </si>
-  <si>
-    <t>accredNo</t>
-  </si>
-  <si>
-    <t>accredDate</t>
-  </si>
-  <si>
-    <t>permitNo</t>
-  </si>
-  <si>
-    <t>yearsValidity</t>
-  </si>
-  <si>
-    <t>dateIssued</t>
-  </si>
-  <si>
-    <t>lineMsg1</t>
-  </si>
-  <si>
-    <t>lineMsg2</t>
-  </si>
-  <si>
-    <t>lineMsg3</t>
-  </si>
-  <si>
-    <t>lineMsg4</t>
-  </si>
-  <si>
-    <t>lineMsg5</t>
-  </si>
-  <si>
-    <t>forValid</t>
-  </si>
-  <si>
-    <t>forInvalid</t>
-  </si>
-  <si>
-    <t>Sweda Systems Philippines, Inc Sweda Systems Philippines, IncSweda Systems Philippines, Inc</t>
-  </si>
-  <si>
-    <t>21f Rufino Tower, Makati City</t>
-  </si>
-  <si>
-    <t>003-510-344-000</t>
-  </si>
-  <si>
-    <t>003-510-344-001</t>
-  </si>
-  <si>
-    <t>0470035103442017100823</t>
-  </si>
-  <si>
-    <t>2023-05-28</t>
-  </si>
-  <si>
-    <t>FP112022-125-0358572-00126</t>
-  </si>
-  <si>
-    <t>This serves as your Official Receipt.</t>
-  </si>
-  <si>
-    <t>Tell us about your experience.</t>
-  </si>
-  <si>
-    <t>Send us feedback at bit.ly/jfccaresph</t>
-  </si>
-  <si>
-    <t>Visit us also at www.jollibee.com.ph</t>
-  </si>
-  <si>
-    <t>Thank you, and please come again.</t>
-  </si>
-  <si>
-    <t>Sweda Systems Philippines, Inc. with an extended name to exceed limit</t>
-  </si>
-  <si>
-    <t>Dahlia Ave. Cor. Regalado Ave West Fairview, Brgy. Fairview Park, Quezon City, Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>123-456-789-00001234</t>
-  </si>
-  <si>
-    <t>123-456-789-00001235</t>
-  </si>
-  <si>
-    <t>001MP20220000000008EXTRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>2023-05-29</t>
-  </si>
-  <si>
-    <t>FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>This serves as your Official Receipt with an extended message</t>
-  </si>
-  <si>
-    <t>Tell us about your experience. Your feedback is important to us.</t>
-  </si>
-  <si>
-    <t>Send us feedback at bit.ly/jfccaresph and let us know your thoughts</t>
-  </si>
-  <si>
-    <t>Visit us also at www.jollibee.com.ph for more information.</t>
-  </si>
-  <si>
-    <t>Thank you, and please come again. We hope to see you soon</t>
-  </si>
-  <si>
-    <t>opTimeSet</t>
-  </si>
-  <si>
-    <t>editOpTimeSet</t>
-  </si>
-  <si>
-    <t>9:00 am</t>
-  </si>
-  <si>
-    <t>bus1</t>
-  </si>
-  <si>
-    <t>bus2</t>
-  </si>
-  <si>
-    <t>bus3</t>
-  </si>
-  <si>
-    <t>taxPayer</t>
-  </si>
-  <si>
-    <t>vat</t>
-  </si>
-  <si>
-    <t>nonVAT</t>
-  </si>
-  <si>
-    <t>add1</t>
-  </si>
-  <si>
-    <t>add2</t>
-  </si>
-  <si>
-    <t>add3</t>
-  </si>
-  <si>
-    <t>serialNo</t>
-  </si>
-  <si>
-    <t>machineNo</t>
-  </si>
-  <si>
-    <t>branchCode</t>
-  </si>
-  <si>
-    <t>terminalNo</t>
-  </si>
-  <si>
-    <t>Freemont Foods Corp</t>
-  </si>
-  <si>
-    <t>Jollibee Bacolod Mandalagan DT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>Sample Company</t>
-  </si>
-  <si>
-    <t>010-243-138-000</t>
-  </si>
-  <si>
-    <t>lacson St. Mandalagan</t>
-  </si>
-  <si>
-    <t>Bcolod City</t>
-  </si>
-  <si>
-    <t>RTM70550</t>
-  </si>
-  <si>
-    <t>22032219002997823</t>
-  </si>
-  <si>
-    <t>BRH-00000000013</t>
-  </si>
-  <si>
-    <t>FP112022-125-0358572-00126EXTRAAAAAAAAAAAAAAAAAAAAAAAAA</t>
-  </si>
-  <si>
-    <t>5000000000000000000000000000000000000000000000000000000000000000</t>
-  </si>
-  <si>
-    <t>BRH-00000000012432423423454958749587298357935739573519849584759837598347594759358</t>
-  </si>
-  <si>
-    <t>#itmdsc</t>
-  </si>
-  <si>
-    <t>Item Description should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#itmtyp</t>
-  </si>
-  <si>
-    <t>Item Type hould be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#itemsubclasscde</t>
-  </si>
-  <si>
-    <t>Item SubClass should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>Item Class should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#untmea</t>
-  </si>
-  <si>
-    <t>Unit of Measure should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#untcst</t>
-  </si>
-  <si>
-    <t>Unit of Costshould be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#barcde</t>
-  </si>
-  <si>
-    <t>Barcode should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#untprc</t>
-  </si>
-  <si>
-    <t>Selling Price should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#itmpaxcount</t>
-  </si>
-  <si>
-    <t>Good for X Person should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#taxcde</t>
-  </si>
-  <si>
-    <t>Tax Code should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#memc</t>
-  </si>
-  <si>
-    <t>MEMC should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#isaddon</t>
-  </si>
-  <si>
-    <t>Add-ons should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#inactive</t>
-  </si>
-  <si>
-    <t>Inactive should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>#chkcombo</t>
-  </si>
-  <si>
-    <t>Combo Mealshould be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save" instead of "Update"</t>
-  </si>
-  <si>
-    <t>Item Description should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>Item Type hould be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>Item Class should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>Item Subclass should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>Unit of Measure should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>Unit of Costshould be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>Barcode should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>Selling Price should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>Good for X Person should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>Tax Code should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>MEMC should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>Add-ons should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>Inactive should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>Combo Mealshould be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>editmemc</t>
-  </si>
-  <si>
-    <t>editvalue</t>
-  </si>
-  <si>
-    <t>MEMC 100</t>
-  </si>
-  <si>
-    <t>MEMC 300</t>
-  </si>
-  <si>
-    <t>MEMC 200</t>
-  </si>
-  <si>
-    <t>MEMC 100 (FSM A)</t>
-  </si>
-  <si>
-    <t>MEMC 200 (FSM A)</t>
-  </si>
-  <si>
-    <t>MEMC 100 (FSM B)</t>
-  </si>
-  <si>
-    <t>MEMC 200 (FSM B)</t>
-  </si>
-  <si>
-    <t>MEMC 500</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1323,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1332,6 +1335,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1797,16 +1806,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1815,119 +1821,122 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1938,6 +1947,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2263,8 +2273,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2607,10 +2617,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -2759,20 +2769,6 @@
       </c>
       <c r="D10" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +3099,7 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3175,7 +3171,7 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>114</v>
       </c>
       <c r="D19" t="s">
@@ -3189,7 +3185,7 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D20" t="s">
@@ -3203,7 +3199,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D21" t="s">
@@ -3337,7 +3333,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>149</v>
       </c>
       <c r="B31" t="s">
@@ -3624,7 +3620,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3767,7 +3763,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -3793,7 +3789,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3803,10 +3799,10 @@
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -3815,34 +3811,34 @@
         <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O1" t="s">
         <v>2</v>
@@ -3854,10 +3850,10 @@
         <v>4</v>
       </c>
       <c r="R1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="T1" t="s">
         <v>1</v>
@@ -3866,42 +3862,42 @@
         <v>156</v>
       </c>
       <c r="V1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="W1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AB1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AC1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AD1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AE1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -3910,13 +3906,13 @@
         <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>188</v>
+      <c r="G2" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -3925,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -3939,10 +3935,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3951,13 +3947,13 @@
         <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>191</v>
+      <c r="G3" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -3966,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -3980,10 +3976,10 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -3992,13 +3988,13 @@
         <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>193</v>
+      <c r="G4" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -4007,7 +4003,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -4019,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="T4" t="s">
         <v>7</v>
@@ -4031,13 +4027,13 @@
         <v>169</v>
       </c>
       <c r="V4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" s="7" t="s">
-        <v>193</v>
+      <c r="X4" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="Y4">
         <v>80</v>
@@ -4046,15 +4042,15 @@
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -4063,13 +4059,13 @@
         <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>196</v>
+      <c r="G5" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -4078,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -4092,10 +4088,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4104,13 +4100,13 @@
         <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>198</v>
+      <c r="G6" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -4119,7 +4115,7 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -4133,25 +4129,25 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>201</v>
+      <c r="G7" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -4160,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -4174,10 +4170,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4186,13 +4182,13 @@
         <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>203</v>
+      <c r="G8" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -4201,7 +4197,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -4218,7 +4214,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4227,13 +4223,13 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>204</v>
+      <c r="G9" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="H9">
         <v>51</v>
@@ -4242,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -4259,7 +4255,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -4268,13 +4264,13 @@
         <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
+      <c r="G10" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="H10">
         <v>53</v>
@@ -4283,7 +4279,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -4297,10 +4293,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -4324,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -4341,7 +4337,7 @@
         <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -4350,12 +4346,12 @@
         <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>209</v>
       </c>
       <c r="H12">
@@ -4365,7 +4361,7 @@
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -5461,13 +5457,13 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -5487,6 +5483,11 @@
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5629,7 +5630,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -5826,7 +5827,7 @@
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -6016,7 +6017,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -6210,7 +6211,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -6242,7 +6243,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -6490,7 +6491,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>165</v>
@@ -6732,7 +6733,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
         <v>283</v>
@@ -7202,7 +7203,7 @@
       <c r="J2" t="s">
         <v>355</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>356</v>
       </c>
       <c r="L2" t="s">
@@ -7246,7 +7247,7 @@
       <c r="J3" t="s">
         <v>358</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>359</v>
       </c>
       <c r="L3" t="s">
@@ -7833,15 +7834,15 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
         <v>403</v>
@@ -7933,7 +7934,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>414</v>
       </c>
       <c r="B11">
         <v>503</v>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="34" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,8 @@
     <sheet name="item-add-el" sheetId="39" r:id="rId38"/>
     <sheet name="item-edit-el" sheetId="40" r:id="rId39"/>
     <sheet name="master-memc-data" sheetId="42" r:id="rId40"/>
+    <sheet name="discount-master-data" sheetId="43" r:id="rId41"/>
+    <sheet name="master-pricelist-data" sheetId="44" r:id="rId42"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="460">
   <si>
     <t>itemClass</t>
   </si>
@@ -1311,6 +1313,141 @@
   </si>
   <si>
     <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \\ ~ \\\" | \\ ] [ ] ; :</t>
+  </si>
+  <si>
+    <t>discountCode</t>
+  </si>
+  <si>
+    <t>discountDesc</t>
+  </si>
+  <si>
+    <t>discountType</t>
+  </si>
+  <si>
+    <t>percentAmount</t>
+  </si>
+  <si>
+    <t>exemptVAT</t>
+  </si>
+  <si>
+    <t>lessVATDisc</t>
+  </si>
+  <si>
+    <t>serviceChargeDisc</t>
+  </si>
+  <si>
+    <t>govDisc</t>
+  </si>
+  <si>
+    <t>onlineDeals</t>
+  </si>
+  <si>
+    <t>editDiscountCode</t>
+  </si>
+  <si>
+    <t>editDiscountDesc</t>
+  </si>
+  <si>
+    <t>editPercentAmount</t>
+  </si>
+  <si>
+    <t>editDiscountType</t>
+  </si>
+  <si>
+    <t>editExemptVAT</t>
+  </si>
+  <si>
+    <t>editLessVATDisc</t>
+  </si>
+  <si>
+    <t>editServiceChargeDisc</t>
+  </si>
+  <si>
+    <t>editGovDisc</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Athlete</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>Diplomat</t>
+  </si>
+  <si>
+    <t>PWD</t>
+  </si>
+  <si>
+    <t>HOLIDAY50</t>
+  </si>
+  <si>
+    <t>PHP 50 off during holidays</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>SUMMER50</t>
+  </si>
+  <si>
+    <t>PHP 51 off during summer</t>
+  </si>
+  <si>
+    <t>BLACKFRIDAY</t>
+  </si>
+  <si>
+    <t>Blackfriday Sale 50% off</t>
+  </si>
+  <si>
+    <t>WELCOME</t>
+  </si>
+  <si>
+    <t>5% off on first purchase</t>
+  </si>
+  <si>
+    <t>SUMMERSALE</t>
+  </si>
+  <si>
+    <t>Summer Sale 15% off</t>
+  </si>
+  <si>
+    <t>WINTERHOLIDAY50PERCENTDISCOUNTFORALLITEMSOVER1000PHP</t>
+  </si>
+  <si>
+    <t>Get 50% off on all items for purchases over PHP 1000 during the winter holiday season</t>
+  </si>
+  <si>
+    <t>pricelist</t>
+  </si>
+  <si>
+    <t>ordertype</t>
+  </si>
+  <si>
+    <t>editpricelist</t>
+  </si>
+  <si>
+    <t>editordertype</t>
+  </si>
+  <si>
+    <t>Jollibee 1</t>
+  </si>
+  <si>
+    <t>Jollibee 2</t>
+  </si>
+  <si>
+    <t>Jollibee 4</t>
+  </si>
+  <si>
+    <t>Jollibee 3</t>
+  </si>
+  <si>
+    <t>Jollibee 5</t>
   </si>
 </sst>
 </file>
@@ -1936,16 +2073,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2273,8 +2413,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -3099,7 +3239,7 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3171,7 +3311,7 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D19" t="s">
@@ -3185,7 +3325,7 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D20" t="s">
@@ -3199,7 +3339,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D21" t="s">
@@ -3333,7 +3473,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>149</v>
       </c>
       <c r="B31" t="s">
@@ -3644,7 +3784,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B2" t="s">
@@ -3674,7 +3814,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B5" t="s">
@@ -3682,7 +3822,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>163</v>
       </c>
       <c r="B6" t="s">
@@ -3690,7 +3830,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B7" t="s">
@@ -3698,7 +3838,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B8" t="s">
@@ -3706,7 +3846,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B9" t="s">
@@ -3714,7 +3854,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B10" t="s">
@@ -3722,7 +3862,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B11" t="s">
@@ -3730,7 +3870,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B12" t="s">
@@ -3738,7 +3878,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B13" t="s">
@@ -3911,7 +4051,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>189</v>
       </c>
       <c r="H2">
@@ -3952,7 +4092,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>192</v>
       </c>
       <c r="H3">
@@ -3993,7 +4133,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>194</v>
       </c>
       <c r="H4">
@@ -4032,7 +4172,7 @@
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="9" t="s">
         <v>194</v>
       </c>
       <c r="Y4">
@@ -4064,7 +4204,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>197</v>
       </c>
       <c r="H5">
@@ -4105,7 +4245,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>199</v>
       </c>
       <c r="H6">
@@ -4146,7 +4286,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>202</v>
       </c>
       <c r="H7">
@@ -4187,7 +4327,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>204</v>
       </c>
       <c r="H8">
@@ -4228,7 +4368,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>205</v>
       </c>
       <c r="H9">
@@ -4269,7 +4409,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>206</v>
       </c>
       <c r="H10">
@@ -4351,7 +4491,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>209</v>
       </c>
       <c r="H12">
@@ -5486,7 +5626,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5882,7 +6022,7 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -5894,7 +6034,7 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -5906,7 +6046,7 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -5918,7 +6058,7 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -5930,7 +6070,7 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -5942,7 +6082,7 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -5954,7 +6094,7 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -5969,7 +6109,7 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -6442,7 +6582,7 @@
       <c r="A11" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E11" t="b">
@@ -6459,7 +6599,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E12" t="b">
@@ -6476,7 +6616,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E13" t="b">
@@ -6493,7 +6633,7 @@
       <c r="A14" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E14" t="b">
@@ -6510,7 +6650,7 @@
       <c r="A15" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>165</v>
       </c>
       <c r="E15" t="b">
@@ -6524,40 +6664,40 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="2"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="3"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="3"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="3"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="3"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="3"/>
+      <c r="B25" s="5"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="3"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="3"/>
+      <c r="B27" s="5"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="3"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="2"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="2"/>
+      <c r="B30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6766,40 +6906,40 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="2"/>
+      <c r="B12" s="4"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="3"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="3"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="3"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="3"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="3"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="3"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="3"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="3"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="2"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="2"/>
+      <c r="B25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6890,19 +7030,19 @@
       <c r="E2" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>312</v>
       </c>
       <c r="H2" t="s">
         <v>313</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>312</v>
       </c>
       <c r="K2" t="s">
@@ -6943,19 +7083,19 @@
       <c r="E3" t="s">
         <v>310</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>312</v>
       </c>
       <c r="H3" t="s">
         <v>313</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>312</v>
       </c>
       <c r="K3" t="s">
@@ -6999,16 +7139,16 @@
       <c r="F4" t="s">
         <v>323</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>324</v>
       </c>
       <c r="H4" t="s">
         <v>325</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="3" t="s">
         <v>324</v>
       </c>
       <c r="K4" t="s">
@@ -7034,40 +7174,40 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="2"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="3"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="3"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="3"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="3"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="3"/>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="3"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="3"/>
+      <c r="B23" s="5"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="3"/>
+      <c r="B24" s="5"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="2"/>
+      <c r="B25" s="4"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="2"/>
+      <c r="B26" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7104,7 +7244,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7203,7 +7343,7 @@
       <c r="J2" t="s">
         <v>355</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>356</v>
       </c>
       <c r="L2" t="s">
@@ -7247,7 +7387,7 @@
       <c r="J3" t="s">
         <v>358</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="9" t="s">
         <v>359</v>
       </c>
       <c r="L3" t="s">
@@ -7834,11 +7974,14 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -7938,6 +8081,531 @@
       </c>
       <c r="B11">
         <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:19">
+      <c r="A1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K1" t="s">
+        <v>424</v>
+      </c>
+      <c r="L1" t="s">
+        <v>425</v>
+      </c>
+      <c r="M1" t="s">
+        <v>426</v>
+      </c>
+      <c r="N1" t="s">
+        <v>427</v>
+      </c>
+      <c r="O1" t="s">
+        <v>428</v>
+      </c>
+      <c r="P1" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>430</v>
+      </c>
+      <c r="R1" t="s">
+        <v>431</v>
+      </c>
+      <c r="S1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:9">
+      <c r="A7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" t="s">
+        <v>439</v>
+      </c>
+      <c r="C7" t="s">
+        <v>440</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:18">
+      <c r="A8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I8" t="s">
+        <v>223</v>
+      </c>
+      <c r="K8" t="s">
+        <v>443</v>
+      </c>
+      <c r="L8" t="s">
+        <v>444</v>
+      </c>
+      <c r="M8" t="s">
+        <v>433</v>
+      </c>
+      <c r="N8">
+        <v>50</v>
+      </c>
+      <c r="O8" t="s">
+        <v>223</v>
+      </c>
+      <c r="P8" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>223</v>
+      </c>
+      <c r="R8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:9">
+      <c r="A9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:9">
+      <c r="A10" t="s">
+        <v>447</v>
+      </c>
+      <c r="B10" t="s">
+        <v>448</v>
+      </c>
+      <c r="C10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:9">
+      <c r="A11" t="s">
+        <v>449</v>
+      </c>
+      <c r="B11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:9">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>440</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:9">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>440</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:9">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" t="s">
+        <v>220</v>
+      </c>
+      <c r="I14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B5" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="460">
   <si>
     <t>itemClass</t>
   </si>
@@ -2414,7 +2414,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A8" sqref="A8:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -3760,7 +3760,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7975,7 +7975,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="A9" sqref="A9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -8548,15 +8548,15 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>451</v>
       </c>
@@ -8569,24 +8569,51 @@
       <c r="D1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>455</v>
       </c>
       <c r="B2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>456</v>
       </c>
       <c r="B3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>457</v>
       </c>
@@ -8599,13 +8626,99 @@
       <c r="D4" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>459</v>
       </c>
       <c r="B5" t="s">
         <v>284</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="34" activeTab="41"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="36" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -47,8 +47,9 @@
     <sheet name="item-add-el" sheetId="39" r:id="rId38"/>
     <sheet name="item-edit-el" sheetId="40" r:id="rId39"/>
     <sheet name="master-memc-data" sheetId="42" r:id="rId40"/>
-    <sheet name="discount-master-data" sheetId="43" r:id="rId41"/>
+    <sheet name="master-discount-data" sheetId="43" r:id="rId41"/>
     <sheet name="master-pricelist-data" sheetId="44" r:id="rId42"/>
+    <sheet name="master-othercharge-data" sheetId="45" r:id="rId43"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="458">
   <si>
     <t>itemClass</t>
   </si>
@@ -1348,12 +1349,12 @@
     <t>editDiscountDesc</t>
   </si>
   <si>
+    <t>editDiscountType</t>
+  </si>
+  <si>
     <t>editPercentAmount</t>
   </si>
   <si>
-    <t>editDiscountType</t>
-  </si>
-  <si>
     <t>editExemptVAT</t>
   </si>
   <si>
@@ -1369,7 +1370,7 @@
     <t>Senior</t>
   </si>
   <si>
-    <t>Percentage</t>
+    <t>Percent</t>
   </si>
   <si>
     <t>Athlete</t>
@@ -1387,18 +1388,12 @@
     <t>HOLIDAY50</t>
   </si>
   <si>
-    <t>PHP 50 off during holidays</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
     <t>SUMMER50</t>
   </si>
   <si>
-    <t>PHP 51 off during summer</t>
-  </si>
-  <si>
     <t>BLACKFRIDAY</t>
   </si>
   <si>
@@ -1408,21 +1403,12 @@
     <t>WELCOME</t>
   </si>
   <si>
-    <t>5% off on first purchase</t>
-  </si>
-  <si>
     <t>SUMMERSALE</t>
   </si>
   <si>
-    <t>Summer Sale 15% off</t>
-  </si>
-  <si>
     <t>WINTERHOLIDAY50PERCENTDISCOUNTFORALLITEMSOVER1000PHP</t>
   </si>
   <si>
-    <t>Get 50% off on all items for purchases over PHP 1000 during the winter holiday season</t>
-  </si>
-  <si>
     <t>pricelist</t>
   </si>
   <si>
@@ -1448,17 +1434,27 @@
   </si>
   <si>
     <t>Jollibee 5</t>
+  </si>
+  <si>
+    <t>takeoutsercharge</t>
+  </si>
+  <si>
+    <t>dineinsercharge</t>
+  </si>
+  <si>
+    <t>localtax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2073,8 +2069,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3239,7 +3237,7 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="10" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3311,7 +3309,7 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>114</v>
       </c>
       <c r="D19" t="s">
@@ -3325,7 +3323,7 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D20" t="s">
@@ -3339,7 +3337,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D21" t="s">
@@ -3473,7 +3471,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="10" t="s">
         <v>149</v>
       </c>
       <c r="B31" t="s">
@@ -3784,7 +3782,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>158</v>
       </c>
       <c r="B2" t="s">
@@ -3814,7 +3812,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B5" t="s">
@@ -3822,7 +3820,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="7" t="s">
         <v>163</v>
       </c>
       <c r="B6" t="s">
@@ -3830,7 +3828,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B7" t="s">
@@ -3838,7 +3836,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="7" t="s">
         <v>165</v>
       </c>
       <c r="B8" t="s">
@@ -3846,7 +3844,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B9" t="s">
@@ -3854,7 +3852,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>167</v>
       </c>
       <c r="B10" t="s">
@@ -3862,7 +3860,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B11" t="s">
@@ -3870,7 +3868,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B12" t="s">
@@ -3878,7 +3876,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>170</v>
       </c>
       <c r="B13" t="s">
@@ -4051,7 +4049,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>189</v>
       </c>
       <c r="H2">
@@ -4092,7 +4090,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>192</v>
       </c>
       <c r="H3">
@@ -4133,7 +4131,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="11" t="s">
         <v>194</v>
       </c>
       <c r="H4">
@@ -4172,7 +4170,7 @@
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="11" t="s">
         <v>194</v>
       </c>
       <c r="Y4">
@@ -4204,7 +4202,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H5">
@@ -4245,7 +4243,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="11" t="s">
         <v>199</v>
       </c>
       <c r="H6">
@@ -4286,7 +4284,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="11" t="s">
         <v>202</v>
       </c>
       <c r="H7">
@@ -4327,7 +4325,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="11" t="s">
         <v>204</v>
       </c>
       <c r="H8">
@@ -4368,7 +4366,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="11" t="s">
         <v>205</v>
       </c>
       <c r="H9">
@@ -4409,7 +4407,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="11" t="s">
         <v>206</v>
       </c>
       <c r="H10">
@@ -4491,7 +4489,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="11" t="s">
         <v>209</v>
       </c>
       <c r="H12">
@@ -5626,7 +5624,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6022,7 +6020,7 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -6034,7 +6032,7 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -6046,7 +6044,7 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -6058,7 +6056,7 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -6070,7 +6068,7 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -6082,7 +6080,7 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -6094,7 +6092,7 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -6109,7 +6107,7 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -6582,7 +6580,7 @@
       <c r="A11" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>165</v>
       </c>
       <c r="E11" t="b">
@@ -6599,7 +6597,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>165</v>
       </c>
       <c r="E12" t="b">
@@ -6616,7 +6614,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>165</v>
       </c>
       <c r="E13" t="b">
@@ -6633,7 +6631,7 @@
       <c r="A14" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>165</v>
       </c>
       <c r="E14" t="b">
@@ -6650,7 +6648,7 @@
       <c r="A15" t="s">
         <v>208</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>165</v>
       </c>
       <c r="E15" t="b">
@@ -6664,40 +6662,40 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="4"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="5"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="5"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="5"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="5"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="5"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="5"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="5"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="5"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="5"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="4"/>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="4"/>
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6906,40 +6904,40 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="4"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="5"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="5"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="5"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="5"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="5"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="5"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="5"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="5"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4"/>
+      <c r="B24" s="6"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4"/>
+      <c r="B25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6952,8 +6950,8 @@
   <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q3"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7030,19 +7028,19 @@
       <c r="E2" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>312</v>
       </c>
       <c r="H2" t="s">
         <v>313</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <v>5</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>312</v>
       </c>
       <c r="K2" t="s">
@@ -7083,19 +7081,19 @@
       <c r="E3" t="s">
         <v>310</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>312</v>
       </c>
       <c r="H3" t="s">
         <v>313</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <v>5</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="5" t="s">
         <v>312</v>
       </c>
       <c r="K3" t="s">
@@ -7139,16 +7137,16 @@
       <c r="F4" t="s">
         <v>323</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>324</v>
       </c>
       <c r="H4" t="s">
         <v>325</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>324</v>
       </c>
       <c r="K4" t="s">
@@ -7174,40 +7172,40 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="4"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="5"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="5"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="5"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="5"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="5"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="5"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="5"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="5"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="5"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="4"/>
+      <c r="B25" s="6"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="4"/>
+      <c r="B26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7244,7 +7242,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>334</v>
       </c>
     </row>
@@ -7343,7 +7341,7 @@
       <c r="J2" t="s">
         <v>355</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="11" t="s">
         <v>356</v>
       </c>
       <c r="L2" t="s">
@@ -7387,7 +7385,7 @@
       <c r="J3" t="s">
         <v>358</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>359</v>
       </c>
       <c r="L3" t="s">
@@ -8092,18 +8090,20 @@
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" spans="1:19">
+    <row r="1" customFormat="1" spans="1:21">
       <c r="A1" t="s">
         <v>415</v>
       </c>
@@ -8131,39 +8131,48 @@
       <c r="I1" t="s">
         <v>423</v>
       </c>
+      <c r="J1" t="s">
+        <v>424</v>
+      </c>
       <c r="K1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="R1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="S1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:9">
-      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:21">
+      <c r="A2" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>432</v>
       </c>
       <c r="C2" t="s">
@@ -8175,6 +8184,9 @@
       <c r="E2" t="s">
         <v>223</v>
       </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
       <c r="G2" t="s">
         <v>223</v>
       </c>
@@ -8184,12 +8196,21 @@
       <c r="I2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:9">
-      <c r="A3" s="2" t="s">
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:21">
+      <c r="A3" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>434</v>
       </c>
       <c r="C3" t="s">
@@ -8213,12 +8234,21 @@
       <c r="I3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:21">
+      <c r="A4" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>435</v>
       </c>
       <c r="C4" t="s">
@@ -8242,12 +8272,21 @@
       <c r="I4" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:21">
+      <c r="A5" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>436</v>
       </c>
       <c r="C5" t="s">
@@ -8259,6 +8298,9 @@
       <c r="E5" t="s">
         <v>223</v>
       </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" t="s">
         <v>223</v>
       </c>
@@ -8268,12 +8310,21 @@
       <c r="I5" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" s="2" t="s">
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:21">
+      <c r="A6" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>437</v>
       </c>
       <c r="C6" t="s">
@@ -8285,6 +8336,9 @@
       <c r="E6" t="s">
         <v>223</v>
       </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" t="s">
         <v>223</v>
       </c>
@@ -8294,16 +8348,25 @@
       <c r="I6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:9">
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:21">
       <c r="A7" t="s">
         <v>438</v>
       </c>
       <c r="B7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" t="s">
         <v>439</v>
-      </c>
-      <c r="C7" t="s">
-        <v>440</v>
       </c>
       <c r="D7">
         <v>50</v>
@@ -8323,16 +8386,25 @@
       <c r="I7" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:18">
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:21">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -8352,17 +8424,20 @@
       <c r="I8" t="s">
         <v>223</v>
       </c>
+      <c r="J8" t="s">
+        <v>441</v>
+      </c>
       <c r="K8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L8" t="s">
-        <v>444</v>
-      </c>
-      <c r="M8" t="s">
         <v>433</v>
       </c>
-      <c r="N8">
+      <c r="M8">
         <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>223</v>
       </c>
       <c r="O8" t="s">
         <v>223</v>
@@ -8371,18 +8446,27 @@
         <v>223</v>
       </c>
       <c r="Q8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="R8" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:9">
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:21">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C9" t="s">
         <v>433</v>
@@ -8405,13 +8489,22 @@
       <c r="I9" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:9">
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:21">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C10" t="s">
         <v>433</v>
@@ -8434,13 +8527,22 @@
       <c r="I10" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:9">
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:21">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C11" t="s">
         <v>433</v>
@@ -8463,8 +8565,17 @@
       <c r="I11" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:9">
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:21">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -8472,7 +8583,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -8480,6 +8591,9 @@
       <c r="E12" t="s">
         <v>223</v>
       </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" t="s">
         <v>223</v>
       </c>
@@ -8489,8 +8603,17 @@
       <c r="I12" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="13" customFormat="1" spans="1:9">
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:21">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -8498,7 +8621,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D13">
         <v>20</v>
@@ -8506,6 +8629,9 @@
       <c r="E13" t="s">
         <v>223</v>
       </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" t="s">
         <v>223</v>
       </c>
@@ -8515,20 +8641,35 @@
       <c r="I13" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:9">
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:21">
       <c r="A14" t="s">
         <v>171</v>
       </c>
       <c r="B14" t="s">
         <v>171</v>
       </c>
+      <c r="C14" t="s">
+        <v>439</v>
+      </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>223</v>
       </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
       <c r="G14" t="s">
         <v>223</v>
       </c>
@@ -8537,6 +8678,15 @@
       </c>
       <c r="I14" t="s">
         <v>220</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8550,24 +8700,24 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -8581,7 +8731,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
         <v>282</v>
@@ -8598,7 +8748,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>284</v>
@@ -8615,13 +8765,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
         <v>282</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D4" t="s">
         <v>282</v>
@@ -8638,7 +8788,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s">
         <v>284</v>
@@ -8719,6 +8869,96 @@
       </c>
       <c r="I9" t="b">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="123.714285714286"/>
+    <col min="2" max="2" width="108.571428571429"/>
+    <col min="3" max="3" width="107.428571428571"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>5e+106</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5e+95</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5e+94</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -8093,7 +8093,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -8440,7 +8440,7 @@
         <v>223</v>
       </c>
       <c r="O8" t="s">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="P8" t="s">
         <v>223</v>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="36" activeTab="40"/>
+    <workbookView windowWidth="9390" windowHeight="7500" tabRatio="942" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="463">
   <si>
     <t>itemClass</t>
   </si>
@@ -548,7 +548,7 @@
     <t>Mashed Potatoes</t>
   </si>
   <si>
-    <t>Snacks</t>
+    <t>Snack</t>
   </si>
   <si>
     <t>Breakfast Meal</t>
@@ -560,81 +560,84 @@
     <t>Chicken</t>
   </si>
   <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>Rice Meals</t>
+  </si>
+  <si>
+    <t>Pies</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Soft Drinks</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>itemType</t>
+  </si>
+  <si>
+    <t>unitMeasure</t>
+  </si>
+  <si>
+    <t>unitCost</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>sellingPrice</t>
+  </si>
+  <si>
+    <t>goodXPerson</t>
+  </si>
+  <si>
+    <t>taxCode</t>
+  </si>
+  <si>
+    <t>memc</t>
+  </si>
+  <si>
+    <t>addOn</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>comboMeal</t>
+  </si>
+  <si>
+    <t>editItem</t>
+  </si>
+  <si>
+    <t>editItemType</t>
+  </si>
+  <si>
+    <t>Yumburger Solo</t>
+  </si>
+  <si>
+    <t>NON-INVENTORY</t>
+  </si>
+  <si>
     <t>Burgers</t>
   </si>
   <si>
-    <t>Spaghetti</t>
-  </si>
-  <si>
-    <t>Rice Meals</t>
-  </si>
-  <si>
-    <t>Pies</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Soft Drinks</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>itemType</t>
-  </si>
-  <si>
-    <t>unitMeasure</t>
-  </si>
-  <si>
-    <t>unitCost</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>sellingPrice</t>
-  </si>
-  <si>
-    <t>goodXPerson</t>
-  </si>
-  <si>
-    <t>taxCode</t>
-  </si>
-  <si>
-    <t>memc</t>
-  </si>
-  <si>
-    <t>addOn</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>comboMeal</t>
-  </si>
-  <si>
-    <t>editItem</t>
-  </si>
-  <si>
-    <t>editItemType</t>
-  </si>
-  <si>
-    <t>Yumburger Solo</t>
-  </si>
-  <si>
-    <t>NON-INVENTORY</t>
-  </si>
-  <si>
     <t>PCS</t>
   </si>
   <si>
@@ -729,6 +732,18 @@
   </si>
   <si>
     <t>dataToDelete</t>
+  </si>
+  <si>
+    <t>Jollibee Filipino Sweet Style</t>
+  </si>
+  <si>
+    <t xml:space="preserve">© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # </t>
+  </si>
+  <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? `</t>
+  </si>
+  <si>
+    <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sa</t>
   </si>
   <si>
     <t>No</t>
@@ -2412,7 +2427,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -3757,8 +3772,8 @@
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -4041,16 +4056,16 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -4059,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -4073,7 +4088,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
         <v>187</v>
@@ -4085,13 +4100,13 @@
         <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -4100,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -4114,7 +4129,7 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
         <v>187</v>
@@ -4126,13 +4141,13 @@
         <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -4141,7 +4156,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -4153,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S4" t="s">
         <v>187</v>
@@ -4165,13 +4180,13 @@
         <v>169</v>
       </c>
       <c r="V4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y4">
         <v>80</v>
@@ -4180,12 +4195,12 @@
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B5" t="s">
         <v>187</v>
@@ -4197,13 +4212,13 @@
         <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -4212,7 +4227,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -4226,7 +4241,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B6" t="s">
         <v>187</v>
@@ -4238,13 +4253,13 @@
         <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -4253,7 +4268,7 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -4267,7 +4282,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s">
         <v>187</v>
@@ -4276,16 +4291,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -4294,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -4308,7 +4323,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B8" t="s">
         <v>187</v>
@@ -4320,13 +4335,13 @@
         <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -4335,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -4361,13 +4376,13 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H9">
         <v>51</v>
@@ -4376,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -4402,13 +4417,13 @@
         <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H10">
         <v>53</v>
@@ -4417,7 +4432,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -4443,13 +4458,13 @@
         <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -4458,7 +4473,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -4472,7 +4487,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
         <v>187</v>
@@ -4484,13 +4499,13 @@
         <v>162</v>
       </c>
       <c r="E12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H12">
         <v>54</v>
@@ -4499,7 +4514,7 @@
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -4679,7 +4694,7 @@
         <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -4734,7 +4749,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4748,7 +4763,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4759,7 +4774,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4770,7 +4785,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4781,7 +4796,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4941,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4940,7 +4955,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5022,7 +5037,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5036,7 +5051,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5118,7 +5133,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5132,7 +5147,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5215,7 +5230,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5229,7 +5244,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5311,7 +5326,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5325,7 +5340,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5418,7 +5433,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5432,7 +5447,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5525,7 +5540,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5539,7 +5554,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5595,17 +5610,17 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -5615,17 +5630,27 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5670,21 +5695,21 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -5712,48 +5737,48 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -5894,63 +5919,63 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -5970,7 +5995,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5998,13 +6023,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -6012,7 +6037,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -6024,7 +6049,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -6036,7 +6061,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6048,7 +6073,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6060,7 +6085,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -6072,7 +6097,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -6084,7 +6109,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -6096,10 +6121,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -6111,7 +6136,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -6122,7 +6147,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -6166,7 +6191,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -6200,13 +6225,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -6214,7 +6239,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -6225,7 +6250,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -6236,7 +6261,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6247,7 +6272,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6258,7 +6283,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -6269,7 +6294,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -6280,7 +6305,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -6291,10 +6316,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -6305,7 +6330,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -6316,7 +6341,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -6360,7 +6385,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -6396,13 +6421,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s">
         <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D1" t="s">
         <v>157</v>
@@ -6419,7 +6444,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
         <v>162</v>
@@ -6436,7 +6461,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>164</v>
@@ -6453,7 +6478,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
         <v>162</v>
@@ -6470,10 +6495,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -6487,7 +6512,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
         <v>165</v>
@@ -6504,7 +6529,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
@@ -6521,7 +6546,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
@@ -6538,13 +6563,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B9" t="s">
         <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D9" t="s">
         <v>168</v>
@@ -6561,10 +6586,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -6578,7 +6603,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>165</v>
@@ -6646,7 +6671,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>165</v>
@@ -6723,16 +6748,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6746,10 +6771,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -6763,10 +6788,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -6780,16 +6805,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -6803,10 +6828,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -6820,10 +6845,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -6840,7 +6865,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -6857,7 +6882,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -6874,7 +6899,7 @@
         <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -6888,10 +6913,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -6961,102 +6986,102 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C1" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D1" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F1" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G1" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H1" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="I1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="J1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="K1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N1" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="O1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:17">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="I2" s="5">
         <v>5</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="N2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="O2" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -7067,49 +7092,49 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="I3" s="5">
         <v>5</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L3" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="N3" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="O3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -7120,49 +7145,49 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E4" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F4" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H4" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K4" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="L4" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="M4" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="N4" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O4" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -7235,15 +7260,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -7265,87 +7290,87 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D1" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="E1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="F1" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="G1" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H1" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="I1" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="J1" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="K1" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L1" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="N1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="O1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="D2" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="H2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="J2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L2" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -7356,40 +7381,40 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="I3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="J3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -7444,7 +7469,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7458,40 +7483,40 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7502,117 +7527,117 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7683,7 +7708,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7697,40 +7722,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7741,106 +7766,106 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7851,7 +7876,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7986,24 +8011,24 @@
         <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C1" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D1" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -8011,7 +8036,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -8019,7 +8044,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -8027,7 +8052,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -8035,7 +8060,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -8043,7 +8068,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -8051,7 +8076,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B8">
         <v>500</v>
@@ -8075,7 +8100,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B11">
         <v>503</v>
@@ -8092,7 +8117,7 @@
   <sheetPr/>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -8105,58 +8130,58 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:21">
       <c r="A1" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C1" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D1" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E1" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="F1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="G1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="I1" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="J1" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="K1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="L1" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M1" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N1" t="s">
+        <v>433</v>
+      </c>
+      <c r="O1" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" t="s">
         <v>428</v>
-      </c>
-      <c r="O1" t="s">
-        <v>429</v>
-      </c>
-      <c r="P1" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>431</v>
-      </c>
-      <c r="R1" t="s">
-        <v>423</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -8170,31 +8195,31 @@
     </row>
     <row r="2" customFormat="1" spans="1:21">
       <c r="A2" s="3" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I2" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -8208,31 +8233,31 @@
     </row>
     <row r="3" customFormat="1" spans="1:21">
       <c r="A3" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C3" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -8246,31 +8271,31 @@
     </row>
     <row r="4" customFormat="1" spans="1:21">
       <c r="A4" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="C4" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I4" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -8284,31 +8309,31 @@
     </row>
     <row r="5" customFormat="1" spans="1:21">
       <c r="A5" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C5" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H5" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -8322,31 +8347,31 @@
     </row>
     <row r="6" customFormat="1" spans="1:21">
       <c r="A6" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C6" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H6" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I6" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -8360,31 +8385,31 @@
     </row>
     <row r="7" customFormat="1" spans="1:21">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -8398,58 +8423,58 @@
     </row>
     <row r="8" customFormat="1" spans="1:21">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="C8" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D8">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="J8" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K8" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="L8" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M8">
         <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="O8" t="s">
         <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="R8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -8463,31 +8488,31 @@
     </row>
     <row r="9" customFormat="1" spans="1:21">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B9" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C9" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F9" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G9" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -8501,31 +8526,31 @@
     </row>
     <row r="10" customFormat="1" spans="1:21">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B10" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="C10" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D10">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -8539,31 +8564,31 @@
     </row>
     <row r="11" customFormat="1" spans="1:21">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="C11" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="D11">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="G11" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I11" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -8583,25 +8608,25 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H12" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="I12" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -8621,25 +8646,25 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I13" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -8659,25 +8684,25 @@
         <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H14" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I14" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -8708,16 +8733,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -8731,10 +8756,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -8748,10 +8773,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -8765,16 +8790,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -8788,10 +8813,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -8808,7 +8833,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
@@ -8825,7 +8850,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -8842,7 +8867,7 @@
         <v>171</v>
       </c>
       <c r="B8" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -8859,7 +8884,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -8895,19 +8920,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9390" windowHeight="7500" tabRatio="942" firstSheet="15" activeTab="15"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="19" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="463">
   <si>
     <t>itemClass</t>
   </si>
@@ -3772,8 +3772,8 @@
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -5610,13 +5610,13 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -5651,6 +5651,11 @@
     <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="19" activeTab="26"/>
+    <workbookView windowWidth="9390" windowHeight="7500" tabRatio="942" firstSheet="36" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="464">
   <si>
     <t>itemClass</t>
   </si>
@@ -1458,6 +1458,9 @@
   </si>
   <si>
     <t>localtax</t>
+  </si>
+  <si>
+    <t>abcdefghij</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1472,7 @@
     <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2084,10 +2087,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2427,7 +2440,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -3252,7 +3265,7 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3324,7 +3337,7 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="D19" t="s">
@@ -3338,7 +3351,7 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D20" t="s">
@@ -3352,7 +3365,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>120</v>
       </c>
       <c r="D21" t="s">
@@ -3486,7 +3499,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="12" t="s">
         <v>149</v>
       </c>
       <c r="B31" t="s">
@@ -3797,7 +3810,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B2" t="s">
@@ -3827,7 +3840,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B5" t="s">
@@ -3835,7 +3848,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B6" t="s">
@@ -3843,7 +3856,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>164</v>
       </c>
       <c r="B7" t="s">
@@ -3851,7 +3864,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B8" t="s">
@@ -3859,7 +3872,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B9" t="s">
@@ -3867,7 +3880,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>167</v>
       </c>
       <c r="B10" t="s">
@@ -3875,7 +3888,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>168</v>
       </c>
       <c r="B11" t="s">
@@ -3883,7 +3896,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B12" t="s">
@@ -3891,7 +3904,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B13" t="s">
@@ -4064,7 +4077,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>190</v>
       </c>
       <c r="H2">
@@ -4105,7 +4118,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>193</v>
       </c>
       <c r="H3">
@@ -4146,7 +4159,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="13" t="s">
         <v>195</v>
       </c>
       <c r="H4">
@@ -4185,7 +4198,7 @@
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" s="11" t="s">
+      <c r="X4" s="13" t="s">
         <v>195</v>
       </c>
       <c r="Y4">
@@ -4217,7 +4230,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="13" t="s">
         <v>198</v>
       </c>
       <c r="H5">
@@ -4258,7 +4271,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="13" t="s">
         <v>200</v>
       </c>
       <c r="H6">
@@ -4299,7 +4312,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>203</v>
       </c>
       <c r="H7">
@@ -4340,7 +4353,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>205</v>
       </c>
       <c r="H8">
@@ -4381,7 +4394,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>206</v>
       </c>
       <c r="H9">
@@ -4422,7 +4435,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="13" t="s">
         <v>207</v>
       </c>
       <c r="H10">
@@ -4504,7 +4517,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="13" t="s">
         <v>210</v>
       </c>
       <c r="H12">
@@ -5612,8 +5625,8 @@
   <sheetPr/>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -5639,7 +5652,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5729,81 +5742,117 @@
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>229</v>
       </c>
       <c r="B1" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>235</v>
       </c>
       <c r="B6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>14</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6050,7 +6099,7 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -6062,7 +6111,7 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -6074,7 +6123,7 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -6086,7 +6135,7 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -6098,7 +6147,7 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -6110,7 +6159,7 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -6122,7 +6171,7 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -6137,7 +6186,7 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -6610,7 +6659,7 @@
       <c r="A11" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E11" t="b">
@@ -6627,7 +6676,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E12" t="b">
@@ -6644,7 +6693,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E13" t="b">
@@ -6661,7 +6710,7 @@
       <c r="A14" t="s">
         <v>171</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E14" t="b">
@@ -6678,7 +6727,7 @@
       <c r="A15" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E15" t="b">
@@ -6692,40 +6741,40 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="6"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="7"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="7"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="7"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="7"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="7"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="7"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="7"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="7"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="7"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="6"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="6"/>
+      <c r="B30" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6934,40 +6983,40 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="6"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="7"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="7"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="7"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="7"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="7"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="7"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="7"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="7"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="7"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="6"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="6"/>
+      <c r="B25" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7058,19 +7107,19 @@
       <c r="E2" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>317</v>
       </c>
       <c r="H2" t="s">
         <v>318</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="7">
         <v>5</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>317</v>
       </c>
       <c r="K2" t="s">
@@ -7111,19 +7160,19 @@
       <c r="E3" t="s">
         <v>315</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>317</v>
       </c>
       <c r="H3" t="s">
         <v>318</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="7">
         <v>5</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>317</v>
       </c>
       <c r="K3" t="s">
@@ -7167,16 +7216,16 @@
       <c r="F4" t="s">
         <v>328</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>329</v>
       </c>
       <c r="H4" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>329</v>
       </c>
       <c r="K4" t="s">
@@ -7202,40 +7251,40 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="6"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="7"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="7"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="7"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="7"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="7"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="7"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="7"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="7"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="7"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="6"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="6"/>
+      <c r="B26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7272,7 +7321,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7371,7 +7420,7 @@
       <c r="J2" t="s">
         <v>360</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="13" t="s">
         <v>361</v>
       </c>
       <c r="L2" t="s">
@@ -7415,7 +7464,7 @@
       <c r="J3" t="s">
         <v>363</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="13" t="s">
         <v>364</v>
       </c>
       <c r="L3" t="s">
@@ -8199,10 +8248,10 @@
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:21">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>437</v>
       </c>
       <c r="C2" t="s">
@@ -8237,10 +8286,10 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:21">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>439</v>
       </c>
       <c r="C3" t="s">
@@ -8275,10 +8324,10 @@
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:21">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>440</v>
       </c>
       <c r="C4" t="s">
@@ -8313,10 +8362,10 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:21">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>441</v>
       </c>
       <c r="C5" t="s">
@@ -8351,10 +8400,10 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:21">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>442</v>
       </c>
       <c r="C6" t="s">
@@ -8910,17 +8959,17 @@
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="123.714285714286"/>
-    <col min="2" max="2" width="108.571428571429"/>
-    <col min="3" max="3" width="107.428571428571"/>
+    <col min="1" max="1" width="17.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="17.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -8940,56 +8989,227 @@
         <v>311</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>30</v>
-      </c>
-      <c r="B2">
-        <v>30</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" t="b">
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="b">
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1">
+        <v>100</v>
+      </c>
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>5e+106</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5e+95</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5e+94</v>
-      </c>
-      <c r="D4" t="b">
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>-10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-10</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E4" t="b">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>150</v>
+      </c>
+      <c r="B6" s="4">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4">
+        <v>150</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9390" windowHeight="7500" tabRatio="942" firstSheet="36" activeTab="42"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="26" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="464">
   <si>
     <t>itemClass</t>
   </si>
@@ -548,7 +548,7 @@
     <t>Mashed Potatoes</t>
   </si>
   <si>
-    <t>Snack</t>
+    <t>Snacks</t>
   </si>
   <si>
     <t>Breakfast Meal</t>
@@ -581,7 +581,7 @@
     <t>Coffee</t>
   </si>
   <si>
-    <t>Juice</t>
+    <t>Juices</t>
   </si>
   <si>
     <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
@@ -2087,7 +2087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2096,9 +2096,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3265,7 +3262,7 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3337,7 +3334,7 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D19" t="s">
@@ -3351,7 +3348,7 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D20" t="s">
@@ -3365,7 +3362,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D21" t="s">
@@ -3499,7 +3496,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B31" t="s">
@@ -3786,7 +3783,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -3810,7 +3807,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B2" t="s">
@@ -3840,7 +3837,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B5" t="s">
@@ -3848,7 +3845,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B6" t="s">
@@ -3856,7 +3853,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B7" t="s">
@@ -3864,7 +3861,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B8" t="s">
@@ -3872,7 +3869,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B9" t="s">
@@ -3880,7 +3877,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B10" t="s">
@@ -3888,27 +3885,27 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -3916,7 +3913,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4077,7 +4074,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>190</v>
       </c>
       <c r="H2">
@@ -4118,7 +4115,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>193</v>
       </c>
       <c r="H3">
@@ -4159,7 +4156,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>195</v>
       </c>
       <c r="H4">
@@ -4198,7 +4195,7 @@
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X4" s="12" t="s">
         <v>195</v>
       </c>
       <c r="Y4">
@@ -4230,7 +4227,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>198</v>
       </c>
       <c r="H5">
@@ -4271,7 +4268,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>200</v>
       </c>
       <c r="H6">
@@ -4312,7 +4309,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>203</v>
       </c>
       <c r="H7">
@@ -4353,7 +4350,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>205</v>
       </c>
       <c r="H8">
@@ -4394,7 +4391,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>206</v>
       </c>
       <c r="H9">
@@ -4435,7 +4432,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>207</v>
       </c>
       <c r="H10">
@@ -4517,7 +4514,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>210</v>
       </c>
       <c r="H12">
@@ -5519,7 +5516,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -5652,7 +5649,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5745,7 +5742,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -5844,7 +5841,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5960,96 +5957,141 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>239</v>
       </c>
       <c r="B1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>235</v>
       </c>
       <c r="B9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>209</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6064,13 +6106,13 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="12.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
   </cols>
@@ -6099,7 +6141,7 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -6111,7 +6153,7 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -6123,7 +6165,7 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -6135,7 +6177,7 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -6147,7 +6189,7 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -6159,7 +6201,7 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -6171,7 +6213,7 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -6186,7 +6228,7 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -6234,7 +6276,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -6266,7 +6308,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -6428,7 +6470,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -6445,7 +6487,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6459,8 +6501,8 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -6659,7 +6701,7 @@
       <c r="A11" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E11" t="b">
@@ -6676,7 +6718,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E12" t="b">
@@ -6693,7 +6735,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E13" t="b">
@@ -6708,9 +6750,9 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E14" t="b">
@@ -6727,7 +6769,7 @@
       <c r="A15" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E15" t="b">
@@ -6741,40 +6783,40 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="8"/>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6983,40 +7025,40 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7107,19 +7149,19 @@
       <c r="E2" t="s">
         <v>315</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>317</v>
       </c>
       <c r="H2" t="s">
         <v>318</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>317</v>
       </c>
       <c r="K2" t="s">
@@ -7160,19 +7202,19 @@
       <c r="E3" t="s">
         <v>315</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>317</v>
       </c>
       <c r="H3" t="s">
         <v>318</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>5</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>317</v>
       </c>
       <c r="K3" t="s">
@@ -7216,16 +7258,16 @@
       <c r="F4" t="s">
         <v>328</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>329</v>
       </c>
       <c r="H4" t="s">
         <v>330</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>329</v>
       </c>
       <c r="K4" t="s">
@@ -7251,40 +7293,40 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="8"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7321,7 +7363,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>339</v>
       </c>
     </row>
@@ -7420,7 +7462,7 @@
       <c r="J2" t="s">
         <v>360</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>361</v>
       </c>
       <c r="L2" t="s">
@@ -7464,7 +7506,7 @@
       <c r="J3" t="s">
         <v>363</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>364</v>
       </c>
       <c r="L3" t="s">
@@ -8248,10 +8290,10 @@
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:21">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>437</v>
       </c>
       <c r="C2" t="s">
@@ -8286,10 +8328,10 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:21">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>439</v>
       </c>
       <c r="C3" t="s">
@@ -8324,10 +8366,10 @@
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:21">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>440</v>
       </c>
       <c r="C4" t="s">
@@ -8362,10 +8404,10 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:21">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>441</v>
       </c>
       <c r="C5" t="s">
@@ -8400,10 +8442,10 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:21">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>442</v>
       </c>
       <c r="C6" t="s">
@@ -8961,7 +9003,7 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -9044,13 +9086,13 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>-10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>-10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>-10</v>
       </c>
       <c r="D5" s="2" t="b">
@@ -9062,13 +9104,13 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>150</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>150</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>150</v>
       </c>
       <c r="D6" s="2" t="b">
@@ -9098,13 +9140,13 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>1000</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>1000</v>
       </c>
       <c r="D8" s="2" t="b">

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="26" activeTab="32"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="33" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,9 @@
     <sheet name="master-discount-data" sheetId="43" r:id="rId41"/>
     <sheet name="master-pricelist-data" sheetId="44" r:id="rId42"/>
     <sheet name="master-othercharge-data" sheetId="45" r:id="rId43"/>
+    <sheet name="othercharge-el" sheetId="46" r:id="rId44"/>
+    <sheet name="discount-add-el" sheetId="47" r:id="rId45"/>
+    <sheet name="discount-edit-el" sheetId="48" r:id="rId46"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="501">
   <si>
     <t>itemClass</t>
   </si>
@@ -746,6 +749,12 @@
     <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sa</t>
   </si>
   <si>
+    <t>WINTERHOLIDAY50PERCENTDISCOUNT</t>
+  </si>
+  <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ #</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -1328,7 +1337,7 @@
     <t>MEMC 500</t>
   </si>
   <si>
-    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \\ ~ \\\" | \\ ] [ ] ; :</t>
+    <t>MEMC 600</t>
   </si>
   <si>
     <t>discountCode</t>
@@ -1412,9 +1421,6 @@
     <t>BLACKFRIDAY</t>
   </si>
   <si>
-    <t>Blackfriday Sale 50% off</t>
-  </si>
-  <si>
     <t>WELCOME</t>
   </si>
   <si>
@@ -1439,6 +1445,9 @@
     <t>Jollibee 1</t>
   </si>
   <si>
+    <t>Jollibee 6</t>
+  </si>
+  <si>
     <t>Jollibee 2</t>
   </si>
   <si>
@@ -1461,6 +1470,113 @@
   </si>
   <si>
     <t>abcdefghij</t>
+  </si>
+  <si>
+    <t>Update button should contain text "Update"</t>
+  </si>
+  <si>
+    <t>#takeout_scharge</t>
+  </si>
+  <si>
+    <t>Takeout Service Charge textbox should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#dinein_scharge</t>
+  </si>
+  <si>
+    <t>Dine-In Service Charge textbox should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#localtax</t>
+  </si>
+  <si>
+    <t>Local Tax textbox should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>"Update" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>label[for="takeout_scharge"]</t>
+  </si>
+  <si>
+    <t>Takeout Service Charge *</t>
+  </si>
+  <si>
+    <t>Takeout Service Charge * should be the label caption</t>
+  </si>
+  <si>
+    <t>label[for="dinein_scharge"]</t>
+  </si>
+  <si>
+    <t>Dine-In Service Charge *</t>
+  </si>
+  <si>
+    <t>Dine-In Service Charge * should be the label caption</t>
+  </si>
+  <si>
+    <t>Local Tax *</t>
+  </si>
+  <si>
+    <t>Local Tax * should be the label caption</t>
+  </si>
+  <si>
+    <t>.text-[12px]</t>
+  </si>
+  <si>
+    <t>The service charge discount may be applied to any eligible discounts, such as PWD, Senior Citizen, etc.</t>
+  </si>
+  <si>
+    <t>This message should be visible "The service charge discount may be applied to any eligible discounts, such as PWD, Senior Citizen, etc."</t>
+  </si>
+  <si>
+    <t>.mt-[1rem].text-[12px].bg-yellow-300.p-1.font-bold</t>
+  </si>
+  <si>
+    <t>Note: The service charge discount will only be applied if the
+transaction has a service charge.</t>
+  </si>
+  <si>
+    <t>This message should be visible "Note: The service charge discount will only be applied if the
+transaction has a service charge."</t>
+  </si>
+  <si>
+    <t>#discde</t>
+  </si>
+  <si>
+    <t>#disdsc</t>
+  </si>
+  <si>
+    <t>#distyp</t>
+  </si>
+  <si>
+    <t>label[for="discde"]</t>
+  </si>
+  <si>
+    <t>Code *</t>
+  </si>
+  <si>
+    <t>Code * should be the label caption</t>
+  </si>
+  <si>
+    <t>label[for="disdsc"]</t>
+  </si>
+  <si>
+    <t>Description *</t>
+  </si>
+  <si>
+    <t>Description * should be the label caption</t>
+  </si>
+  <si>
+    <t>label[for="distyp"]</t>
+  </si>
+  <si>
+    <t>Type *</t>
+  </si>
+  <si>
+    <t>Type * should be the label caption</t>
+  </si>
+  <si>
+    <t>Update button should contain text "Update" instead of "Update Data"</t>
   </si>
 </sst>
 </file>
@@ -2087,8 +2203,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3262,7 +3379,7 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3334,7 +3451,7 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>114</v>
       </c>
       <c r="D19" t="s">
@@ -3348,7 +3465,7 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>117</v>
       </c>
       <c r="D20" t="s">
@@ -3362,7 +3479,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>120</v>
       </c>
       <c r="D21" t="s">
@@ -3496,7 +3613,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>149</v>
       </c>
       <c r="B31" t="s">
@@ -3807,7 +3924,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B2" t="s">
@@ -3837,7 +3954,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B5" t="s">
@@ -3845,7 +3962,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B6" t="s">
@@ -3853,7 +3970,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>164</v>
       </c>
       <c r="B7" t="s">
@@ -3861,7 +3978,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B8" t="s">
@@ -3869,7 +3986,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B9" t="s">
@@ -3877,7 +3994,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>167</v>
       </c>
       <c r="B10" t="s">
@@ -3885,7 +4002,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>168</v>
       </c>
       <c r="B11" t="s">
@@ -3893,7 +4010,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B12" t="s">
@@ -3901,7 +4018,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B13" t="s">
@@ -3951,8 +4068,8 @@
   <sheetPr/>
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4074,7 +4191,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>190</v>
       </c>
       <c r="H2">
@@ -4115,7 +4232,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>193</v>
       </c>
       <c r="H3">
@@ -4156,7 +4273,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>195</v>
       </c>
       <c r="H4">
@@ -4195,7 +4312,7 @@
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" s="12" t="s">
+      <c r="X4" s="13" t="s">
         <v>195</v>
       </c>
       <c r="Y4">
@@ -4227,7 +4344,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="13" t="s">
         <v>198</v>
       </c>
       <c r="H5">
@@ -4268,7 +4385,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>200</v>
       </c>
       <c r="H6">
@@ -4309,7 +4426,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>203</v>
       </c>
       <c r="H7">
@@ -4350,7 +4467,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>205</v>
       </c>
       <c r="H8">
@@ -4391,7 +4508,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>206</v>
       </c>
       <c r="H9">
@@ -4432,7 +4549,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>207</v>
       </c>
       <c r="H10">
@@ -4514,7 +4631,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>210</v>
       </c>
       <c r="H12">
@@ -4530,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="b">
         <v>0</v>
@@ -4539,6 +4656,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="G2:G10 G12 X4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4725,7 +4845,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H12" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -4917,7 +5037,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -5620,13 +5740,13 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -5649,7 +5769,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5666,6 +5786,16 @@
     <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5710,21 +5840,21 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -5742,7 +5872,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F1" sqref="F1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -5752,10 +5882,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -5763,7 +5893,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5771,7 +5901,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5779,7 +5909,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5787,7 +5917,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5795,10 +5925,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5806,7 +5936,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -5814,7 +5944,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -5970,10 +6100,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -5981,7 +6111,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -5989,7 +6119,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -5997,7 +6127,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -6005,7 +6135,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -6013,7 +6143,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -6021,7 +6151,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -6029,7 +6159,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -6037,10 +6167,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -6048,7 +6178,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -6056,7 +6186,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -6119,13 +6249,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -6133,7 +6263,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -6141,11 +6271,11 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -6153,11 +6283,11 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6165,11 +6295,11 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6177,11 +6307,11 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -6189,11 +6319,11 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -6201,11 +6331,11 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -6213,14 +6343,14 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -6228,11 +6358,11 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -6243,7 +6373,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -6321,13 +6451,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -6335,7 +6465,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -6346,7 +6476,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -6357,7 +6487,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6368,7 +6498,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6379,7 +6509,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -6390,7 +6520,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -6401,7 +6531,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -6412,10 +6542,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -6426,7 +6556,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -6437,7 +6567,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -6501,8 +6631,8 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -6517,13 +6647,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
         <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
         <v>157</v>
@@ -6540,7 +6670,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
         <v>162</v>
@@ -6557,7 +6687,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B3" t="s">
         <v>164</v>
@@ -6574,7 +6704,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s">
         <v>162</v>
@@ -6591,7 +6721,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B5" t="s">
         <v>188</v>
@@ -6608,7 +6738,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>165</v>
@@ -6625,7 +6755,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
@@ -6642,7 +6772,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
@@ -6659,13 +6789,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B9" t="s">
         <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D9" t="s">
         <v>168</v>
@@ -6682,7 +6812,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
         <v>188</v>
@@ -6699,9 +6829,9 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B11" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E11" t="b">
@@ -6718,7 +6848,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E12" t="b">
@@ -6735,7 +6865,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E13" t="b">
@@ -6752,14 +6882,14 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
@@ -6769,7 +6899,7 @@
       <c r="A15" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E15" t="b">
@@ -6783,40 +6913,40 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="7"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="7"/>
+      <c r="B30" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6830,13 +6960,13 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
     <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
     <col min="4" max="5" width="22.1428571428571" customWidth="1"/>
     <col min="6" max="7" width="17.4285714285714" customWidth="1"/>
@@ -6844,16 +6974,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6867,10 +6997,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -6884,10 +7014,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -6901,16 +7031,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" t="s">
         <v>292</v>
-      </c>
-      <c r="D4" t="s">
-        <v>290</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -6924,10 +7054,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -6941,10 +7071,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -6961,7 +7091,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -6978,7 +7108,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -6992,10 +7122,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -7004,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -7012,7 +7142,7 @@
         <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -7025,40 +7155,40 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7071,8 +7201,8 @@
   <sheetPr/>
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7082,102 +7212,102 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="J1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="O1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:17">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G2" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="H2" t="s">
-        <v>318</v>
-      </c>
-      <c r="I2" s="6">
+        <v>320</v>
+      </c>
+      <c r="I2" s="7">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>317</v>
+      <c r="J2" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="K2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -7188,49 +7318,49 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="G3" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="H3" t="s">
-        <v>318</v>
-      </c>
-      <c r="I3" s="6">
+        <v>320</v>
+      </c>
+      <c r="I3" s="7">
         <v>5</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>317</v>
+      <c r="J3" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="K3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -7241,49 +7371,49 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="H4" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="K4" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N4" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -7293,46 +7423,46 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I4" numberStoredAsText="1"/>
+    <ignoredError sqref="I4 F2:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7356,15 +7486,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
-        <v>339</v>
+      <c r="A2" s="7" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -7386,87 +7516,87 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D1" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E1" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G1" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H1" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="I1" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="J1" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L1" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I2" t="s">
         <v>357</v>
       </c>
-      <c r="F2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" t="s">
-        <v>358</v>
-      </c>
-      <c r="H2" t="s">
-        <v>359</v>
-      </c>
-      <c r="I2" t="s">
-        <v>355</v>
-      </c>
       <c r="J2" t="s">
-        <v>360</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>361</v>
+        <v>362</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>363</v>
       </c>
       <c r="L2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -7477,40 +7607,40 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="I3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="J3" t="s">
-        <v>363</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>366</v>
       </c>
       <c r="L3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -7584,35 +7714,35 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7623,117 +7753,117 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7804,7 +7934,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7823,35 +7953,35 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7862,106 +7992,106 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7972,7 +8102,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8091,115 +8221,159 @@
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="D1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>412</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D2">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B3">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B7">
         <v>200</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B8">
         <v>500</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B9">
+        <v>600</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>501</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>502</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B11">
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
         <v>503</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8213,71 +8387,71 @@
   <sheetPr/>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7142857142857" customWidth="1"/>
+    <col min="1" max="1" width="58.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" spans="1:21">
       <c r="A1" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F1" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I1" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J1" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K1" t="s">
+        <v>432</v>
+      </c>
+      <c r="L1" t="s">
+        <v>433</v>
+      </c>
+      <c r="M1" t="s">
+        <v>434</v>
+      </c>
+      <c r="N1" t="s">
+        <v>435</v>
+      </c>
+      <c r="O1" t="s">
+        <v>436</v>
+      </c>
+      <c r="P1" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>438</v>
+      </c>
+      <c r="R1" t="s">
         <v>430</v>
-      </c>
-      <c r="L1" t="s">
-        <v>431</v>
-      </c>
-      <c r="M1" t="s">
-        <v>432</v>
-      </c>
-      <c r="N1" t="s">
-        <v>433</v>
-      </c>
-      <c r="O1" t="s">
-        <v>434</v>
-      </c>
-      <c r="P1" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>436</v>
-      </c>
-      <c r="R1" t="s">
-        <v>428</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -8290,32 +8464,32 @@
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:21">
-      <c r="A2" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>437</v>
+      <c r="A2" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>439</v>
       </c>
       <c r="C2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -8328,32 +8502,32 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:21">
-      <c r="A3" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>439</v>
+      <c r="A3" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>441</v>
       </c>
       <c r="C3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -8366,32 +8540,32 @@
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:21">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" t="s">
         <v>440</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="C4" t="s">
-        <v>438</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -8404,32 +8578,32 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:21">
-      <c r="A5" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>441</v>
+      <c r="A5" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>443</v>
       </c>
       <c r="C5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -8442,32 +8616,32 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:21">
-      <c r="A6" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>442</v>
+      <c r="A6" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>444</v>
       </c>
       <c r="C6" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -8481,31 +8655,31 @@
     </row>
     <row r="7" customFormat="1" spans="1:21">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -8519,58 +8693,58 @@
     </row>
     <row r="8" customFormat="1" spans="1:21">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D8">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="K8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M8">
         <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O8" t="s">
         <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="R8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -8584,31 +8758,31 @@
     </row>
     <row r="9" customFormat="1" spans="1:21">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C9" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -8622,31 +8796,31 @@
     </row>
     <row r="10" customFormat="1" spans="1:21">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C10" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D10">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -8660,34 +8834,34 @@
     </row>
     <row r="11" customFormat="1" spans="1:21">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C11" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D11">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="S11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="b">
         <v>0</v>
@@ -8704,25 +8878,25 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H12" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -8742,25 +8916,25 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I13" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -8774,34 +8948,34 @@
     </row>
     <row r="14" customFormat="1" spans="1:21">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I14" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="S14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="b">
         <v>0</v>
@@ -8819,26 +8993,26 @@
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -8852,10 +9026,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -8869,7 +9043,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
         <v>289</v>
@@ -8886,16 +9060,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
-      </c>
-      <c r="C4" t="s">
-        <v>458</v>
-      </c>
-      <c r="D4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -8914,39 +9082,45 @@
       <c r="B5" t="s">
         <v>289</v>
       </c>
+      <c r="C5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D5" t="s">
+        <v>289</v>
+      </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -8960,10 +9134,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -8977,18 +9151,35 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>289</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="b">
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9016,242 +9207,750 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="b">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3"/>
+      <c r="E2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>50</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>50</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>50</v>
       </c>
-      <c r="D3" s="2" t="b">
+      <c r="D3" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>100</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>100</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>100</v>
       </c>
-      <c r="D4" s="2" t="b">
+      <c r="D4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>-10</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>-10</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>-10</v>
       </c>
-      <c r="D5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="b">
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>150</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>150</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>150</v>
       </c>
-      <c r="D6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="b">
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="b">
+      <c r="A7" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1000</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>1000</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1000</v>
       </c>
-      <c r="D8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="2" t="b">
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>475</v>
+      </c>
+      <c r="E9" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>478</v>
+      </c>
+      <c r="E10" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>480</v>
+      </c>
+      <c r="E11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>483</v>
+      </c>
+      <c r="E12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>495</v>
+      </c>
+      <c r="E10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E11" t="s">
+        <v>499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>491</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>494</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>495</v>
+      </c>
+      <c r="E10" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>498</v>
+      </c>
+      <c r="E11" t="s">
+        <v>499</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="33" activeTab="39"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="32" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -4657,7 +4657,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="G2:G10 G12 X4" numberStoredAsText="1"/>
+    <ignoredError sqref="X4 G12 G2:G10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -6631,8 +6631,8 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -6724,7 +6724,7 @@
         <v>277</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>283</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -7462,7 +7462,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I4 F2:F3" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F3 I4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8223,7 +8223,7 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="32" activeTab="32"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="36" activeTab="42"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="495">
   <si>
     <t>itemClass</t>
   </si>
@@ -1518,26 +1518,6 @@
   </si>
   <si>
     <t>Local Tax * should be the label caption</t>
-  </si>
-  <si>
-    <t>.text-[12px]</t>
-  </si>
-  <si>
-    <t>The service charge discount may be applied to any eligible discounts, such as PWD, Senior Citizen, etc.</t>
-  </si>
-  <si>
-    <t>This message should be visible "The service charge discount may be applied to any eligible discounts, such as PWD, Senior Citizen, etc."</t>
-  </si>
-  <si>
-    <t>.mt-[1rem].text-[12px].bg-yellow-300.p-1.font-bold</t>
-  </si>
-  <si>
-    <t>Note: The service charge discount will only be applied if the
-transaction has a service charge.</t>
-  </si>
-  <si>
-    <t>This message should be visible "Note: The service charge discount will only be applied if the
-transaction has a service charge."</t>
   </si>
   <si>
     <t>#discde</t>
@@ -2203,9 +2183,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3379,7 +3358,7 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3451,7 +3430,7 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D19" t="s">
@@ -3465,7 +3444,7 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D20" t="s">
@@ -3479,7 +3458,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D21" t="s">
@@ -3613,7 +3592,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B31" t="s">
@@ -3924,7 +3903,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B2" t="s">
@@ -3954,7 +3933,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B5" t="s">
@@ -3962,7 +3941,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B6" t="s">
@@ -3970,7 +3949,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B7" t="s">
@@ -3978,7 +3957,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B8" t="s">
@@ -3986,7 +3965,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B9" t="s">
@@ -3994,7 +3973,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B10" t="s">
@@ -4002,7 +3981,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>168</v>
       </c>
       <c r="B11" t="s">
@@ -4010,7 +3989,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>169</v>
       </c>
       <c r="B12" t="s">
@@ -4018,7 +3997,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>170</v>
       </c>
       <c r="B13" t="s">
@@ -4191,7 +4170,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>190</v>
       </c>
       <c r="H2">
@@ -4232,7 +4211,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>193</v>
       </c>
       <c r="H3">
@@ -4273,7 +4252,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>195</v>
       </c>
       <c r="H4">
@@ -4312,7 +4291,7 @@
       <c r="W4">
         <v>0</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="X4" s="12" t="s">
         <v>195</v>
       </c>
       <c r="Y4">
@@ -4344,7 +4323,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>198</v>
       </c>
       <c r="H5">
@@ -4385,7 +4364,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="12" t="s">
         <v>200</v>
       </c>
       <c r="H6">
@@ -4426,7 +4405,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>203</v>
       </c>
       <c r="H7">
@@ -4467,7 +4446,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>205</v>
       </c>
       <c r="H8">
@@ -4508,7 +4487,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>206</v>
       </c>
       <c r="H9">
@@ -4549,7 +4528,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>207</v>
       </c>
       <c r="H10">
@@ -4631,7 +4610,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>210</v>
       </c>
       <c r="H12">
@@ -4657,7 +4636,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="X4 G12 G2:G10" numberStoredAsText="1"/>
+    <ignoredError sqref="G2:G10 G12 X4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5769,7 +5748,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6271,7 +6250,7 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
@@ -6283,7 +6262,7 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
@@ -6295,7 +6274,7 @@
       <c r="D4" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
@@ -6307,7 +6286,7 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -6319,7 +6298,7 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -6331,7 +6310,7 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -6343,7 +6322,7 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -6358,7 +6337,7 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -6631,7 +6610,7 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -6831,7 +6810,7 @@
       <c r="A11" t="s">
         <v>284</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E11" t="b">
@@ -6848,7 +6827,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E12" t="b">
@@ -6865,7 +6844,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E13" t="b">
@@ -6882,7 +6861,7 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E14" t="b">
@@ -6899,7 +6878,7 @@
       <c r="A15" t="s">
         <v>209</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E15" t="b">
@@ -6913,40 +6892,40 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="8"/>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7155,40 +7134,40 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7279,19 +7258,19 @@
       <c r="E2" t="s">
         <v>317</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>319</v>
       </c>
       <c r="H2" t="s">
         <v>320</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>319</v>
       </c>
       <c r="K2" t="s">
@@ -7332,19 +7311,19 @@
       <c r="E3" t="s">
         <v>317</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>319</v>
       </c>
       <c r="H3" t="s">
         <v>320</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>5</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>319</v>
       </c>
       <c r="K3" t="s">
@@ -7388,16 +7367,16 @@
       <c r="F4" t="s">
         <v>330</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>331</v>
       </c>
       <c r="H4" t="s">
         <v>332</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>331</v>
       </c>
       <c r="K4" t="s">
@@ -7423,46 +7402,46 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="8"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F2:F3 I4" numberStoredAsText="1"/>
+    <ignoredError sqref="I4 F2:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7493,7 +7472,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>341</v>
       </c>
     </row>
@@ -7592,7 +7571,7 @@
       <c r="J2" t="s">
         <v>362</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>363</v>
       </c>
       <c r="L2" t="s">
@@ -7636,7 +7615,7 @@
       <c r="J3" t="s">
         <v>365</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>366</v>
       </c>
       <c r="L3" t="s">
@@ -8464,10 +8443,10 @@
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:21">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>439</v>
       </c>
       <c r="C2" t="s">
@@ -8502,10 +8481,10 @@
       </c>
     </row>
     <row r="3" customFormat="1" spans="1:21">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>441</v>
       </c>
       <c r="C3" t="s">
@@ -8540,10 +8519,10 @@
       </c>
     </row>
     <row r="4" customFormat="1" spans="1:21">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>442</v>
       </c>
       <c r="C4" t="s">
@@ -8578,10 +8557,10 @@
       </c>
     </row>
     <row r="5" customFormat="1" spans="1:21">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>443</v>
       </c>
       <c r="C5" t="s">
@@ -8616,10 +8595,10 @@
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:21">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>444</v>
       </c>
       <c r="C6" t="s">
@@ -9194,8 +9173,8 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -9223,226 +9202,226 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="b">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4"/>
+      <c r="E2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>50</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>50</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>50</v>
       </c>
-      <c r="D3" s="3" t="b">
+      <c r="D3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4"/>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>100</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>100</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>100</v>
       </c>
-      <c r="D4" s="3" t="b">
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="E4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>-10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>-10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>-10</v>
       </c>
-      <c r="D5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="b">
+      <c r="D5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>150</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>150</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>150</v>
       </c>
-      <c r="D6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="b">
+      <c r="D6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="D7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>1000</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1000</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>1000</v>
       </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9453,10 +9432,10 @@
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -9602,34 +9581,6 @@
       </c>
       <c r="E11" t="s">
         <v>481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>482</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>483</v>
-      </c>
-      <c r="E12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>485</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -9697,7 +9648,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -9708,7 +9659,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -9719,7 +9670,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -9752,44 +9703,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E11" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -9838,7 +9789,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9857,7 +9808,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -9868,7 +9819,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -9879,7 +9830,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -9912,44 +9863,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="E9" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="E11" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,17 +4,52 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" firstSheet="4" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="36" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
-    <sheet name="master-itemsublass-data" sheetId="2" r:id="rId2"/>
-    <sheet name="master-ordertype-data" sheetId="3" r:id="rId3"/>
-    <sheet name="master-item-data" sheetId="4" r:id="rId4"/>
-    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId5"/>
-    <sheet name="itemclass-add-el" sheetId="6" r:id="rId6"/>
-    <sheet name="itemclass-edit-el" sheetId="8" r:id="rId7"/>
-    <sheet name="data-to-delete" sheetId="9" r:id="rId8"/>
+    <sheet name="itemclass-edit-el" sheetId="8" r:id="rId2"/>
+    <sheet name="cardtype-edit-el" sheetId="15" r:id="rId3"/>
+    <sheet name="paymenttype-edit-el" sheetId="20" r:id="rId4"/>
+    <sheet name="freereasons-edit-el" sheetId="22" r:id="rId5"/>
+    <sheet name="voidreasons-edit-el" sheetId="26" r:id="rId6"/>
+    <sheet name="itemsubclass-edit-el" sheetId="13" r:id="rId7"/>
+    <sheet name="ordertype-edit-el" sheetId="32" r:id="rId8"/>
+    <sheet name="specialreq-edit-el" sheetId="28" r:id="rId9"/>
+    <sheet name="itemclass-selector-assert" sheetId="5" r:id="rId10"/>
+    <sheet name="module-selector-assert" sheetId="16" r:id="rId11"/>
+    <sheet name="item-selector-assert" sheetId="41" r:id="rId12"/>
+    <sheet name="header-selector-assert" sheetId="36" r:id="rId13"/>
+    <sheet name="systemparam-selector-assert" sheetId="35" r:id="rId14"/>
+    <sheet name="ordertype-selector-assert" sheetId="33" r:id="rId15"/>
+    <sheet name="master-itemsubclass-data" sheetId="2" r:id="rId16"/>
+    <sheet name="master-item-data" sheetId="4" r:id="rId17"/>
+    <sheet name="itemsubclass-selector-assert" sheetId="10" r:id="rId18"/>
+    <sheet name="itemclass-add-el" sheetId="6" r:id="rId19"/>
+    <sheet name="cardtype-add-el" sheetId="17" r:id="rId20"/>
+    <sheet name="paymenttype-add-el" sheetId="19" r:id="rId21"/>
+    <sheet name="freereasons-add-el" sheetId="23" r:id="rId22"/>
+    <sheet name="voidreasons-add-el" sheetId="25" r:id="rId23"/>
+    <sheet name="itemsubclass-add-el" sheetId="11" r:id="rId24"/>
+    <sheet name="ordertype-add-el" sheetId="31" r:id="rId25"/>
+    <sheet name="specialreq-add-el" sheetId="29" r:id="rId26"/>
+    <sheet name="data-to-delete" sheetId="9" r:id="rId27"/>
+    <sheet name="delete-confirm-el" sheetId="12" r:id="rId28"/>
+    <sheet name="master-cardtype-data" sheetId="14" r:id="rId29"/>
+    <sheet name="master-paymenttype-data" sheetId="18" r:id="rId30"/>
+    <sheet name="master-freereasons-data" sheetId="21" r:id="rId31"/>
+    <sheet name="master-voidreasons-data" sheetId="24" r:id="rId32"/>
+    <sheet name="master-specialreq-data" sheetId="27" r:id="rId33"/>
+    <sheet name="master-ordertype-data" sheetId="30" r:id="rId34"/>
+    <sheet name="master-footer-data" sheetId="37" r:id="rId35"/>
+    <sheet name="master-systemparam-data" sheetId="34" r:id="rId36"/>
+    <sheet name="master-header-data" sheetId="38" r:id="rId37"/>
+    <sheet name="item-add-el" sheetId="39" r:id="rId38"/>
+    <sheet name="item-edit-el" sheetId="40" r:id="rId39"/>
+    <sheet name="master-memc-data" sheetId="42" r:id="rId40"/>
+    <sheet name="master-discount-data" sheetId="43" r:id="rId41"/>
+    <sheet name="master-pricelist-data" sheetId="44" r:id="rId42"/>
+    <sheet name="master-othercharge-data" sheetId="45" r:id="rId43"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="458">
   <si>
     <t>itemClass</t>
   </si>
@@ -42,22 +77,31 @@
     <t>editItemClass</t>
   </si>
   <si>
-    <t>MAIN COURSE</t>
-  </si>
-  <si>
-    <t>DESSERTS</t>
-  </si>
-  <si>
-    <t>BEVERAGES</t>
-  </si>
-  <si>
-    <t>BREAKFAST</t>
-  </si>
-  <si>
-    <t>APPETIZER</t>
-  </si>
-  <si>
-    <t>SIDE DISH</t>
+    <t>onlySearchVal</t>
+  </si>
+  <si>
+    <t>onlyDelete</t>
+  </si>
+  <si>
+    <t>onlySearchInval</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Appetizer</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Sides</t>
   </si>
   <si>
     <t>% &amp; ( ) / - .</t>
@@ -66,40 +110,805 @@
     <t>null</t>
   </si>
   <si>
-    <t>BURGERS</t>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` ~ " | \ [ ] ; :</t>
   </si>
   <si>
     <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sarap</t>
   </si>
   <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>assertion</t>
+  </si>
+  <si>
+    <t>expectedText</t>
+  </si>
+  <si>
+    <t>customErrorMsg</t>
+  </si>
+  <si>
+    <t>button.border-blue-500</t>
+  </si>
+  <si>
+    <t>contain.text</t>
+  </si>
+  <si>
+    <t>Update Data</t>
+  </si>
+  <si>
+    <t>Should contain text "Update Data"</t>
+  </si>
+  <si>
+    <t>button.border-red-500</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>#itmcladsc</t>
+  </si>
+  <si>
+    <t>be.enabled</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>"Update Data" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>"Cancel" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Update Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel" instead of "update Data"</t>
+  </si>
+  <si>
+    <t>#cardtype</t>
+  </si>
+  <si>
+    <t>#paytyp</t>
+  </si>
+  <si>
+    <t>#freereason</t>
+  </si>
+  <si>
+    <t>#voidcde</t>
+  </si>
+  <si>
+    <t>#itemsubclassdsc</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itmclacde</t>
+  </si>
+  <si>
+    <t>Should be enabled to allow user to select data.</t>
+  </si>
+  <si>
+    <t>"Add Data" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>#postypdsc</t>
+  </si>
+  <si>
+    <t>#ordertyp</t>
+  </si>
+  <si>
+    <t>"Save" button Should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>#modcde</t>
+  </si>
+  <si>
+    <t>#modgrpcde</t>
+  </si>
+  <si>
+    <t>selectorName</t>
+  </si>
+  <si>
+    <t>Print button</t>
+  </si>
+  <si>
+    <t>:nth-child(2) &gt; .sc-guDLey</t>
+  </si>
+  <si>
+    <t>not.be.disabled</t>
+  </si>
+  <si>
+    <t>"Print" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Add button</t>
+  </si>
+  <si>
+    <t>.sc-eDLKkx &gt; .anticon &gt; svg</t>
+  </si>
+  <si>
+    <t>"Add" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide columns button</t>
+  </si>
+  <si>
+    <t>[data-testid="ViewColumnIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Columns" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide search button</t>
+  </si>
+  <si>
+    <t>[data-testid="SearchIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Search" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Show/Hide Filters button</t>
+  </si>
+  <si>
+    <t>[data-testid="FilterListIcon"]</t>
+  </si>
+  <si>
+    <t>"Show/Hide Filters" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Toggle Density button</t>
+  </si>
+  <si>
+    <t>[data-testid="DensityMediumIcon"]</t>
+  </si>
+  <si>
+    <t>"Toggle Density" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Fullscreen button</t>
+  </si>
+  <si>
+    <t>[data-testid="FullscreenIcon"]</t>
+  </si>
+  <si>
+    <t>"Fullscreen" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Arrow Left button</t>
+  </si>
+  <si>
+    <t>[data-testid="KeyboardArrowLeftIcon"]</t>
+  </si>
+  <si>
+    <t>not.be.enabled</t>
+  </si>
+  <si>
+    <t>"Arrow Left" button  should be not be clickable when no data on the table</t>
+  </si>
+  <si>
+    <t>Arrow Right button</t>
+  </si>
+  <si>
+    <t>[data-testid="KeyboardArrowRightIcon"]</t>
+  </si>
+  <si>
+    <t>Rows per page button</t>
+  </si>
+  <si>
+    <t>[id=":r9:"]</t>
+  </si>
+  <si>
+    <t>"Rows per page" button  should be clickable</t>
+  </si>
+  <si>
+    <t>#business1</t>
+  </si>
+  <si>
+    <t>"Business Name 1" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#business2</t>
+  </si>
+  <si>
+    <t>"Business Name 2" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#business3</t>
+  </si>
+  <si>
+    <t>"Business Name 3" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#taxpayer</t>
+  </si>
+  <si>
+    <t>"Tax Payer registered in BIR" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#tin</t>
+  </si>
+  <si>
+    <t>"VAT" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#chknonvat</t>
+  </si>
+  <si>
+    <t>"Non-VAT" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#address1</t>
+  </si>
+  <si>
+    <t>"Address 1 *" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#address2</t>
+  </si>
+  <si>
+    <t>"Address 2 *" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#address3</t>
+  </si>
+  <si>
+    <t>"Address 3 *" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#serialno</t>
+  </si>
+  <si>
+    <t>"Serial Number" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#machineno</t>
+  </si>
+  <si>
+    <t>"Machine Number" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#brhcde</t>
+  </si>
+  <si>
+    <t>"Branch Code" textbox should be editable</t>
+  </si>
+  <si>
+    <t>#postrmno</t>
+  </si>
+  <si>
+    <t>"Terminal No." textbox should be editable</t>
+  </si>
+  <si>
+    <t>.border-red-500</t>
+  </si>
+  <si>
+    <t>"Cancel" button  should be clickable</t>
+  </si>
+  <si>
+    <t>.border-blue-500</t>
+  </si>
+  <si>
+    <t>"Save" button  should be clickable</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel" instead of "Close"</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Update button should contain text "Update" instead of "Save"</t>
+  </si>
+  <si>
+    <t>label[for="business1"]</t>
+  </si>
+  <si>
+    <t>Business Name 1</t>
+  </si>
+  <si>
+    <t>Should contain text "Business Name 1"</t>
+  </si>
+  <si>
+    <t>label[for="business2"]</t>
+  </si>
+  <si>
+    <t>Business Name 2</t>
+  </si>
+  <si>
+    <t>Should contain text "Business Name 2"</t>
+  </si>
+  <si>
+    <t>label[for="business3"]</t>
+  </si>
+  <si>
+    <t>Business Name 3</t>
+  </si>
+  <si>
+    <t>Should contain text "Business Name 3"</t>
+  </si>
+  <si>
+    <t>label[for="taxpayer"]</t>
+  </si>
+  <si>
+    <t>Tax Payer registered in BIR</t>
+  </si>
+  <si>
+    <t>Should contain text "Tax Payer registered in BIR"</t>
+  </si>
+  <si>
+    <t>label[for="tin"]</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>Should contain text "VAT"</t>
+  </si>
+  <si>
+    <t>label[for="chknonvat"]</t>
+  </si>
+  <si>
+    <t>Non-VAT</t>
+  </si>
+  <si>
+    <t>Should contain text "Non-VAT"</t>
+  </si>
+  <si>
+    <t>label[for="address1"]</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>Should contain text "Address 1"</t>
+  </si>
+  <si>
+    <t>label[for="address2"]</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>Should contain text "Address 2"</t>
+  </si>
+  <si>
+    <t>label[for="address3"]</t>
+  </si>
+  <si>
+    <t>Address 3</t>
+  </si>
+  <si>
+    <t>Should contain text "Address 3"</t>
+  </si>
+  <si>
+    <t>label[for="serialno"]</t>
+  </si>
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Should contain text "Serial Number"</t>
+  </si>
+  <si>
+    <t>label[for="machineno"]</t>
+  </si>
+  <si>
+    <t>Machine Number</t>
+  </si>
+  <si>
+    <t>Should contain text "Machine Number"</t>
+  </si>
+  <si>
+    <t>label[for="brhcde"]</t>
+  </si>
+  <si>
+    <t>Branch Code</t>
+  </si>
+  <si>
+    <t>Should contain text "Branch Code"</t>
+  </si>
+  <si>
+    <t>label[for="postrmno"]</t>
+  </si>
+  <si>
+    <t>Terminal No.</t>
+  </si>
+  <si>
+    <t>Should contain text "Terminal No."</t>
+  </si>
+  <si>
+    <t>Time Textbox</t>
+  </si>
+  <si>
+    <t>#timestart</t>
+  </si>
+  <si>
+    <t>button.px-4.py-2.rounded.border.border-solid.border-red-500.hover\\:bg-red-500.hover\\:text-white.my-5.mxl-3</t>
+  </si>
+  <si>
+    <t>button.px-4.py-2.rounded.border.border-solid.border-blue-500.hover\\:bg-blue-500.hover\\:text-white.my-5.mx-3</t>
+  </si>
+  <si>
+    <t>itemSubclass</t>
+  </si>
+  <si>
+    <t>editItemSubclass</t>
+  </si>
+  <si>
+    <t>Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Breakfast Meal</t>
+  </si>
+  <si>
+    <t>Milkshakes</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Burgers</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>Rice Meals</t>
+  </si>
+  <si>
+    <t>Pies</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Soft Drinks</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
     <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
   </si>
   <si>
-    <t>itemSubclass</t>
-  </si>
-  <si>
-    <t>editItemSubclass</t>
-  </si>
-  <si>
-    <t>Soft Drinks</t>
-  </si>
-  <si>
-    <t>Beverages</t>
-  </si>
-  <si>
-    <t>Juices &amp; Teas</t>
-  </si>
-  <si>
-    <t>Milkshakes</t>
-  </si>
-  <si>
-    <t>Coffee</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>itemType</t>
+  </si>
+  <si>
+    <t>unitMeasure</t>
+  </si>
+  <si>
+    <t>unitCost</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>sellingPrice</t>
+  </si>
+  <si>
+    <t>goodXPerson</t>
+  </si>
+  <si>
+    <t>taxCode</t>
+  </si>
+  <si>
+    <t>memc</t>
+  </si>
+  <si>
+    <t>addOn</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>comboMeal</t>
+  </si>
+  <si>
+    <t>editItem</t>
+  </si>
+  <si>
+    <t>editItemType</t>
+  </si>
+  <si>
+    <t>Yumburger Solo</t>
+  </si>
+  <si>
+    <t>NON-INVENTORY</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>00000000001</t>
+  </si>
+  <si>
+    <t>VATABLE</t>
+  </si>
+  <si>
+    <t>1-pc Chickenjoy</t>
+  </si>
+  <si>
+    <t>00000000002</t>
+  </si>
+  <si>
+    <t>Buko Pandan Sundae</t>
+  </si>
+  <si>
+    <t>00000000003</t>
+  </si>
+  <si>
+    <t>Iced Mocha Floa</t>
+  </si>
+  <si>
+    <t>Hot Fresh Brew</t>
+  </si>
+  <si>
+    <t>00000000004</t>
+  </si>
+  <si>
+    <t>6-pc. Chickenjoy Solo</t>
+  </si>
+  <si>
+    <t>00000000005</t>
+  </si>
+  <si>
+    <t>Ube Cheese Pie</t>
+  </si>
+  <si>
+    <t>Pie</t>
+  </si>
+  <si>
+    <t>00000000006</t>
+  </si>
+  <si>
+    <t>Delicious and crispy Chickenjoy with a side of Jolly Spaghetti and garlic rice, perfect for a fulfilling meal</t>
+  </si>
+  <si>
+    <t>00000000007</t>
+  </si>
+  <si>
+    <t>00000000008</t>
+  </si>
+  <si>
+    <t>00000000010</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>This is a very long string that exceeds the maximum allowed length.</t>
+  </si>
+  <si>
+    <t>00000000011</t>
+  </si>
+  <si>
+    <t>[id=":rc:"]</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save"</t>
+  </si>
+  <si>
+    <t>Cancel should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Item Class Description should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>"Save" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>"Cancel" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Add Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>dataToDelete</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Should contain text "Save"</t>
+  </si>
+  <si>
+    <t>cy.get('.border-red-500')</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>cardType</t>
+  </si>
+  <si>
+    <t>editCardType</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Debit Card</t>
+  </si>
+  <si>
+    <t>Prepaid Card</t>
+  </si>
+  <si>
+    <t>Gift Card</t>
+  </si>
+  <si>
+    <t>Store Gift</t>
+  </si>
+  <si>
+    <t>Store Card</t>
+  </si>
+  <si>
+    <t>Loyalty Card</t>
+  </si>
+  <si>
+    <t>Electronic Card</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t>editPaymentType</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>E-wallet</t>
+  </si>
+  <si>
+    <t>freeReasons</t>
+  </si>
+  <si>
+    <t>editFreeReasons</t>
+  </si>
+  <si>
+    <t>onlySearch</t>
+  </si>
+  <si>
+    <t>Sample Giveaway</t>
+  </si>
+  <si>
+    <t>Customer Complaint Resolution</t>
+  </si>
+  <si>
+    <t>Complimentary Item</t>
+  </si>
+  <si>
+    <t>Birthday Freebie</t>
+  </si>
+  <si>
+    <t>Employee Perk</t>
+  </si>
+  <si>
+    <t>Sampling</t>
+  </si>
+  <si>
+    <t>Coupon Redemption</t>
+  </si>
+  <si>
+    <t>Membership Perk</t>
+  </si>
+  <si>
+    <t>Incorrect Charge</t>
+  </si>
+  <si>
+    <t>Inventory Clearance</t>
+  </si>
+  <si>
+    <t>Customer Appreciation</t>
+  </si>
+  <si>
+    <t>voidReasons</t>
+  </si>
+  <si>
+    <t>editVoidReasons</t>
+  </si>
+  <si>
+    <t>Incorrect Order Entry</t>
+  </si>
+  <si>
+    <t>Customer Changed Mind</t>
+  </si>
+  <si>
+    <t>Customer Cancelled Order</t>
+  </si>
+  <si>
+    <t>Employee Mistake</t>
+  </si>
+  <si>
+    <t>Order Duplication</t>
+  </si>
+  <si>
+    <t>Customer Complaint</t>
+  </si>
+  <si>
+    <t>Food Quality Issue</t>
+  </si>
+  <si>
+    <t>Price Adjustment</t>
+  </si>
+  <si>
+    <t>Payment Error</t>
+  </si>
+  <si>
+    <t>Item Out of Stock</t>
+  </si>
+  <si>
+    <t>specialReq</t>
+  </si>
+  <si>
+    <t>editSpecialReq</t>
+  </si>
+  <si>
+    <t>Extra Gravy</t>
+  </si>
+  <si>
+    <t>Extra Cheese</t>
+  </si>
+  <si>
+    <t>Extra Crispy</t>
+  </si>
+  <si>
+    <t>Extra Lettuce</t>
+  </si>
+  <si>
+    <t>Extra Rice</t>
+  </si>
+  <si>
+    <t>Extra Ice</t>
+  </si>
+  <si>
+    <t>No ice</t>
+  </si>
+  <si>
+    <t>Separate packaging</t>
+  </si>
+  <si>
+    <t>No straw</t>
+  </si>
+  <si>
+    <t>Double patty</t>
+  </si>
+  <si>
+    <t>No plastic utensils</t>
   </si>
   <si>
     <t>dineType</t>
   </si>
   <si>
-    <t>orderTpe</t>
+    <t>orderType</t>
   </si>
   <si>
     <t>editDineType</t>
@@ -108,230 +917,564 @@
     <t>editOrderType</t>
   </si>
   <si>
-    <t>FOODPANDA</t>
+    <t>Dine-In</t>
+  </si>
+  <si>
+    <t>DINEIN</t>
+  </si>
+  <si>
+    <t>Takeout</t>
   </si>
   <si>
     <t>TAKEOUT</t>
   </si>
   <si>
-    <t>GRAB</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>Coke</t>
-  </si>
-  <si>
-    <t>Coke Zero</t>
-  </si>
-  <si>
-    <t>Royal</t>
-  </si>
-  <si>
-    <t>Sprite</t>
-  </si>
-  <si>
-    <t>Soda Float</t>
-  </si>
-  <si>
-    <t>Pineapple Juice</t>
-  </si>
-  <si>
-    <t>Iced Tea</t>
-  </si>
-  <si>
-    <t>Iced Mocha</t>
-  </si>
-  <si>
-    <t>Iced Mocha Float</t>
-  </si>
-  <si>
-    <t>Iced Latte</t>
-  </si>
-  <si>
-    <t>Hot Fresh Brew</t>
-  </si>
-  <si>
-    <t>Hot Chocolate</t>
-  </si>
-  <si>
-    <t>selectorName</t>
-  </si>
-  <si>
-    <t>sel</t>
-  </si>
-  <si>
-    <t>assertion</t>
-  </si>
-  <si>
-    <t>customErrorMsg</t>
-  </si>
-  <si>
-    <t>Print button</t>
-  </si>
-  <si>
-    <t>:nth-child(2) &gt; .sc-guDLey</t>
-  </si>
-  <si>
-    <t>not.be.disabled</t>
-  </si>
-  <si>
-    <t>"Print" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Add button</t>
-  </si>
-  <si>
-    <t>.sc-eDLKkx &gt; .anticon &gt; svg</t>
-  </si>
-  <si>
-    <t>"Add" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide columns button</t>
-  </si>
-  <si>
-    <t>[data-testid="ViewColumnIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Columns" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide search button</t>
-  </si>
-  <si>
-    <t>[data-testid="SearchIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Search" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Show/Hide Filters button</t>
-  </si>
-  <si>
-    <t>[data-testid="FilterListIcon"]</t>
-  </si>
-  <si>
-    <t>"Show/Hide Filters" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Toggle Density button</t>
-  </si>
-  <si>
-    <t>[data-testid="DensityMediumIcon"]</t>
-  </si>
-  <si>
-    <t>"Toggle Density" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Fullscreen button</t>
-  </si>
-  <si>
-    <t>[data-testid="FullscreenIcon"]</t>
-  </si>
-  <si>
-    <t>"Fullscreen" button  should be clickable</t>
-  </si>
-  <si>
-    <t>Arrow Left button</t>
-  </si>
-  <si>
-    <t>[data-testid="KeyboardArrowLeftIcon"]</t>
-  </si>
-  <si>
-    <t>not.be.enabled</t>
-  </si>
-  <si>
-    <t>"Arrow Left" button  should be not be clickable when no data on the table</t>
-  </si>
-  <si>
-    <t>Arrow Right button</t>
-  </si>
-  <si>
-    <t>[data-testid="KeyboardArrowRightIcon"]</t>
-  </si>
-  <si>
-    <t>Rows per page button</t>
-  </si>
-  <si>
-    <t>[id=":r9:"]</t>
-  </si>
-  <si>
-    <t>"Rows per page" button  should be clickable</t>
-  </si>
-  <si>
-    <t>expectedText</t>
-  </si>
-  <si>
-    <t>button.border-blue-500</t>
-  </si>
-  <si>
-    <t>contain.text</t>
-  </si>
-  <si>
-    <t>Add Data</t>
-  </si>
-  <si>
-    <t>Should contain text "Add Data"</t>
-  </si>
-  <si>
-    <t>button.border-red-500</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>#itmcladsc</t>
-  </si>
-  <si>
-    <t>be.enabled</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>"Add Data" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>"Cancel" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>Update Data</t>
-  </si>
-  <si>
-    <t>Should contain text "Update Data"</t>
-  </si>
-  <si>
-    <t>Should be enabled to allow user to edit data.</t>
-  </si>
-  <si>
-    <t>"Update Data" button Should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>dataToDelete</t>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>GRAB Delivery</t>
+  </si>
+  <si>
+    <t>Drive-Thru</t>
+  </si>
+  <si>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t>officialReceipt</t>
+  </si>
+  <si>
+    <t>suppName</t>
+  </si>
+  <si>
+    <t>suppAdd</t>
+  </si>
+  <si>
+    <t>suppVAT</t>
+  </si>
+  <si>
+    <t>suppNonVAT</t>
+  </si>
+  <si>
+    <t>accredNo</t>
+  </si>
+  <si>
+    <t>accredDate</t>
+  </si>
+  <si>
+    <t>permitNo</t>
+  </si>
+  <si>
+    <t>yearsValidity</t>
+  </si>
+  <si>
+    <t>dateIssued</t>
+  </si>
+  <si>
+    <t>lineMsg1</t>
+  </si>
+  <si>
+    <t>lineMsg2</t>
+  </si>
+  <si>
+    <t>lineMsg3</t>
+  </si>
+  <si>
+    <t>lineMsg4</t>
+  </si>
+  <si>
+    <t>lineMsg5</t>
+  </si>
+  <si>
+    <t>forValid</t>
+  </si>
+  <si>
+    <t>forInvalid</t>
+  </si>
+  <si>
+    <t>Sweda Systems Philippines, Inc Sweda Systems Philippines, IncSweda Systems Philippines, Inc</t>
+  </si>
+  <si>
+    <t>21f Rufino Tower, Makati City</t>
+  </si>
+  <si>
+    <t>003-510-344-000</t>
+  </si>
+  <si>
+    <t>003-510-344-001</t>
+  </si>
+  <si>
+    <t>0470035103442017100823</t>
+  </si>
+  <si>
+    <t>2023-05-28</t>
+  </si>
+  <si>
+    <t>FP112022-125-0358572-00126</t>
+  </si>
+  <si>
+    <t>This serves as your Official Receipt.</t>
+  </si>
+  <si>
+    <t>Tell us about your experience.</t>
+  </si>
+  <si>
+    <t>Send us feedback at bit.ly/jfccaresph</t>
+  </si>
+  <si>
+    <t>Visit us also at www.jollibee.com.ph</t>
+  </si>
+  <si>
+    <t>Thank you, and please come again.</t>
+  </si>
+  <si>
+    <t>Sweda Systems Philippines, Inc. with an extended name to exceed limit</t>
+  </si>
+  <si>
+    <t>Dahlia Ave. Cor. Regalado Ave West Fairview, Brgy. Fairview Park, Quezon City, Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>123-456-789-00001234</t>
+  </si>
+  <si>
+    <t>123-456-789-00001235</t>
+  </si>
+  <si>
+    <t>001MP20220000000008EXTRAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127FP112022-125-0358572-00127</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>This serves as your Official Receipt with an extended message</t>
+  </si>
+  <si>
+    <t>Tell us about your experience. Your feedback is important to us.</t>
+  </si>
+  <si>
+    <t>Send us feedback at bit.ly/jfccaresph and let us know your thoughts</t>
+  </si>
+  <si>
+    <t>Visit us also at www.jollibee.com.ph for more information.</t>
+  </si>
+  <si>
+    <t>Thank you, and please come again. We hope to see you soon</t>
+  </si>
+  <si>
+    <t>opTimeSet</t>
+  </si>
+  <si>
+    <t>editOpTimeSet</t>
+  </si>
+  <si>
+    <t>9:00 am</t>
+  </si>
+  <si>
+    <t>bus1</t>
+  </si>
+  <si>
+    <t>bus2</t>
+  </si>
+  <si>
+    <t>bus3</t>
+  </si>
+  <si>
+    <t>taxPayer</t>
+  </si>
+  <si>
+    <t>vat</t>
+  </si>
+  <si>
+    <t>nonVAT</t>
+  </si>
+  <si>
+    <t>add1</t>
+  </si>
+  <si>
+    <t>add2</t>
+  </si>
+  <si>
+    <t>add3</t>
+  </si>
+  <si>
+    <t>serialNo</t>
+  </si>
+  <si>
+    <t>machineNo</t>
+  </si>
+  <si>
+    <t>branchCode</t>
+  </si>
+  <si>
+    <t>terminalNo</t>
+  </si>
+  <si>
+    <t>Freemont Foods Corp</t>
+  </si>
+  <si>
+    <t>Jollibee Bacolod Mandalagan DT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Sample Company</t>
+  </si>
+  <si>
+    <t>010-243-138-000</t>
+  </si>
+  <si>
+    <t>lacson St. Mandalagan</t>
+  </si>
+  <si>
+    <t>Bcolod City</t>
+  </si>
+  <si>
+    <t>RTM70550</t>
+  </si>
+  <si>
+    <t>22032219002997823</t>
+  </si>
+  <si>
+    <t>BRH-00000000013</t>
+  </si>
+  <si>
+    <t>FP112022-125-0358572-00126EXTRAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>5000000000000000000000000000000000000000000000000000000000000000</t>
+  </si>
+  <si>
+    <t>BRH-00000000012432423423454958749587298357935739573519849584759837598347594759358</t>
+  </si>
+  <si>
+    <t>#itmdsc</t>
+  </si>
+  <si>
+    <t>Item Description should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itmtyp</t>
+  </si>
+  <si>
+    <t>Item Type hould be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itemsubclasscde</t>
+  </si>
+  <si>
+    <t>Item SubClass should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>Item Class should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#untmea</t>
+  </si>
+  <si>
+    <t>Unit of Measure should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#untcst</t>
+  </si>
+  <si>
+    <t>Unit of Costshould be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#barcde</t>
+  </si>
+  <si>
+    <t>Barcode should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#untprc</t>
+  </si>
+  <si>
+    <t>Selling Price should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#itmpaxcount</t>
+  </si>
+  <si>
+    <t>Good for X Person should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#taxcde</t>
+  </si>
+  <si>
+    <t>Tax Code should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#memc</t>
+  </si>
+  <si>
+    <t>MEMC should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#isaddon</t>
+  </si>
+  <si>
+    <t>Add-ons should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#inactive</t>
+  </si>
+  <si>
+    <t>Inactive should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>#chkcombo</t>
+  </si>
+  <si>
+    <t>Combo Mealshould be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Update"</t>
+  </si>
+  <si>
+    <t>Item Description should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Item Type hould be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Item Class should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Item Subclass should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Unit of Measure should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Unit of Costshould be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Barcode should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Selling Price should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Good for X Person should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Tax Code should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>MEMC should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Add-ons should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Inactive should be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>Combo Mealshould be enabled to allow user to edit data.</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>editmemc</t>
+  </si>
+  <si>
+    <t>editvalue</t>
+  </si>
+  <si>
+    <t>MEMC 100</t>
+  </si>
+  <si>
+    <t>MEMC 300</t>
+  </si>
+  <si>
+    <t>MEMC 200</t>
+  </si>
+  <si>
+    <t>MEMC 100 (FSM A)</t>
+  </si>
+  <si>
+    <t>MEMC 200 (FSM A)</t>
+  </si>
+  <si>
+    <t>MEMC 100 (FSM B)</t>
+  </si>
+  <si>
+    <t>MEMC 200 (FSM B)</t>
+  </si>
+  <si>
+    <t>MEMC 500</t>
+  </si>
+  <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \\ ~ \\\" | \\ ] [ ] ; :</t>
+  </si>
+  <si>
+    <t>discountCode</t>
+  </si>
+  <si>
+    <t>discountDesc</t>
+  </si>
+  <si>
+    <t>discountType</t>
+  </si>
+  <si>
+    <t>percentAmount</t>
+  </si>
+  <si>
+    <t>exemptVAT</t>
+  </si>
+  <si>
+    <t>lessVATDisc</t>
+  </si>
+  <si>
+    <t>serviceChargeDisc</t>
+  </si>
+  <si>
+    <t>govDisc</t>
+  </si>
+  <si>
+    <t>onlineDeals</t>
+  </si>
+  <si>
+    <t>editDiscountCode</t>
+  </si>
+  <si>
+    <t>editDiscountDesc</t>
+  </si>
+  <si>
+    <t>editDiscountType</t>
+  </si>
+  <si>
+    <t>editPercentAmount</t>
+  </si>
+  <si>
+    <t>editExemptVAT</t>
+  </si>
+  <si>
+    <t>editLessVATDisc</t>
+  </si>
+  <si>
+    <t>editServiceChargeDisc</t>
+  </si>
+  <si>
+    <t>editGovDisc</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Athlete</t>
+  </si>
+  <si>
+    <t>MOV</t>
+  </si>
+  <si>
+    <t>Diplomat</t>
+  </si>
+  <si>
+    <t>PWD</t>
+  </si>
+  <si>
+    <t>HOLIDAY50</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>SUMMER50</t>
+  </si>
+  <si>
+    <t>BLACKFRIDAY</t>
+  </si>
+  <si>
+    <t>Blackfriday Sale 50% off</t>
+  </si>
+  <si>
+    <t>WELCOME</t>
+  </si>
+  <si>
+    <t>SUMMERSALE</t>
+  </si>
+  <si>
+    <t>WINTERHOLIDAY50PERCENTDISCOUNTFORALLITEMSOVER1000PHP</t>
+  </si>
+  <si>
+    <t>pricelist</t>
+  </si>
+  <si>
+    <t>ordertype</t>
+  </si>
+  <si>
+    <t>editpricelist</t>
+  </si>
+  <si>
+    <t>editordertype</t>
+  </si>
+  <si>
+    <t>Jollibee 1</t>
+  </si>
+  <si>
+    <t>Jollibee 2</t>
+  </si>
+  <si>
+    <t>Jollibee 4</t>
+  </si>
+  <si>
+    <t>Jollibee 3</t>
+  </si>
+  <si>
+    <t>Jollibee 5</t>
+  </si>
+  <si>
+    <t>takeoutsercharge</t>
+  </si>
+  <si>
+    <t>dineinsercharge</t>
+  </si>
+  <si>
+    <t>localtax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;₱&quot;* #,##0_-;\-&quot;₱&quot;* #,##0_-;_-&quot;₱&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;₱&quot;* #,##0.00_-;\-&quot;₱&quot;* #,##0.00_-;_-&quot;₱&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -796,138 +1939,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,78 +2409,164 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A8" sqref="A8:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="20.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="69.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="20.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="25.1428571428571" customWidth="1"/>
     <col min="4" max="6" width="20.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>7</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>11</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>13</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1327,207 +2575,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="6" width="22.4285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="6" width="19.2857142857143" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1540,156 +2594,6467 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
         <v>72</v>
       </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="17.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="18.2571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
       <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" t="s">
         <v>73</v>
       </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
       <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="59.8571428571429" customWidth="1"/>
+    <col min="2" max="6" width="22.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AE12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="6" width="19.2857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>184</v>
+      </c>
+      <c r="S1" t="s">
+        <v>185</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>156</v>
+      </c>
+      <c r="V1" t="s">
+        <v>174</v>
+      </c>
+      <c r="W1" t="s">
+        <v>175</v>
+      </c>
+      <c r="X1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>177</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>179</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3">
+        <v>76</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4">
+        <v>63</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>195</v>
+      </c>
+      <c r="S4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" t="s">
+        <v>169</v>
+      </c>
+      <c r="V4" t="s">
+        <v>188</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y4">
+        <v>80</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5">
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>190</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>190</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>190</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9">
+        <v>51</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>190</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10">
+        <v>53</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s">
+        <v>190</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H11">
+        <v>52</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>190</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12">
+        <v>54</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>190</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="19.4285714285714" customWidth="1"/>
+    <col min="3" max="4" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>46</v>
       </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="13.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="17.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="22.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="17.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="15.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="39.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="15.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="22.1428571428571" customWidth="1"/>
+    <col min="6" max="7" width="17.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="6"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="18" width="21.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" t="s">
+        <v>299</v>
+      </c>
+      <c r="K1" t="s">
+        <v>300</v>
+      </c>
+      <c r="L1" t="s">
+        <v>301</v>
+      </c>
+      <c r="M1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N1" t="s">
+        <v>303</v>
+      </c>
+      <c r="O1" t="s">
+        <v>304</v>
+      </c>
+      <c r="P1" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:17">
+      <c r="A2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H2" t="s">
+        <v>313</v>
+      </c>
+      <c r="I2" s="5">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" t="s">
+        <v>314</v>
+      </c>
+      <c r="L2" t="s">
+        <v>315</v>
+      </c>
+      <c r="M2" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" t="s">
+        <v>317</v>
+      </c>
+      <c r="O2" t="s">
+        <v>318</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="H3" t="s">
+        <v>313</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="K3" t="s">
+        <v>314</v>
+      </c>
+      <c r="L3" t="s">
+        <v>315</v>
+      </c>
+      <c r="M3" t="s">
+        <v>316</v>
+      </c>
+      <c r="N3" t="s">
+        <v>317</v>
+      </c>
+      <c r="O3" t="s">
+        <v>318</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="H4" t="s">
+        <v>325</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="K4" t="s">
+        <v>327</v>
+      </c>
+      <c r="L4" t="s">
+        <v>328</v>
+      </c>
+      <c r="M4" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" t="s">
+        <v>330</v>
+      </c>
+      <c r="O4" t="s">
+        <v>331</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="6"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="I4" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="54.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="15.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="22.1428571428571" customWidth="1"/>
+    <col min="4" max="5" width="17.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I1" t="s">
+        <v>343</v>
+      </c>
+      <c r="J1" t="s">
+        <v>344</v>
+      </c>
+      <c r="K1" t="s">
+        <v>345</v>
+      </c>
+      <c r="L1" t="s">
+        <v>346</v>
+      </c>
+      <c r="M1" t="s">
+        <v>347</v>
+      </c>
+      <c r="N1" t="s">
+        <v>305</v>
+      </c>
+      <c r="O1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I2" t="s">
+        <v>350</v>
+      </c>
+      <c r="J2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="L2" t="s">
+        <v>357</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D3" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" t="s">
+        <v>321</v>
+      </c>
+      <c r="F3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H3" t="s">
+        <v>320</v>
+      </c>
+      <c r="I3" t="s">
+        <v>320</v>
+      </c>
+      <c r="J3" t="s">
+        <v>358</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="L3" t="s">
+        <v>360</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="3" max="4" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>374</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>376</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="20.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>411</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>413</v>
+      </c>
+      <c r="B8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G1" t="s">
+        <v>421</v>
+      </c>
+      <c r="H1" t="s">
+        <v>422</v>
+      </c>
+      <c r="I1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J1" t="s">
+        <v>424</v>
+      </c>
+      <c r="K1" t="s">
+        <v>425</v>
+      </c>
+      <c r="L1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M1" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" t="s">
+        <v>428</v>
+      </c>
+      <c r="O1" t="s">
+        <v>429</v>
+      </c>
+      <c r="P1" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>431</v>
+      </c>
+      <c r="R1" t="s">
+        <v>423</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:21">
+      <c r="A2" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I2" t="s">
+        <v>220</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:21">
+      <c r="A3" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" t="s">
+        <v>223</v>
+      </c>
+      <c r="I3" t="s">
+        <v>220</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" spans="1:21">
+      <c r="A4" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I4" t="s">
+        <v>220</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:21">
+      <c r="A5" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" t="s">
+        <v>220</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:21">
+      <c r="A6" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" t="s">
+        <v>220</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:21">
+      <c r="A7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" t="s">
+        <v>223</v>
+      </c>
+      <c r="S7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:21">
+      <c r="A8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B8" t="s">
+        <v>440</v>
+      </c>
+      <c r="C8" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" t="s">
+        <v>220</v>
+      </c>
+      <c r="H8" t="s">
+        <v>220</v>
+      </c>
+      <c r="I8" t="s">
+        <v>223</v>
+      </c>
+      <c r="J8" t="s">
+        <v>441</v>
+      </c>
+      <c r="K8" t="s">
+        <v>442</v>
+      </c>
+      <c r="L8" t="s">
+        <v>433</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
+        <v>223</v>
+      </c>
+      <c r="O8" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R8" t="s">
+        <v>220</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:21">
+      <c r="A9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G9" t="s">
+        <v>220</v>
+      </c>
+      <c r="H9" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" t="s">
+        <v>223</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:21">
+      <c r="A10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B10" t="s">
+        <v>444</v>
+      </c>
+      <c r="C10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>220</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" t="s">
+        <v>220</v>
+      </c>
+      <c r="I10" t="s">
+        <v>223</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:21">
+      <c r="A11" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" t="s">
+        <v>223</v>
+      </c>
+      <c r="H11" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11" t="s">
+        <v>223</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:21">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I12" t="s">
+        <v>220</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:21">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" t="s">
+        <v>220</v>
+      </c>
+      <c r="I13" t="s">
+        <v>220</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:21">
+      <c r="A14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" t="s">
+        <v>220</v>
+      </c>
+      <c r="I14" t="s">
+        <v>220</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" t="s">
+        <v>282</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="123.714285714286"/>
+    <col min="2" max="2" width="108.571428571429"/>
+    <col min="3" max="3" width="107.428571428571"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>5e+106</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5e+95</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5e+94</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +9069,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1715,77 +9080,77 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1797,13 +9162,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
     <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
@@ -1811,77 +9176,88 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1893,32 +9269,209 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="32.5714285714286" customWidth="1"/>
+    <col min="4" max="5" width="14.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="36" activeTab="42"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="19" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,7 @@
     <sheet name="othercharge-el" sheetId="46" r:id="rId44"/>
     <sheet name="discount-add-el" sheetId="47" r:id="rId45"/>
     <sheet name="discount-edit-el" sheetId="48" r:id="rId46"/>
+    <sheet name="class-dropdown-values" sheetId="49" r:id="rId47"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="504">
   <si>
     <t>itemClass</t>
   </si>
@@ -632,15 +633,42 @@
     <t>editItemType</t>
   </si>
   <si>
+    <t>editUnitMeasure</t>
+  </si>
+  <si>
+    <t>editUnitCost</t>
+  </si>
+  <si>
+    <t>editBarcode</t>
+  </si>
+  <si>
+    <t>editSellingPrice</t>
+  </si>
+  <si>
+    <t>editGoodXPerson</t>
+  </si>
+  <si>
+    <t>editTaxCode</t>
+  </si>
+  <si>
+    <t>editMemc</t>
+  </si>
+  <si>
+    <t>editAddOn</t>
+  </si>
+  <si>
+    <t>editInactive</t>
+  </si>
+  <si>
+    <t>editComboMeal</t>
+  </si>
+  <si>
     <t>Yumburger Solo</t>
   </si>
   <si>
     <t>NON-INVENTORY</t>
   </si>
   <si>
-    <t>Burgers</t>
-  </si>
-  <si>
     <t>PCS</t>
   </si>
   <si>
@@ -662,7 +690,7 @@
     <t>00000000003</t>
   </si>
   <si>
-    <t>Iced Mocha Floa</t>
+    <t>Iced Mocha Float</t>
   </si>
   <si>
     <t>Hot Fresh Brew</t>
@@ -680,9 +708,6 @@
     <t>Ube Cheese Pie</t>
   </si>
   <si>
-    <t>Pie</t>
-  </si>
-  <si>
     <t>00000000006</t>
   </si>
   <si>
@@ -701,45 +726,42 @@
     <t>!@#$%^&amp;*()</t>
   </si>
   <si>
+    <t>[id=":rc:"]</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save"</t>
+  </si>
+  <si>
+    <t>Cancel should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Item Class Description should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>"Save" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>"Cancel" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Add Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>dataToDelete</t>
+  </si>
+  <si>
+    <t>Jollibee Filipino Sweet Style</t>
+  </si>
+  <si>
     <t>This is a very long string that exceeds the maximum allowed length.</t>
   </si>
   <si>
-    <t>00000000011</t>
-  </si>
-  <si>
-    <t>[id=":rc:"]</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save"</t>
-  </si>
-  <si>
-    <t>Cancel should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>Item Class Description should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>"Save" button should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>"Cancel" button should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save" instead of "Add Data"</t>
-  </si>
-  <si>
-    <t>Cancel button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>dataToDelete</t>
-  </si>
-  <si>
-    <t>Jollibee Filipino Sweet Style</t>
-  </si>
-  <si>
     <t xml:space="preserve">© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # </t>
   </si>
   <si>
@@ -755,6 +777,9 @@
     <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ #</t>
   </si>
   <si>
+    <t>Delicious and crispy Chickenjoy with a side of Jolly Spaghetti and garlic rice, perfect for a fulfil</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -1557,6 +1582,9 @@
   </si>
   <si>
     <t>Update button should contain text "Update" instead of "Update Data"</t>
+  </si>
+  <si>
+    <t>classDropdownValues</t>
   </si>
 </sst>
 </file>
@@ -4045,15 +4073,17 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="19.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="22.4285714285714" customWidth="1"/>
+    <col min="18" max="31" width="19.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -4118,60 +4148,60 @@
         <v>1</v>
       </c>
       <c r="U1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V1" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="W1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="X1" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="Y1" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="Z1" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="AA1" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="AB1" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="AC1" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="AD1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AE1" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -4180,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -4194,10 +4224,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -4206,13 +4236,13 @@
         <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -4221,7 +4251,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
@@ -4235,10 +4265,10 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -4247,13 +4277,13 @@
         <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -4262,7 +4292,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -4274,10 +4304,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="S4" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="T4" t="s">
         <v>7</v>
@@ -4286,13 +4316,13 @@
         <v>169</v>
       </c>
       <c r="V4" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Y4">
         <v>80</v>
@@ -4301,15 +4331,15 @@
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5" t="s">
         <v>197</v>
-      </c>
-      <c r="B5" t="s">
-        <v>187</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -4318,13 +4348,13 @@
         <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -4333,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O5" t="b">
         <v>0</v>
@@ -4347,10 +4377,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4359,13 +4389,13 @@
         <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -4374,7 +4404,7 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -4388,25 +4418,25 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -4415,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -4429,10 +4459,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4441,13 +4471,13 @@
         <v>162</v>
       </c>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H8">
         <v>50</v>
@@ -4456,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O8" t="b">
         <v>0</v>
@@ -4473,7 +4503,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4482,13 +4512,13 @@
         <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H9">
         <v>51</v>
@@ -4497,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -4514,7 +4544,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -4523,13 +4553,13 @@
         <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H10">
         <v>53</v>
@@ -4538,7 +4568,7 @@
         <v>4</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O10" t="b">
         <v>0</v>
@@ -4555,7 +4585,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -4564,13 +4594,13 @@
         <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H11">
         <v>52</v>
@@ -4579,7 +4609,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="O11" t="b">
         <v>0</v>
@@ -4588,47 +4618,6 @@
         <v>1</v>
       </c>
       <c r="Q11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" t="s">
-        <v>209</v>
-      </c>
-      <c r="B12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E12" t="s">
-        <v>189</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H12">
-        <v>54</v>
-      </c>
-      <c r="I12">
-        <v>5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>191</v>
-      </c>
-      <c r="O12" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4636,7 +4625,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="G2:G10 G12 X4" numberStoredAsText="1"/>
+    <ignoredError sqref="G2:G10 X4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4803,7 +4792,7 @@
         <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -4858,7 +4847,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4872,7 +4861,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4883,7 +4872,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4894,7 +4883,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4905,7 +4894,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5050,7 +5039,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5064,7 +5053,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5146,7 +5135,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5160,7 +5149,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5242,7 +5231,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5256,7 +5245,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5339,7 +5328,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5353,7 +5342,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5435,7 +5424,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5449,7 +5438,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5542,7 +5531,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5556,7 +5545,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5649,7 +5638,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5663,7 +5652,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5719,17 +5708,17 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -5739,27 +5728,27 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -5769,12 +5758,17 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5819,21 +5813,21 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -5861,10 +5855,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -5872,7 +5866,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5880,7 +5874,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5888,7 +5882,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5896,7 +5890,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5904,10 +5898,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5915,7 +5909,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -5923,7 +5917,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6079,10 +6073,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -6090,7 +6084,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -6098,7 +6092,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -6106,7 +6100,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -6114,7 +6108,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -6122,7 +6116,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -6130,7 +6124,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -6138,7 +6132,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -6146,10 +6140,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -6157,7 +6151,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -6165,7 +6159,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -6197,7 +6191,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -6228,13 +6222,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -6242,7 +6236,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -6254,7 +6248,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -6266,7 +6260,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6278,7 +6272,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6290,7 +6284,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -6302,7 +6296,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -6314,7 +6308,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -6326,10 +6320,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -6341,7 +6335,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -6352,7 +6346,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -6396,7 +6390,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -6430,13 +6424,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -6444,7 +6438,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -6455,7 +6449,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -6466,7 +6460,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6477,7 +6471,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6488,7 +6482,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -6499,7 +6493,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -6510,7 +6504,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -6521,10 +6515,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -6535,7 +6529,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -6546,7 +6540,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -6590,7 +6584,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -6626,13 +6620,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s">
         <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
         <v>157</v>
@@ -6649,7 +6643,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
         <v>162</v>
@@ -6666,7 +6660,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
         <v>164</v>
@@ -6683,7 +6677,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
         <v>162</v>
@@ -6700,7 +6694,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B5" t="s">
         <v>163</v>
@@ -6717,7 +6711,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
         <v>165</v>
@@ -6734,7 +6728,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
@@ -6751,7 +6745,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
@@ -6768,13 +6762,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
         <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="D9" t="s">
         <v>168</v>
@@ -6791,7 +6785,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
         <v>163</v>
@@ -6808,7 +6802,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>165</v>
@@ -6876,7 +6870,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>165</v>
@@ -6953,16 +6947,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C1" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D1" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6976,10 +6970,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -6993,10 +6987,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -7010,16 +7004,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -7033,10 +7027,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -7050,10 +7044,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -7070,7 +7064,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -7087,7 +7081,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -7104,7 +7098,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -7118,10 +7112,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -7191,102 +7185,102 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="D1" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="F1" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="I1" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="J1" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="K1" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="L1" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="M1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="N1" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="O1" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:17">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="I2" s="6">
         <v>5</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K2" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="N2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="O2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -7297,49 +7291,49 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="C3" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D3" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="H3" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="I3" s="6">
         <v>5</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="L3" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="M3" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="N3" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="O3" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -7350,49 +7344,49 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E4" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H4" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="K4" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="L4" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="M4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="N4" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="O4" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -7465,15 +7459,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B1" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -7495,87 +7489,87 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C1" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D1" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E1" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F1" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G1" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H1" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="I1" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="J1" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K1" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L1" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M1" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="N1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="O1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="E2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="H2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="I2" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="J2" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="L2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -7586,40 +7580,40 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="H3" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I3" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="J3" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="L3" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -7674,7 +7668,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7688,40 +7682,40 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7732,117 +7726,117 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7913,7 +7907,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7927,40 +7921,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7971,106 +7965,106 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8081,7 +8075,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8216,13 +8210,13 @@
         <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C1" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D1" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -8230,13 +8224,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -8247,7 +8241,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -8258,7 +8252,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -8269,7 +8263,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -8280,7 +8274,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -8291,7 +8285,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -8302,7 +8296,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B8">
         <v>500</v>
@@ -8313,7 +8307,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B9">
         <v>600</v>
@@ -8379,58 +8373,58 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:21">
       <c r="A1" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B1" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="C1" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="E1" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="F1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="G1" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="H1" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="I1" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="J1" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="K1" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="L1" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="M1" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="N1" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="O1" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="P1" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="Q1" t="s">
+        <v>446</v>
+      </c>
+      <c r="R1" t="s">
         <v>438</v>
-      </c>
-      <c r="R1" t="s">
-        <v>430</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -8444,31 +8438,31 @@
     </row>
     <row r="2" customFormat="1" spans="1:21">
       <c r="A2" s="4" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="C2" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H2" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -8482,31 +8476,31 @@
     </row>
     <row r="3" customFormat="1" spans="1:21">
       <c r="A3" s="5" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="C3" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I3" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -8520,31 +8514,31 @@
     </row>
     <row r="4" customFormat="1" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H4" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -8558,31 +8552,31 @@
     </row>
     <row r="5" customFormat="1" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I5" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -8596,31 +8590,31 @@
     </row>
     <row r="6" customFormat="1" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="C6" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H6" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I6" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -8634,31 +8628,31 @@
     </row>
     <row r="7" customFormat="1" spans="1:21">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -8672,58 +8666,58 @@
     </row>
     <row r="8" customFormat="1" spans="1:21">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C8" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D8">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="J8" t="s">
+        <v>456</v>
+      </c>
+      <c r="K8" t="s">
+        <v>456</v>
+      </c>
+      <c r="L8" t="s">
         <v>448</v>
-      </c>
-      <c r="K8" t="s">
-        <v>448</v>
-      </c>
-      <c r="L8" t="s">
-        <v>440</v>
       </c>
       <c r="M8">
         <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="O8" t="s">
         <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="R8" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -8737,31 +8731,31 @@
     </row>
     <row r="9" customFormat="1" spans="1:21">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C9" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F9" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H9" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I9" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -8775,31 +8769,31 @@
     </row>
     <row r="10" customFormat="1" spans="1:21">
       <c r="A10" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="C10" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D10">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F10" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H10" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I10" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -8813,31 +8807,31 @@
     </row>
     <row r="11" customFormat="1" spans="1:21">
       <c r="A11" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="C11" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D11">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F11" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H11" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -8857,25 +8851,25 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H12" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="I12" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -8895,25 +8889,25 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H13" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I13" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -8933,25 +8927,25 @@
         <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H14" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="I14" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="S14" t="b">
         <v>1</v>
@@ -8982,16 +8976,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C1" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="D1" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -9005,10 +8999,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -9022,10 +9016,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -9039,10 +9033,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -9056,16 +9050,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -9079,10 +9073,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -9099,7 +9093,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -9116,7 +9110,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -9133,7 +9127,7 @@
         <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -9150,7 +9144,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -9173,7 +9167,7 @@
   <sheetPr/>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -9186,19 +9180,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B1" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C1" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9293,13 +9287,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
@@ -9469,7 +9463,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9483,40 +9477,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9527,7 +9521,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9538,49 +9532,49 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="E9" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E10" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="E11" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -9629,7 +9623,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9643,40 +9637,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9687,7 +9681,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9698,49 +9692,49 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="E10" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E11" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -9755,7 +9749,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -9789,7 +9783,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9803,40 +9797,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9847,7 +9841,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9858,49 +9852,86 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="E9" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="E10" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E11" t="s">
-        <v>493</v>
+        <v>501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="19" activeTab="26"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <sheet name="discount-add-el" sheetId="47" r:id="rId45"/>
     <sheet name="discount-edit-el" sheetId="48" r:id="rId46"/>
     <sheet name="class-dropdown-values" sheetId="49" r:id="rId47"/>
+    <sheet name="item-combomeal-data" sheetId="50" r:id="rId48"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="541">
   <si>
     <t>itemClass</t>
   </si>
@@ -588,6 +589,9 @@
     <t>Juices</t>
   </si>
   <si>
+    <t>Family Super Meals</t>
+  </si>
+  <si>
     <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
   </si>
   <si>
@@ -621,12 +625,18 @@
     <t>addOn</t>
   </si>
   <si>
-    <t>Inactive</t>
+    <t>inactive</t>
   </si>
   <si>
     <t>comboMeal</t>
   </si>
   <si>
+    <t>filterClass</t>
+  </si>
+  <si>
+    <t>filterSubClass</t>
+  </si>
+  <si>
     <t>editItem</t>
   </si>
   <si>
@@ -711,21 +721,105 @@
     <t>00000000006</t>
   </si>
   <si>
+    <t>Extra Rice</t>
+  </si>
+  <si>
+    <t>00000000007</t>
+  </si>
+  <si>
+    <t>Creamy Macaroni Soup</t>
+  </si>
+  <si>
+    <t>00000000008</t>
+  </si>
+  <si>
+    <t>Buttered Corn</t>
+  </si>
+  <si>
+    <t>00000000009</t>
+  </si>
+  <si>
+    <t>Mini Sundaes</t>
+  </si>
+  <si>
+    <t>00000000010</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>00000000011</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>00000000012</t>
+  </si>
+  <si>
+    <t>Sarsi</t>
+  </si>
+  <si>
+    <t>00000000013</t>
+  </si>
+  <si>
+    <t>Pineapple Juice</t>
+  </si>
+  <si>
+    <t>00000000014</t>
+  </si>
+  <si>
+    <t>Iced Tea</t>
+  </si>
+  <si>
+    <t>00000000015</t>
+  </si>
+  <si>
+    <t>FSM A 6-pc: Chickenjoy Bucket (3 Rice, 3 Sides, 3 Mini Sundaes, and 3 Regular Drinks)</t>
+  </si>
+  <si>
+    <t>00000000016</t>
+  </si>
+  <si>
+    <t>FSM A 8-pc: Chickenjoy Bucket (4 Rice, 4 Sides, 4 Mini Sundaes, and 4 Regular Drinks)</t>
+  </si>
+  <si>
+    <t>00000000017</t>
+  </si>
+  <si>
+    <t>FSM B 6-pc: Chickenjoy Bucket (3 Jolly Spaghetti, 3 Rice, and 3 Regular Drinks)</t>
+  </si>
+  <si>
+    <t>00000000018</t>
+  </si>
+  <si>
+    <t>FSM B 8-pc: Chickenjoy Bucket (4 Jolly Spaghetti, 4 Rice, and 4 Regular Drinks)</t>
+  </si>
+  <si>
+    <t>00000000019</t>
+  </si>
+  <si>
     <t>Delicious and crispy Chickenjoy with a side of Jolly Spaghetti and garlic rice, perfect for a fulfilling meal</t>
   </si>
   <si>
-    <t>00000000007</t>
-  </si>
-  <si>
-    <t>00000000008</t>
-  </si>
-  <si>
-    <t>00000000010</t>
+    <t>00000000020</t>
+  </si>
+  <si>
+    <t>00000000021</t>
+  </si>
+  <si>
+    <t>00000000022</t>
   </si>
   <si>
     <t>!@#$%^&amp;*()</t>
   </si>
   <si>
+    <t>jolly Spaghetti</t>
+  </si>
+  <si>
+    <t>00000000023</t>
+  </si>
+  <si>
     <t>[id=":rc:"]</t>
   </si>
   <si>
@@ -933,9 +1027,6 @@
     <t>Extra Lettuce</t>
   </si>
   <si>
-    <t>Extra Rice</t>
-  </si>
-  <si>
     <t>Extra Ice</t>
   </si>
   <si>
@@ -1585,6 +1676,27 @@
   </si>
   <si>
     <t>classDropdownValues</t>
+  </si>
+  <si>
+    <t>FSMA6</t>
+  </si>
+  <si>
+    <t>FSMA8</t>
+  </si>
+  <si>
+    <t>FSMB6</t>
+  </si>
+  <si>
+    <t>FSMB8</t>
+  </si>
+  <si>
+    <t>Jolly Spaghetti</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Ice Tea</t>
   </si>
 </sst>
 </file>
@@ -3904,10 +4016,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -4034,15 +4146,15 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -4050,17 +4162,33 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4073,25 +4201,26 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="6" width="19.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="22.4285714285714" customWidth="1"/>
-    <col min="18" max="31" width="19.5714285714286" customWidth="1"/>
+    <col min="15" max="16" width="13.7714285714286" customWidth="1"/>
+    <col min="20" max="33" width="19.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -4100,93 +4229,99 @@
         <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q1" t="s">
         <v>2</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" t="s">
-        <v>184</v>
-      </c>
-      <c r="S1" t="s">
-        <v>185</v>
-      </c>
       <c r="T1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V1" t="s">
         <v>1</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>157</v>
       </c>
-      <c r="V1" t="s">
-        <v>186</v>
-      </c>
-      <c r="W1" t="s">
-        <v>187</v>
-      </c>
       <c r="X1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Y1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Z1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AA1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AB1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AE1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>196</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -4195,13 +4330,13 @@
         <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -4210,24 +4345,33 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>203</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" t="s">
         <v>200</v>
-      </c>
-      <c r="O2" t="b">
-        <v>1</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B3" t="s">
-        <v>197</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -4236,13 +4380,13 @@
         <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -4251,24 +4395,33 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" t="s">
         <v>200</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
-      <c r="A4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" t="s">
-        <v>197</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -4277,13 +4430,13 @@
         <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -4292,54 +4445,72 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
+        <v>203</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>208</v>
+      </c>
+      <c r="U4" t="s">
         <v>200</v>
       </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" t="s">
-        <v>205</v>
-      </c>
-      <c r="S4" t="s">
-        <v>197</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>7</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>169</v>
       </c>
-      <c r="V4" t="s">
-        <v>198</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>204</v>
+      <c r="X4" t="s">
+        <v>201</v>
       </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA4">
         <v>80</v>
       </c>
-      <c r="Z4">
+      <c r="AB4">
         <v>1</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" t="s">
-        <v>197</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -4348,13 +4519,13 @@
         <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -4363,24 +4534,33 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
         <v>200</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" t="s">
-        <v>197</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4389,13 +4569,13 @@
         <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -4404,24 +4584,33 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
+        <v>203</v>
+      </c>
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" t="s">
         <v>200</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>210</v>
-      </c>
-      <c r="B7" t="s">
-        <v>197</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -4430,13 +4619,13 @@
         <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -4445,179 +4634,924 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B8" t="s">
         <v>200</v>
-      </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B8" t="s">
-        <v>197</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
+        <v>203</v>
+      </c>
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="30" spans="1:19">
+      <c r="A9" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" t="s">
         <v>200</v>
-      </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>197</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>162</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
+        <v>203</v>
+      </c>
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B10" t="s">
         <v>200</v>
-      </c>
-      <c r="O9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>197</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10">
+        <v>32</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11">
+        <v>26</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>203</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13">
+        <v>37</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14">
+        <v>37</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>203</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15">
+        <v>55</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>203</v>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>231</v>
+      </c>
+      <c r="B16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16">
+        <v>55</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17">
+        <v>599</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18">
+        <v>799</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18" t="s">
+        <v>203</v>
+      </c>
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" t="b">
+        <v>0</v>
+      </c>
+      <c r="S18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E19" t="s">
+        <v>201</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19">
+        <v>599</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
+        <v>0</v>
+      </c>
+      <c r="S19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="H20">
+        <v>799</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="b">
+        <v>0</v>
+      </c>
+      <c r="S20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>162</v>
       </c>
-      <c r="E10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="H10">
+      <c r="E21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" t="b">
+        <v>1</v>
+      </c>
+      <c r="S21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>201</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="H22">
+        <v>51</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E23" t="s">
+        <v>201</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23">
         <v>53</v>
       </c>
-      <c r="I10">
+      <c r="I23">
         <v>4</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
         <v>200</v>
       </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C24" t="s">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D24" t="s">
         <v>162</v>
       </c>
-      <c r="E11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H11">
+      <c r="E24" t="s">
+        <v>245</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>245</v>
+      </c>
+      <c r="H24">
         <v>52</v>
       </c>
-      <c r="I11">
+      <c r="I24">
         <v>3</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J24" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" t="b">
+        <v>1</v>
+      </c>
+      <c r="S24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" t="s">
         <v>200</v>
       </c>
-      <c r="O11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="Q11" t="b">
+      <c r="J25" t="s">
+        <v>203</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4625,7 +5559,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="G2:G10 X4" numberStoredAsText="1"/>
+    <ignoredError sqref="Z4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4792,7 +5726,7 @@
         <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -4847,7 +5781,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4861,7 +5795,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4872,7 +5806,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4883,7 +5817,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4894,7 +5828,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -5039,7 +5973,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5053,7 +5987,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5135,7 +6069,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5149,7 +6083,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5231,7 +6165,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5245,7 +6179,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5328,7 +6262,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5342,7 +6276,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5424,7 +6358,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5438,7 +6372,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5531,7 +6465,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5545,7 +6479,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5638,7 +6572,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5652,7 +6586,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5710,15 +6644,15 @@
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -5728,47 +6662,47 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5813,21 +6747,21 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -5855,10 +6789,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -5866,7 +6800,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -5874,7 +6808,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -5882,7 +6816,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -5890,7 +6824,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5898,10 +6832,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5909,7 +6843,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -5917,7 +6851,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6073,10 +7007,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -6084,7 +7018,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -6092,7 +7026,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -6100,7 +7034,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -6108,7 +7042,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -6116,7 +7050,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>273</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -6124,7 +7058,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -6132,7 +7066,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -6140,10 +7074,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -6151,7 +7085,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -6159,7 +7093,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -6191,7 +7125,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -6222,13 +7156,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -6236,7 +7170,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -6248,7 +7182,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -6260,7 +7194,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6272,7 +7206,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6284,7 +7218,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -6296,7 +7230,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -6308,7 +7242,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -6320,10 +7254,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -6335,7 +7269,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -6346,7 +7280,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -6390,7 +7324,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -6424,13 +7358,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -6438,7 +7372,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -6449,7 +7383,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -6460,7 +7394,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -6471,7 +7405,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -6482,7 +7416,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -6493,7 +7427,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -6504,7 +7438,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -6515,10 +7449,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -6529,7 +7463,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -6540,7 +7474,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -6584,7 +7518,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -6620,13 +7554,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s">
         <v>156</v>
       </c>
       <c r="C1" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="D1" t="s">
         <v>157</v>
@@ -6643,7 +7577,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s">
         <v>162</v>
@@ -6660,7 +7594,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
         <v>164</v>
@@ -6677,7 +7611,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
         <v>162</v>
@@ -6694,7 +7628,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
         <v>163</v>
@@ -6711,7 +7645,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>286</v>
+        <v>215</v>
       </c>
       <c r="B6" t="s">
         <v>165</v>
@@ -6728,7 +7662,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
         <v>168</v>
@@ -6745,7 +7679,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
         <v>168</v>
@@ -6762,13 +7696,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
         <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="D9" t="s">
         <v>168</v>
@@ -6785,7 +7719,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
         <v>163</v>
@@ -6802,7 +7736,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>165</v>
@@ -6870,7 +7804,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>165</v>
@@ -6947,16 +7881,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="C1" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -6970,10 +7904,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -6987,10 +7921,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -7004,16 +7938,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="C4" t="s">
-        <v>302</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -7027,10 +7961,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -7044,10 +7978,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -7064,7 +7998,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -7081,7 +8015,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -7098,7 +8032,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -7112,10 +8046,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -7185,102 +8119,102 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="E1" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="F1" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="G1" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="H1" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="I1" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="J1" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="K1" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="L1" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="M1" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="N1" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="O1" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="P1" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="Q1" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:17">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="H2" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="I2" s="6">
         <v>5</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="K2" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="L2" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="M2" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="N2" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="O2" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -7291,49 +8225,49 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="C3" t="s">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
       <c r="E3" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="H3" t="s">
-        <v>328</v>
+        <v>358</v>
       </c>
       <c r="I3" s="6">
         <v>5</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="K3" t="s">
-        <v>329</v>
+        <v>359</v>
       </c>
       <c r="L3" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="M3" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="N3" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="O3" t="s">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -7344,49 +8278,49 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="D4" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="E4" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="F4" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="H4" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>341</v>
+        <v>371</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>339</v>
+        <v>369</v>
       </c>
       <c r="K4" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="L4" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="M4" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="N4" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="O4" t="s">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -7435,7 +8369,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I4 F2:F3" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F3 I4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7459,15 +8393,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -7489,87 +8423,87 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L1" t="s">
+        <v>391</v>
+      </c>
+      <c r="M1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N1" t="s">
         <v>350</v>
       </c>
-      <c r="B1" t="s">
+      <c r="O1" t="s">
         <v>351</v>
-      </c>
-      <c r="C1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E1" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G1" t="s">
-        <v>356</v>
-      </c>
-      <c r="H1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I1" t="s">
-        <v>358</v>
-      </c>
-      <c r="J1" t="s">
-        <v>359</v>
-      </c>
-      <c r="K1" t="s">
-        <v>360</v>
-      </c>
-      <c r="L1" t="s">
-        <v>361</v>
-      </c>
-      <c r="M1" t="s">
-        <v>362</v>
-      </c>
-      <c r="N1" t="s">
-        <v>320</v>
-      </c>
-      <c r="O1" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="D2" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="E2" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="G2" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="H2" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="I2" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="J2" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="L2" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -7580,40 +8514,40 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>364</v>
       </c>
       <c r="E3" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="H3" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="I3" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="J3" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="L3" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -7668,7 +8602,7 @@
         <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7682,40 +8616,40 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7726,117 +8660,117 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>392</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>393</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>394</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>400</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>402</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7907,7 +8841,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7921,40 +8855,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>404</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>405</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7965,106 +8899,106 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>408</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>409</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>417</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>412</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>413</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>397</v>
+        <v>427</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>399</v>
+        <v>429</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>401</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8075,7 +9009,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8207,16 +9141,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B1" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="C1" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="D1" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -8224,13 +9158,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -8241,7 +9175,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -8252,7 +9186,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -8263,7 +9197,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -8274,7 +9208,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -8285,7 +9219,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -8296,7 +9230,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="B8">
         <v>500</v>
@@ -8307,7 +9241,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="B9">
         <v>600</v>
@@ -8373,58 +9307,58 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:21">
       <c r="A1" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="C1" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="D1" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="E1" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="G1" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="H1" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="I1" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="J1" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="K1" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="L1" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="M1" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="N1" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="O1" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="P1" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="Q1" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="R1" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -8438,31 +9372,31 @@
     </row>
     <row r="2" customFormat="1" spans="1:21">
       <c r="A2" s="4" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="C2" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="H2" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="I2" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -8476,31 +9410,31 @@
     </row>
     <row r="3" customFormat="1" spans="1:21">
       <c r="A3" s="5" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="H3" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="I3" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -8514,31 +9448,31 @@
     </row>
     <row r="4" customFormat="1" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="C4" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="H4" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="I4" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -8552,31 +9486,31 @@
     </row>
     <row r="5" customFormat="1" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
       <c r="C5" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="D5">
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="H5" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="I5" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -8590,31 +9524,31 @@
     </row>
     <row r="6" customFormat="1" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="C6" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="D6">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="H6" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="I6" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -8628,31 +9562,31 @@
     </row>
     <row r="7" customFormat="1" spans="1:21">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="D7">
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="G7" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="H7" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="I7" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -8666,58 +9600,58 @@
     </row>
     <row r="8" customFormat="1" spans="1:21">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="D8">
         <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="F8" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="G8" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="I8" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="J8" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="K8" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="L8" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="M8">
         <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="O8" t="s">
         <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="Q8" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="R8" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -8731,31 +9665,31 @@
     </row>
     <row r="9" customFormat="1" spans="1:21">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="C9" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="F9" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="G9" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="H9" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="I9" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -8769,31 +9703,31 @@
     </row>
     <row r="10" customFormat="1" spans="1:21">
       <c r="A10" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="D10">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="F10" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="G10" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="H10" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="I10" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -8807,31 +9741,31 @@
     </row>
     <row r="11" customFormat="1" spans="1:21">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="C11" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="D11">
         <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="F11" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="G11" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="H11" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="I11" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -8851,25 +9785,25 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="H12" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="I12" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -8889,25 +9823,25 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="H13" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="I13" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -8924,28 +9858,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="H14" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="I14" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="S14" t="b">
         <v>1</v>
@@ -8976,16 +9910,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="B1" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="C1" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="D1" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -8999,10 +9933,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -9016,10 +9950,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -9033,10 +9967,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -9050,16 +9984,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="D5" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -9073,10 +10007,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -9093,7 +10027,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -9110,7 +10044,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -9124,10 +10058,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -9144,7 +10078,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -9180,19 +10114,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="B1" t="s">
-        <v>471</v>
+        <v>501</v>
       </c>
       <c r="C1" t="s">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="D1" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="E1" t="s">
-        <v>321</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -9287,13 +10221,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
@@ -9463,7 +10397,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>474</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9477,40 +10411,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>475</v>
+        <v>505</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9521,7 +10455,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9532,49 +10466,49 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="E9" t="s">
-        <v>484</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="E10" t="s">
-        <v>487</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="E11" t="s">
-        <v>489</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -9623,7 +10557,7 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9637,40 +10571,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9681,7 +10615,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9692,49 +10626,49 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="E10" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="E11" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -9783,7 +10717,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>502</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9797,40 +10731,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>520</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>476</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>478</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>522</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>480</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -9841,7 +10775,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>481</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -9852,49 +10786,49 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="E9" t="s">
-        <v>495</v>
+        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>527</v>
       </c>
       <c r="E10" t="s">
-        <v>498</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>500</v>
+        <v>530</v>
       </c>
       <c r="E11" t="s">
-        <v>501</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -9916,7 +10850,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -9932,6 +10866,131 @@
     <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" t="s">
+        <v>540</v>
+      </c>
+      <c r="D7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>540</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="16" activeTab="16"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="34" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="541">
   <si>
     <t>itemClass</t>
   </si>
@@ -2323,7 +2323,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2340,12 +2340,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3498,7 +3500,7 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3570,7 +3572,7 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D19" t="s">
@@ -3584,7 +3586,7 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="13" t="s">
         <v>117</v>
       </c>
       <c r="D20" t="s">
@@ -3598,7 +3600,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="13" t="s">
         <v>120</v>
       </c>
       <c r="D21" t="s">
@@ -3732,7 +3734,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="13" t="s">
         <v>149</v>
       </c>
       <c r="B31" t="s">
@@ -4043,7 +4045,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B2" t="s">
@@ -4073,7 +4075,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>162</v>
       </c>
       <c r="B5" t="s">
@@ -4081,7 +4083,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>163</v>
       </c>
       <c r="B6" t="s">
@@ -4089,7 +4091,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>164</v>
       </c>
       <c r="B7" t="s">
@@ -4097,7 +4099,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>165</v>
       </c>
       <c r="B8" t="s">
@@ -4105,7 +4107,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>166</v>
       </c>
       <c r="B9" t="s">
@@ -4113,7 +4115,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>167</v>
       </c>
       <c r="B10" t="s">
@@ -4121,7 +4123,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>168</v>
       </c>
       <c r="B11" t="s">
@@ -4129,7 +4131,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>169</v>
       </c>
       <c r="B12" t="s">
@@ -4137,7 +4139,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>170</v>
       </c>
       <c r="B13" t="s">
@@ -4203,7 +4205,7 @@
   <sheetPr/>
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4335,7 +4337,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="14" t="s">
         <v>202</v>
       </c>
       <c r="H2">
@@ -4385,7 +4387,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>205</v>
       </c>
       <c r="H3">
@@ -4435,7 +4437,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="14" t="s">
         <v>207</v>
       </c>
       <c r="H4">
@@ -4483,7 +4485,7 @@
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="14" t="s">
         <v>207</v>
       </c>
       <c r="AA4">
@@ -4524,7 +4526,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="14" t="s">
         <v>210</v>
       </c>
       <c r="H5">
@@ -4574,7 +4576,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>212</v>
       </c>
       <c r="H6">
@@ -4624,7 +4626,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="14" t="s">
         <v>214</v>
       </c>
       <c r="H7">
@@ -4674,7 +4676,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="14" t="s">
         <v>216</v>
       </c>
       <c r="H8">
@@ -4706,7 +4708,7 @@
       </c>
     </row>
     <row r="9" ht="30" spans="1:19">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>217</v>
       </c>
       <c r="B9" t="s">
@@ -4724,7 +4726,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="14" t="s">
         <v>218</v>
       </c>
       <c r="H9">
@@ -4774,7 +4776,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="14" t="s">
         <v>220</v>
       </c>
       <c r="H10">
@@ -4824,7 +4826,7 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="14" t="s">
         <v>222</v>
       </c>
       <c r="H11">
@@ -4874,7 +4876,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="14" t="s">
         <v>224</v>
       </c>
       <c r="H12">
@@ -4924,7 +4926,7 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="14" t="s">
         <v>226</v>
       </c>
       <c r="H13">
@@ -4974,7 +4976,7 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="14" t="s">
         <v>228</v>
       </c>
       <c r="H14">
@@ -5024,7 +5026,7 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="14" t="s">
         <v>230</v>
       </c>
       <c r="H15">
@@ -5074,7 +5076,7 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="14" t="s">
         <v>232</v>
       </c>
       <c r="H16">
@@ -5124,7 +5126,7 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="14" t="s">
         <v>234</v>
       </c>
       <c r="H17">
@@ -5174,7 +5176,7 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="14" t="s">
         <v>236</v>
       </c>
       <c r="H18">
@@ -5224,7 +5226,7 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="14" t="s">
         <v>238</v>
       </c>
       <c r="H19">
@@ -5274,7 +5276,7 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="14" t="s">
         <v>240</v>
       </c>
       <c r="H20">
@@ -5324,7 +5326,7 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="14" t="s">
         <v>242</v>
       </c>
       <c r="H21">
@@ -5374,7 +5376,7 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="14" t="s">
         <v>243</v>
       </c>
       <c r="H22">
@@ -5424,7 +5426,7 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="14" t="s">
         <v>244</v>
       </c>
       <c r="H23">
@@ -5524,7 +5526,7 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="14" t="s">
         <v>247</v>
       </c>
       <c r="H25">
@@ -6642,10 +6644,10 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6671,7 +6673,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6703,6 +6705,16 @@
     <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -7214,7 +7226,7 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
@@ -7226,7 +7238,7 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="9"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
@@ -7238,7 +7250,7 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
@@ -7250,7 +7262,7 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="10"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
@@ -7265,7 +7277,7 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -7738,7 +7750,7 @@
       <c r="A11" t="s">
         <v>322</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E11" t="b">
@@ -7755,7 +7767,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E12" t="b">
@@ -7772,7 +7784,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E13" t="b">
@@ -7789,7 +7801,7 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E14" t="b">
@@ -7806,7 +7818,7 @@
       <c r="A15" t="s">
         <v>259</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>165</v>
       </c>
       <c r="E15" t="b">
@@ -7820,40 +7832,40 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="8"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="8"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="8"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="7"/>
+      <c r="B29" s="8"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="7"/>
+      <c r="B30" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8062,40 +8074,40 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8186,19 +8198,19 @@
       <c r="E2" t="s">
         <v>355</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>357</v>
       </c>
       <c r="H2" t="s">
         <v>358</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>357</v>
       </c>
       <c r="K2" t="s">
@@ -8239,19 +8251,19 @@
       <c r="E3" t="s">
         <v>355</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>357</v>
       </c>
       <c r="H3" t="s">
         <v>358</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>5</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>357</v>
       </c>
       <c r="K3" t="s">
@@ -8295,16 +8307,16 @@
       <c r="F4" t="s">
         <v>368</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="7" t="s">
         <v>369</v>
       </c>
       <c r="H4" t="s">
         <v>370</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>369</v>
       </c>
       <c r="K4" t="s">
@@ -8330,40 +8342,40 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="8"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="8"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="8"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="8"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="8"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="8"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="8"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8400,7 +8412,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>379</v>
       </c>
     </row>
@@ -8499,7 +8511,7 @@
       <c r="J2" t="s">
         <v>400</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>401</v>
       </c>
       <c r="L2" t="s">
@@ -8543,7 +8555,7 @@
       <c r="J3" t="s">
         <v>403</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="14" t="s">
         <v>404</v>
       </c>
       <c r="L3" t="s">
@@ -9292,10 +9304,10 @@
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -9806,7 +9818,7 @@
         <v>266</v>
       </c>
       <c r="S12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="b">
         <v>0</v>
@@ -9888,6 +9900,82 @@
         <v>0</v>
       </c>
       <c r="U14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:21">
+      <c r="A15" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>478</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" t="s">
+        <v>266</v>
+      </c>
+      <c r="I15" t="s">
+        <v>266</v>
+      </c>
+      <c r="S15" t="b">
+        <v>0</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:21">
+      <c r="A16" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>478</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" t="s">
+        <v>266</v>
+      </c>
+      <c r="I16" t="s">
+        <v>266</v>
+      </c>
+      <c r="S16" t="b">
+        <v>0</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="b">
         <v>0</v>
       </c>
     </row>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="543">
   <si>
     <t>itemClass</t>
   </si>
@@ -856,7 +856,7 @@
     <t>This is a very long string that exceeds the maximum allowed length.</t>
   </si>
   <si>
-    <t xml:space="preserve">© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # </t>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ #</t>
   </si>
   <si>
     <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? `</t>
@@ -868,9 +868,6 @@
     <t>WINTERHOLIDAY50PERCENTDISCOUNT</t>
   </si>
   <si>
-    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ #</t>
-  </si>
-  <si>
     <t>Delicious and crispy Chickenjoy with a side of Jolly Spaghetti and garlic rice, perfect for a fulfil</t>
   </si>
   <si>
@@ -964,45 +961,48 @@
     <t>Membership Perk</t>
   </si>
   <si>
+    <t>Survey Participation</t>
+  </si>
+  <si>
+    <t>Inventory Clearance</t>
+  </si>
+  <si>
+    <t>Customer Appreciation</t>
+  </si>
+  <si>
+    <t>voidReasons</t>
+  </si>
+  <si>
+    <t>editVoidReasons</t>
+  </si>
+  <si>
+    <t>Incorrect Order Entry</t>
+  </si>
+  <si>
+    <t>Customer Changed Mind</t>
+  </si>
+  <si>
+    <t>Customer Cancelled Order</t>
+  </si>
+  <si>
+    <t>Employee Mistake</t>
+  </si>
+  <si>
+    <t>Order Duplication</t>
+  </si>
+  <si>
+    <t>Customer Complaint</t>
+  </si>
+  <si>
+    <t>Food Quality Issue</t>
+  </si>
+  <si>
+    <t>Price Adjustment</t>
+  </si>
+  <si>
     <t>Incorrect Charge</t>
   </si>
   <si>
-    <t>Inventory Clearance</t>
-  </si>
-  <si>
-    <t>Customer Appreciation</t>
-  </si>
-  <si>
-    <t>voidReasons</t>
-  </si>
-  <si>
-    <t>editVoidReasons</t>
-  </si>
-  <si>
-    <t>Incorrect Order Entry</t>
-  </si>
-  <si>
-    <t>Customer Changed Mind</t>
-  </si>
-  <si>
-    <t>Customer Cancelled Order</t>
-  </si>
-  <si>
-    <t>Employee Mistake</t>
-  </si>
-  <si>
-    <t>Order Duplication</t>
-  </si>
-  <si>
-    <t>Customer Complaint</t>
-  </si>
-  <si>
-    <t>Food Quality Issue</t>
-  </si>
-  <si>
-    <t>Price Adjustment</t>
-  </si>
-  <si>
     <t>Payment Error</t>
   </si>
   <si>
@@ -1544,6 +1544,12 @@
   </si>
   <si>
     <t>WINTERHOLIDAY50PERCENTDISCOUNTFORALLITEMSOVER1000PHP</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>20%</t>
   </si>
   <si>
     <t>pricelist</t>
@@ -2323,7 +2329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2340,14 +2346,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3500,7 +3504,7 @@
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3572,7 +3576,7 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>114</v>
       </c>
       <c r="D19" t="s">
@@ -3586,7 +3590,7 @@
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="11" t="s">
         <v>117</v>
       </c>
       <c r="D20" t="s">
@@ -3600,7 +3604,7 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D21" t="s">
@@ -3734,7 +3738,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>149</v>
       </c>
       <c r="B31" t="s">
@@ -4045,7 +4049,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>158</v>
       </c>
       <c r="B2" t="s">
@@ -4075,7 +4079,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B5" t="s">
@@ -4083,7 +4087,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B6" t="s">
@@ -4091,7 +4095,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B7" t="s">
@@ -4099,7 +4103,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B8" t="s">
@@ -4107,7 +4111,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B9" t="s">
@@ -4115,7 +4119,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B10" t="s">
@@ -4123,7 +4127,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>168</v>
       </c>
       <c r="B11" t="s">
@@ -4131,7 +4135,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>169</v>
       </c>
       <c r="B12" t="s">
@@ -4139,7 +4143,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>170</v>
       </c>
       <c r="B13" t="s">
@@ -4205,8 +4209,8 @@
   <sheetPr/>
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4337,7 +4341,7 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>202</v>
       </c>
       <c r="H2">
@@ -4387,7 +4391,7 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>205</v>
       </c>
       <c r="H3">
@@ -4437,7 +4441,7 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>207</v>
       </c>
       <c r="H4">
@@ -4485,7 +4489,7 @@
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="Z4" s="12" t="s">
         <v>207</v>
       </c>
       <c r="AA4">
@@ -4526,7 +4530,7 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>210</v>
       </c>
       <c r="H5">
@@ -4576,7 +4580,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>212</v>
       </c>
       <c r="H6">
@@ -4626,7 +4630,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>214</v>
       </c>
       <c r="H7">
@@ -4676,7 +4680,7 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>216</v>
       </c>
       <c r="H8">
@@ -4708,7 +4712,7 @@
       </c>
     </row>
     <row r="9" ht="30" spans="1:19">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>217</v>
       </c>
       <c r="B9" t="s">
@@ -4726,7 +4730,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>218</v>
       </c>
       <c r="H9">
@@ -4776,7 +4780,7 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>220</v>
       </c>
       <c r="H10">
@@ -4826,7 +4830,7 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>222</v>
       </c>
       <c r="H11">
@@ -4876,7 +4880,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>224</v>
       </c>
       <c r="H12">
@@ -4926,7 +4930,7 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>226</v>
       </c>
       <c r="H13">
@@ -4976,7 +4980,7 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>228</v>
       </c>
       <c r="H14">
@@ -5026,7 +5030,7 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>230</v>
       </c>
       <c r="H15">
@@ -5076,7 +5080,7 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>232</v>
       </c>
       <c r="H16">
@@ -5126,7 +5130,7 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="12" t="s">
         <v>234</v>
       </c>
       <c r="H17">
@@ -5176,7 +5180,7 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="12" t="s">
         <v>236</v>
       </c>
       <c r="H18">
@@ -5226,7 +5230,7 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="12" t="s">
         <v>238</v>
       </c>
       <c r="H19">
@@ -5276,7 +5280,7 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="12" t="s">
         <v>240</v>
       </c>
       <c r="H20">
@@ -5326,7 +5330,7 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="12" t="s">
         <v>242</v>
       </c>
       <c r="H21">
@@ -5376,7 +5380,7 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>243</v>
       </c>
       <c r="H22">
@@ -5426,7 +5430,7 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>244</v>
       </c>
       <c r="H23">
@@ -5526,7 +5530,7 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="12" t="s">
         <v>247</v>
       </c>
       <c r="H25">
@@ -6647,7 +6651,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6673,7 +6677,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6699,23 +6703,21 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6759,21 +6761,21 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" t="s">
         <v>266</v>
-      </c>
-      <c r="E2" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -6801,10 +6803,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" t="s">
         <v>270</v>
-      </c>
-      <c r="B1" t="s">
-        <v>271</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -6812,7 +6814,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6820,7 +6822,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6828,7 +6830,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -6836,7 +6838,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -6844,10 +6846,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" t="s">
         <v>276</v>
-      </c>
-      <c r="B6" t="s">
-        <v>277</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6855,7 +6857,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -6863,7 +6865,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7019,10 +7021,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" t="s">
         <v>280</v>
-      </c>
-      <c r="B1" t="s">
-        <v>281</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7030,7 +7032,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -7038,7 +7040,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -7046,7 +7048,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -7054,7 +7056,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -7062,7 +7064,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -7070,7 +7072,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -7078,7 +7080,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -7086,10 +7088,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" t="s">
         <v>276</v>
-      </c>
-      <c r="B9" t="s">
-        <v>277</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -7097,7 +7099,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -7105,7 +7107,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -7155,7 +7157,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -7168,13 +7170,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B1" t="s">
         <v>285</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>286</v>
-      </c>
-      <c r="C1" t="s">
-        <v>287</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7182,7 +7184,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -7194,7 +7196,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -7206,7 +7208,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -7218,7 +7220,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -7226,11 +7228,11 @@
       <c r="D5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -7238,11 +7240,11 @@
       <c r="D6" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -7250,11 +7252,11 @@
       <c r="D7" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -7262,26 +7264,26 @@
       <c r="D8" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" t="s">
         <v>295</v>
       </c>
-      <c r="B9" t="s">
-        <v>296</v>
-      </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -7292,7 +7294,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -7370,13 +7372,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" t="s">
         <v>299</v>
       </c>
-      <c r="B1" t="s">
-        <v>300</v>
-      </c>
       <c r="C1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7384,7 +7386,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -7395,7 +7397,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -7406,7 +7408,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -7417,7 +7419,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -7428,7 +7430,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -7439,7 +7441,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -7450,7 +7452,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -7461,10 +7463,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" t="s">
         <v>308</v>
-      </c>
-      <c r="B9" t="s">
-        <v>296</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -7750,7 +7752,7 @@
       <c r="A11" t="s">
         <v>322</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E11" t="b">
@@ -7767,7 +7769,7 @@
       <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E12" t="b">
@@ -7784,7 +7786,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E13" t="b">
@@ -7801,7 +7803,7 @@
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E14" t="b">
@@ -7818,7 +7820,7 @@
       <c r="A15" t="s">
         <v>259</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E15" t="b">
@@ -7832,40 +7834,40 @@
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="9"/>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="9"/>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="9"/>
+      <c r="B27" s="8"/>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="9"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="8"/>
+      <c r="B30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8074,40 +8076,40 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="8"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="9"/>
+      <c r="B15" s="8"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8184,7 +8186,7 @@
     </row>
     <row r="2" customFormat="1" spans="1:17">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
         <v>352</v>
@@ -8198,19 +8200,19 @@
       <c r="E2" t="s">
         <v>355</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>357</v>
       </c>
       <c r="H2" t="s">
         <v>358</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>5</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>357</v>
       </c>
       <c r="K2" t="s">
@@ -8237,7 +8239,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>352</v>
@@ -8251,19 +8253,19 @@
       <c r="E3" t="s">
         <v>355</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>357</v>
       </c>
       <c r="H3" t="s">
         <v>358</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>5</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>357</v>
       </c>
       <c r="K3" t="s">
@@ -8290,7 +8292,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
         <v>364</v>
@@ -8307,16 +8309,16 @@
       <c r="F4" t="s">
         <v>368</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>369</v>
       </c>
       <c r="H4" t="s">
         <v>370</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>369</v>
       </c>
       <c r="K4" t="s">
@@ -8342,46 +8344,46 @@
       </c>
     </row>
     <row r="13" spans="2:2">
-      <c r="B13" s="8"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="9"/>
+      <c r="B16" s="8"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="9"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="9"/>
+      <c r="B19" s="8"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
+      <c r="B20" s="8"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
+      <c r="B21" s="8"/>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
+      <c r="B23" s="8"/>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="9"/>
+      <c r="B24" s="8"/>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F2:F3 I4" numberStoredAsText="1"/>
+    <ignoredError sqref="I4 F2:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8412,7 +8414,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>379</v>
       </c>
     </row>
@@ -8497,7 +8499,7 @@
         <v>397</v>
       </c>
       <c r="F2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G2" t="s">
         <v>398</v>
@@ -8511,7 +8513,7 @@
       <c r="J2" t="s">
         <v>400</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="12" t="s">
         <v>401</v>
       </c>
       <c r="L2" t="s">
@@ -8541,7 +8543,7 @@
         <v>366</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G3" t="s">
         <v>365</v>
@@ -8555,7 +8557,7 @@
       <c r="J3" t="s">
         <v>403</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="12" t="s">
         <v>404</v>
       </c>
       <c r="L3" t="s">
@@ -9143,7 +9145,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -9307,7 +9309,7 @@
   <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -9393,22 +9395,22 @@
         <v>478</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -9431,22 +9433,22 @@
         <v>478</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -9469,22 +9471,22 @@
         <v>478</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -9507,22 +9509,22 @@
         <v>478</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -9545,22 +9547,22 @@
         <v>478</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -9583,22 +9585,22 @@
         <v>484</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -9621,22 +9623,22 @@
         <v>484</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J8" t="s">
         <v>486</v>
@@ -9651,19 +9653,19 @@
         <v>50</v>
       </c>
       <c r="N8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O8" t="s">
         <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="R8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -9686,22 +9688,22 @@
         <v>478</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -9724,22 +9726,22 @@
         <v>478</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -9762,22 +9764,22 @@
         <v>478</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -9800,25 +9802,25 @@
         <v>484</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="b">
         <v>0</v>
@@ -9838,22 +9840,22 @@
         <v>484</v>
       </c>
       <c r="D13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -9876,25 +9878,25 @@
         <v>484</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="b">
         <v>0</v>
@@ -9904,32 +9906,32 @@
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:21">
-      <c r="A15" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="B15" s="6">
-        <v>0.1</v>
+      <c r="A15" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>490</v>
       </c>
       <c r="C15" t="s">
         <v>478</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -9942,32 +9944,32 @@
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:21">
-      <c r="A16" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="B16" s="6">
-        <v>0.2</v>
+      <c r="A16" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>491</v>
       </c>
       <c r="C16" t="s">
         <v>478</v>
       </c>
       <c r="D16">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -9982,6 +9984,9 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="A15:A16 B15:B16" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -9998,16 +10003,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -10021,7 +10026,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B2" t="s">
         <v>327</v>
@@ -10038,7 +10043,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B3" t="s">
         <v>327</v>
@@ -10055,7 +10060,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
         <v>329</v>
@@ -10072,13 +10077,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
         <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D5" t="s">
         <v>327</v>
@@ -10095,7 +10100,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B6" t="s">
         <v>329</v>
@@ -10202,13 +10207,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D1" t="s">
         <v>350</v>
@@ -10309,13 +10314,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
@@ -10485,7 +10490,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10504,35 +10509,35 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10543,7 +10548,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10559,44 +10564,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E9" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E10" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E11" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -10664,35 +10669,35 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10703,7 +10708,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10719,44 +10724,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -10805,7 +10810,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10824,35 +10829,35 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10863,7 +10868,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10879,44 +10884,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E10" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E11" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -10938,7 +10943,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10975,16 +10980,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10995,10 +11000,10 @@
         <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11009,7 +11014,7 @@
         <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D3" t="s">
         <v>215</v>
@@ -11026,7 +11031,7 @@
         <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11062,7 +11067,7 @@
         <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D7" t="s">
         <v>229</v>
@@ -11070,7 +11075,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B8" t="s">
         <v>229</v>
@@ -11078,7 +11083,7 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="34" activeTab="40"/>
+    <workbookView windowWidth="10785" windowHeight="7500" tabRatio="942" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="542">
   <si>
     <t>itemClass</t>
   </si>
@@ -688,7 +688,7 @@
     <t>VATABLE</t>
   </si>
   <si>
-    <t>1-pc Chickenjoy</t>
+    <t>1-pc. Chickenjoy</t>
   </si>
   <si>
     <t>00000000002</t>
@@ -709,7 +709,7 @@
     <t>00000000004</t>
   </si>
   <si>
-    <t>6-pc. Chickenjoy Solo</t>
+    <t>6-pcs. Chickenjoy Solo</t>
   </si>
   <si>
     <t>00000000005</t>
@@ -775,25 +775,25 @@
     <t>00000000015</t>
   </si>
   <si>
-    <t>FSM A 6-pc: Chickenjoy Bucket (3 Rice, 3 Sides, 3 Mini Sundaes, and 3 Regular Drinks)</t>
+    <t>FSM A 6-pcs: Chickenjoy Bucket (3 Rice, 3 Sides, 3 Mini Sundaes, and 3 Regular Drinks)</t>
   </si>
   <si>
     <t>00000000016</t>
   </si>
   <si>
-    <t>FSM A 8-pc: Chickenjoy Bucket (4 Rice, 4 Sides, 4 Mini Sundaes, and 4 Regular Drinks)</t>
+    <t>FSM A 8-pcs: Chickenjoy Bucket (4 Rice, 4 Sides, 4 Mini Sundaes, and 4 Regular Drinks)</t>
   </si>
   <si>
     <t>00000000017</t>
   </si>
   <si>
-    <t>FSM B 6-pc: Chickenjoy Bucket (3 Jolly Spaghetti, 3 Rice, and 3 Regular Drinks)</t>
+    <t>FSM B 6-pcs: Chickenjoy Bucket (3 Jolly Spaghetti, 3 Rice, and 3 Regular Drinks)</t>
   </si>
   <si>
     <t>00000000018</t>
   </si>
   <si>
-    <t>FSM B 8-pc: Chickenjoy Bucket (4 Jolly Spaghetti, 4 Rice, and 4 Regular Drinks)</t>
+    <t>FSM B 8-pcs: Chickenjoy Bucket (4 Jolly Spaghetti, 4 Rice, and 4 Regular Drinks)</t>
   </si>
   <si>
     <t>00000000019</t>
@@ -814,7 +814,7 @@
     <t>!@#$%^&amp;*()</t>
   </si>
   <si>
-    <t>jolly Spaghetti</t>
+    <t>Jolly Spaghetti</t>
   </si>
   <si>
     <t>00000000023</t>
@@ -1694,9 +1694,6 @@
   </si>
   <si>
     <t>FSMB8</t>
-  </si>
-  <si>
-    <t>Jolly Spaghetti</t>
   </si>
   <si>
     <t>Rice</t>
@@ -4209,8 +4206,8 @@
   <sheetPr/>
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -5505,7 +5502,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24" t="b">
         <v>0</v>
@@ -6651,7 +6648,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6717,7 +6714,9 @@
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10"/>
+      <c r="A13" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9145,7 +9144,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -9308,8 +9307,8 @@
   <sheetPr/>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -9620,7 +9619,7 @@
         <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -9647,10 +9646,10 @@
         <v>486</v>
       </c>
       <c r="L8" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="M8">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
         <v>268</v>
@@ -11000,10 +10999,10 @@
         <v>215</v>
       </c>
       <c r="C2" t="s">
-        <v>540</v>
+        <v>246</v>
       </c>
       <c r="D2" t="s">
-        <v>540</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11014,7 +11013,7 @@
         <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D3" t="s">
         <v>215</v>
@@ -11031,7 +11030,7 @@
         <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11067,7 +11066,7 @@
         <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D7" t="s">
         <v>229</v>
@@ -11075,7 +11074,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B8" t="s">
         <v>229</v>
@@ -11083,7 +11082,7 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10785" windowHeight="7500" tabRatio="942" firstSheet="16" activeTab="16"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="34" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="543">
   <si>
     <t>itemClass</t>
   </si>
@@ -1580,6 +1580,9 @@
   </si>
   <si>
     <t>Jollibee 5</t>
+  </si>
+  <si>
+    <t>This is a test string that exceeds fifty characters in length.</t>
   </si>
   <si>
     <t>takeoutsercharge</t>
@@ -4206,7 +4209,7 @@
   <sheetPr/>
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -6792,7 +6795,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -9994,8 +9997,8 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -10167,7 +10170,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>502</v>
       </c>
       <c r="B10" t="s">
         <v>329</v>
@@ -10206,13 +10209,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D1" t="s">
         <v>350</v>
@@ -10313,13 +10316,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
@@ -10489,7 +10492,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10508,35 +10511,35 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10547,7 +10550,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10563,44 +10566,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E11" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -10668,35 +10671,35 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10707,7 +10710,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10723,44 +10726,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E11" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -10809,7 +10812,7 @@
         <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10828,35 +10831,35 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10867,7 +10870,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10883,44 +10886,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E11" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -10942,7 +10945,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10979,16 +10982,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11013,7 +11016,7 @@
         <v>219</v>
       </c>
       <c r="C3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D3" t="s">
         <v>215</v>
@@ -11030,7 +11033,7 @@
         <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11066,7 +11069,7 @@
         <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D7" t="s">
         <v>229</v>
@@ -11074,7 +11077,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B8" t="s">
         <v>229</v>
@@ -11082,7 +11085,7 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="34" activeTab="41"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="541">
   <si>
     <t>itemClass</t>
   </si>
@@ -139,10 +139,10 @@
     <t>contain.text</t>
   </si>
   <si>
-    <t>Update Data</t>
-  </si>
-  <si>
-    <t>Should contain text "Update Data"</t>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Should contain text "Save"</t>
   </si>
   <si>
     <t>button.border-red-500</t>
@@ -169,9 +169,6 @@
     <t>"Cancel" button Should be enabled and clickable</t>
   </si>
   <si>
-    <t>Save</t>
-  </si>
-  <si>
     <t>Save button should contain text "Save" instead of "Update Data"</t>
   </si>
   <si>
@@ -799,27 +796,27 @@
     <t>00000000019</t>
   </si>
   <si>
+    <t>Jolly Spaghetti</t>
+  </si>
+  <si>
+    <t>00000000020</t>
+  </si>
+  <si>
     <t>Delicious and crispy Chickenjoy with a side of Jolly Spaghetti and garlic rice, perfect for a fulfilling meal</t>
   </si>
   <si>
-    <t>00000000020</t>
-  </si>
-  <si>
     <t>00000000021</t>
   </si>
   <si>
     <t>00000000022</t>
   </si>
   <si>
+    <t>00000000023</t>
+  </si>
+  <si>
     <t>!@#$%^&amp;*()</t>
   </si>
   <si>
-    <t>Jolly Spaghetti</t>
-  </si>
-  <si>
-    <t>00000000023</t>
-  </si>
-  <si>
     <t>[id=":rc:"]</t>
   </si>
   <si>
@@ -872,9 +869,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Should contain text "Save"</t>
   </si>
   <si>
     <t>cy.get('.border-red-500')</t>
@@ -2679,7 +2673,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -2861,7 +2855,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2875,142 +2869,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
       <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
         <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3038,7 +3032,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -3052,128 +3046,128 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
       <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3201,7 +3195,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -3215,128 +3209,128 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
       <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3378,172 +3372,172 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
         <v>88</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
         <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
         <v>94</v>
-      </c>
-      <c r="B9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
         <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
         <v>98</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
         <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>102</v>
-      </c>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
         <v>104</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
         <v>106</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
         <v>108</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -3552,203 +3546,203 @@
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
         <v>111</v>
-      </c>
-      <c r="D18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" t="s">
         <v>114</v>
-      </c>
-      <c r="D19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
         <v>117</v>
-      </c>
-      <c r="D20" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D21" t="s">
         <v>120</v>
-      </c>
-      <c r="D21" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22" t="s">
+        <v>122</v>
+      </c>
+      <c r="D22" t="s">
         <v>123</v>
-      </c>
-      <c r="D22" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" t="s">
         <v>126</v>
-      </c>
-      <c r="D23" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
       <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" t="s">
         <v>129</v>
-      </c>
-      <c r="D24" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
       <c r="C25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" t="s">
         <v>132</v>
-      </c>
-      <c r="D25" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
       </c>
       <c r="C26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" t="s">
         <v>135</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
       </c>
       <c r="C27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" t="s">
         <v>138</v>
-      </c>
-      <c r="D27" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
       </c>
       <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" t="s">
         <v>141</v>
-      </c>
-      <c r="D28" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
       </c>
       <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
         <v>144</v>
-      </c>
-      <c r="D29" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" t="s">
         <v>147</v>
-      </c>
-      <c r="D30" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" t="s">
         <v>150</v>
-      </c>
-      <c r="D31" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3770,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -3790,64 +3784,64 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3869,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -3889,128 +3883,128 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
       <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4036,13 +4030,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>156</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>157</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -4050,13 +4044,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -4064,7 +4058,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -4072,7 +4066,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -4080,7 +4074,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -4088,7 +4082,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -4096,7 +4090,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -4104,7 +4098,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -4112,7 +4106,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -4120,7 +4114,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -4128,7 +4122,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -4136,7 +4130,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -4144,7 +4138,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -4160,7 +4154,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -4184,7 +4178,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -4209,8 +4203,8 @@
   <sheetPr/>
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A21" sqref="$A21:$XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4223,52 +4217,52 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
         <v>173</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
         <v>174</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>175</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>176</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>177</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>178</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>179</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>180</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>181</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>182</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>183</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>184</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>185</v>
-      </c>
-      <c r="P1" t="s">
-        <v>186</v>
       </c>
       <c r="Q1" t="s">
         <v>2</v>
@@ -4280,69 +4274,69 @@
         <v>4</v>
       </c>
       <c r="T1" t="s">
+        <v>186</v>
+      </c>
+      <c r="U1" t="s">
         <v>187</v>
-      </c>
-      <c r="U1" t="s">
-        <v>188</v>
       </c>
       <c r="V1" t="s">
         <v>1</v>
       </c>
       <c r="W1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y1" t="s">
         <v>189</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>190</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>191</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>192</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>193</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>194</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>195</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>196</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>197</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" t="s">
-        <v>200</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>202</v>
       </c>
       <c r="H2">
         <v>40</v>
@@ -4351,7 +4345,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L2" t="b">
         <v>0</v>
@@ -4374,25 +4368,25 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H3">
         <v>76</v>
@@ -4401,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -4424,25 +4418,25 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H4">
         <v>63</v>
@@ -4451,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
@@ -4472,25 +4466,25 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="V4" t="s">
         <v>7</v>
       </c>
       <c r="W4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="X4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AA4">
         <v>80</v>
@@ -4499,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE4" t="b">
         <v>1</v>
@@ -4513,25 +4507,25 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H5">
         <v>48</v>
@@ -4540,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L5" t="b">
         <v>0</v>
@@ -4563,25 +4557,25 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -4590,7 +4584,7 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L6" t="b">
         <v>0</v>
@@ -4613,25 +4607,25 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H7">
         <v>50</v>
@@ -4640,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -4663,10 +4657,10 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -4675,13 +4669,13 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H8">
         <v>30</v>
@@ -4690,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -4713,10 +4707,10 @@
     </row>
     <row r="9" ht="30" spans="1:19">
       <c r="A9" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4725,13 +4719,13 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H9">
         <v>40</v>
@@ -4740,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L9" t="b">
         <v>0</v>
@@ -4763,10 +4757,10 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -4775,13 +4769,13 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H10">
         <v>32</v>
@@ -4790,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L10" t="b">
         <v>0</v>
@@ -4813,25 +4807,25 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H11">
         <v>26</v>
@@ -4840,7 +4834,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L11" t="b">
         <v>0</v>
@@ -4863,25 +4857,25 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H12">
         <v>37</v>
@@ -4890,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -4913,25 +4907,25 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H13">
         <v>37</v>
@@ -4940,7 +4934,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L13" t="b">
         <v>0</v>
@@ -4963,25 +4957,25 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H14">
         <v>37</v>
@@ -4990,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -5013,25 +5007,25 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H15">
         <v>55</v>
@@ -5040,7 +5034,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L15" t="b">
         <v>0</v>
@@ -5063,25 +5057,25 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H16">
         <v>55</v>
@@ -5090,7 +5084,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L16" t="b">
         <v>0</v>
@@ -5113,25 +5107,25 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H17">
         <v>599</v>
@@ -5140,7 +5134,7 @@
         <v>6</v>
       </c>
       <c r="J17" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L17" t="b">
         <v>0</v>
@@ -5163,25 +5157,25 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H18">
         <v>799</v>
@@ -5190,7 +5184,7 @@
         <v>8</v>
       </c>
       <c r="J18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L18" t="b">
         <v>0</v>
@@ -5213,25 +5207,25 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H19">
         <v>599</v>
@@ -5240,7 +5234,7 @@
         <v>6</v>
       </c>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L19" t="b">
         <v>0</v>
@@ -5263,25 +5257,25 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H20">
         <v>799</v>
@@ -5290,7 +5284,7 @@
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L20" t="b">
         <v>0</v>
@@ -5313,25 +5307,25 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H21">
         <v>50</v>
@@ -5340,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -5355,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="b">
         <v>0</v>
@@ -5363,19 +5357,19 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -5384,13 +5378,13 @@
         <v>243</v>
       </c>
       <c r="H22">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -5413,19 +5407,19 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -5434,13 +5428,13 @@
         <v>244</v>
       </c>
       <c r="H23">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L23" t="b">
         <v>0</v>
@@ -5455,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" t="b">
         <v>0</v>
@@ -5463,34 +5457,34 @@
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24" t="s">
-        <v>245</v>
-      </c>
       <c r="H24">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L24" t="b">
         <v>0</v>
@@ -5513,34 +5507,34 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E25" t="s">
-        <v>201</v>
+        <v>246</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>247</v>
+      <c r="G25" t="s">
+        <v>246</v>
       </c>
       <c r="H25">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L25" t="b">
         <v>0</v>
@@ -5589,7 +5583,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -5603,142 +5597,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
         <v>62</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
         <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
         <v>65</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
         <v>68</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>72</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>73</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
       <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5784,10 +5778,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5801,7 +5795,7 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5812,7 +5806,7 @@
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5823,7 +5817,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5834,7 +5828,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -5849,7 +5843,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -5976,10 +5970,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5993,18 +5987,18 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6015,7 +6009,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6072,10 +6066,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6089,18 +6083,18 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6111,7 +6105,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6168,10 +6162,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6185,18 +6179,18 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6207,7 +6201,7 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6265,10 +6259,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6282,18 +6276,18 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6304,7 +6298,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6361,10 +6355,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6378,29 +6372,29 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6411,7 +6405,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6468,10 +6462,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6485,29 +6479,29 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6518,7 +6512,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6575,10 +6569,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6592,29 +6586,29 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6625,7 +6619,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6658,7 +6652,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6668,47 +6662,47 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -6757,27 +6751,27 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -6805,10 +6799,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -6816,7 +6810,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6824,7 +6818,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6832,7 +6826,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -6840,7 +6834,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -6848,10 +6842,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6859,7 +6853,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -6867,7 +6861,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -6948,10 +6942,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6965,12 +6959,12 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -7023,10 +7017,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7034,7 +7028,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -7042,7 +7036,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -7050,7 +7044,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -7058,7 +7052,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -7066,7 +7060,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -7074,7 +7068,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -7082,7 +7076,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -7090,10 +7084,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -7101,7 +7095,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -7109,7 +7103,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -7141,7 +7135,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -7172,13 +7166,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" t="s">
         <v>284</v>
-      </c>
-      <c r="B1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C1" t="s">
-        <v>286</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7186,7 +7180,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -7198,7 +7192,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -7210,7 +7204,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -7222,7 +7216,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -7234,7 +7228,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -7246,7 +7240,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -7258,7 +7252,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -7270,10 +7264,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -7285,7 +7279,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -7296,7 +7290,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -7340,7 +7334,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -7374,13 +7368,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7388,7 +7382,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -7399,7 +7393,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -7410,7 +7404,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -7421,7 +7415,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -7432,7 +7426,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -7443,7 +7437,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -7454,7 +7448,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -7465,10 +7459,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -7479,7 +7473,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -7490,7 +7484,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -7534,7 +7528,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -7570,16 +7564,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" t="s">
         <v>156</v>
-      </c>
-      <c r="C1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -7593,10 +7587,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -7610,10 +7604,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -7627,10 +7621,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -7644,10 +7638,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -7661,10 +7655,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -7678,10 +7672,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -7695,10 +7689,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -7712,16 +7706,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -7735,10 +7729,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -7752,10 +7746,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -7772,7 +7766,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -7789,7 +7783,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -7806,7 +7800,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -7820,10 +7814,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -7897,16 +7891,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" t="s">
         <v>323</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>324</v>
-      </c>
-      <c r="C1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D1" t="s">
-        <v>326</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -7920,10 +7914,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -7937,10 +7931,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -7954,16 +7948,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" t="s">
         <v>330</v>
       </c>
-      <c r="C4" t="s">
-        <v>332</v>
-      </c>
       <c r="D4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -7977,10 +7971,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -7994,10 +7988,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -8014,7 +8008,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -8031,7 +8025,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -8048,7 +8042,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -8062,10 +8056,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -8135,102 +8129,102 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C1" t="s">
         <v>335</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>336</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>337</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>338</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>339</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>340</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>341</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>342</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>344</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>345</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>346</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>347</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>348</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>349</v>
-      </c>
-      <c r="P1" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:17">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D2" t="s">
         <v>352</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>353</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" t="s">
         <v>356</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="H2" t="s">
-        <v>358</v>
       </c>
       <c r="I2" s="6">
         <v>5</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="K2" t="s">
         <v>357</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>358</v>
+      </c>
+      <c r="M2" t="s">
         <v>359</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>360</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>361</v>
-      </c>
-      <c r="N2" t="s">
-        <v>362</v>
-      </c>
-      <c r="O2" t="s">
-        <v>363</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -8241,49 +8235,49 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D3" t="s">
         <v>352</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>353</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" t="s">
         <v>356</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="H3" t="s">
-        <v>358</v>
       </c>
       <c r="I3" s="6">
         <v>5</v>
       </c>
       <c r="J3" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="K3" t="s">
         <v>357</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>358</v>
+      </c>
+      <c r="M3" t="s">
         <v>359</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>360</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>361</v>
-      </c>
-      <c r="N3" t="s">
-        <v>362</v>
-      </c>
-      <c r="O3" t="s">
-        <v>363</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -8294,49 +8288,49 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4" t="s">
         <v>364</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>365</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>366</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>368</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="K4" t="s">
         <v>370</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="L4" t="s">
         <v>371</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>372</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>373</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>374</v>
-      </c>
-      <c r="N4" t="s">
-        <v>375</v>
-      </c>
-      <c r="O4" t="s">
-        <v>376</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -8385,7 +8379,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I4 F2:F3" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F3 I4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8409,15 +8403,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -8439,87 +8433,87 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" t="s">
         <v>380</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>381</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>382</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>383</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>384</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>385</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>386</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>387</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>388</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>389</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>390</v>
       </c>
-      <c r="L1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M1" t="s">
-        <v>392</v>
-      </c>
       <c r="N1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="O1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C2" t="s">
         <v>393</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>394</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>395</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G2" t="s">
         <v>396</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>397</v>
       </c>
-      <c r="F2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>393</v>
+      </c>
+      <c r="J2" t="s">
         <v>398</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="I2" t="s">
-        <v>395</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>400</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="L2" t="s">
-        <v>402</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -8530,40 +8524,40 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" t="s">
         <v>364</v>
       </c>
-      <c r="B3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E3" t="s">
-        <v>366</v>
-      </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="J3" t="s">
+        <v>401</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="L3" t="s">
         <v>403</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="L3" t="s">
-        <v>405</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -8615,10 +8609,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8632,161 +8626,161 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8797,7 +8791,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -8854,10 +8848,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8871,150 +8865,150 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9025,7 +9019,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9082,10 +9076,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9099,12 +9093,12 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -9157,16 +9151,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D1" t="s">
         <v>448</v>
-      </c>
-      <c r="C1" t="s">
-        <v>449</v>
-      </c>
-      <c r="D1" t="s">
-        <v>450</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -9174,13 +9168,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -9191,7 +9185,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -9202,7 +9196,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -9213,7 +9207,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -9224,7 +9218,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -9235,7 +9229,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -9246,7 +9240,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B8">
         <v>500</v>
@@ -9257,7 +9251,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B9">
         <v>600</v>
@@ -9323,58 +9317,58 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:21">
       <c r="A1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1" t="s">
         <v>460</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>461</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>462</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>463</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>464</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>465</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>466</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>467</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>468</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>469</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>470</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>471</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>472</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>473</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>474</v>
       </c>
-      <c r="P1" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>476</v>
-      </c>
       <c r="R1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -9388,31 +9382,31 @@
     </row>
     <row r="2" customFormat="1" spans="1:21">
       <c r="A2" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -9426,31 +9420,31 @@
     </row>
     <row r="3" customFormat="1" spans="1:21">
       <c r="A3" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -9464,31 +9458,31 @@
     </row>
     <row r="4" customFormat="1" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -9502,31 +9496,31 @@
     </row>
     <row r="5" customFormat="1" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -9540,31 +9534,31 @@
     </row>
     <row r="6" customFormat="1" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -9578,31 +9572,31 @@
     </row>
     <row r="7" customFormat="1" spans="1:21">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -9616,58 +9610,58 @@
     </row>
     <row r="8" customFormat="1" spans="1:21">
       <c r="A8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B8" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C8" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="J8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K8" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M8">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O8" t="s">
         <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -9681,31 +9675,31 @@
     </row>
     <row r="9" customFormat="1" spans="1:21">
       <c r="A9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C9" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -9719,31 +9713,31 @@
     </row>
     <row r="10" customFormat="1" spans="1:21">
       <c r="A10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -9757,31 +9751,31 @@
     </row>
     <row r="11" customFormat="1" spans="1:21">
       <c r="A11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -9801,25 +9795,25 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -9839,25 +9833,25 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -9874,28 +9868,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C14" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -9909,31 +9903,31 @@
     </row>
     <row r="15" customFormat="1" spans="1:21">
       <c r="A15" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C15" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -9947,31 +9941,31 @@
     </row>
     <row r="16" customFormat="1" spans="1:21">
       <c r="A16" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -9987,7 +9981,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A15:A16 B15:B16" numberStoredAsText="1"/>
+    <ignoredError sqref="B15:B16 A15:A16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9997,7 +9991,7 @@
   <sheetPr/>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -10005,16 +9999,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" t="s">
         <v>492</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>493</v>
-      </c>
-      <c r="C1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1" t="s">
-        <v>495</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -10028,10 +10022,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -10045,10 +10039,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -10062,10 +10056,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -10079,16 +10073,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -10102,10 +10096,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -10122,7 +10116,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -10139,7 +10133,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -10153,10 +10147,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -10170,10 +10164,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -10209,19 +10203,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1" t="s">
         <v>503</v>
       </c>
-      <c r="B1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C1" t="s">
-        <v>505</v>
-      </c>
       <c r="D1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10316,13 +10310,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
@@ -10489,10 +10483,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10506,40 +10500,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10550,7 +10544,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10561,49 +10555,49 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -10649,10 +10643,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10666,40 +10660,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10710,7 +10704,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10721,49 +10715,49 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -10809,10 +10803,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10826,40 +10820,40 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10870,7 +10864,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10881,49 +10875,49 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E9" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E10" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -10945,7 +10939,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10982,110 +10976,110 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1" t="s">
         <v>537</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>538</v>
-      </c>
-      <c r="C1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -11131,10 +11125,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11148,12 +11142,12 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -11227,10 +11221,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11244,12 +11238,12 @@
         <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -11323,10 +11317,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11345,24 +11339,24 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11373,7 +11367,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11430,10 +11424,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11452,24 +11446,24 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11480,7 +11474,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -11537,10 +11531,10 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11559,24 +11553,24 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11587,7 +11581,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="15" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="542">
   <si>
     <t>itemClass</t>
   </si>
@@ -547,6 +547,9 @@
     <t>editItemSubclass</t>
   </si>
   <si>
+    <t>©™®àáâñä¢£¥€!@#$^*_+=&lt;&gt;?`\~\"|\][];:</t>
+  </si>
+  <si>
     <t>Mashed Potatoes</t>
   </si>
   <si>
@@ -589,277 +592,277 @@
     <t>Family Super Meals</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>itemType</t>
+  </si>
+  <si>
+    <t>unitMeasure</t>
+  </si>
+  <si>
+    <t>unitCost</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>sellingPrice</t>
+  </si>
+  <si>
+    <t>goodXPerson</t>
+  </si>
+  <si>
+    <t>taxCode</t>
+  </si>
+  <si>
+    <t>memc</t>
+  </si>
+  <si>
+    <t>addOn</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>comboMeal</t>
+  </si>
+  <si>
+    <t>filterClass</t>
+  </si>
+  <si>
+    <t>filterSubClass</t>
+  </si>
+  <si>
+    <t>editItem</t>
+  </si>
+  <si>
+    <t>editItemType</t>
+  </si>
+  <si>
+    <t>editUnitMeasure</t>
+  </si>
+  <si>
+    <t>editUnitCost</t>
+  </si>
+  <si>
+    <t>editBarcode</t>
+  </si>
+  <si>
+    <t>editSellingPrice</t>
+  </si>
+  <si>
+    <t>editGoodXPerson</t>
+  </si>
+  <si>
+    <t>editTaxCode</t>
+  </si>
+  <si>
+    <t>editMemc</t>
+  </si>
+  <si>
+    <t>editAddOn</t>
+  </si>
+  <si>
+    <t>editInactive</t>
+  </si>
+  <si>
+    <t>editComboMeal</t>
+  </si>
+  <si>
+    <t>Yumburger Solo</t>
+  </si>
+  <si>
+    <t>NON-INVENTORY</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>00000000001</t>
+  </si>
+  <si>
+    <t>VATABLE</t>
+  </si>
+  <si>
+    <t>1-pc. Chickenjoy</t>
+  </si>
+  <si>
+    <t>00000000002</t>
+  </si>
+  <si>
+    <t>Buko Pandan Sundae</t>
+  </si>
+  <si>
+    <t>00000000003</t>
+  </si>
+  <si>
+    <t>Iced Mocha Float</t>
+  </si>
+  <si>
+    <t>Hot Fresh Brew</t>
+  </si>
+  <si>
+    <t>00000000004</t>
+  </si>
+  <si>
+    <t>6-pcs. Chickenjoy Solo</t>
+  </si>
+  <si>
+    <t>00000000005</t>
+  </si>
+  <si>
+    <t>Ube Cheese Pie</t>
+  </si>
+  <si>
+    <t>00000000006</t>
+  </si>
+  <si>
+    <t>Extra Rice</t>
+  </si>
+  <si>
+    <t>00000000007</t>
+  </si>
+  <si>
+    <t>Creamy Macaroni Soup</t>
+  </si>
+  <si>
+    <t>00000000008</t>
+  </si>
+  <si>
+    <t>Buttered Corn</t>
+  </si>
+  <si>
+    <t>00000000009</t>
+  </si>
+  <si>
+    <t>Mini Sundaes</t>
+  </si>
+  <si>
+    <t>00000000010</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>00000000011</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>00000000012</t>
+  </si>
+  <si>
+    <t>Sarsi</t>
+  </si>
+  <si>
+    <t>00000000013</t>
+  </si>
+  <si>
+    <t>Pineapple Juice</t>
+  </si>
+  <si>
+    <t>00000000014</t>
+  </si>
+  <si>
+    <t>Iced Tea</t>
+  </si>
+  <si>
+    <t>00000000015</t>
+  </si>
+  <si>
+    <t>Jolly Spaghetti</t>
+  </si>
+  <si>
+    <t>00000000020</t>
+  </si>
+  <si>
+    <t>FSM A 6-pcs. Chickenjoy Bucket</t>
+  </si>
+  <si>
+    <t>00000000016</t>
+  </si>
+  <si>
+    <t>FSM A 8-pcs. Chickenjoy Bucket</t>
+  </si>
+  <si>
+    <t>00000000017</t>
+  </si>
+  <si>
+    <t>FSM B 6-pcs. Chickenjoy Bucket</t>
+  </si>
+  <si>
+    <t>00000000018</t>
+  </si>
+  <si>
+    <t>FSM B 8-pcs. Chickenjoy Bucket</t>
+  </si>
+  <si>
+    <t>00000000019</t>
+  </si>
+  <si>
+    <t>Delicious and crispy Chickenjoy with a side of Jolly Spaghetti and garlic rice, perfect for a fulfilling meal</t>
+  </si>
+  <si>
+    <t>00000000021</t>
+  </si>
+  <si>
+    <t>00000000022</t>
+  </si>
+  <si>
+    <t>00000000023</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>[id=":rc:"]</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save"</t>
+  </si>
+  <si>
+    <t>Cancel should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Item Class Description should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>"Save" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>"Cancel" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Add Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>dataToDelete</t>
+  </si>
+  <si>
+    <t>Jollibee Filipino Sweet Style</t>
+  </si>
+  <si>
+    <t>This is a very long string that exceeds the maximum allowed length.</t>
+  </si>
+  <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ #</t>
+  </si>
+  <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? `</t>
+  </si>
+  <si>
+    <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sa</t>
+  </si>
+  <si>
     <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>itemType</t>
-  </si>
-  <si>
-    <t>unitMeasure</t>
-  </si>
-  <si>
-    <t>unitCost</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>sellingPrice</t>
-  </si>
-  <si>
-    <t>goodXPerson</t>
-  </si>
-  <si>
-    <t>taxCode</t>
-  </si>
-  <si>
-    <t>memc</t>
-  </si>
-  <si>
-    <t>addOn</t>
-  </si>
-  <si>
-    <t>inactive</t>
-  </si>
-  <si>
-    <t>comboMeal</t>
-  </si>
-  <si>
-    <t>filterClass</t>
-  </si>
-  <si>
-    <t>filterSubClass</t>
-  </si>
-  <si>
-    <t>editItem</t>
-  </si>
-  <si>
-    <t>editItemType</t>
-  </si>
-  <si>
-    <t>editUnitMeasure</t>
-  </si>
-  <si>
-    <t>editUnitCost</t>
-  </si>
-  <si>
-    <t>editBarcode</t>
-  </si>
-  <si>
-    <t>editSellingPrice</t>
-  </si>
-  <si>
-    <t>editGoodXPerson</t>
-  </si>
-  <si>
-    <t>editTaxCode</t>
-  </si>
-  <si>
-    <t>editMemc</t>
-  </si>
-  <si>
-    <t>editAddOn</t>
-  </si>
-  <si>
-    <t>editInactive</t>
-  </si>
-  <si>
-    <t>editComboMeal</t>
-  </si>
-  <si>
-    <t>Yumburger Solo</t>
-  </si>
-  <si>
-    <t>NON-INVENTORY</t>
-  </si>
-  <si>
-    <t>PCS</t>
-  </si>
-  <si>
-    <t>00000000001</t>
-  </si>
-  <si>
-    <t>VATABLE</t>
-  </si>
-  <si>
-    <t>1-pc. Chickenjoy</t>
-  </si>
-  <si>
-    <t>00000000002</t>
-  </si>
-  <si>
-    <t>Buko Pandan Sundae</t>
-  </si>
-  <si>
-    <t>00000000003</t>
-  </si>
-  <si>
-    <t>Iced Mocha Float</t>
-  </si>
-  <si>
-    <t>Hot Fresh Brew</t>
-  </si>
-  <si>
-    <t>00000000004</t>
-  </si>
-  <si>
-    <t>6-pcs. Chickenjoy Solo</t>
-  </si>
-  <si>
-    <t>00000000005</t>
-  </si>
-  <si>
-    <t>Ube Cheese Pie</t>
-  </si>
-  <si>
-    <t>00000000006</t>
-  </si>
-  <si>
-    <t>Extra Rice</t>
-  </si>
-  <si>
-    <t>00000000007</t>
-  </si>
-  <si>
-    <t>Creamy Macaroni Soup</t>
-  </si>
-  <si>
-    <t>00000000008</t>
-  </si>
-  <si>
-    <t>Buttered Corn</t>
-  </si>
-  <si>
-    <t>00000000009</t>
-  </si>
-  <si>
-    <t>Mini Sundaes</t>
-  </si>
-  <si>
-    <t>00000000010</t>
-  </si>
-  <si>
-    <t>Coke</t>
-  </si>
-  <si>
-    <t>00000000011</t>
-  </si>
-  <si>
-    <t>Royal</t>
-  </si>
-  <si>
-    <t>00000000012</t>
-  </si>
-  <si>
-    <t>Sarsi</t>
-  </si>
-  <si>
-    <t>00000000013</t>
-  </si>
-  <si>
-    <t>Pineapple Juice</t>
-  </si>
-  <si>
-    <t>00000000014</t>
-  </si>
-  <si>
-    <t>Iced Tea</t>
-  </si>
-  <si>
-    <t>00000000015</t>
-  </si>
-  <si>
-    <t>FSM A 6-pcs: Chickenjoy Bucket (3 Rice, 3 Sides, 3 Mini Sundaes, and 3 Regular Drinks)</t>
-  </si>
-  <si>
-    <t>00000000016</t>
-  </si>
-  <si>
-    <t>FSM A 8-pcs: Chickenjoy Bucket (4 Rice, 4 Sides, 4 Mini Sundaes, and 4 Regular Drinks)</t>
-  </si>
-  <si>
-    <t>00000000017</t>
-  </si>
-  <si>
-    <t>FSM B 6-pcs: Chickenjoy Bucket (3 Jolly Spaghetti, 3 Rice, and 3 Regular Drinks)</t>
-  </si>
-  <si>
-    <t>00000000018</t>
-  </si>
-  <si>
-    <t>FSM B 8-pcs: Chickenjoy Bucket (4 Jolly Spaghetti, 4 Rice, and 4 Regular Drinks)</t>
-  </si>
-  <si>
-    <t>00000000019</t>
-  </si>
-  <si>
-    <t>Jolly Spaghetti</t>
-  </si>
-  <si>
-    <t>00000000020</t>
-  </si>
-  <si>
-    <t>Delicious and crispy Chickenjoy with a side of Jolly Spaghetti and garlic rice, perfect for a fulfilling meal</t>
-  </si>
-  <si>
-    <t>00000000021</t>
-  </si>
-  <si>
-    <t>00000000022</t>
-  </si>
-  <si>
-    <t>00000000023</t>
-  </si>
-  <si>
-    <t>!@#$%^&amp;*()</t>
-  </si>
-  <si>
-    <t>[id=":rc:"]</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save"</t>
-  </si>
-  <si>
-    <t>Cancel should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>Item Class Description should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>"Save" button should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>"Cancel" button should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save" instead of "Add Data"</t>
-  </si>
-  <si>
-    <t>Cancel button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>dataToDelete</t>
-  </si>
-  <si>
-    <t>Jollibee Filipino Sweet Style</t>
-  </si>
-  <si>
-    <t>This is a very long string that exceeds the maximum allowed length.</t>
-  </si>
-  <si>
-    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ #</t>
-  </si>
-  <si>
-    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? `</t>
-  </si>
-  <si>
-    <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sa</t>
   </si>
   <si>
     <t>WINTERHOLIDAY50PERCENTDISCOUNT</t>
@@ -4018,8 +4021,8 @@
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -4042,25 +4045,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>159</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4069,15 +4072,15 @@
         <v>160</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4109,7 +4112,7 @@
         <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4125,7 +4128,7 @@
         <v>167</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4145,16 +4148,16 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>10</v>
+      <c r="A14" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -4162,23 +4165,23 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -4203,8 +4206,8 @@
   <sheetPr/>
   <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="$A21:$XFD21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4327,7 +4330,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
         <v>200</v>
@@ -4377,7 +4380,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>200</v>
@@ -4427,7 +4430,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
         <v>200</v>
@@ -4475,7 +4478,7 @@
         <v>7</v>
       </c>
       <c r="W4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X4" t="s">
         <v>200</v>
@@ -4516,7 +4519,7 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
         <v>200</v>
@@ -4566,7 +4569,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E6" t="s">
         <v>200</v>
@@ -4616,7 +4619,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E7" t="s">
         <v>200</v>
@@ -4816,7 +4819,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
         <v>200</v>
@@ -4866,7 +4869,7 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
         <v>200</v>
@@ -4916,7 +4919,7 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
         <v>200</v>
@@ -4966,7 +4969,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E14" t="s">
         <v>200</v>
@@ -5016,7 +5019,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E15" t="s">
         <v>200</v>
@@ -5066,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E16" t="s">
         <v>200</v>
@@ -5116,7 +5119,7 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
         <v>200</v>
@@ -5128,10 +5131,10 @@
         <v>233</v>
       </c>
       <c r="H17">
-        <v>599</v>
+        <v>50</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>202</v>
@@ -5143,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
@@ -5166,7 +5169,7 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E18" t="s">
         <v>200</v>
@@ -5178,10 +5181,10 @@
         <v>235</v>
       </c>
       <c r="H18">
-        <v>799</v>
+        <v>599</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J18" t="s">
         <v>202</v>
@@ -5216,7 +5219,7 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E19" t="s">
         <v>200</v>
@@ -5228,10 +5231,10 @@
         <v>237</v>
       </c>
       <c r="H19">
-        <v>599</v>
+        <v>799</v>
       </c>
       <c r="I19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J19" t="s">
         <v>202</v>
@@ -5266,7 +5269,7 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E20" t="s">
         <v>200</v>
@@ -5278,10 +5281,10 @@
         <v>239</v>
       </c>
       <c r="H20">
-        <v>799</v>
+        <v>599</v>
       </c>
       <c r="I20">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J20" t="s">
         <v>202</v>
@@ -5316,7 +5319,7 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E21" t="s">
         <v>200</v>
@@ -5328,10 +5331,10 @@
         <v>241</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>799</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J21" t="s">
         <v>202</v>
@@ -5343,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="b">
         <v>0</v>
@@ -5366,7 +5369,7 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
         <v>200</v>
@@ -5416,7 +5419,7 @@
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E23" t="s">
         <v>200</v>
@@ -5466,7 +5469,7 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E24" t="s">
         <v>200</v>
@@ -5516,7 +5519,7 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
         <v>246</v>
@@ -6642,10 +6645,10 @@
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -6687,12 +6690,12 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -6702,7 +6705,7 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -6713,6 +6716,11 @@
     <row r="13" spans="1:1">
       <c r="A13" s="10" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6757,7 +6765,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -6765,13 +6773,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -6799,10 +6807,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -6810,7 +6818,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -6818,7 +6826,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -6826,7 +6834,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -6834,7 +6842,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -6842,10 +6850,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -6853,7 +6861,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
@@ -6861,7 +6869,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -7017,10 +7025,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7028,7 +7036,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -7036,7 +7044,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -7044,7 +7052,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -7052,7 +7060,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -7060,7 +7068,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -7068,7 +7076,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -7076,7 +7084,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -7084,10 +7092,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -7095,7 +7103,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -7103,7 +7111,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -7166,13 +7174,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7180,7 +7188,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -7192,7 +7200,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -7204,7 +7212,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -7216,7 +7224,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -7228,7 +7236,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -7240,7 +7248,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -7252,7 +7260,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -7264,10 +7272,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -7279,7 +7287,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -7290,7 +7298,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -7368,13 +7376,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7382,7 +7390,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -7393,7 +7401,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -7404,7 +7412,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -7415,7 +7423,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -7426,7 +7434,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -7437,7 +7445,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -7448,7 +7456,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -7459,10 +7467,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -7473,7 +7481,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -7484,7 +7492,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -7564,13 +7572,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
         <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
         <v>156</v>
@@ -7587,10 +7595,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -7604,10 +7612,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -7621,10 +7629,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -7638,10 +7646,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -7658,7 +7666,7 @@
         <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -7672,10 +7680,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -7689,10 +7697,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -7706,16 +7714,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -7729,10 +7737,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -7746,10 +7754,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -7766,7 +7774,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -7783,7 +7791,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -7800,7 +7808,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -7817,7 +7825,7 @@
         <v>258</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -7891,16 +7899,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -7914,10 +7922,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -7931,10 +7939,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -7948,16 +7956,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
         <v>329</v>
       </c>
-      <c r="B4" t="s">
-        <v>328</v>
-      </c>
       <c r="C4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -7971,10 +7979,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -7988,10 +7996,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -8008,7 +8016,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -8025,7 +8033,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -8042,7 +8050,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -8059,7 +8067,7 @@
         <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -8129,102 +8137,102 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="J1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" customFormat="1" spans="1:17">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I2" s="6">
         <v>5</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -8235,49 +8243,49 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I3" s="6">
         <v>5</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -8288,49 +8296,49 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>367</v>
-      </c>
       <c r="K4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="O4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -8379,7 +8387,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F2:F3 I4" numberStoredAsText="1"/>
+    <ignoredError sqref="I4 F2:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8403,15 +8411,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -8433,87 +8441,87 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" t="s">
+        <v>396</v>
+      </c>
+      <c r="F2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" t="s">
         <v>394</v>
       </c>
-      <c r="E2" t="s">
-        <v>395</v>
-      </c>
-      <c r="F2" t="s">
-        <v>266</v>
-      </c>
-      <c r="G2" t="s">
-        <v>396</v>
-      </c>
-      <c r="H2" t="s">
-        <v>397</v>
-      </c>
-      <c r="I2" t="s">
-        <v>393</v>
-      </c>
       <c r="J2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
@@ -8524,40 +8532,40 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F3" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" t="s">
         <v>364</v>
       </c>
-      <c r="F3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" t="s">
-        <v>363</v>
-      </c>
       <c r="H3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="J3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -8631,35 +8639,35 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8670,117 +8678,117 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -8851,7 +8859,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8870,35 +8878,35 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8909,106 +8917,106 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B10" t="s">
         <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -9019,7 +9027,7 @@
         <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -9154,13 +9162,13 @@
         <v>180</v>
       </c>
       <c r="B1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -9168,13 +9176,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B2">
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D2">
         <v>300</v>
@@ -9185,7 +9193,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -9196,7 +9204,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B4">
         <v>100</v>
@@ -9207,7 +9215,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B5">
         <v>200</v>
@@ -9218,7 +9226,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -9229,7 +9237,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -9240,7 +9248,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B8">
         <v>500</v>
@@ -9251,7 +9259,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B9">
         <v>600</v>
@@ -9317,58 +9325,58 @@
   <sheetData>
     <row r="1" customFormat="1" spans="1:21">
       <c r="A1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J1" t="s">
+        <v>468</v>
+      </c>
+      <c r="K1" t="s">
+        <v>469</v>
+      </c>
+      <c r="L1" t="s">
+        <v>470</v>
+      </c>
+      <c r="M1" t="s">
+        <v>471</v>
+      </c>
+      <c r="N1" t="s">
+        <v>472</v>
+      </c>
+      <c r="O1" t="s">
+        <v>473</v>
+      </c>
+      <c r="P1" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>475</v>
+      </c>
+      <c r="R1" t="s">
         <v>467</v>
-      </c>
-      <c r="K1" t="s">
-        <v>468</v>
-      </c>
-      <c r="L1" t="s">
-        <v>469</v>
-      </c>
-      <c r="M1" t="s">
-        <v>470</v>
-      </c>
-      <c r="N1" t="s">
-        <v>471</v>
-      </c>
-      <c r="O1" t="s">
-        <v>472</v>
-      </c>
-      <c r="P1" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>474</v>
-      </c>
-      <c r="R1" t="s">
-        <v>466</v>
       </c>
       <c r="S1" t="s">
         <v>3</v>
@@ -9382,31 +9390,31 @@
     </row>
     <row r="2" customFormat="1" spans="1:21">
       <c r="A2" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S2" t="b">
         <v>0</v>
@@ -9420,31 +9428,31 @@
     </row>
     <row r="3" customFormat="1" spans="1:21">
       <c r="A3" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C3" t="s">
         <v>477</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="C3" t="s">
-        <v>476</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -9458,31 +9466,31 @@
     </row>
     <row r="4" customFormat="1" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -9496,31 +9504,31 @@
     </row>
     <row r="5" customFormat="1" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -9534,31 +9542,31 @@
     </row>
     <row r="6" customFormat="1" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -9572,31 +9580,31 @@
     </row>
     <row r="7" customFormat="1" spans="1:21">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -9610,58 +9618,58 @@
     </row>
     <row r="8" customFormat="1" spans="1:21">
       <c r="A8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K8" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M8">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O8" t="s">
         <v>12</v>
       </c>
       <c r="P8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="R8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -9675,31 +9683,31 @@
     </row>
     <row r="9" customFormat="1" spans="1:21">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S9" t="b">
         <v>0</v>
@@ -9713,31 +9721,31 @@
     </row>
     <row r="10" customFormat="1" spans="1:21">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -9751,31 +9759,31 @@
     </row>
     <row r="11" customFormat="1" spans="1:21">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D11">
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -9795,25 +9803,25 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -9833,25 +9841,25 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
@@ -9868,28 +9876,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="C14" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
@@ -9903,31 +9911,31 @@
     </row>
     <row r="15" customFormat="1" spans="1:21">
       <c r="A15" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -9941,31 +9949,31 @@
     </row>
     <row r="16" customFormat="1" spans="1:21">
       <c r="A16" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
@@ -9981,7 +9989,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B15:B16 A15:A16" numberStoredAsText="1"/>
+    <ignoredError sqref="A15:A16 B15:B16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9999,16 +10007,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -10022,10 +10030,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -10039,10 +10047,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -10056,10 +10064,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
@@ -10073,16 +10081,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
@@ -10096,10 +10104,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -10116,7 +10124,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
@@ -10133,7 +10141,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -10147,10 +10155,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -10164,10 +10172,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -10203,19 +10211,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -10310,13 +10318,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>0</v>
@@ -10486,7 +10494,7 @@
         <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10505,35 +10513,35 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10544,7 +10552,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10560,44 +10568,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E11" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -10665,35 +10673,35 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10704,7 +10712,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10720,44 +10728,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -10806,7 +10814,7 @@
         <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10825,35 +10833,35 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -10864,7 +10872,7 @@
         <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10880,44 +10888,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E11" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -10939,7 +10947,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10976,16 +10984,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10996,10 +11004,10 @@
         <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11010,7 +11018,7 @@
         <v>218</v>
       </c>
       <c r="C3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D3" t="s">
         <v>214</v>
@@ -11027,7 +11035,7 @@
         <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11063,7 +11071,7 @@
         <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D7" t="s">
         <v>228</v>
@@ -11071,7 +11079,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B8" t="s">
         <v>228</v>
@@ -11079,7 +11087,7 @@
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="15" activeTab="15"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="30" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -4021,7 +4021,7 @@
   <sheetPr/>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -7160,8 +7160,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8387,7 +8387,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I4 F2:F3" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F3 I4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9989,7 +9989,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A15:A16 B15:B16" numberStoredAsText="1"/>
+    <ignoredError sqref="B15:B16 A15:A16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="30" activeTab="30"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="33" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -7160,7 +7160,7 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -8387,7 +8387,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F2:F3 I4" numberStoredAsText="1"/>
+    <ignoredError sqref="I4 F2:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9148,8 +9148,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -9298,7 +9298,7 @@
         <v>503</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9989,7 +9989,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B15:B16 A15:A16" numberStoredAsText="1"/>
+    <ignoredError sqref="A15:A16 B15:B16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="33" activeTab="39"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="28" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -6796,8 +6796,8 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -6896,7 +6896,7 @@
         <v>13</v>
       </c>
       <c r="F11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -8387,7 +8387,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I4 F2:F3" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F3 I4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9148,7 +9148,7 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -9989,7 +9989,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A15:A16 B15:B16" numberStoredAsText="1"/>
+    <ignoredError sqref="B15:B16 A15:A16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="28" activeTab="28"/>
+    <workbookView windowWidth="19635" windowHeight="7050" tabRatio="942" firstSheet="29" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -6796,7 +6796,7 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -7014,8 +7014,8 @@
   <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7138,7 +7138,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8387,7 +8387,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="F2:F3 I4" numberStoredAsText="1"/>
+    <ignoredError sqref="I4 F2:F3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9989,7 +9989,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B15:B16 A15:A16" numberStoredAsText="1"/>
+    <ignoredError sqref="A15:A16 B15:B16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7050" tabRatio="942" firstSheet="29" activeTab="29"/>
+    <workbookView windowWidth="19635" windowHeight="7050" tabRatio="942" firstSheet="29" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -7014,7 +7014,7 @@
   <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -7362,8 +7362,8 @@
   <sheetPr/>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -8387,7 +8387,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="I4 F2:F3" numberStoredAsText="1"/>
+    <ignoredError sqref="F2:F3 I4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -9989,7 +9989,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A15:A16 B15:B16" numberStoredAsText="1"/>
+    <ignoredError sqref="B15:B16 A15:A16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/cypress/fixtures/pos-otc-data.xlsx
+++ b/cypress/fixtures/pos-otc-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7050" tabRatio="942" firstSheet="29" activeTab="31"/>
+    <workbookView windowWidth="19635" windowHeight="7500" tabRatio="942" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="master-itemclass-data" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1686" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="558">
   <si>
     <t>itemClass</t>
   </si>
@@ -547,328 +547,382 @@
     <t>editItemSubclass</t>
   </si>
   <si>
+    <t>Mashed Potatoes</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Breakfast Meal</t>
+  </si>
+  <si>
+    <t>Milkshakes</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>Spaghetti</t>
+  </si>
+  <si>
+    <t>Rice Meals</t>
+  </si>
+  <si>
+    <t>Pies</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Soft Drinks</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Juices</t>
+  </si>
+  <si>
+    <t>Family Super Meals</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>itemType</t>
+  </si>
+  <si>
+    <t>unitMeasure</t>
+  </si>
+  <si>
+    <t>unitCost</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>sellingPrice</t>
+  </si>
+  <si>
+    <t>goodXPerson</t>
+  </si>
+  <si>
+    <t>taxCode</t>
+  </si>
+  <si>
+    <t>memc</t>
+  </si>
+  <si>
+    <t>addOn</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>comboMeal</t>
+  </si>
+  <si>
+    <t>filterClass</t>
+  </si>
+  <si>
+    <t>filterSubClass</t>
+  </si>
+  <si>
+    <t>editItem</t>
+  </si>
+  <si>
+    <t>editItemType</t>
+  </si>
+  <si>
+    <t>editUnitMeasure</t>
+  </si>
+  <si>
+    <t>editUnitCost</t>
+  </si>
+  <si>
+    <t>editBarcode</t>
+  </si>
+  <si>
+    <t>editSellingPrice</t>
+  </si>
+  <si>
+    <t>editGoodXPerson</t>
+  </si>
+  <si>
+    <t>editTaxCode</t>
+  </si>
+  <si>
+    <t>editMemc</t>
+  </si>
+  <si>
+    <t>editAddOn</t>
+  </si>
+  <si>
+    <t>editInactive</t>
+  </si>
+  <si>
+    <t>editComboMeal</t>
+  </si>
+  <si>
+    <t>Yumburger Solo</t>
+  </si>
+  <si>
+    <t>NON-INVENTORY</t>
+  </si>
+  <si>
+    <t>PCS</t>
+  </si>
+  <si>
+    <t>00000000001</t>
+  </si>
+  <si>
+    <t>VATABLE</t>
+  </si>
+  <si>
+    <t>1-pc Chickenjoy</t>
+  </si>
+  <si>
+    <t>00000000002</t>
+  </si>
+  <si>
+    <t>Buko Pandan Sundae</t>
+  </si>
+  <si>
+    <t>00000000003</t>
+  </si>
+  <si>
+    <t>Iced Mocha Float</t>
+  </si>
+  <si>
+    <t>Hot Fresh Brew</t>
+  </si>
+  <si>
+    <t>00000000004</t>
+  </si>
+  <si>
+    <t>6-pcs Chickenjoy Solo</t>
+  </si>
+  <si>
+    <t>00000000005</t>
+  </si>
+  <si>
+    <t>Ube Cheese Pie</t>
+  </si>
+  <si>
+    <t>00000000006</t>
+  </si>
+  <si>
+    <t>Extra Rice</t>
+  </si>
+  <si>
+    <t>00000000007</t>
+  </si>
+  <si>
+    <t>Creamy Macaroni Soup</t>
+  </si>
+  <si>
+    <t>00000000008</t>
+  </si>
+  <si>
+    <t>Buttered Corn</t>
+  </si>
+  <si>
+    <t>00000000009</t>
+  </si>
+  <si>
+    <t>Mini Sundaes</t>
+  </si>
+  <si>
+    <t>00000000010</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>00000000011</t>
+  </si>
+  <si>
+    <t>Royal</t>
+  </si>
+  <si>
+    <t>00000000012</t>
+  </si>
+  <si>
+    <t>Sarsi</t>
+  </si>
+  <si>
+    <t>00000000013</t>
+  </si>
+  <si>
+    <t>Pineapple Juice</t>
+  </si>
+  <si>
+    <t>00000000014</t>
+  </si>
+  <si>
+    <t>Iced Tea</t>
+  </si>
+  <si>
+    <t>00000000015</t>
+  </si>
+  <si>
+    <t>Jolly Spaghetti</t>
+  </si>
+  <si>
+    <t>00000000020</t>
+  </si>
+  <si>
+    <t>FSM A 6-pcs Chickenjoy Bucket</t>
+  </si>
+  <si>
+    <t>00000000016</t>
+  </si>
+  <si>
+    <t>MEMC 100 (FSM A)</t>
+  </si>
+  <si>
+    <t>FSM A 8-pcs Chickenjoy Bucket</t>
+  </si>
+  <si>
+    <t>00000000017</t>
+  </si>
+  <si>
+    <t>MEMC 200</t>
+  </si>
+  <si>
+    <t>FSM B 6-pcs Chickenjoy Bucket</t>
+  </si>
+  <si>
+    <t>00000000018</t>
+  </si>
+  <si>
+    <t>FSM B 8-pcs Chickenjoy Bucket</t>
+  </si>
+  <si>
+    <t>00000000019</t>
+  </si>
+  <si>
+    <t>Delicious and crispy Chickenjoy with a side of Jolly Spaghetti and garlic rice, perfect for a fulfilling meal</t>
+  </si>
+  <si>
+    <t>00000000021</t>
+  </si>
+  <si>
+    <t>00000000022</t>
+  </si>
+  <si>
+    <t>00000000023</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>1-pc Chicken Joy w/ Fries</t>
+  </si>
+  <si>
+    <t>1-pc Chicken Joy w/ Jolly Spaghetti</t>
+  </si>
+  <si>
+    <t>BF Hotdog</t>
+  </si>
+  <si>
+    <t>BF Breakfast Steak</t>
+  </si>
+  <si>
+    <t>BF Beef Tapa</t>
+  </si>
+  <si>
+    <t>Cheesy Classic Jolly Hotdog</t>
+  </si>
+  <si>
+    <t>2-pc Burger Steak</t>
+  </si>
+  <si>
+    <t>Amazing Aloha Yumburger</t>
+  </si>
+  <si>
+    <t>Regular Jolly Hotdog</t>
+  </si>
+  <si>
+    <t>Cheesy Yumburger</t>
+  </si>
+  <si>
+    <t>1-pc Burger Steak w/ 3pcs Shanghai</t>
+  </si>
+  <si>
+    <t>Chickenjoy Burger Steak Half Jolly Spaghetti Rice and Drink</t>
+  </si>
+  <si>
+    <t>Chickenjoy 3 pcs Shanghai Half Jolly Spaghetti Rice and Drink</t>
+  </si>
+  <si>
+    <t>Yumburger Half Jolly Spaghetti Regular Fries and Drink</t>
+  </si>
+  <si>
+    <t>[id=":rc:"]</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save"</t>
+  </si>
+  <si>
+    <t>Cancel should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Item Class Description should be enabled to allow user to input data.</t>
+  </si>
+  <si>
+    <t>"Save" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>"Cancel" button should be enabled and clickable</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Save" instead of "Add Data"</t>
+  </si>
+  <si>
+    <t>Cancel button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>Save button should contain text "Cancel"</t>
+  </si>
+  <si>
+    <t>dataToDelete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                </t>
+  </si>
+  <si>
+    <t>Jollibee Filipino Sweet Style</t>
+  </si>
+  <si>
+    <t>This is a very long string that exceeds the maximum allowed length.</t>
+  </si>
+  <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ #</t>
+  </si>
+  <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? `</t>
+  </si>
+  <si>
+    <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sa</t>
+  </si>
+  <si>
+    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
+  </si>
+  <si>
+    <t>WINTERHOLIDAY50PERCENTDISCOUNT</t>
+  </si>
+  <si>
+    <t>Delicious and crispy Chickenjoy with a side of Jolly Spaghetti and garlic rice, perfect for a fulfil</t>
+  </si>
+  <si>
     <t>©™®àáâñä¢£¥€!@#$^*_+=&lt;&gt;?`\~\"|\][];:</t>
   </si>
   <si>
-    <t>Mashed Potatoes</t>
-  </si>
-  <si>
-    <t>Snacks</t>
-  </si>
-  <si>
-    <t>Breakfast Meal</t>
-  </si>
-  <si>
-    <t>Milkshakes</t>
-  </si>
-  <si>
-    <t>Chicken</t>
-  </si>
-  <si>
-    <t>Burger</t>
-  </si>
-  <si>
-    <t>Spaghetti</t>
-  </si>
-  <si>
-    <t>Rice Meals</t>
-  </si>
-  <si>
-    <t>Pies</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Soft Drinks</t>
-  </si>
-  <si>
-    <t>Coffee</t>
-  </si>
-  <si>
-    <t>Juices</t>
-  </si>
-  <si>
-    <t>Family Super Meals</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>itemType</t>
-  </si>
-  <si>
-    <t>unitMeasure</t>
-  </si>
-  <si>
-    <t>unitCost</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>sellingPrice</t>
-  </si>
-  <si>
-    <t>goodXPerson</t>
-  </si>
-  <si>
-    <t>taxCode</t>
-  </si>
-  <si>
-    <t>memc</t>
-  </si>
-  <si>
-    <t>addOn</t>
-  </si>
-  <si>
-    <t>inactive</t>
-  </si>
-  <si>
-    <t>comboMeal</t>
-  </si>
-  <si>
-    <t>filterClass</t>
-  </si>
-  <si>
-    <t>filterSubClass</t>
-  </si>
-  <si>
-    <t>editItem</t>
-  </si>
-  <si>
-    <t>editItemType</t>
-  </si>
-  <si>
-    <t>editUnitMeasure</t>
-  </si>
-  <si>
-    <t>editUnitCost</t>
-  </si>
-  <si>
-    <t>editBarcode</t>
-  </si>
-  <si>
-    <t>editSellingPrice</t>
-  </si>
-  <si>
-    <t>editGoodXPerson</t>
-  </si>
-  <si>
-    <t>editTaxCode</t>
-  </si>
-  <si>
-    <t>editMemc</t>
-  </si>
-  <si>
-    <t>editAddOn</t>
-  </si>
-  <si>
-    <t>editInactive</t>
-  </si>
-  <si>
-    <t>editComboMeal</t>
-  </si>
-  <si>
-    <t>Yumburger Solo</t>
-  </si>
-  <si>
-    <t>NON-INVENTORY</t>
-  </si>
-  <si>
-    <t>PCS</t>
-  </si>
-  <si>
-    <t>00000000001</t>
-  </si>
-  <si>
-    <t>VATABLE</t>
-  </si>
-  <si>
-    <t>1-pc. Chickenjoy</t>
-  </si>
-  <si>
-    <t>00000000002</t>
-  </si>
-  <si>
-    <t>Buko Pandan Sundae</t>
-  </si>
-  <si>
-    <t>00000000003</t>
-  </si>
-  <si>
-    <t>Iced Mocha Float</t>
-  </si>
-  <si>
-    <t>Hot Fresh Brew</t>
-  </si>
-  <si>
-    <t>00000000004</t>
-  </si>
-  <si>
-    <t>6-pcs. Chickenjoy Solo</t>
-  </si>
-  <si>
-    <t>00000000005</t>
-  </si>
-  <si>
-    <t>Ube Cheese Pie</t>
-  </si>
-  <si>
-    <t>00000000006</t>
-  </si>
-  <si>
-    <t>Extra Rice</t>
-  </si>
-  <si>
-    <t>00000000007</t>
-  </si>
-  <si>
-    <t>Creamy Macaroni Soup</t>
-  </si>
-  <si>
-    <t>00000000008</t>
-  </si>
-  <si>
-    <t>Buttered Corn</t>
-  </si>
-  <si>
-    <t>00000000009</t>
-  </si>
-  <si>
-    <t>Mini Sundaes</t>
-  </si>
-  <si>
-    <t>00000000010</t>
-  </si>
-  <si>
-    <t>Coke</t>
-  </si>
-  <si>
-    <t>00000000011</t>
-  </si>
-  <si>
-    <t>Royal</t>
-  </si>
-  <si>
-    <t>00000000012</t>
-  </si>
-  <si>
-    <t>Sarsi</t>
-  </si>
-  <si>
-    <t>00000000013</t>
-  </si>
-  <si>
-    <t>Pineapple Juice</t>
-  </si>
-  <si>
-    <t>00000000014</t>
-  </si>
-  <si>
-    <t>Iced Tea</t>
-  </si>
-  <si>
-    <t>00000000015</t>
-  </si>
-  <si>
-    <t>Jolly Spaghetti</t>
-  </si>
-  <si>
-    <t>00000000020</t>
-  </si>
-  <si>
-    <t>FSM A 6-pcs. Chickenjoy Bucket</t>
-  </si>
-  <si>
-    <t>00000000016</t>
-  </si>
-  <si>
-    <t>FSM A 8-pcs. Chickenjoy Bucket</t>
-  </si>
-  <si>
-    <t>00000000017</t>
-  </si>
-  <si>
-    <t>FSM B 6-pcs. Chickenjoy Bucket</t>
-  </si>
-  <si>
-    <t>00000000018</t>
-  </si>
-  <si>
-    <t>FSM B 8-pcs. Chickenjoy Bucket</t>
-  </si>
-  <si>
-    <t>00000000019</t>
-  </si>
-  <si>
-    <t>Delicious and crispy Chickenjoy with a side of Jolly Spaghetti and garlic rice, perfect for a fulfilling meal</t>
-  </si>
-  <si>
-    <t>00000000021</t>
-  </si>
-  <si>
-    <t>00000000022</t>
-  </si>
-  <si>
-    <t>00000000023</t>
-  </si>
-  <si>
-    <t>!@#$%^&amp;*()</t>
-  </si>
-  <si>
-    <t>[id=":rc:"]</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save"</t>
-  </si>
-  <si>
-    <t>Cancel should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>Item Class Description should be enabled to allow user to input data.</t>
-  </si>
-  <si>
-    <t>"Save" button should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>"Cancel" button should be enabled and clickable</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Save" instead of "Add Data"</t>
-  </si>
-  <si>
-    <t>Cancel button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>Save button should contain text "Cancel"</t>
-  </si>
-  <si>
-    <t>dataToDelete</t>
-  </si>
-  <si>
-    <t>Jollibee Filipino Sweet Style</t>
-  </si>
-  <si>
-    <t>This is a very long string that exceeds the maximum allowed length.</t>
-  </si>
-  <si>
-    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ #</t>
-  </si>
-  <si>
-    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? `</t>
-  </si>
-  <si>
-    <t>Jollibee Filipino Sweet Style Spaghetti Langhap Sa</t>
-  </si>
-  <si>
-    <t>© ™ ® à á â ñ ä ¢ £ ¥ € ! @ # $ ^ * _ + = &lt; &gt; ? ` \ ~ \" | \ ] [ ] ; :</t>
-  </si>
-  <si>
-    <t>WINTERHOLIDAY50PERCENTDISCOUNT</t>
-  </si>
-  <si>
-    <t>Delicious and crispy Chickenjoy with a side of Jolly Spaghetti and garlic rice, perfect for a fulfil</t>
+    <t xml:space="preserve">% &amp; ( ) / - </t>
   </si>
   <si>
     <t>No</t>
@@ -1430,12 +1484,6 @@
   </si>
   <si>
     <t>MEMC 300</t>
-  </si>
-  <si>
-    <t>MEMC 200</t>
-  </si>
-  <si>
-    <t>MEMC 100 (FSM A)</t>
   </si>
   <si>
     <t>MEMC 200 (FSM A)</t>
@@ -4022,7 +4070,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -4047,7 +4095,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4055,13 +4103,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -4069,7 +4117,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -4077,7 +4125,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -4085,7 +4133,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -4093,7 +4141,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -4101,7 +4149,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -4109,7 +4157,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -4117,7 +4165,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -4125,7 +4173,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -4133,7 +4181,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -4141,7 +4189,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -4149,7 +4197,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -4165,7 +4213,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -4204,10 +4252,10 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4220,10 +4268,10 @@
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>172</v>
-      </c>
-      <c r="B1" t="s">
-        <v>173</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -4232,40 +4280,40 @@
         <v>155</v>
       </c>
       <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
         <v>174</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>175</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>176</v>